--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479FB5D7-EDAB-4C3B-97BB-638DD05E4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13915340-163A-4D7B-96D8-DD8B3FF5D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -630,6 +630,48 @@
   </si>
   <si>
     <t>Livraison le 02septembre</t>
+  </si>
+  <si>
+    <t>Ndeury Touré</t>
+  </si>
+  <si>
+    <t>Elhadji Niang</t>
+  </si>
+  <si>
+    <t>Mandalé Diawné</t>
+  </si>
+  <si>
+    <t>Serigne Fall</t>
+  </si>
+  <si>
+    <t>Beye &amp; frères</t>
+  </si>
+  <si>
+    <t>Tidiane Ba</t>
+  </si>
+  <si>
+    <t>Malick</t>
+  </si>
+  <si>
+    <t>Bassirou Diaw</t>
+  </si>
+  <si>
+    <t>Grand Yoff</t>
+  </si>
+  <si>
+    <t>Dame DIOP</t>
+  </si>
+  <si>
+    <t>Commande livre Aujourd'hui</t>
+  </si>
+  <si>
+    <t>Youssoupha Kane</t>
+  </si>
+  <si>
+    <t>Il connaît non produit</t>
+  </si>
+  <si>
+    <t>Moussa Sall</t>
   </si>
 </sst>
 </file>
@@ -693,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +760,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +776,10 @@
   <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -885,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P89" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:P89" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P102" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:P102" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ"/>
@@ -902,10 +953,10 @@
     <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1199,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="J82" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5170,6 +5221,586 @@
         <v>septembre</v>
       </c>
     </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="10">
+        <v>782406319</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P90" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="10">
+        <v>782406319</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P91" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="10">
+        <v>770554097</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P92" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="10">
+        <v>776135597</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P93" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="10">
+        <v>775564374</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P94" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" s="10">
+        <v>775744949</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P95" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="10">
+        <v>775711190</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P96" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="10">
+        <v>774118519</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P97" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F98" s="10">
+        <v>779890912</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P98" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" s="10">
+        <v>774216339</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="10">
+        <v>25</v>
+      </c>
+      <c r="M99" s="12">
+        <v>9750</v>
+      </c>
+      <c r="N99" s="12">
+        <v>243750</v>
+      </c>
+      <c r="O99" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P99" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="10">
+        <v>779890912</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P100" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F101" s="10">
+        <v>779204232</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P101" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F102" s="10">
+        <v>775386609</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="13" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+      <c r="P102" s="14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE17B4B-4CD5-4F3C-B517-7EB052769876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04908D-3B6E-40F8-A9A7-FFFDDA98E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="378">
   <si>
     <t>Date</t>
   </si>
@@ -1153,6 +1166,9 @@
   </si>
   <si>
     <t>Ya aussi du restant</t>
+  </si>
+  <si>
+    <t>Semaine</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1219,384 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1214,6 +1607,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8635A2-CE0D-4957-87E4-9A74426F68AC}" name="Tableau1" displayName="Tableau1" ref="A1:T111" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:T111" xr:uid="{EE8635A2-CE0D-4957-87E4-9A74426F68AC}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{989F4776-8306-4848-ADB0-7D708A60AE96}" name="Date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4FDB193D-9F39-4F40-84A0-1EC92B7891B7}" name="Prenom_Nom_RZ" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{140A8319-B7DC-456F-998D-7DA762539B3E}" name="zone" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{0A420A9B-0431-414E-9A86-B8D79565E26F}" name="secteur" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{2B40B431-D830-407F-94DB-A33AB15E83A5}" name="Nom_du_magasin" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{94E4AFE2-FE79-40AE-85E7-1B4534F71F85}" name="Telephone_Client" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{3BA6D4AA-DE73-4524-821F-1D73A7BB5333}" name="Type" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{A9450410-AA25-45B3-ABEC-8B8649FB49CD}" name="Point_de_Vente" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{8F45C5D1-4968-4D78-BA86-4177231C4069}" name="Operation" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{5CCD6703-6D47-4CE5-8580-5469D1F6CC1D}" name="Commentaire" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{11DEBA0F-DBE6-4331-A070-B5B0C3A499ED}" name="Latitude" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{8FBAAADD-88C0-469F-A5A1-AE6FFFC8B26B}" name="Longitude" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{1EB5390A-4758-4E0E-80A1-DF984D5590A0}" name="Altitude" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{7918C3D3-F54B-4F0E-AE73-2DED65121736}" name="Precision" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{9A255AAB-A336-4427-9D07-FD11211FB8EB}" name="start_geopoint" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{A5EC9131-A139-4028-A433-EFB201A6E9DA}" name="Telephone_RZ" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{8772C6F5-0612-4753-B48A-75DD29A41FBE}" name="Produit" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{3169A221-C213-405E-B3F0-7F17CA62807B}" name="Quantites" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{1446AB15-0F9D-4B64-B62B-927584229A9B}" name="Prix_Unitaire" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{A8F1F27D-F2A1-44A9-AD3C-0FEBB35E5EF3}" name="Semaine" dataDxfId="0">
+      <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,9 +1957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1544,7 +1970,7 @@
     <col min="3" max="3" width="17.1328125" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" customWidth="1"/>
     <col min="5" max="5" width="26.9296875" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
     <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="21.796875" customWidth="1"/>
     <col min="9" max="9" width="12.46484375" customWidth="1"/>
@@ -1552,15 +1978,15 @@
     <col min="11" max="11" width="12.73046875" customWidth="1"/>
     <col min="12" max="12" width="13.46484375" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.86328125" customWidth="1"/>
+    <col min="14" max="14" width="10.1328125" customWidth="1"/>
     <col min="15" max="15" width="55.06640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1328125" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" customWidth="1"/>
     <col min="17" max="17" width="33.86328125" customWidth="1"/>
-    <col min="18" max="18" width="4.796875" customWidth="1"/>
-    <col min="19" max="19" width="7.19921875" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
+    <col min="19" max="19" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +2044,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T1" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45908</v>
       </c>
@@ -1671,8 +2100,12 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45908</v>
       </c>
@@ -1714,8 +2147,12 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T3" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45908</v>
       </c>
@@ -1757,8 +2194,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T4" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45908</v>
       </c>
@@ -1810,8 +2251,12 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T5" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45908</v>
       </c>
@@ -1863,8 +2308,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T6" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45908</v>
       </c>
@@ -1916,8 +2365,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T7" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45908</v>
       </c>
@@ -1969,8 +2422,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T8" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45908</v>
       </c>
@@ -2022,8 +2479,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T9" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45908</v>
       </c>
@@ -2065,8 +2526,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T10" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45908</v>
       </c>
@@ -2118,8 +2583,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T11" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45908</v>
       </c>
@@ -2161,8 +2630,12 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T12" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45908</v>
       </c>
@@ -2214,8 +2687,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T13" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45908</v>
       </c>
@@ -2257,8 +2734,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T14" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45908</v>
       </c>
@@ -2310,8 +2791,12 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T15" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45908</v>
       </c>
@@ -2363,8 +2848,12 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45908</v>
       </c>
@@ -2412,8 +2901,12 @@
       <c r="S17" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45908</v>
       </c>
@@ -2461,8 +2954,12 @@
       <c r="S18" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45908</v>
       </c>
@@ -2510,8 +3007,12 @@
       <c r="S19" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45908</v>
       </c>
@@ -2563,8 +3064,12 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T20" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45908</v>
       </c>
@@ -2622,8 +3127,12 @@
       <c r="S21" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T21" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45908</v>
       </c>
@@ -2675,8 +3184,12 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T22" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45908</v>
       </c>
@@ -2728,8 +3241,12 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T23" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45908</v>
       </c>
@@ -2781,8 +3298,12 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T24" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45908</v>
       </c>
@@ -2834,8 +3355,12 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T25" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45908</v>
       </c>
@@ -2893,8 +3418,12 @@
       <c r="S26" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T26" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45908</v>
       </c>
@@ -2946,8 +3475,12 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T27" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45907</v>
       </c>
@@ -2995,8 +3528,12 @@
       <c r="S28" s="1">
         <v>33500</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T28" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45907</v>
       </c>
@@ -3044,8 +3581,12 @@
       <c r="S29" s="1">
         <v>33500</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T29" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45908</v>
       </c>
@@ -3093,8 +3634,12 @@
       <c r="S30" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T30" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45908</v>
       </c>
@@ -3142,8 +3687,12 @@
       <c r="S31" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T31" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45908</v>
       </c>
@@ -3191,8 +3740,12 @@
       <c r="S32" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T32" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45908</v>
       </c>
@@ -3240,8 +3793,12 @@
       <c r="S33" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T33" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45908</v>
       </c>
@@ -3283,8 +3840,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T34" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>45908</v>
       </c>
@@ -3326,8 +3887,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T35" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>45908</v>
       </c>
@@ -3379,8 +3944,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T36" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>45908</v>
       </c>
@@ -3438,8 +4007,12 @@
       <c r="S37" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T37" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>45908</v>
       </c>
@@ -3497,8 +4070,12 @@
       <c r="S38" s="1">
         <v>31000</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T38" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>45908</v>
       </c>
@@ -3556,8 +4133,12 @@
       <c r="S39" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T39" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>45908</v>
       </c>
@@ -3615,8 +4196,12 @@
       <c r="S40" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T40" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>45908</v>
       </c>
@@ -3674,8 +4259,12 @@
       <c r="S41" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T41" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>45908</v>
       </c>
@@ -3727,8 +4316,12 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T42" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>45908</v>
       </c>
@@ -3780,8 +4373,12 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T43" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>45908</v>
       </c>
@@ -3833,8 +4430,12 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T44" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>45908</v>
       </c>
@@ -3892,8 +4493,12 @@
       <c r="S45" s="1">
         <v>12250</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T45" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45908</v>
       </c>
@@ -3951,8 +4556,12 @@
       <c r="S46" s="1">
         <v>12250</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T46" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45908</v>
       </c>
@@ -4004,8 +4613,12 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T47" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>45908</v>
       </c>
@@ -4057,8 +4670,12 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T48" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45908</v>
       </c>
@@ -4110,8 +4727,12 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T49" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>45908</v>
       </c>
@@ -4163,8 +4784,12 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T50" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>45908</v>
       </c>
@@ -4216,8 +4841,12 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T51" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>45908</v>
       </c>
@@ -4269,8 +4898,12 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T52" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>45908</v>
       </c>
@@ -4312,8 +4945,12 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T53" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>45908</v>
       </c>
@@ -4355,8 +4992,12 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T54" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>45908</v>
       </c>
@@ -4398,8 +5039,12 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T55" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>45908</v>
       </c>
@@ -4441,8 +5086,12 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T56" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>45908</v>
       </c>
@@ -4484,8 +5133,12 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T57" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>45908</v>
       </c>
@@ -4527,8 +5180,12 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T58" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>45908</v>
       </c>
@@ -4576,8 +5233,12 @@
       <c r="S59" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T59" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>45908</v>
       </c>
@@ -4619,8 +5280,12 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T60" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>45908</v>
       </c>
@@ -4662,8 +5327,12 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T61" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>45908</v>
       </c>
@@ -4711,8 +5380,12 @@
       <c r="S62" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T62" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>45908</v>
       </c>
@@ -4754,8 +5427,12 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T63" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>45908</v>
       </c>
@@ -4797,8 +5474,12 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T64" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>45908</v>
       </c>
@@ -4840,8 +5521,12 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T65" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>45908</v>
       </c>
@@ -4883,8 +5568,12 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T66" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>45908</v>
       </c>
@@ -4926,8 +5615,12 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T67" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>45908</v>
       </c>
@@ -4969,8 +5662,12 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T68" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>45908</v>
       </c>
@@ -5012,8 +5709,12 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T69" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>45908</v>
       </c>
@@ -5061,8 +5762,12 @@
       <c r="S70" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T70" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>45908</v>
       </c>
@@ -5104,8 +5809,12 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T71" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>45908</v>
       </c>
@@ -5147,8 +5856,12 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T72" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>45908</v>
       </c>
@@ -5190,8 +5903,12 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T73" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>45908</v>
       </c>
@@ -5233,8 +5950,12 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T74" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>45908</v>
       </c>
@@ -5276,8 +5997,12 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T75" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>45908</v>
       </c>
@@ -5319,8 +6044,12 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T76" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>45908</v>
       </c>
@@ -5362,8 +6091,12 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T77" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>45908</v>
       </c>
@@ -5411,8 +6144,12 @@
       <c r="S78" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T78" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>45908</v>
       </c>
@@ -5460,8 +6197,12 @@
       <c r="S79" s="1">
         <v>9750</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T79" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>45908</v>
       </c>
@@ -5503,8 +6244,12 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T80" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>45908</v>
       </c>
@@ -5546,8 +6291,12 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T81" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>45908</v>
       </c>
@@ -5595,8 +6344,12 @@
       <c r="S82" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T82" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>45908</v>
       </c>
@@ -5644,8 +6397,12 @@
       <c r="S83" s="1">
         <v>9750</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T83" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>45908</v>
       </c>
@@ -5687,8 +6444,12 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T84" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>45908</v>
       </c>
@@ -5730,8 +6491,12 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T85" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>45908</v>
       </c>
@@ -5773,8 +6538,12 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T86" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>45908</v>
       </c>
@@ -5816,8 +6585,12 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T87" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>45908</v>
       </c>
@@ -5865,8 +6638,12 @@
       <c r="S88" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T88" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>45908</v>
       </c>
@@ -5914,8 +6691,12 @@
       <c r="S89" s="1">
         <v>9750</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T89" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>45908</v>
       </c>
@@ -5963,8 +6744,12 @@
       <c r="S90" s="1">
         <v>19500</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T90" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>45908</v>
       </c>
@@ -6012,8 +6797,12 @@
       <c r="S91" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T91" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>45908</v>
       </c>
@@ -6061,8 +6850,12 @@
       <c r="S92" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T92" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>45908</v>
       </c>
@@ -6104,8 +6897,12 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T93" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>45908</v>
       </c>
@@ -6147,8 +6944,12 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T94" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>45908</v>
       </c>
@@ -6190,8 +6991,12 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T95" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>45908</v>
       </c>
@@ -6233,8 +7038,12 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T96" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>45908</v>
       </c>
@@ -6276,8 +7085,12 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T97" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>45908</v>
       </c>
@@ -6319,8 +7132,12 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T98" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>45908</v>
       </c>
@@ -6362,8 +7179,12 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T99" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>45908</v>
       </c>
@@ -6405,8 +7226,12 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T100" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>45908</v>
       </c>
@@ -6454,8 +7279,12 @@
       <c r="S101" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T101" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>45908</v>
       </c>
@@ -6497,8 +7326,12 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T102" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>45908</v>
       </c>
@@ -6540,8 +7373,12 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T103" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>45908</v>
       </c>
@@ -6583,8 +7420,12 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T104" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>45908</v>
       </c>
@@ -6632,8 +7473,12 @@
       <c r="S105" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T105" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>45908</v>
       </c>
@@ -6675,8 +7520,12 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T106" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>45908</v>
       </c>
@@ -6724,8 +7573,12 @@
       <c r="S107" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T107" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>45908</v>
       </c>
@@ -6773,8 +7626,12 @@
       <c r="S108" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T108" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>45907</v>
       </c>
@@ -6832,8 +7689,12 @@
       <c r="S109" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T109" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>45908</v>
       </c>
@@ -6875,8 +7736,12 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T110" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>45908</v>
       </c>
@@ -6918,8 +7783,15 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
+      <c r="T111" s="1" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Tableau1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D305587-FC42-4075-ADA8-359DF5435B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB966CF-9D6F-409C-9A5A-733BED6298C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -692,12 +692,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lait 18g acheter et livré </t>
-  </si>
-  <si>
-    <t>Alssane Ba</t>
-  </si>
-  <si>
-    <t>Livraison du lait 18g</t>
   </si>
   <si>
     <t>Moustapha  Daow</t>
@@ -1071,8 +1065,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P110" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P110" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P108" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P108" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="12"/>
@@ -1387,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6589,7 +6583,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
       <c r="A107" s="11">
         <v>45908</v>
       </c>
@@ -6603,35 +6597,29 @@
         <v>217</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="F107" s="12">
-        <v>774714304</v>
+        <v>775467226</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L107" s="12">
-        <v>300</v>
-      </c>
-      <c r="M107" s="12">
-        <v>7500</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
       <c r="N107" s="12">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="O107" s="8" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -6656,135 +6644,35 @@
         <v>217</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F108" s="12">
-        <v>781706851</v>
+        <v>776194079</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="K108" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L108" s="12">
-        <v>300</v>
-      </c>
-      <c r="M108" s="12">
-        <v>7500</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
       <c r="N108" s="12">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>2250000</v>
+        <v>0</v>
       </c>
       <c r="O108" s="8" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S37</v>
       </c>
       <c r="P108" s="10" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>septembre</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A109" s="11">
-        <v>45908</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F109" s="12">
-        <v>775467226</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O109" s="8" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P109" s="10" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>septembre</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A110" s="11">
-        <v>45908</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F110" s="12">
-        <v>776194079</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J110" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O110" s="8" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P110" s="10" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99AF0CE-4A46-4519-9532-869D24CB96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68549525-533D-4617-87C6-606BEFBB0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="362">
   <si>
     <t>Date</t>
   </si>
@@ -698,6 +698,431 @@
   </si>
   <si>
     <t>Ya aussi du restant</t>
+  </si>
+  <si>
+    <t>Terminus 54</t>
+  </si>
+  <si>
+    <t>Bouba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron n'était pas présent </t>
+  </si>
+  <si>
+    <t>Grand Dakar</t>
+  </si>
+  <si>
+    <t>Aladji</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock café 200g et stick refraish</t>
+  </si>
+  <si>
+    <t>NDioguou</t>
+  </si>
+  <si>
+    <t>N'a pas encore commencé à vendre nos produits</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Il veut essayer demi carton altimo 100g</t>
+  </si>
+  <si>
+    <t>Amadou</t>
+  </si>
+  <si>
+    <t>Diey</t>
+  </si>
+  <si>
+    <t>Abdourahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a le café refraich stick 50 cartons livré par Diarra </t>
+  </si>
+  <si>
+    <t>Pape Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il veut essayer nos produits </t>
+  </si>
+  <si>
+    <t>Adama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiam et frère 775676695 il a le café refraich 50g et 200 g mais dit que c'est lent pour l'écoulement </t>
+  </si>
+  <si>
+    <t>Ba et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il que pour le lait 10et5 kilo c' est chairs </t>
+  </si>
+  <si>
+    <t>Ibrahima Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775992091 Sylla il a le café refraich stick et pour les autres produits il n'a pas commencé à vendre </t>
+  </si>
+  <si>
+    <t>Balla Seye</t>
+  </si>
+  <si>
+    <t>Clients partenaires il lui reste 18 cartons stick et les pourcentages de jus lido</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est le même Balla Seye </t>
+  </si>
+  <si>
+    <t>Idrissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est Modou Dia qui lui livre les produits </t>
+  </si>
+  <si>
+    <t>Baye Zale</t>
+  </si>
+  <si>
+    <t>Thierno Barry Alimentation il a le café Altimo stick et dit de repasser 761517271</t>
+  </si>
+  <si>
+    <t>Guèye et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est Balla qui lui livre nos produits et il lui reste 02 cartons refraich stick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est le même place que Guèye et frère </t>
+  </si>
+  <si>
+    <t>Ousmane Dramé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est le patron de Bouba </t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas présent.revenir une autre fois</t>
+  </si>
+  <si>
+    <t>Babacar Thiam</t>
+  </si>
+  <si>
+    <t>Il avait arrêté de vendre le janus parce que la rotation était trop lente chez lui.mais il a promis de revenir</t>
+  </si>
+  <si>
+    <t>Superette</t>
+  </si>
+  <si>
+    <t>Il  veut essayer le Janus pot altimo 100g.il va me rappeler</t>
+  </si>
+  <si>
+    <t>Wane</t>
+  </si>
+  <si>
+    <t>Pikine Sandika</t>
+  </si>
+  <si>
+    <t>Aliou Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commande et livraison jeudi </t>
+  </si>
+  <si>
+    <t>Médina</t>
+  </si>
+  <si>
+    <t>Codou Mme Cissokho</t>
+  </si>
+  <si>
+    <t>Elle attend la commande des partenairee et va me rappeler</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Son stock est épuisé depuis longtemps mais il n'a pas d'argent.c'est crédit qui l'argent</t>
+  </si>
+  <si>
+    <t>Malick</t>
+  </si>
+  <si>
+    <t>Il veut 2 cartons janus 200g</t>
+  </si>
+  <si>
+    <t>Diop et Frères</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock janus 200g</t>
+  </si>
+  <si>
+    <t>Djibril Ngom</t>
+  </si>
+  <si>
+    <t>Il est intéressé par les sacs de 5kg,10kg ,25kg.mais les prix sont trop chers pour lui.il demande de l'informer si les prix sont baissés</t>
+  </si>
+  <si>
+    <t>Saliou</t>
+  </si>
+  <si>
+    <t>Il veut 1carton 200g</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas présent.son gérant dit qu'il lui reste du stock</t>
+  </si>
+  <si>
+    <t>Youssouf</t>
+  </si>
+  <si>
+    <t>Il veut essayer 1carton altimo 100g et 1carton 50g</t>
+  </si>
+  <si>
+    <t>Modou Kane</t>
+  </si>
+  <si>
+    <t>.Le patron n'était pas présent.
+Il lui reste du stock janus pot 200g et stick</t>
+  </si>
+  <si>
+    <t>Serigne Modou</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas présent.mais la gérante dit qu'il leur reste du stock.revenir un autre jour</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock 4cartons janus pot 200g.
+Va me rappeler quand ce sera fini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livraison jeudi </t>
+  </si>
+  <si>
+    <t>Ismiala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1carton stick janus noir mais après il va commander des cartons pour un autre jour </t>
+  </si>
+  <si>
+    <t>Bassoum khamza</t>
+  </si>
+  <si>
+    <t>Khalifa</t>
+  </si>
+  <si>
+    <t>Le patron qui passe les n'était pas présent</t>
+  </si>
+  <si>
+    <t>Medoune</t>
+  </si>
+  <si>
+    <t>Il on change de responsable maintenance c' est Mafall le nouveau gérant 776289587</t>
+  </si>
+  <si>
+    <t>BABACAR Cissé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a perdu mon numéro et il a commender 5 cartons avec les promoteurs </t>
+  </si>
+  <si>
+    <t>Serigne Fall</t>
+  </si>
+  <si>
+    <t>Rufisque</t>
+  </si>
+  <si>
+    <t>Mouhamed Diallo</t>
+  </si>
+  <si>
+    <t>Il dit de l'appeler le vendredi pour voir</t>
+  </si>
+  <si>
+    <t>Lamine Seye</t>
+  </si>
+  <si>
+    <t>Il demande si le pot 50g refraish n'est pas encore diminué</t>
+  </si>
+  <si>
+    <t>Ndiaye Fall</t>
+  </si>
+  <si>
+    <t>Il avait commandé depuis mais pas encore livré</t>
+  </si>
+  <si>
+    <t>Serigne Saliou Gaye</t>
+  </si>
+  <si>
+    <t>Il attend toujours sa commande</t>
+  </si>
+  <si>
+    <t>Djily</t>
+  </si>
+  <si>
+    <t>Il a était livré hier</t>
+  </si>
+  <si>
+    <t>Cheikh Bara</t>
+  </si>
+  <si>
+    <t>Ce numéro appartient à Cheikh Bara il avait commandé depuis le café</t>
+  </si>
+  <si>
+    <t>Omar Fall</t>
+  </si>
+  <si>
+    <t>Il a toujours les produits livré par Bocar</t>
+  </si>
+  <si>
+    <t>Ousseynou</t>
+  </si>
+  <si>
+    <t>Il a acheté  le royale café</t>
+  </si>
+  <si>
+    <t>Ndiaye &amp; Frère</t>
+  </si>
+  <si>
+    <t>Il lui reste de stock livré par Bocar</t>
+  </si>
+  <si>
+    <t>Mballo Séye</t>
+  </si>
+  <si>
+    <t>Il a le produits livré par Ndiaye mais par rapport les pots il préfère le ginny</t>
+  </si>
+  <si>
+    <t>Sakina Distribution</t>
+  </si>
+  <si>
+    <t>Ben Tally</t>
+  </si>
+  <si>
+    <t>Modou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On va essayer </t>
+  </si>
+  <si>
+    <t>Seydou Baldé</t>
+  </si>
+  <si>
+    <t>Ik achète le café royal à présent</t>
+  </si>
+  <si>
+    <t>TAPAHA GAYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste du stick Refraish en quantité indéterminée mais dis qu'il va passer commande la semaine prochaine </t>
+  </si>
+  <si>
+    <t>OUSMANE BA</t>
+  </si>
+  <si>
+    <t>PAPE LAHATE THIAM</t>
+  </si>
+  <si>
+    <t>C'est un nouveau point de vente mais dis qu'il va bientot essayer les produits</t>
+  </si>
+  <si>
+    <t>ABDALAYE DIALLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste tout nos variété de café mais dis que c'est les pots 200g Refraish qui partent le plus </t>
+  </si>
+  <si>
+    <t>THIERNO GUISSE</t>
+  </si>
+  <si>
+    <t>Il lui reste 3 cartons café stick Refraish du café pot 100g et 200g en quantité indéterminée</t>
+  </si>
+  <si>
+    <t>MAGUONÉ NIANG</t>
+  </si>
+  <si>
+    <t>Se plaind de sa commande non livrée sa retarde ses livraison et il a plus de 200 cartons en attente</t>
+  </si>
+  <si>
+    <t>MAMADOU SALIOU DIALLO</t>
+  </si>
+  <si>
+    <t>Il achetait du café stick Refraish chez mon client partenaire Matar lY et depuis il n'arrive plus a en avoir vu que Matar a fini ses stocks</t>
+  </si>
+  <si>
+    <t>Famara</t>
+  </si>
+  <si>
+    <t>Il dit qu'il a du mal à terminerle pot 50g refraish il en reste toujour</t>
+  </si>
+  <si>
+    <t>Serigne khadim Ndiaye</t>
+  </si>
+  <si>
+    <t>Il a dit qu’ on doit diminuer nos prix</t>
+  </si>
+  <si>
+    <t>Zakaria</t>
+  </si>
+  <si>
+    <t>Grand Boutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On va essayer avec un carton </t>
+  </si>
+  <si>
+    <t>Beye &amp; frères</t>
+  </si>
+  <si>
+    <t>Mbacké Sarr</t>
+  </si>
+  <si>
+    <t>Baba Ndiaye</t>
+  </si>
+  <si>
+    <t>Ndeury Touré</t>
+  </si>
+  <si>
+    <t>Baye Modou</t>
+  </si>
+  <si>
+    <t>Oumar Diallo</t>
+  </si>
+  <si>
+    <t>Mame cheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il reste un peu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la prochaine fois </t>
+  </si>
+  <si>
+    <t>El Hadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On va essayer de faire un </t>
+  </si>
+  <si>
+    <t>18safar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les prix sont bons on va voir </t>
+  </si>
+  <si>
+    <t>Ablay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ne connaît pas le produit mais il va voir </t>
+  </si>
+  <si>
+    <t>Fallou</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -794,31 +1219,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
         <name val="TIMES"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1055,8 +1493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P107" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P107" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P197" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P197" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1071,13 +1509,13 @@
     <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="5"/>
     <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="0">
       <calculatedColumnFormula>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="2">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="1">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1371,10 +1809,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1480,7 +1918,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10">
+      <c r="N2" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1527,7 +1965,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10">
+      <c r="N3" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1574,7 +2012,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="10">
+      <c r="N4" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1621,7 +2059,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10">
+      <c r="N5" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1668,7 +2106,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10">
+      <c r="N6" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1715,7 +2153,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10">
+      <c r="N7" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1762,7 +2200,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10">
+      <c r="N8" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1809,7 +2247,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10">
+      <c r="N9" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1856,7 +2294,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10">
+      <c r="N10" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1903,7 +2341,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10">
+      <c r="N11" s="18">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1950,7 +2388,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10">
+      <c r="N12" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -1997,7 +2435,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="10">
+      <c r="N13" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2044,7 +2482,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="10">
+      <c r="N14" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2091,7 +2529,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="10">
+      <c r="N15" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2138,7 +2576,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="10">
+      <c r="N16" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2191,7 +2629,7 @@
       <c r="M17" s="10">
         <v>26000</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>1300000</v>
       </c>
@@ -2244,7 +2682,7 @@
       <c r="M18" s="10">
         <v>19500</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>975000</v>
       </c>
@@ -2297,7 +2735,7 @@
       <c r="M19" s="10">
         <v>26000</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -2344,7 +2782,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="10">
+      <c r="N20" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2397,7 +2835,7 @@
       <c r="M21" s="10">
         <v>26000</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -2444,7 +2882,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="10">
+      <c r="N22" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2491,7 +2929,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="10">
+      <c r="N23" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2538,7 +2976,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="10">
+      <c r="N24" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2585,7 +3023,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="10">
+      <c r="N25" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2638,7 +3076,7 @@
       <c r="M26" s="10">
         <v>26000</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>260000</v>
       </c>
@@ -2685,7 +3123,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="10">
+      <c r="N27" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -2738,7 +3176,7 @@
       <c r="M28" s="10">
         <v>33500</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>33500</v>
       </c>
@@ -2791,7 +3229,7 @@
       <c r="M29" s="10">
         <v>19500</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>39000</v>
       </c>
@@ -2844,7 +3282,7 @@
       <c r="M30" s="10">
         <v>19500</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>39000</v>
       </c>
@@ -2897,7 +3335,7 @@
       <c r="M31" s="10">
         <v>19500</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>39000</v>
       </c>
@@ -2950,7 +3388,7 @@
       <c r="M32" s="10">
         <v>19500</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>39000</v>
       </c>
@@ -2997,7 +3435,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10">
+      <c r="N33" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3044,7 +3482,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10">
+      <c r="N34" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3091,7 +3529,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10">
+      <c r="N35" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3144,7 +3582,7 @@
       <c r="M36" s="10">
         <v>26000</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>26000</v>
       </c>
@@ -3197,7 +3635,7 @@
       <c r="M37" s="10">
         <v>31000</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>31000</v>
       </c>
@@ -3250,7 +3688,7 @@
       <c r="M38" s="10">
         <v>26000</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>26000</v>
       </c>
@@ -3303,7 +3741,7 @@
       <c r="M39" s="10">
         <v>26000</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>26000</v>
       </c>
@@ -3356,7 +3794,7 @@
       <c r="M40" s="10">
         <v>26000</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>26000</v>
       </c>
@@ -3403,7 +3841,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="10">
+      <c r="N41" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3450,7 +3888,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="10">
+      <c r="N42" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3497,7 +3935,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10">
+      <c r="N43" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3550,7 +3988,7 @@
       <c r="M44" s="10">
         <v>12250</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>12250</v>
       </c>
@@ -3603,7 +4041,7 @@
       <c r="M45" s="10">
         <v>12250</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>12250</v>
       </c>
@@ -3650,7 +4088,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="10">
+      <c r="N46" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3697,7 +4135,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10">
+      <c r="N47" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3744,7 +4182,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10">
+      <c r="N48" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3791,7 +4229,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="10">
+      <c r="N49" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3838,7 +4276,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="10">
+      <c r="N50" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3885,7 +4323,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="10">
+      <c r="N51" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3932,7 +4370,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="10">
+      <c r="N52" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -3979,7 +4417,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="10">
+      <c r="N53" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4026,7 +4464,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="10">
+      <c r="N54" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4073,7 +4511,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="10">
+      <c r="N55" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4120,7 +4558,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="10">
+      <c r="N56" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4167,7 +4605,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="10">
+      <c r="N57" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4220,7 +4658,7 @@
       <c r="M58" s="10">
         <v>26000</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>2600000</v>
       </c>
@@ -4267,7 +4705,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="10">
+      <c r="N59" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4314,7 +4752,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="10">
+      <c r="N60" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4367,7 +4805,7 @@
       <c r="M61" s="10">
         <v>26000</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N61" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -4414,7 +4852,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
-      <c r="N62" s="10">
+      <c r="N62" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4461,7 +4899,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
-      <c r="N63" s="10">
+      <c r="N63" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4508,7 +4946,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
-      <c r="N64" s="10">
+      <c r="N64" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4555,7 +4993,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
-      <c r="N65" s="10">
+      <c r="N65" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4602,7 +5040,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
-      <c r="N66" s="10">
+      <c r="N66" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4649,7 +5087,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
-      <c r="N67" s="10">
+      <c r="N67" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4696,7 +5134,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
-      <c r="N68" s="10">
+      <c r="N68" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4749,7 +5187,7 @@
       <c r="M69" s="10">
         <v>26000</v>
       </c>
-      <c r="N69" s="10">
+      <c r="N69" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>130000</v>
       </c>
@@ -4796,7 +5234,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
-      <c r="N70" s="10">
+      <c r="N70" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4843,7 +5281,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
-      <c r="N71" s="10">
+      <c r="N71" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4890,7 +5328,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
-      <c r="N72" s="10">
+      <c r="N72" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4937,7 +5375,7 @@
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
-      <c r="N73" s="10">
+      <c r="N73" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -4984,7 +5422,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
-      <c r="N74" s="10">
+      <c r="N74" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5031,7 +5469,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
-      <c r="N75" s="10">
+      <c r="N75" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5078,7 +5516,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
-      <c r="N76" s="10">
+      <c r="N76" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5131,7 +5569,7 @@
       <c r="M77" s="10">
         <v>26000</v>
       </c>
-      <c r="N77" s="10">
+      <c r="N77" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -5184,7 +5622,7 @@
       <c r="M78" s="10">
         <v>9750</v>
       </c>
-      <c r="N78" s="10">
+      <c r="N78" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>243750</v>
       </c>
@@ -5231,7 +5669,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
-      <c r="N79" s="10">
+      <c r="N79" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5278,7 +5716,7 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="10">
+      <c r="N80" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5331,7 +5769,7 @@
       <c r="M81" s="10">
         <v>26000</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N81" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>1300000</v>
       </c>
@@ -5384,7 +5822,7 @@
       <c r="M82" s="10">
         <v>9750</v>
       </c>
-      <c r="N82" s="10">
+      <c r="N82" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>243750</v>
       </c>
@@ -5431,7 +5869,7 @@
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
-      <c r="N83" s="10">
+      <c r="N83" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5478,7 +5916,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="10">
+      <c r="N84" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5525,7 +5963,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="10">
+      <c r="N85" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5572,7 +6010,7 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
-      <c r="N86" s="10">
+      <c r="N86" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5625,7 +6063,7 @@
       <c r="M87" s="10">
         <v>26000</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N87" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>2600000</v>
       </c>
@@ -5678,7 +6116,7 @@
       <c r="M88" s="10">
         <v>9750</v>
       </c>
-      <c r="N88" s="10">
+      <c r="N88" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>243750</v>
       </c>
@@ -5731,7 +6169,7 @@
       <c r="M89" s="10">
         <v>19500</v>
       </c>
-      <c r="N89" s="10">
+      <c r="N89" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>487500</v>
       </c>
@@ -5784,7 +6222,7 @@
       <c r="M90" s="10">
         <v>26000</v>
       </c>
-      <c r="N90" s="10">
+      <c r="N90" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -5837,7 +6275,7 @@
       <c r="M91" s="10">
         <v>26000</v>
       </c>
-      <c r="N91" s="10">
+      <c r="N91" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>130000</v>
       </c>
@@ -5884,7 +6322,7 @@
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
-      <c r="N92" s="10">
+      <c r="N92" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5931,7 +6369,7 @@
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
-      <c r="N93" s="10">
+      <c r="N93" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -5978,7 +6416,7 @@
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
-      <c r="N94" s="10">
+      <c r="N94" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6025,7 +6463,7 @@
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
-      <c r="N95" s="10">
+      <c r="N95" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6072,7 +6510,7 @@
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
-      <c r="N96" s="10">
+      <c r="N96" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6119,7 +6557,7 @@
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="10">
+      <c r="N97" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6166,7 +6604,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="10">
+      <c r="N98" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6213,7 +6651,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="10">
+      <c r="N99" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6266,7 +6704,7 @@
       <c r="M100" s="10">
         <v>26000</v>
       </c>
-      <c r="N100" s="10">
+      <c r="N100" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>650000</v>
       </c>
@@ -6313,7 +6751,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="10">
+      <c r="N101" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6360,7 +6798,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
-      <c r="N102" s="10">
+      <c r="N102" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6407,7 +6845,7 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
-      <c r="N103" s="10">
+      <c r="N103" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6460,7 +6898,7 @@
       <c r="M104" s="10">
         <v>26000</v>
       </c>
-      <c r="N104" s="10">
+      <c r="N104" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>260000</v>
       </c>
@@ -6507,7 +6945,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
-      <c r="N105" s="10">
+      <c r="N105" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6554,7 +6992,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
-      <c r="N106" s="10">
+      <c r="N106" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6601,7 +7039,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
-      <c r="N107" s="10">
+      <c r="N107" s="17">
         <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>0</v>
       </c>
@@ -6610,6 +7048,4306 @@
         <v>S37</v>
       </c>
       <c r="P107" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A108" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="12">
+        <v>775413433</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O108" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P108" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="12">
+        <v>772377240</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P109" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" s="12">
+        <v>776562950</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O110" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P110" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A111" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="12">
+        <v>338243115</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P111" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A112" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="12">
+        <v>705098872</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O112" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P112" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="12">
+        <v>779281016</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P113" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A114" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="12">
+        <v>775597258</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P114" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A115" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" s="12">
+        <v>771701320</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O115" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P115" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A116" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F116" s="12">
+        <v>707912540</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O116" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P116" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A117" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="12">
+        <v>770601842</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" s="12">
+        <v>25</v>
+      </c>
+      <c r="M117" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N117" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O117" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P117" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A118" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F118" s="12">
+        <v>779856350</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O118" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P118" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A119" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F119" s="12">
+        <v>771816838</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" s="12">
+        <v>25</v>
+      </c>
+      <c r="M119" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N119" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O119" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P119" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A120" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F120" s="12">
+        <v>778317991</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P120" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A121" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F121" s="12">
+        <v>776148166</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O121" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P121" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A122" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F122" s="12">
+        <v>776175166</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P122" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A123" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F123" s="12">
+        <v>779865100</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O123" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P123" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A124" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F124" s="12">
+        <v>774462619</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P124" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A125" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F125" s="12">
+        <v>777696179</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O125" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P125" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A126" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" s="12">
+        <v>779856350</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O126" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P126" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A127" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F127" s="12">
+        <v>776587422</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P127" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A128" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" s="12">
+        <v>779414699</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P128" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A129" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" s="12">
+        <v>779509819</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P129" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A130" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" s="12">
+        <v>770589198</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P130" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A131" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="12">
+        <v>775076862</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P131" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A132" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" s="12">
+        <v>775411988</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O132" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P132" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A133" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" s="12">
+        <v>774031052</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" s="12">
+        <v>25</v>
+      </c>
+      <c r="M133" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N133" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O133" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P133" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A134" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" s="12">
+        <v>774388361</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O134" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P134" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A135" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F135" s="12">
+        <v>776345625</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O135" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P135" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A136" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F136" s="12">
+        <v>771923397</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O136" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P136" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A137" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F137" s="12">
+        <v>776347177</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O137" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P137" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A138" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F138" s="12">
+        <v>772537704</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O138" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P138" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A139" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F139" s="12">
+        <v>774433136</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O139" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P139" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A140" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F140" s="12">
+        <v>708418609</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O140" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P140" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A141" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" s="12">
+        <v>775742357</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O141" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P141" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A142" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F142" s="12">
+        <v>771441716</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O142" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P142" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A143" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F143" s="12">
+        <v>338225331</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O143" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P143" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A144" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F144" s="12">
+        <v>757454545</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O144" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P144" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A145" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F145" s="12">
+        <v>775661455</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O145" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P145" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A146" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F146" s="12">
+        <v>776256670</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O146" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P146" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F147" s="12">
+        <v>774061052</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O147" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P147" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A148" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F148" s="12">
+        <v>774161282</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O148" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P148" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A149" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F149" s="12">
+        <v>778013213</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K149" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" s="12">
+        <v>25</v>
+      </c>
+      <c r="M149" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N149" s="14">
+        <v>487500</v>
+      </c>
+      <c r="O149" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P149" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="12">
+        <v>778013213</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L150" s="12">
+        <v>5</v>
+      </c>
+      <c r="M150" s="14">
+        <v>33500</v>
+      </c>
+      <c r="N150" s="14">
+        <v>167500</v>
+      </c>
+      <c r="O150" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P150" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A151" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" s="12">
+        <v>776414102</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O151" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P151" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A152" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" s="12">
+        <v>774756754</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O152" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P152" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A153" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" s="12">
+        <v>783682649</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O153" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P153" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" s="12">
+        <v>775564374</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O154" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P154" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" s="12">
+        <v>774624747</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O155" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P155" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A156" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" s="12">
+        <v>776227120</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O156" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P156" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" s="12">
+        <v>770532919</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K157" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L157" s="12">
+        <v>25</v>
+      </c>
+      <c r="M157" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N157" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O157" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P157" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" s="12">
+        <v>781310969</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K158" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" s="12">
+        <v>25</v>
+      </c>
+      <c r="M158" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N158" s="14">
+        <v>520000</v>
+      </c>
+      <c r="O158" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P158" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" s="12">
+        <v>776677566</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O159" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P159" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A160" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" s="12">
+        <v>779661523</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K160" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L160" s="12">
+        <v>25</v>
+      </c>
+      <c r="M160" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N160" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O160" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P160" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" s="12">
+        <v>772568061</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O161" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P161" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" s="12">
+        <v>775683281</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O162" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P162" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" s="12">
+        <v>772313191</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O163" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P163" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A164" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" s="12">
+        <v>765434141</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O164" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P164" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A165" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" s="12">
+        <v>338559477</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O165" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P165" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A166" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" s="12">
+        <v>771871533</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O166" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P166" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" s="12">
+        <v>775839852</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O167" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P167" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A168" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" s="12">
+        <v>781282357</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O168" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P168" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A169" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" s="12">
+        <v>770290375</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O169" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P169" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A170" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F170" s="12">
+        <v>773759880</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O170" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P170" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A171" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F171" s="12">
+        <v>786312198</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O171" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P171" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A172" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F172" s="12">
+        <v>777132186</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O172" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P172" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F173" s="12">
+        <v>776294931</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K173" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L173" s="12">
+        <v>25</v>
+      </c>
+      <c r="M173" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N173" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O173" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P173" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A174" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F174" s="12">
+        <v>773531341</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O174" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P174" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A175" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F175" s="12">
+        <v>778610692</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O175" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P175" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A176" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F176" s="12">
+        <v>776110732</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O176" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P176" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F177" s="12">
+        <v>765118157</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K177" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" s="12">
+        <v>1</v>
+      </c>
+      <c r="M177" s="14">
+        <v>10250</v>
+      </c>
+      <c r="N177" s="14">
+        <v>10250</v>
+      </c>
+      <c r="O177" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P177" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F178" s="12">
+        <v>779511345</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O178" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P178" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F179" s="12">
+        <v>778840348</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O179" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P179" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F180" s="12">
+        <v>779511345</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J180" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="K180" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L180" s="12">
+        <v>1</v>
+      </c>
+      <c r="M180" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N180" s="14">
+        <v>19500</v>
+      </c>
+      <c r="O180" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P180" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" s="12">
+        <v>775744949</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O181" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P181" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A182" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F182" s="12">
+        <v>773128315</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O182" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P182" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F183" s="12">
+        <v>774118519</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O183" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P183" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" s="12">
+        <v>776541619</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O184" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P184" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F185" s="12">
+        <v>782406319</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O185" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P185" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F186" s="12">
+        <v>783795076</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O186" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P186" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" s="12">
+        <v>760169386</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J187" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O187" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P187" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A188" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" s="12">
+        <v>770343860</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O188" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P188" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A189" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F189" s="12">
+        <v>779071660</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O189" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P189" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A190" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F190" s="12">
+        <v>776167544</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O190" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P190" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A191" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F191" s="12">
+        <v>771871533</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P191" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A192" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F192" s="12">
+        <v>775987400</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J192" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="K192" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L192" s="12">
+        <v>1</v>
+      </c>
+      <c r="M192" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N192" s="14">
+        <v>19500</v>
+      </c>
+      <c r="O192" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P192" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A193" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F193" s="12">
+        <v>775987400</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J193" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="K193" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" s="12">
+        <v>1</v>
+      </c>
+      <c r="M193" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N193" s="14">
+        <v>19500</v>
+      </c>
+      <c r="O193" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P193" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F194" s="12">
+        <v>780172121</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O194" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P194" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F195" s="12">
+        <v>775447283</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J195" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O195" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P195" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F196" s="12">
+        <v>786038253</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="14"/>
+      <c r="N196" s="14">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O196" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P196" s="16" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F197" s="12">
+        <v>779511345</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J197" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="K197" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L197" s="12">
+        <v>1</v>
+      </c>
+      <c r="M197" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N197" s="14">
+        <v>19500</v>
+      </c>
+      <c r="O197" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P197" s="16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD2690-76C4-46E8-85C1-7E3E2E89D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F817983-2BA3-465F-8974-48347E996234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2672,8 +2672,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B394" sqref="B394"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4088,11 +4088,11 @@
         <v>2</v>
       </c>
       <c r="M29" s="10">
+        <v>9750</v>
+      </c>
+      <c r="N29" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
         <v>19500</v>
-      </c>
-      <c r="N29" s="12">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>39000</v>
       </c>
       <c r="O29" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F817983-2BA3-465F-8974-48347E996234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD91B3C-8BE1-4728-A705-25A576F88F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="849">
   <si>
     <t>Date</t>
   </si>
@@ -1993,6 +1993,604 @@
   </si>
   <si>
     <t>Clients insatisfait car il avait demandé 5 cartons depuis</t>
+  </si>
+  <si>
+    <t>Mame mareme Ndiaye</t>
+  </si>
+  <si>
+    <t>Liberté 1 à 6</t>
+  </si>
+  <si>
+    <t>Lamarana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n'est pas là et le produit est nouveau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai d'autres café </t>
+  </si>
+  <si>
+    <t>Le toro</t>
+  </si>
+  <si>
+    <t>Karamoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais passé l'information </t>
+  </si>
+  <si>
+    <t>Keur Massar Gouygui</t>
+  </si>
+  <si>
+    <t>Diamdial sarl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a le café refraich stick et dit qu' il n' a pas commencé à vendre le reste de nos produits </t>
+  </si>
+  <si>
+    <t>Groupe Agricole commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron est en voyage </t>
+  </si>
+  <si>
+    <t>Cherif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a le café refraich stick mais il l'a acheté a Dakar </t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Abdou sow 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit de lui donner </t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>MOUHAMED FALL</t>
+  </si>
+  <si>
+    <t>Ne vend que Nescafé mais a pris mon numéro pour en cas de besoin</t>
+  </si>
+  <si>
+    <t>WOURI BA</t>
+  </si>
+  <si>
+    <t>Il lui reste 38 café stick Altimo et estime que c'est trop lent comparé au Refraish que je lui avait vendu qu'il a terminé depuis longtemp</t>
+  </si>
+  <si>
+    <t>ALIMENTATION TOUT</t>
+  </si>
+  <si>
+    <t>Il dit qu'il va me recontacter</t>
+  </si>
+  <si>
+    <t>AMADOU SOW</t>
+  </si>
+  <si>
+    <t>Il lui reste 20 cartons café stick Altimo</t>
+  </si>
+  <si>
+    <t>MAMADOU LAMINE DIALLO</t>
+  </si>
+  <si>
+    <t>Fait parti des clients de golf</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+  <si>
+    <t>FALLOU FALL</t>
+  </si>
+  <si>
+    <t>OMAR DIALLO</t>
+  </si>
+  <si>
+    <t>Il veut les produits mais dis qu'il n'a pas assez d'argent et voudrais dépot ventz</t>
+  </si>
+  <si>
+    <t>Keur Mbaye Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5cartons café stick commander lundi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après je t'appelle demain soir </t>
+  </si>
+  <si>
+    <t>Alassane Diallo</t>
+  </si>
+  <si>
+    <t>Daouda Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya du restant café stick et pot 200g mais s'il termine il va m'appeler </t>
+  </si>
+  <si>
+    <t>Après je t'appelle le lundi il veut 25cartons stick noir</t>
+  </si>
+  <si>
+    <t>Après je t'appelle le lundi il veut le café stik noir et le pot 50g et 200g</t>
+  </si>
+  <si>
+    <t>Sicap Mbao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ya le café mais il n'a pas les acheter chez nous mais après je passe </t>
+  </si>
+  <si>
+    <t>Worry Diallo</t>
+  </si>
+  <si>
+    <t>Gougna Guèye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya du café stick 25 noir et rouge mais il veut le lait évaporé </t>
+  </si>
+  <si>
+    <t>Daouda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai pas d'argent pour le moment </t>
+  </si>
+  <si>
+    <t>SOULEYMANE SY</t>
+  </si>
+  <si>
+    <t>Il était en réunion aujourd'hui</t>
+  </si>
+  <si>
+    <t>Cheikh tidiane diop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut faire des publications d'abord </t>
+  </si>
+  <si>
+    <t>Sebikotane</t>
+  </si>
+  <si>
+    <t>Dia et Frères</t>
+  </si>
+  <si>
+    <t>Il a commandé 5 cartons de refraish mais par contre les pots 200g que je lui est vendu depuis ça reste jusqu'à présent</t>
+  </si>
+  <si>
+    <t>Djibril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je ne vend pas du café </t>
+  </si>
+  <si>
+    <t>Mbao</t>
+  </si>
+  <si>
+    <t>Khadim</t>
+  </si>
+  <si>
+    <t>Ouest Foire</t>
+  </si>
+  <si>
+    <t>Boubacar Diallo</t>
+  </si>
+  <si>
+    <t>Ndiéguane Diouf</t>
+  </si>
+  <si>
+    <t>Minimarché</t>
+  </si>
+  <si>
+    <t>Mamadou Lamine</t>
+  </si>
+  <si>
+    <t>Birane Sall</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Il veut essayer</t>
+  </si>
+  <si>
+    <t>Il dit toujours la prochaine fois car il ne vend pas ces produits</t>
+  </si>
+  <si>
+    <t>Abdou Rahmane</t>
+  </si>
+  <si>
+    <t>Il veut faire commande le pot 50g refraish pour la semaine prochaine</t>
+  </si>
+  <si>
+    <t>Il avait commandé le refraish 1,5 et pot altimo 50g mais j'avais pas pu l'amener</t>
+  </si>
+  <si>
+    <t>Makhtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais t'appeler </t>
+  </si>
+  <si>
+    <t>Serigne Mbacké Dia</t>
+  </si>
+  <si>
+    <t>Il dit qu'on doit faire de publicité pour qu'on nous reconnaît à travers tout le marché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci </t>
+  </si>
+  <si>
+    <t>Wakeur Baye Niasse</t>
+  </si>
+  <si>
+    <t>Il a le stick et le lait évaporé kamlac par contre pour les petits modèles de lait si ce n'est pas laicran et Halib les autres ne passe pas</t>
+  </si>
+  <si>
+    <t>Moussa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas trop de client </t>
+  </si>
+  <si>
+    <t>Il avait commandé pour essayer mais sans succès</t>
+  </si>
+  <si>
+    <t>Il avait commandé mais sans succès</t>
+  </si>
+  <si>
+    <t>Il avait appelé pour commander 10 mais il n'avait pas</t>
+  </si>
+  <si>
+    <t>Ibrahima Baldé</t>
+  </si>
+  <si>
+    <t>Il demande si on ale café 25f il dit de l'appeler s'il y'a n'a</t>
+  </si>
+  <si>
+    <t>Il dit que nos produits ne sont pas encore prouvé à sébi c'est pourquoi il ne veut pas prendre de risque</t>
+  </si>
+  <si>
+    <t>Salif</t>
+  </si>
+  <si>
+    <t>Il a le café refraich stick qu' il a acheté a Dakar mais dit qu'il va m'appeler pour les pots de 50 g et 200g</t>
+  </si>
+  <si>
+    <t>AMADOU Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n' est pas présent mais il a le café stick Altimo </t>
+  </si>
+  <si>
+    <t>Tonton Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il un compte a l' usine </t>
+  </si>
+  <si>
+    <t>MACTAR</t>
+  </si>
+  <si>
+    <t>Dit de l' appeler le lundi pour voir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron se trouve à assecna </t>
+  </si>
+  <si>
+    <t>Sada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit l'appeler </t>
+  </si>
+  <si>
+    <t>Revenir la semaine prochaine</t>
+  </si>
+  <si>
+    <t>Niang et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste 03 cartons de Altimo </t>
+  </si>
+  <si>
+    <t>Marra Dieng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modou Ndiaye 776212473 Demi gros client non partenaires </t>
+  </si>
+  <si>
+    <t>Amadou Tidiane Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit qu'il est fatigué de passer sa commande qu' il ne voit pas </t>
+  </si>
+  <si>
+    <t>Yamar Gueye</t>
+  </si>
+  <si>
+    <t>Veut 1carton altimo</t>
+  </si>
+  <si>
+    <t>Elhadj Thiaw</t>
+  </si>
+  <si>
+    <t>Ils m'ont demandé d'aller à l'autre magasin pour y trouver le patron</t>
+  </si>
+  <si>
+    <t>Ismaëla</t>
+  </si>
+  <si>
+    <t>Pour l'instant il ne vend que des biscuits et boissons.n'a pas encore commencé à vendre nos produits</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a nos produits mais dit de repasser </t>
+  </si>
+  <si>
+    <t>Comptoir Commercial Ba et Frères</t>
+  </si>
+  <si>
+    <t>DJIBRIL laye</t>
+  </si>
+  <si>
+    <t>Il dit que c'est chairs pour le lait en poudre kamlac il vend le lait qu' il a 22000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa reste un peu mais après la semaine prochaine en plus il m'a dit qu'il achète par un carton </t>
+  </si>
+  <si>
+    <t>Talla Diagne</t>
+  </si>
+  <si>
+    <t>Il dit que a chaque fois qu'il passe sa commande il ne voit rien ( demi gros)</t>
+  </si>
+  <si>
+    <t>Mame Thierno Diagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a d'autres programmes </t>
+  </si>
+  <si>
+    <t>AZIZ</t>
+  </si>
+  <si>
+    <t>DJIBRIL Traoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa reste mais après je passe pour vérifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On vend mais le patron est sorti </t>
+  </si>
+  <si>
+    <t>Madame Barry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle n'est pas connu cet produit </t>
+  </si>
+  <si>
+    <t>Thierno Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après il va voir mais pas encore commencé cet produit </t>
+  </si>
+  <si>
+    <t>Khar Yalla</t>
+  </si>
+  <si>
+    <t>Mamadou Ba</t>
+  </si>
+  <si>
+    <t>Mohamed Diallo</t>
+  </si>
+  <si>
+    <t>Seydou Diallo</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Mbaye seye</t>
+  </si>
+  <si>
+    <t>Mamadou Bah</t>
+  </si>
+  <si>
+    <t>Alimentation Générale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De l' appeler avant de livrer </t>
+  </si>
+  <si>
+    <t>Abdou sow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste 06 cartons de refraich 200g ses clients disent que il y a beaucoup de poudre que le grain </t>
+  </si>
+  <si>
+    <t>Khassim</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas encore arrivé</t>
+  </si>
+  <si>
+    <t>Alpha Omar Diallo</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock de refraish stick</t>
+  </si>
+  <si>
+    <t>Yéne</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t>Il attends d'ici lundi pour sa livraison</t>
+  </si>
+  <si>
+    <t>Lait Kamlac sachet 18gx100</t>
+  </si>
+  <si>
+    <t>Badou</t>
+  </si>
+  <si>
+    <t>Il est servi par ousmane</t>
+  </si>
+  <si>
+    <t>Abdallah Aïdara</t>
+  </si>
+  <si>
+    <t>Il a les autres produits mais demande le lait 25kg</t>
+  </si>
+  <si>
+    <t>Dieng et Frères</t>
+  </si>
+  <si>
+    <t>Il n'est présent aujourd'hui</t>
+  </si>
+  <si>
+    <t>Il préfère le café altimètre mais dit que c'est très cher maintenant</t>
+  </si>
+  <si>
+    <t>Moussa kane</t>
+  </si>
+  <si>
+    <t>Lui aussi demande le lait en poudre 25kg</t>
+  </si>
+  <si>
+    <t>Il dit que maintenant on a changé notre déroulement il n'a plus accès à nos produits car il commandait de 10 à 15 cartons donc il préfère l'acheter chez les super gros</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Il a le stick et il vend les autres pots par contre le lait 25kg est trop cher</t>
+  </si>
+  <si>
+    <t>Épicerie Thiaba Diouf</t>
+  </si>
+  <si>
+    <t>Épicerie</t>
+  </si>
+  <si>
+    <t>Le gérant est sortie mais il a nos produits</t>
+  </si>
+  <si>
+    <t>Il avait commandé le stick depuis mais sans livraison il acheté le royale</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>Baye sy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais t'appeler après </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais vous appeler pour faire commende </t>
+  </si>
+  <si>
+    <t>Diop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il veut le lait janus mais après </t>
+  </si>
+  <si>
+    <t>El hadji Thiaw</t>
+  </si>
+  <si>
+    <t>C'est un client "partenaire" il lui reste du stock Janus pot 50g .
+Il veut essayer janus altimo pot 100g et 200g</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 50g x 24 pcs</t>
+  </si>
+  <si>
+    <t>Il a toujours le stick pour les pots il préfère les autres</t>
+  </si>
+  <si>
+    <t>AMADOU DIALLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il voulait 3 cartons café stick Refraish que j'ai pris chez mon client partenaire Lahate </t>
+  </si>
+  <si>
+    <t>Abdou Leye</t>
+  </si>
+  <si>
+    <t>Veut essayer 1carton 50g refraish</t>
+  </si>
+  <si>
+    <t>THIERNO KANTE</t>
+  </si>
+  <si>
+    <t>Il lui reste 17 cartons café pot 200g Refraish et se plaind toujours de sa commande non livrée</t>
+  </si>
+  <si>
+    <t>Bassir Diallo</t>
+  </si>
+  <si>
+    <t>Le patron est en voyage jusqu'a présent</t>
+  </si>
+  <si>
+    <t>C'est un client "partenaire" il lui reste du stock</t>
+  </si>
+  <si>
+    <t>Abdou Gueye</t>
+  </si>
+  <si>
+    <t>Il veut 5cartons refraish</t>
+  </si>
+  <si>
+    <t>Mohamed Saliou</t>
+  </si>
+  <si>
+    <t>Veut l'altimo stick</t>
+  </si>
+  <si>
+    <t>Sope Nabi</t>
+  </si>
+  <si>
+    <t>Le patron n'est pas encore arrivé</t>
+  </si>
+  <si>
+    <t>Cheikh Gaye</t>
+  </si>
+  <si>
+    <t>Il m'avait commandé 2 cartons café stick Refraiqh que j'ai pris aujourd'hui chez mon client partenaire Lahate Diop et je lui ai livré</t>
+  </si>
+  <si>
+    <t>Sa commande de stick a été livré hier et il lui reste aussi 13 cartons café pot 50g Refraish 200g Refraish en quantité indéterminé</t>
+  </si>
+  <si>
+    <t>Cheikhouna Diop</t>
+  </si>
+  <si>
+    <t>Il ne vent pas de café, n'ai intéressé que par le lait concentré et estime que la notre est trop chaire propose 21000</t>
+  </si>
+  <si>
+    <t>Matar Geuye</t>
+  </si>
+  <si>
+    <t>Il a acheté du café pot 50g dans l'équipe promotion pour essayage</t>
+  </si>
+  <si>
+    <t>Il lui reste du café stick Refraiqh qu'il avait acheté a Thiaroyechez un autre client vu que je ne lui ai pas livré sa commande depuis longtemp</t>
+  </si>
+  <si>
+    <t>Pas ouvert aujourd'hui</t>
+  </si>
+  <si>
+    <t>Hamza Diaw</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2093,6 +2691,15 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2354,8 +2961,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P389" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P389" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P528" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P528" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -2670,10 +3277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P389"/>
+  <dimension ref="A1:P528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="L382" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="P393" sqref="P393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21447,6 +22054,6679 @@
         <v>septembre</v>
       </c>
     </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A390" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E390" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F390" s="14">
+        <v>770158721</v>
+      </c>
+      <c r="G390" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H390" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I390" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J390" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K390" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L390" s="14">
+        <v>25</v>
+      </c>
+      <c r="M390" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N390" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O390" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P390" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A391" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D391" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E391" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F391" s="14">
+        <v>771022842</v>
+      </c>
+      <c r="G391" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H391" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I391" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J391" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K391" s="14"/>
+      <c r="L391" s="14"/>
+      <c r="M391" s="16"/>
+      <c r="N391" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O391" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P391" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A392" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D392" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E392" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F392" s="14">
+        <v>773247171</v>
+      </c>
+      <c r="G392" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H392" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I392" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J392" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="K392" s="14"/>
+      <c r="L392" s="14"/>
+      <c r="M392" s="16"/>
+      <c r="N392" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O392" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P392" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A393" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D393" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E393" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F393" s="14">
+        <v>773170826</v>
+      </c>
+      <c r="G393" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H393" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I393" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J393" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="K393" s="14"/>
+      <c r="L393" s="14"/>
+      <c r="M393" s="16"/>
+      <c r="N393" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O393" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P393" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A394" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D394" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E394" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F394" s="14">
+        <v>338643675</v>
+      </c>
+      <c r="G394" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I394" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J394" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K394" s="14"/>
+      <c r="L394" s="14"/>
+      <c r="M394" s="16"/>
+      <c r="N394" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O394" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P394" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A395" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D395" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E395" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="F395" s="14">
+        <v>771327935</v>
+      </c>
+      <c r="G395" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H395" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I395" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J395" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="K395" s="14"/>
+      <c r="L395" s="14"/>
+      <c r="M395" s="16"/>
+      <c r="N395" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O395" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P395" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A396" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D396" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="F396" s="14">
+        <v>780191969</v>
+      </c>
+      <c r="G396" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H396" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I396" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J396" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="K396" s="14"/>
+      <c r="L396" s="14"/>
+      <c r="M396" s="16"/>
+      <c r="N396" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O396" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P396" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A397" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D397" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E397" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="F397" s="14">
+        <v>778823579</v>
+      </c>
+      <c r="G397" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H397" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I397" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J397" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="K397" s="14"/>
+      <c r="L397" s="14"/>
+      <c r="M397" s="16"/>
+      <c r="N397" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O397" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P397" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A398" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D398" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F398" s="14">
+        <v>776067914</v>
+      </c>
+      <c r="G398" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I398" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J398" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="K398" s="14"/>
+      <c r="L398" s="14"/>
+      <c r="M398" s="16"/>
+      <c r="N398" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O398" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P398" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A399" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D399" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="F399" s="14">
+        <v>779646150</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H399" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I399" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J399" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L399" s="14">
+        <v>25</v>
+      </c>
+      <c r="M399" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N399" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O399" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P399" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A400" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D400" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="F400" s="14">
+        <v>779646150</v>
+      </c>
+      <c r="G400" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H400" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I400" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J400" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K400" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L400" s="14">
+        <v>25</v>
+      </c>
+      <c r="M400" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N400" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O400" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P400" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A401" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D401" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E401" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="F401" s="14">
+        <v>780191969</v>
+      </c>
+      <c r="G401" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H401" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I401" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J401" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="K401" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L401" s="14">
+        <v>25</v>
+      </c>
+      <c r="M401" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N401" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O401" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P401" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A402" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D402" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E402" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F402" s="14">
+        <v>781240407</v>
+      </c>
+      <c r="G402" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H402" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I402" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J402" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K402" s="14"/>
+      <c r="L402" s="14"/>
+      <c r="M402" s="16"/>
+      <c r="N402" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O402" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P402" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A403" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D403" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="F403" s="14">
+        <v>778494908</v>
+      </c>
+      <c r="G403" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H403" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I403" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J403" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="K403" s="14"/>
+      <c r="L403" s="14"/>
+      <c r="M403" s="16"/>
+      <c r="N403" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O403" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P403" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A404" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D404" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E404" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="F404" s="14">
+        <v>773750007</v>
+      </c>
+      <c r="G404" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H404" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I404" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J404" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="K404" s="14"/>
+      <c r="L404" s="14"/>
+      <c r="M404" s="16"/>
+      <c r="N404" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O404" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P404" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A405" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D405" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E405" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="F405" s="14">
+        <v>775582583</v>
+      </c>
+      <c r="G405" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H405" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I405" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J405" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="K405" s="14"/>
+      <c r="L405" s="14"/>
+      <c r="M405" s="16"/>
+      <c r="N405" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O405" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P405" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A406" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D406" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F406" s="14">
+        <v>773777037</v>
+      </c>
+      <c r="G406" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H406" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I406" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J406" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="K406" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L406" s="14">
+        <v>25</v>
+      </c>
+      <c r="M406" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N406" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O406" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P406" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A407" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E407" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="F407" s="14">
+        <v>778494908</v>
+      </c>
+      <c r="G407" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H407" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I407" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J407" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="K407" s="14"/>
+      <c r="L407" s="14"/>
+      <c r="M407" s="16"/>
+      <c r="N407" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O407" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P407" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A408" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D408" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E408" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="F408" s="14">
+        <v>774756755</v>
+      </c>
+      <c r="G408" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H408" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I408" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J408" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K408" s="14"/>
+      <c r="L408" s="14"/>
+      <c r="M408" s="16"/>
+      <c r="N408" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O408" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P408" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A409" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D409" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E409" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F409" s="14">
+        <v>771952926</v>
+      </c>
+      <c r="G409" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H409" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I409" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J409" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="K409" s="14"/>
+      <c r="L409" s="14"/>
+      <c r="M409" s="16"/>
+      <c r="N409" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O409" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P409" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A410" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D410" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E410" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F410" s="14">
+        <v>772802727</v>
+      </c>
+      <c r="G410" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H410" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I410" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J410" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="K410" s="14"/>
+      <c r="L410" s="14"/>
+      <c r="M410" s="16"/>
+      <c r="N410" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O410" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P410" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A411" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D411" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="F411" s="14">
+        <v>772424434</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H411" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I411" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J411" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="K411" s="14"/>
+      <c r="L411" s="14"/>
+      <c r="M411" s="16"/>
+      <c r="N411" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O411" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P411" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A412" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D412" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="F412" s="14">
+        <v>772289185</v>
+      </c>
+      <c r="G412" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H412" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I412" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J412" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="K412" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L412" s="14">
+        <v>25</v>
+      </c>
+      <c r="M412" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N412" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O412" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P412" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A413" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D413" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F413" s="14">
+        <v>773953430</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H413" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I413" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J413" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="K413" s="14"/>
+      <c r="L413" s="14"/>
+      <c r="M413" s="16"/>
+      <c r="N413" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O413" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P413" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A414" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D414" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F414" s="14">
+        <v>779110400</v>
+      </c>
+      <c r="G414" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H414" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I414" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J414" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="K414" s="14"/>
+      <c r="L414" s="14"/>
+      <c r="M414" s="16"/>
+      <c r="N414" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O414" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P414" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A415" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D415" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F415" s="14">
+        <v>781350615</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H415" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I415" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J415" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="K415" s="14"/>
+      <c r="L415" s="14"/>
+      <c r="M415" s="16"/>
+      <c r="N415" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O415" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P415" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A416" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D416" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="F416" s="14">
+        <v>789236547</v>
+      </c>
+      <c r="G416" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H416" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I416" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J416" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="K416" s="14"/>
+      <c r="L416" s="14"/>
+      <c r="M416" s="16"/>
+      <c r="N416" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O416" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P416" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A417" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D417" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="F417" s="14">
+        <v>782489112</v>
+      </c>
+      <c r="G417" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H417" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I417" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J417" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="K417" s="14"/>
+      <c r="L417" s="14"/>
+      <c r="M417" s="16"/>
+      <c r="N417" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O417" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P417" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A418" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D418" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F418" s="14">
+        <v>764924460</v>
+      </c>
+      <c r="G418" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H418" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I418" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J418" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="K418" s="14"/>
+      <c r="L418" s="14"/>
+      <c r="M418" s="16"/>
+      <c r="N418" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O418" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P418" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A419" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D419" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="F419" s="14">
+        <v>781400202</v>
+      </c>
+      <c r="G419" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H419" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I419" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J419" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="K419" s="14"/>
+      <c r="L419" s="14"/>
+      <c r="M419" s="16"/>
+      <c r="N419" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O419" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P419" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A420" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D420" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="F420" s="14">
+        <v>774085200</v>
+      </c>
+      <c r="G420" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H420" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I420" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J420" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="K420" s="14"/>
+      <c r="L420" s="14"/>
+      <c r="M420" s="16"/>
+      <c r="N420" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O420" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P420" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A421" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D421" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E421" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="F421" s="14">
+        <v>776571507</v>
+      </c>
+      <c r="G421" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H421" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I421" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J421" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="K421" s="14"/>
+      <c r="L421" s="14"/>
+      <c r="M421" s="16"/>
+      <c r="N421" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O421" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P421" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A422" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D422" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E422" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F422" s="14">
+        <v>779460713</v>
+      </c>
+      <c r="G422" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H422" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I422" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J422" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="K422" s="14"/>
+      <c r="L422" s="14"/>
+      <c r="M422" s="16"/>
+      <c r="N422" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O422" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P422" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A423" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D423" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E423" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="F423" s="14">
+        <v>775079426</v>
+      </c>
+      <c r="G423" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H423" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I423" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J423" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="K423" s="14"/>
+      <c r="L423" s="14"/>
+      <c r="M423" s="16"/>
+      <c r="N423" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O423" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P423" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A424" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D424" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F424" s="14">
+        <v>778096419</v>
+      </c>
+      <c r="G424" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H424" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I424" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J424" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K424" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L424" s="14">
+        <v>5</v>
+      </c>
+      <c r="M424" s="16">
+        <v>33500</v>
+      </c>
+      <c r="N424" s="16">
+        <v>167500</v>
+      </c>
+      <c r="O424" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P424" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A425" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F425" s="14">
+        <v>778096419</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H425" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I425" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J425" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K425" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L425" s="14">
+        <v>25</v>
+      </c>
+      <c r="M425" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N425" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O425" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P425" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A426" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D426" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="F426" s="14">
+        <v>787554231</v>
+      </c>
+      <c r="G426" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H426" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I426" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J426" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K426" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L426" s="14">
+        <v>25</v>
+      </c>
+      <c r="M426" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N426" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O426" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P426" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A427" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D427" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F427" s="14">
+        <v>776576160</v>
+      </c>
+      <c r="G427" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H427" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I427" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J427" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K427" s="14"/>
+      <c r="L427" s="14"/>
+      <c r="M427" s="16"/>
+      <c r="N427" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O427" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P427" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A428" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D428" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F428" s="14">
+        <v>775959432</v>
+      </c>
+      <c r="G428" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="H428" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I428" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J428" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K428" s="14"/>
+      <c r="L428" s="14"/>
+      <c r="M428" s="16"/>
+      <c r="N428" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O428" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P428" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A429" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D429" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E429" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F429" s="14">
+        <v>781665889</v>
+      </c>
+      <c r="G429" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H429" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I429" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J429" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K429" s="14"/>
+      <c r="L429" s="14"/>
+      <c r="M429" s="16"/>
+      <c r="N429" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O429" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P429" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A430" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D430" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="F430" s="14">
+        <v>771554902</v>
+      </c>
+      <c r="G430" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H430" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I430" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J430" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K430" s="14"/>
+      <c r="L430" s="14"/>
+      <c r="M430" s="16"/>
+      <c r="N430" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O430" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P430" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A431" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D431" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="F431" s="14">
+        <v>771831996</v>
+      </c>
+      <c r="G431" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H431" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I431" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J431" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K431" s="14"/>
+      <c r="L431" s="14"/>
+      <c r="M431" s="16"/>
+      <c r="N431" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O431" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P431" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A432" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D432" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F432" s="14">
+        <v>781397689</v>
+      </c>
+      <c r="G432" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H432" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I432" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J432" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K432" s="14"/>
+      <c r="L432" s="14"/>
+      <c r="M432" s="16"/>
+      <c r="N432" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O432" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P432" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A433" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D433" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E433" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F433" s="14">
+        <v>781665889</v>
+      </c>
+      <c r="G433" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H433" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I433" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J433" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K433" s="14"/>
+      <c r="L433" s="14"/>
+      <c r="M433" s="16"/>
+      <c r="N433" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O433" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P433" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A434" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D434" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="F434" s="14">
+        <v>771797482</v>
+      </c>
+      <c r="G434" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H434" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I434" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J434" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="K434" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L434" s="14">
+        <v>1</v>
+      </c>
+      <c r="M434" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N434" s="16">
+        <v>26000</v>
+      </c>
+      <c r="O434" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P434" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A435" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D435" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F435" s="14">
+        <v>764094907</v>
+      </c>
+      <c r="G435" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H435" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I435" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J435" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="K435" s="14"/>
+      <c r="L435" s="14"/>
+      <c r="M435" s="16"/>
+      <c r="N435" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O435" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P435" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A436" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D436" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F436" s="14">
+        <v>779242678</v>
+      </c>
+      <c r="G436" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H436" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I436" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J436" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K436" s="14"/>
+      <c r="L436" s="14"/>
+      <c r="M436" s="16"/>
+      <c r="N436" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O436" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P436" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A437" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D437" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="F437" s="14">
+        <v>754419069</v>
+      </c>
+      <c r="G437" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H437" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I437" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J437" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="K437" s="14"/>
+      <c r="L437" s="14"/>
+      <c r="M437" s="16"/>
+      <c r="N437" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O437" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P437" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A438" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D438" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F438" s="14">
+        <v>776591883</v>
+      </c>
+      <c r="G438" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H438" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I438" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J438" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="K438" s="14"/>
+      <c r="L438" s="14"/>
+      <c r="M438" s="16"/>
+      <c r="N438" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O438" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P438" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A439" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D439" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E439" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F439" s="14">
+        <v>771078008</v>
+      </c>
+      <c r="G439" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H439" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I439" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J439" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="K439" s="14"/>
+      <c r="L439" s="14"/>
+      <c r="M439" s="16"/>
+      <c r="N439" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O439" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P439" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A440" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D440" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E440" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F440" s="14">
+        <v>775710053</v>
+      </c>
+      <c r="G440" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H440" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I440" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J440" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L440" s="14">
+        <v>1</v>
+      </c>
+      <c r="M440" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N440" s="16">
+        <v>26000</v>
+      </c>
+      <c r="O440" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P440" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A441" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D441" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E441" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F441" s="14">
+        <v>774849293</v>
+      </c>
+      <c r="G441" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H441" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I441" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J441" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="K441" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L441" s="14">
+        <v>5</v>
+      </c>
+      <c r="M441" s="16">
+        <v>12250</v>
+      </c>
+      <c r="N441" s="16">
+        <v>61250</v>
+      </c>
+      <c r="O441" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P441" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A442" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B442" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D442" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="F442" s="14">
+        <v>776172449</v>
+      </c>
+      <c r="G442" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H442" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I442" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J442" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="K442" s="14"/>
+      <c r="L442" s="14"/>
+      <c r="M442" s="16"/>
+      <c r="N442" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O442" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P442" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A443" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D443" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E443" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F443" s="14">
+        <v>771837885</v>
+      </c>
+      <c r="G443" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H443" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I443" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J443" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L443" s="14">
+        <v>1</v>
+      </c>
+      <c r="M443" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N443" s="16">
+        <v>19500</v>
+      </c>
+      <c r="O443" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P443" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A444" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C444" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D444" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E444" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F444" s="14">
+        <v>771837885</v>
+      </c>
+      <c r="G444" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H444" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I444" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J444" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K444" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L444" s="14">
+        <v>1</v>
+      </c>
+      <c r="M444" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N444" s="16">
+        <v>9750</v>
+      </c>
+      <c r="O444" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P444" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A445" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D445" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E445" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F445" s="14">
+        <v>775156666</v>
+      </c>
+      <c r="G445" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H445" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I445" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J445" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="K445" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L445" s="14">
+        <v>5</v>
+      </c>
+      <c r="M445" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N445" s="16">
+        <v>48750</v>
+      </c>
+      <c r="O445" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P445" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A446" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D446" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E446" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F446" s="14">
+        <v>777756403</v>
+      </c>
+      <c r="G446" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H446" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I446" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J446" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="K446" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L446" s="14">
+        <v>2</v>
+      </c>
+      <c r="M446" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N446" s="16">
+        <v>39000</v>
+      </c>
+      <c r="O446" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P446" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A447" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D447" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E447" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F447" s="14">
+        <v>774725050</v>
+      </c>
+      <c r="G447" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H447" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I447" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J447" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="K447" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L447" s="14">
+        <v>5</v>
+      </c>
+      <c r="M447" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N447" s="16">
+        <v>130000</v>
+      </c>
+      <c r="O447" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P447" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A448" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D448" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E448" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="F448" s="14">
+        <v>772539977</v>
+      </c>
+      <c r="G448" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H448" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I448" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J448" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="K448" s="14"/>
+      <c r="L448" s="14"/>
+      <c r="M448" s="16"/>
+      <c r="N448" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O448" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P448" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A449" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D449" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E449" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F449" s="14">
+        <v>778826078</v>
+      </c>
+      <c r="G449" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H449" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I449" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J449" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="K449" s="14"/>
+      <c r="L449" s="14"/>
+      <c r="M449" s="16"/>
+      <c r="N449" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O449" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P449" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A450" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D450" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E450" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="F450" s="14">
+        <v>778886969</v>
+      </c>
+      <c r="G450" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H450" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I450" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J450" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="K450" s="14"/>
+      <c r="L450" s="14"/>
+      <c r="M450" s="16"/>
+      <c r="N450" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O450" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P450" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A451" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D451" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E451" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F451" s="14">
+        <v>777370401</v>
+      </c>
+      <c r="G451" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H451" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I451" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J451" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K451" s="14"/>
+      <c r="L451" s="14"/>
+      <c r="M451" s="16"/>
+      <c r="N451" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O451" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P451" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A452" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D452" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E452" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="F452" s="14">
+        <v>777321977</v>
+      </c>
+      <c r="G452" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H452" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I452" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J452" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="K452" s="14"/>
+      <c r="L452" s="14"/>
+      <c r="M452" s="16"/>
+      <c r="N452" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O452" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P452" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A453" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D453" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E453" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="F453" s="14">
+        <v>775663399</v>
+      </c>
+      <c r="G453" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H453" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I453" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J453" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="K453" s="14"/>
+      <c r="L453" s="14"/>
+      <c r="M453" s="16"/>
+      <c r="N453" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O453" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P453" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A454" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D454" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E454" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F454" s="14">
+        <v>773493195</v>
+      </c>
+      <c r="G454" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H454" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I454" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J454" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="K454" s="14"/>
+      <c r="L454" s="14"/>
+      <c r="M454" s="16"/>
+      <c r="N454" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O454" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P454" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A455" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D455" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E455" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="F455" s="14">
+        <v>779646150</v>
+      </c>
+      <c r="G455" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H455" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I455" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J455" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K455" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L455" s="14">
+        <v>10</v>
+      </c>
+      <c r="M455" s="16">
+        <v>18750</v>
+      </c>
+      <c r="N455" s="16">
+        <v>187500</v>
+      </c>
+      <c r="O455" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P455" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A456" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D456" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E456" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="F456" s="14">
+        <v>775740574</v>
+      </c>
+      <c r="G456" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H456" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I456" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J456" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="K456" s="14"/>
+      <c r="L456" s="14"/>
+      <c r="M456" s="16"/>
+      <c r="N456" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O456" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P456" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A457" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D457" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E457" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F457" s="14">
+        <v>782130484</v>
+      </c>
+      <c r="G457" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H457" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I457" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J457" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="K457" s="14"/>
+      <c r="L457" s="14"/>
+      <c r="M457" s="16"/>
+      <c r="N457" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O457" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P457" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A458" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D458" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E458" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F458" s="14">
+        <v>773725495</v>
+      </c>
+      <c r="G458" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H458" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I458" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J458" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="K458" s="14"/>
+      <c r="L458" s="14"/>
+      <c r="M458" s="16"/>
+      <c r="N458" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O458" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P458" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A459" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D459" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E459" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F459" s="14">
+        <v>770509812</v>
+      </c>
+      <c r="G459" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H459" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I459" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J459" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="K459" s="14"/>
+      <c r="L459" s="14"/>
+      <c r="M459" s="16"/>
+      <c r="N459" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O459" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P459" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A460" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D460" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E460" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="F460" s="14">
+        <v>776536527</v>
+      </c>
+      <c r="G460" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H460" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I460" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J460" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="K460" s="14"/>
+      <c r="L460" s="14"/>
+      <c r="M460" s="16"/>
+      <c r="N460" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O460" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P460" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A461" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B461" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D461" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E461" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="F461" s="14">
+        <v>783887602</v>
+      </c>
+      <c r="G461" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H461" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I461" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J461" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="K461" s="14"/>
+      <c r="L461" s="14"/>
+      <c r="M461" s="16"/>
+      <c r="N461" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O461" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P461" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A462" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D462" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E462" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="F462" s="14">
+        <v>772245033</v>
+      </c>
+      <c r="G462" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H462" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I462" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J462" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="K462" s="14"/>
+      <c r="L462" s="14"/>
+      <c r="M462" s="16"/>
+      <c r="N462" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O462" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P462" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A463" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D463" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E463" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="F463" s="14">
+        <v>775564814</v>
+      </c>
+      <c r="G463" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H463" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I463" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J463" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="K463" s="14"/>
+      <c r="L463" s="14"/>
+      <c r="M463" s="16"/>
+      <c r="N463" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O463" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P463" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A464" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D464" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E464" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="F464" s="14">
+        <v>775649041</v>
+      </c>
+      <c r="G464" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H464" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I464" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J464" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="K464" s="14"/>
+      <c r="L464" s="14"/>
+      <c r="M464" s="16"/>
+      <c r="N464" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O464" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P464" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A465" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D465" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E465" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="F465" s="14">
+        <v>784551637</v>
+      </c>
+      <c r="G465" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H465" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I465" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J465" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="K465" s="14"/>
+      <c r="L465" s="14"/>
+      <c r="M465" s="16"/>
+      <c r="N465" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O465" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P465" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A466" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D466" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E466" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="F466" s="14">
+        <v>773887602</v>
+      </c>
+      <c r="G466" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H466" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I466" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J466" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="K466" s="14"/>
+      <c r="L466" s="14"/>
+      <c r="M466" s="16"/>
+      <c r="N466" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O466" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P466" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A467" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D467" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E467" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="F467" s="14">
+        <v>781627979</v>
+      </c>
+      <c r="G467" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H467" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I467" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J467" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K467" s="14"/>
+      <c r="L467" s="14"/>
+      <c r="M467" s="16"/>
+      <c r="N467" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O467" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P467" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A468" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D468" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E468" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F468" s="14">
+        <v>778657940</v>
+      </c>
+      <c r="G468" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H468" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I468" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J468" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="K468" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L468" s="14">
+        <v>25</v>
+      </c>
+      <c r="M468" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N468" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O468" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P468" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A469" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D469" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E469" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="F469" s="14">
+        <v>772506388</v>
+      </c>
+      <c r="G469" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H469" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I469" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J469" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="K469" s="14"/>
+      <c r="L469" s="14"/>
+      <c r="M469" s="16"/>
+      <c r="N469" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O469" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P469" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A470" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C470" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D470" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E470" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="F470" s="14">
+        <v>777861171</v>
+      </c>
+      <c r="G470" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H470" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I470" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J470" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="K470" s="14"/>
+      <c r="L470" s="14"/>
+      <c r="M470" s="16"/>
+      <c r="N470" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O470" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P470" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A471" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D471" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E471" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="F471" s="14">
+        <v>778103828</v>
+      </c>
+      <c r="G471" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H471" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I471" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J471" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="K471" s="14"/>
+      <c r="L471" s="14"/>
+      <c r="M471" s="16"/>
+      <c r="N471" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O471" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P471" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A472" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C472" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D472" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E472" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="F472" s="14">
+        <v>779344631</v>
+      </c>
+      <c r="G472" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H472" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I472" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J472" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K472" s="14"/>
+      <c r="L472" s="14"/>
+      <c r="M472" s="16"/>
+      <c r="N472" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O472" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P472" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A473" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D473" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E473" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="F473" s="14">
+        <v>775262371</v>
+      </c>
+      <c r="G473" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H473" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I473" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J473" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="K473" s="14"/>
+      <c r="L473" s="14"/>
+      <c r="M473" s="16"/>
+      <c r="N473" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O473" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P473" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A474" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D474" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E474" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F474" s="14">
+        <v>762735182</v>
+      </c>
+      <c r="G474" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H474" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I474" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J474" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="K474" s="14"/>
+      <c r="L474" s="14"/>
+      <c r="M474" s="16"/>
+      <c r="N474" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O474" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P474" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A475" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D475" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E475" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="F475" s="14">
+        <v>761509551</v>
+      </c>
+      <c r="G475" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H475" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I475" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J475" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="K475" s="14"/>
+      <c r="L475" s="14"/>
+      <c r="M475" s="16"/>
+      <c r="N475" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O475" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P475" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A476" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D476" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E476" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="F476" s="14">
+        <v>776413480</v>
+      </c>
+      <c r="G476" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H476" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I476" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J476" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="K476" s="14"/>
+      <c r="L476" s="14"/>
+      <c r="M476" s="16"/>
+      <c r="N476" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O476" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P476" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A477" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D477" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E477" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F477" s="14">
+        <v>774105610</v>
+      </c>
+      <c r="G477" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H477" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I477" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J477" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K477" s="14"/>
+      <c r="L477" s="14"/>
+      <c r="M477" s="16"/>
+      <c r="N477" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O477" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P477" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A478" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D478" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E478" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="F478" s="14">
+        <v>778066928</v>
+      </c>
+      <c r="G478" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H478" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I478" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J478" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K478" s="14"/>
+      <c r="L478" s="14"/>
+      <c r="M478" s="16"/>
+      <c r="N478" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O478" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P478" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A479" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D479" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E479" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="F479" s="14">
+        <v>780137992</v>
+      </c>
+      <c r="G479" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H479" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I479" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J479" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K479" s="14"/>
+      <c r="L479" s="14"/>
+      <c r="M479" s="16"/>
+      <c r="N479" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O479" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P479" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A480" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D480" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E480" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="F480" s="14">
+        <v>784071086</v>
+      </c>
+      <c r="G480" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H480" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I480" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J480" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K480" s="14"/>
+      <c r="L480" s="14"/>
+      <c r="M480" s="16"/>
+      <c r="N480" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O480" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P480" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A481" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D481" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E481" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F481" s="14">
+        <v>777427919</v>
+      </c>
+      <c r="G481" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H481" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I481" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J481" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K481" s="14"/>
+      <c r="L481" s="14"/>
+      <c r="M481" s="16"/>
+      <c r="N481" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O481" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P481" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A482" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D482" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E482" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="F482" s="14">
+        <v>774540017</v>
+      </c>
+      <c r="G482" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H482" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I482" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J482" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K482" s="14"/>
+      <c r="L482" s="14"/>
+      <c r="M482" s="16"/>
+      <c r="N482" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O482" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P482" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A483" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D483" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E483" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="F483" s="14">
+        <v>761315270</v>
+      </c>
+      <c r="G483" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H483" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I483" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J483" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K483" s="14"/>
+      <c r="L483" s="14"/>
+      <c r="M483" s="16"/>
+      <c r="N483" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O483" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P483" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A484" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D484" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E484" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="F484" s="14">
+        <v>780137992</v>
+      </c>
+      <c r="G484" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H484" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I484" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J484" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K484" s="14"/>
+      <c r="L484" s="14"/>
+      <c r="M484" s="16"/>
+      <c r="N484" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O484" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P484" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A485" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D485" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E485" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="F485" s="14">
+        <v>778066928</v>
+      </c>
+      <c r="G485" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H485" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I485" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J485" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K485" s="14"/>
+      <c r="L485" s="14"/>
+      <c r="M485" s="16"/>
+      <c r="N485" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O485" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P485" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A486" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D486" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="E486" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="F486" s="14">
+        <v>779072194</v>
+      </c>
+      <c r="G486" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H486" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I486" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J486" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K486" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L486" s="14">
+        <v>1</v>
+      </c>
+      <c r="M486" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N486" s="16">
+        <v>26000</v>
+      </c>
+      <c r="O486" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P486" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A487" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D487" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E487" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F487" s="14">
+        <v>774187389</v>
+      </c>
+      <c r="G487" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H487" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I487" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J487" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="K487" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L487" s="14">
+        <v>25</v>
+      </c>
+      <c r="M487" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N487" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O487" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P487" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A488" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D488" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="E488" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="F488" s="14">
+        <v>779724512</v>
+      </c>
+      <c r="G488" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H488" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I488" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J488" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="K488" s="14"/>
+      <c r="L488" s="14"/>
+      <c r="M488" s="16"/>
+      <c r="N488" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O488" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P488" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A489" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D489" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E489" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="F489" s="14">
+        <v>775038524</v>
+      </c>
+      <c r="G489" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H489" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I489" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J489" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="K489" s="14"/>
+      <c r="L489" s="14"/>
+      <c r="M489" s="16"/>
+      <c r="N489" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O489" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P489" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A490" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D490" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E490" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="F490" s="14">
+        <v>777929047</v>
+      </c>
+      <c r="G490" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H490" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I490" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J490" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K490" s="14"/>
+      <c r="L490" s="14"/>
+      <c r="M490" s="16"/>
+      <c r="N490" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O490" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P490" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A491" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D491" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E491" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F491" s="14">
+        <v>763198632</v>
+      </c>
+      <c r="G491" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H491" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I491" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J491" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="K491" s="14"/>
+      <c r="L491" s="14"/>
+      <c r="M491" s="16"/>
+      <c r="N491" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O491" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P491" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A492" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D492" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E492" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F492" s="14">
+        <v>773756258</v>
+      </c>
+      <c r="G492" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H492" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I492" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J492" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K492" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L492" s="14">
+        <v>25</v>
+      </c>
+      <c r="M492" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N492" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O492" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P492" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A493" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D493" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E493" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F493" s="14">
+        <v>775484487</v>
+      </c>
+      <c r="G493" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H493" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I493" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J493" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="K493" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L493" s="14">
+        <v>1</v>
+      </c>
+      <c r="M493" s="16">
+        <v>33500</v>
+      </c>
+      <c r="N493" s="16">
+        <v>33500</v>
+      </c>
+      <c r="O493" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P493" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A494" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B494" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D494" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E494" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F494" s="14">
+        <v>775484487</v>
+      </c>
+      <c r="G494" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H494" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I494" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J494" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="K494" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="L494" s="14">
+        <v>2</v>
+      </c>
+      <c r="M494" s="16">
+        <v>7500</v>
+      </c>
+      <c r="N494" s="16">
+        <v>15000</v>
+      </c>
+      <c r="O494" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P494" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A495" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D495" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E495" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F495" s="14">
+        <v>775484487</v>
+      </c>
+      <c r="G495" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H495" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I495" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J495" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="K495" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="L495" s="14">
+        <v>1</v>
+      </c>
+      <c r="M495" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N495" s="16">
+        <v>31000</v>
+      </c>
+      <c r="O495" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P495" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A496" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D496" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E496" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="F496" s="14">
+        <v>765769030</v>
+      </c>
+      <c r="G496" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H496" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I496" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J496" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="K496" s="14"/>
+      <c r="L496" s="14"/>
+      <c r="M496" s="16"/>
+      <c r="N496" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O496" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P496" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A497" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D497" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E497" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="F497" s="14">
+        <v>785923657</v>
+      </c>
+      <c r="G497" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H497" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I497" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J497" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="K497" s="14"/>
+      <c r="L497" s="14"/>
+      <c r="M497" s="16"/>
+      <c r="N497" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O497" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P497" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A498" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D498" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E498" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="F498" s="14">
+        <v>770922815</v>
+      </c>
+      <c r="G498" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H498" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I498" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J498" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="K498" s="14"/>
+      <c r="L498" s="14"/>
+      <c r="M498" s="16"/>
+      <c r="N498" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O498" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P498" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A499" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D499" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E499" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F499" s="14">
+        <v>776194586</v>
+      </c>
+      <c r="G499" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H499" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I499" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J499" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="K499" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L499" s="14">
+        <v>10</v>
+      </c>
+      <c r="M499" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N499" s="16">
+        <v>260000</v>
+      </c>
+      <c r="O499" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P499" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A500" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D500" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E500" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F500" s="14">
+        <v>782442821</v>
+      </c>
+      <c r="G500" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H500" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I500" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J500" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="K500" s="14"/>
+      <c r="L500" s="14"/>
+      <c r="M500" s="16"/>
+      <c r="N500" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O500" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P500" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" ht="55.9" x14ac:dyDescent="0.45">
+      <c r="A501" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D501" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E501" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F501" s="14">
+        <v>770450834</v>
+      </c>
+      <c r="G501" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H501" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I501" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J501" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="K501" s="14"/>
+      <c r="L501" s="14"/>
+      <c r="M501" s="16"/>
+      <c r="N501" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O501" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P501" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A502" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D502" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E502" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="F502" s="14">
+        <v>773806309</v>
+      </c>
+      <c r="G502" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H502" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I502" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J502" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="K502" s="14"/>
+      <c r="L502" s="14"/>
+      <c r="M502" s="16"/>
+      <c r="N502" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O502" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P502" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A503" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D503" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E503" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F503" s="14">
+        <v>761924801</v>
+      </c>
+      <c r="G503" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="H503" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I503" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J503" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="K503" s="14"/>
+      <c r="L503" s="14"/>
+      <c r="M503" s="16"/>
+      <c r="N503" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O503" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P503" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A504" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D504" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E504" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F504" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G504" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H504" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I504" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J504" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="K504" s="14"/>
+      <c r="L504" s="14"/>
+      <c r="M504" s="16"/>
+      <c r="N504" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O504" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P504" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A505" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D505" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E505" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F505" s="14">
+        <v>772070286</v>
+      </c>
+      <c r="G505" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I505" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J505" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="K505" s="14"/>
+      <c r="L505" s="14"/>
+      <c r="M505" s="16"/>
+      <c r="N505" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O505" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P505" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A506" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D506" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E506" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F506" s="14">
+        <v>775014335</v>
+      </c>
+      <c r="G506" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H506" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I506" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J506" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="K506" s="14"/>
+      <c r="L506" s="14"/>
+      <c r="M506" s="16"/>
+      <c r="N506" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O506" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P506" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A507" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D507" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E507" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F507" s="14">
+        <v>772222253</v>
+      </c>
+      <c r="G507" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H507" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I507" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J507" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="K507" s="14"/>
+      <c r="L507" s="14"/>
+      <c r="M507" s="16"/>
+      <c r="N507" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O507" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P507" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A508" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D508" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E508" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="F508" s="14">
+        <v>775344311</v>
+      </c>
+      <c r="G508" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I508" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J508" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="K508" s="14"/>
+      <c r="L508" s="14"/>
+      <c r="M508" s="16"/>
+      <c r="N508" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O508" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P508" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A509" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D509" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E509" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F509" s="14">
+        <v>775649041</v>
+      </c>
+      <c r="G509" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H509" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I509" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J509" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="K509" s="14"/>
+      <c r="L509" s="14"/>
+      <c r="M509" s="16"/>
+      <c r="N509" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O509" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P509" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A510" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D510" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E510" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F510" s="14">
+        <v>775484487</v>
+      </c>
+      <c r="G510" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H510" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I510" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J510" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="K510" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="L510" s="14">
+        <v>1</v>
+      </c>
+      <c r="M510" s="16">
+        <v>17500</v>
+      </c>
+      <c r="N510" s="16">
+        <v>17500</v>
+      </c>
+      <c r="O510" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P510" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A511" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D511" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E511" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F511" s="14">
+        <v>782357233</v>
+      </c>
+      <c r="G511" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H511" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I511" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J511" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="K511" s="14"/>
+      <c r="L511" s="14"/>
+      <c r="M511" s="16"/>
+      <c r="N511" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O511" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P511" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A512" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D512" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E512" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F512" s="14">
+        <v>777049024</v>
+      </c>
+      <c r="G512" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H512" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I512" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J512" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="K512" s="14"/>
+      <c r="L512" s="14"/>
+      <c r="M512" s="16"/>
+      <c r="N512" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O512" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P512" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A513" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D513" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E513" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F513" s="14">
+        <v>776327767</v>
+      </c>
+      <c r="G513" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H513" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I513" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J513" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="K513" s="14"/>
+      <c r="L513" s="14"/>
+      <c r="M513" s="16"/>
+      <c r="N513" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O513" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P513" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A514" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D514" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E514" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F514" s="14">
+        <v>772304013</v>
+      </c>
+      <c r="G514" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H514" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I514" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J514" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="K514" s="14"/>
+      <c r="L514" s="14"/>
+      <c r="M514" s="16"/>
+      <c r="N514" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O514" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P514" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A515" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D515" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E515" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="F515" s="14">
+        <v>775171537</v>
+      </c>
+      <c r="G515" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H515" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I515" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J515" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="K515" s="14"/>
+      <c r="L515" s="14"/>
+      <c r="M515" s="16"/>
+      <c r="N515" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O515" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P515" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A516" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D516" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E516" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="F516" s="14">
+        <v>773641828</v>
+      </c>
+      <c r="G516" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H516" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I516" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J516" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="K516" s="14"/>
+      <c r="L516" s="14"/>
+      <c r="M516" s="16"/>
+      <c r="N516" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O516" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P516" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A517" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D517" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E517" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="F517" s="14">
+        <v>787554231</v>
+      </c>
+      <c r="G517" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H517" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I517" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J517" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K517" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L517" s="14">
+        <v>25</v>
+      </c>
+      <c r="M517" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N517" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O517" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P517" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A518" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B518" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D518" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E518" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F518" s="14">
+        <v>770933357</v>
+      </c>
+      <c r="G518" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H518" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I518" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J518" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="K518" s="14"/>
+      <c r="L518" s="14"/>
+      <c r="M518" s="16"/>
+      <c r="N518" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O518" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P518" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A519" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D519" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E519" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="F519" s="14">
+        <v>771207041</v>
+      </c>
+      <c r="G519" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H519" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I519" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J519" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="K519" s="14"/>
+      <c r="L519" s="14"/>
+      <c r="M519" s="16"/>
+      <c r="N519" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O519" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P519" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A520" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D520" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E520" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="F520" s="14">
+        <v>779773605</v>
+      </c>
+      <c r="G520" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H520" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I520" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J520" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="K520" s="14"/>
+      <c r="L520" s="14"/>
+      <c r="M520" s="16"/>
+      <c r="N520" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O520" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P520" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A521" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D521" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E521" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="F521" s="14">
+        <v>770392582</v>
+      </c>
+      <c r="G521" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H521" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I521" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J521" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="K521" s="14"/>
+      <c r="L521" s="14"/>
+      <c r="M521" s="16"/>
+      <c r="N521" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O521" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P521" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A522" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D522" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E522" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="F522" s="14">
+        <v>764690084</v>
+      </c>
+      <c r="G522" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H522" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I522" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J522" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="K522" s="14"/>
+      <c r="L522" s="14"/>
+      <c r="M522" s="16"/>
+      <c r="N522" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O522" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P522" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A523" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D523" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E523" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F523" s="14">
+        <v>775361133</v>
+      </c>
+      <c r="G523" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H523" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I523" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J523" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="K523" s="14"/>
+      <c r="L523" s="14"/>
+      <c r="M523" s="16"/>
+      <c r="N523" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O523" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P523" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A524" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D524" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E524" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="F524" s="14">
+        <v>771166656</v>
+      </c>
+      <c r="G524" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H524" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I524" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J524" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="K524" s="14"/>
+      <c r="L524" s="14"/>
+      <c r="M524" s="16"/>
+      <c r="N524" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O524" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P524" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A525" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D525" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E525" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F525" s="14">
+        <v>761386330</v>
+      </c>
+      <c r="G525" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H525" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I525" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J525" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="K525" s="14"/>
+      <c r="L525" s="14"/>
+      <c r="M525" s="16"/>
+      <c r="N525" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O525" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P525" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A526" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D526" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E526" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="F526" s="14">
+        <v>773481721</v>
+      </c>
+      <c r="G526" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H526" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I526" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J526" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="K526" s="14"/>
+      <c r="L526" s="14"/>
+      <c r="M526" s="16"/>
+      <c r="N526" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O526" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P526" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A527" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D527" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E527" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F527" s="14">
+        <v>777112307</v>
+      </c>
+      <c r="G527" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H527" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I527" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J527" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="K527" s="14"/>
+      <c r="L527" s="14"/>
+      <c r="M527" s="16"/>
+      <c r="N527" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O527" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P527" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A528" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D528" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E528" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="F528" s="14">
+        <v>761321039</v>
+      </c>
+      <c r="G528" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H528" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I528" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J528" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K528" s="14"/>
+      <c r="L528" s="14"/>
+      <c r="M528" s="16"/>
+      <c r="N528" s="16">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O528" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P528" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD91B3C-8BE1-4728-A705-25A576F88F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05760F7F-0BB9-4A53-A388-1065C8939215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="850">
   <si>
     <t>Date</t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>Hamza Diaw</t>
+  </si>
+  <si>
+    <t>Dame Castor</t>
   </si>
 </sst>
 </file>
@@ -2961,8 +2964,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P528" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P528" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P529" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P529" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -3277,10 +3280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P528"/>
+  <dimension ref="A1:P529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L382" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="P393" sqref="P393"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529:N529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22064,44 +22067,44 @@
       <c r="C390" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D390" s="14" t="s">
+      <c r="D390" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E390" s="14" t="s">
+      <c r="E390" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="F390" s="14">
+      <c r="F390" s="10">
         <v>770158721</v>
       </c>
-      <c r="G390" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H390" s="14" t="s">
+      <c r="G390" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H390" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I390" s="14" t="s">
+      <c r="I390" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J390" s="15" t="s">
+      <c r="J390" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K390" s="14" t="s">
+      <c r="K390" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L390" s="14">
+      <c r="L390" s="10">
         <v>25</v>
       </c>
-      <c r="M390" s="16">
+      <c r="M390" s="12">
         <v>9750</v>
       </c>
-      <c r="N390" s="16">
+      <c r="N390" s="12">
         <v>243750</v>
       </c>
-      <c r="O390" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P390" s="18" t="str">
+      <c r="O390" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P390" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22116,39 +22119,39 @@
       <c r="C391" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D391" s="14" t="s">
+      <c r="D391" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E391" s="14" t="s">
+      <c r="E391" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F391" s="14">
+      <c r="F391" s="10">
         <v>771022842</v>
       </c>
-      <c r="G391" s="14" t="s">
+      <c r="G391" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H391" s="14" t="s">
+      <c r="H391" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I391" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J391" s="15" t="s">
+      <c r="I391" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J391" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="K391" s="14"/>
-      <c r="L391" s="14"/>
-      <c r="M391" s="16"/>
-      <c r="N391" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O391" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P391" s="18" t="str">
+      <c r="K391" s="10"/>
+      <c r="L391" s="10"/>
+      <c r="M391" s="12"/>
+      <c r="N391" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O391" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P391" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22163,39 +22166,39 @@
       <c r="C392" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D392" s="14" t="s">
+      <c r="D392" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E392" s="14" t="s">
+      <c r="E392" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F392" s="14">
+      <c r="F392" s="10">
         <v>773247171</v>
       </c>
-      <c r="G392" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H392" s="14" t="s">
+      <c r="G392" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H392" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I392" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J392" s="15" t="s">
+      <c r="I392" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J392" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="K392" s="14"/>
-      <c r="L392" s="14"/>
-      <c r="M392" s="16"/>
-      <c r="N392" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O392" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P392" s="18" t="str">
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="12"/>
+      <c r="N392" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O392" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P392" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22210,39 +22213,39 @@
       <c r="C393" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D393" s="14" t="s">
+      <c r="D393" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E393" s="14" t="s">
+      <c r="E393" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F393" s="14">
+      <c r="F393" s="10">
         <v>773170826</v>
       </c>
-      <c r="G393" s="14" t="s">
+      <c r="G393" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H393" s="14" t="s">
+      <c r="H393" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I393" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J393" s="15" t="s">
+      <c r="I393" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J393" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="K393" s="14"/>
-      <c r="L393" s="14"/>
-      <c r="M393" s="16"/>
-      <c r="N393" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O393" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P393" s="18" t="str">
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="12"/>
+      <c r="N393" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O393" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P393" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22257,39 +22260,39 @@
       <c r="C394" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D394" s="14" t="s">
+      <c r="D394" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E394" s="14" t="s">
+      <c r="E394" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="F394" s="14">
+      <c r="F394" s="10">
         <v>338643675</v>
       </c>
-      <c r="G394" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H394" s="14" t="s">
+      <c r="G394" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I394" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J394" s="15" t="s">
+      <c r="I394" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J394" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K394" s="14"/>
-      <c r="L394" s="14"/>
-      <c r="M394" s="16"/>
-      <c r="N394" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O394" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P394" s="18" t="str">
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="12"/>
+      <c r="N394" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O394" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P394" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22304,39 +22307,39 @@
       <c r="C395" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D395" s="14" t="s">
+      <c r="D395" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E395" s="14" t="s">
+      <c r="E395" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="F395" s="14">
+      <c r="F395" s="10">
         <v>771327935</v>
       </c>
-      <c r="G395" s="14" t="s">
+      <c r="G395" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H395" s="14" t="s">
+      <c r="H395" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I395" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J395" s="15" t="s">
+      <c r="I395" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J395" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="K395" s="14"/>
-      <c r="L395" s="14"/>
-      <c r="M395" s="16"/>
-      <c r="N395" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O395" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P395" s="18" t="str">
+      <c r="K395" s="10"/>
+      <c r="L395" s="10"/>
+      <c r="M395" s="12"/>
+      <c r="N395" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O395" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P395" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22351,39 +22354,39 @@
       <c r="C396" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D396" s="14" t="s">
+      <c r="D396" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E396" s="14" t="s">
+      <c r="E396" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="F396" s="14">
+      <c r="F396" s="10">
         <v>780191969</v>
       </c>
-      <c r="G396" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H396" s="14" t="s">
+      <c r="G396" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H396" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I396" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J396" s="15" t="s">
+      <c r="I396" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J396" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="K396" s="14"/>
-      <c r="L396" s="14"/>
-      <c r="M396" s="16"/>
-      <c r="N396" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O396" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P396" s="18" t="str">
+      <c r="K396" s="10"/>
+      <c r="L396" s="10"/>
+      <c r="M396" s="12"/>
+      <c r="N396" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O396" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P396" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22398,39 +22401,39 @@
       <c r="C397" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D397" s="14" t="s">
+      <c r="D397" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E397" s="14" t="s">
+      <c r="E397" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="F397" s="14">
+      <c r="F397" s="10">
         <v>778823579</v>
       </c>
-      <c r="G397" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H397" s="14" t="s">
+      <c r="G397" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H397" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I397" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J397" s="15" t="s">
+      <c r="I397" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J397" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="K397" s="14"/>
-      <c r="L397" s="14"/>
-      <c r="M397" s="16"/>
-      <c r="N397" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O397" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P397" s="18" t="str">
+      <c r="K397" s="10"/>
+      <c r="L397" s="10"/>
+      <c r="M397" s="12"/>
+      <c r="N397" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O397" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P397" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22445,39 +22448,39 @@
       <c r="C398" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D398" s="14" t="s">
+      <c r="D398" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E398" s="14" t="s">
+      <c r="E398" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="F398" s="14">
+      <c r="F398" s="10">
         <v>776067914</v>
       </c>
-      <c r="G398" s="14" t="s">
+      <c r="G398" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H398" s="14" t="s">
+      <c r="H398" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I398" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J398" s="15" t="s">
+      <c r="I398" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J398" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="K398" s="14"/>
-      <c r="L398" s="14"/>
-      <c r="M398" s="16"/>
-      <c r="N398" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O398" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P398" s="18" t="str">
+      <c r="K398" s="10"/>
+      <c r="L398" s="10"/>
+      <c r="M398" s="12"/>
+      <c r="N398" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O398" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P398" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22492,44 +22495,44 @@
       <c r="C399" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D399" s="14" t="s">
+      <c r="D399" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E399" s="14" t="s">
+      <c r="E399" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F399" s="14">
+      <c r="F399" s="10">
         <v>779646150</v>
       </c>
-      <c r="G399" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H399" s="14" t="s">
+      <c r="G399" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H399" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I399" s="14" t="s">
+      <c r="I399" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J399" s="15" t="s">
+      <c r="J399" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K399" s="14" t="s">
+      <c r="K399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L399" s="14">
+      <c r="L399" s="10">
         <v>25</v>
       </c>
-      <c r="M399" s="16">
+      <c r="M399" s="12">
         <v>19500</v>
       </c>
-      <c r="N399" s="16">
+      <c r="N399" s="12">
         <v>487500</v>
       </c>
-      <c r="O399" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P399" s="18" t="str">
+      <c r="O399" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P399" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22544,44 +22547,44 @@
       <c r="C400" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D400" s="14" t="s">
+      <c r="D400" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E400" s="14" t="s">
+      <c r="E400" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F400" s="14">
+      <c r="F400" s="10">
         <v>779646150</v>
       </c>
-      <c r="G400" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H400" s="14" t="s">
+      <c r="G400" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H400" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I400" s="14" t="s">
+      <c r="I400" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J400" s="15" t="s">
+      <c r="J400" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K400" s="14" t="s">
+      <c r="K400" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L400" s="14">
+      <c r="L400" s="10">
         <v>25</v>
       </c>
-      <c r="M400" s="16">
+      <c r="M400" s="12">
         <v>26000</v>
       </c>
-      <c r="N400" s="16">
+      <c r="N400" s="12">
         <v>650000</v>
       </c>
-      <c r="O400" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P400" s="18" t="str">
+      <c r="O400" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P400" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22596,44 +22599,44 @@
       <c r="C401" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D401" s="14" t="s">
+      <c r="D401" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E401" s="14" t="s">
+      <c r="E401" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="F401" s="14">
+      <c r="F401" s="10">
         <v>780191969</v>
       </c>
-      <c r="G401" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H401" s="14" t="s">
+      <c r="G401" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H401" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I401" s="14" t="s">
+      <c r="I401" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J401" s="15" t="s">
+      <c r="J401" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="K401" s="14" t="s">
+      <c r="K401" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L401" s="14">
+      <c r="L401" s="10">
         <v>25</v>
       </c>
-      <c r="M401" s="16">
+      <c r="M401" s="12">
         <v>26000</v>
       </c>
-      <c r="N401" s="16">
+      <c r="N401" s="12">
         <v>650000</v>
       </c>
-      <c r="O401" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P401" s="18" t="str">
+      <c r="O401" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P401" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22648,39 +22651,39 @@
       <c r="C402" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D402" s="14" t="s">
+      <c r="D402" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E402" s="14" t="s">
+      <c r="E402" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="F402" s="14">
+      <c r="F402" s="10">
         <v>781240407</v>
       </c>
-      <c r="G402" s="14" t="s">
+      <c r="G402" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H402" s="14" t="s">
+      <c r="H402" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I402" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J402" s="15" t="s">
+      <c r="I402" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J402" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="K402" s="14"/>
-      <c r="L402" s="14"/>
-      <c r="M402" s="16"/>
-      <c r="N402" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O402" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P402" s="18" t="str">
+      <c r="K402" s="10"/>
+      <c r="L402" s="10"/>
+      <c r="M402" s="12"/>
+      <c r="N402" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O402" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P402" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22695,39 +22698,39 @@
       <c r="C403" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D403" s="14" t="s">
+      <c r="D403" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E403" s="14" t="s">
+      <c r="E403" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="F403" s="14">
+      <c r="F403" s="10">
         <v>778494908</v>
       </c>
-      <c r="G403" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H403" s="14" t="s">
+      <c r="G403" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H403" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I403" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J403" s="15" t="s">
+      <c r="I403" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J403" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="K403" s="14"/>
-      <c r="L403" s="14"/>
-      <c r="M403" s="16"/>
-      <c r="N403" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O403" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P403" s="18" t="str">
+      <c r="K403" s="10"/>
+      <c r="L403" s="10"/>
+      <c r="M403" s="12"/>
+      <c r="N403" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O403" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P403" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22742,39 +22745,39 @@
       <c r="C404" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D404" s="14" t="s">
+      <c r="D404" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E404" s="14" t="s">
+      <c r="E404" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="F404" s="14">
+      <c r="F404" s="10">
         <v>773750007</v>
       </c>
-      <c r="G404" s="14" t="s">
+      <c r="G404" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H404" s="14" t="s">
+      <c r="H404" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I404" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J404" s="15" t="s">
+      <c r="I404" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J404" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="K404" s="14"/>
-      <c r="L404" s="14"/>
-      <c r="M404" s="16"/>
-      <c r="N404" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O404" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P404" s="18" t="str">
+      <c r="K404" s="10"/>
+      <c r="L404" s="10"/>
+      <c r="M404" s="12"/>
+      <c r="N404" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O404" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P404" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22789,39 +22792,39 @@
       <c r="C405" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D405" s="14" t="s">
+      <c r="D405" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E405" s="14" t="s">
+      <c r="E405" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="F405" s="14">
+      <c r="F405" s="10">
         <v>775582583</v>
       </c>
-      <c r="G405" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H405" s="14" t="s">
+      <c r="G405" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H405" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I405" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J405" s="15" t="s">
+      <c r="I405" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J405" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="K405" s="14"/>
-      <c r="L405" s="14"/>
-      <c r="M405" s="16"/>
-      <c r="N405" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O405" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P405" s="18" t="str">
+      <c r="K405" s="10"/>
+      <c r="L405" s="10"/>
+      <c r="M405" s="12"/>
+      <c r="N405" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O405" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P405" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22836,44 +22839,44 @@
       <c r="C406" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D406" s="14" t="s">
+      <c r="D406" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E406" s="14" t="s">
+      <c r="E406" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="F406" s="14">
+      <c r="F406" s="10">
         <v>773777037</v>
       </c>
-      <c r="G406" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H406" s="14" t="s">
+      <c r="G406" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H406" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I406" s="14" t="s">
+      <c r="I406" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J406" s="15" t="s">
+      <c r="J406" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="K406" s="14" t="s">
+      <c r="K406" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L406" s="14">
+      <c r="L406" s="10">
         <v>25</v>
       </c>
-      <c r="M406" s="16">
+      <c r="M406" s="12">
         <v>26000</v>
       </c>
-      <c r="N406" s="16">
+      <c r="N406" s="12">
         <v>650000</v>
       </c>
-      <c r="O406" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P406" s="18" t="str">
+      <c r="O406" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P406" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22888,39 +22891,39 @@
       <c r="C407" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D407" s="14" t="s">
+      <c r="D407" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E407" s="14" t="s">
+      <c r="E407" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="F407" s="14">
+      <c r="F407" s="10">
         <v>778494908</v>
       </c>
-      <c r="G407" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H407" s="14" t="s">
+      <c r="G407" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H407" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I407" s="14" t="s">
+      <c r="I407" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J407" s="15" t="s">
+      <c r="J407" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="K407" s="14"/>
-      <c r="L407" s="14"/>
-      <c r="M407" s="16"/>
-      <c r="N407" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O407" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P407" s="18" t="str">
+      <c r="K407" s="10"/>
+      <c r="L407" s="10"/>
+      <c r="M407" s="12"/>
+      <c r="N407" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O407" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P407" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22935,39 +22938,39 @@
       <c r="C408" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D408" s="14" t="s">
+      <c r="D408" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E408" s="14" t="s">
+      <c r="E408" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="F408" s="14">
+      <c r="F408" s="10">
         <v>774756755</v>
       </c>
-      <c r="G408" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H408" s="14" t="s">
+      <c r="G408" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H408" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I408" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J408" s="15" t="s">
+      <c r="I408" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J408" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K408" s="14"/>
-      <c r="L408" s="14"/>
-      <c r="M408" s="16"/>
-      <c r="N408" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O408" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P408" s="18" t="str">
+      <c r="K408" s="10"/>
+      <c r="L408" s="10"/>
+      <c r="M408" s="12"/>
+      <c r="N408" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O408" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P408" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -22982,39 +22985,39 @@
       <c r="C409" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D409" s="14" t="s">
+      <c r="D409" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E409" s="14" t="s">
+      <c r="E409" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="F409" s="14">
+      <c r="F409" s="10">
         <v>771952926</v>
       </c>
-      <c r="G409" s="14" t="s">
+      <c r="G409" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H409" s="14" t="s">
+      <c r="H409" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I409" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J409" s="15" t="s">
+      <c r="I409" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J409" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="K409" s="14"/>
-      <c r="L409" s="14"/>
-      <c r="M409" s="16"/>
-      <c r="N409" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O409" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P409" s="18" t="str">
+      <c r="K409" s="10"/>
+      <c r="L409" s="10"/>
+      <c r="M409" s="12"/>
+      <c r="N409" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O409" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P409" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23029,39 +23032,39 @@
       <c r="C410" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D410" s="14" t="s">
+      <c r="D410" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E410" s="14" t="s">
+      <c r="E410" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F410" s="14">
+      <c r="F410" s="10">
         <v>772802727</v>
       </c>
-      <c r="G410" s="14" t="s">
+      <c r="G410" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H410" s="14" t="s">
+      <c r="H410" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I410" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J410" s="15" t="s">
+      <c r="I410" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J410" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="K410" s="14"/>
-      <c r="L410" s="14"/>
-      <c r="M410" s="16"/>
-      <c r="N410" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O410" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P410" s="18" t="str">
+      <c r="K410" s="10"/>
+      <c r="L410" s="10"/>
+      <c r="M410" s="12"/>
+      <c r="N410" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O410" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P410" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23076,39 +23079,39 @@
       <c r="C411" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D411" s="14" t="s">
+      <c r="D411" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E411" s="14" t="s">
+      <c r="E411" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="F411" s="14">
+      <c r="F411" s="10">
         <v>772424434</v>
       </c>
-      <c r="G411" s="14" t="s">
+      <c r="G411" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H411" s="14" t="s">
+      <c r="H411" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I411" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J411" s="15" t="s">
+      <c r="I411" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J411" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="K411" s="14"/>
-      <c r="L411" s="14"/>
-      <c r="M411" s="16"/>
-      <c r="N411" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O411" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P411" s="18" t="str">
+      <c r="K411" s="10"/>
+      <c r="L411" s="10"/>
+      <c r="M411" s="12"/>
+      <c r="N411" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O411" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P411" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23123,44 +23126,44 @@
       <c r="C412" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D412" s="14" t="s">
+      <c r="D412" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E412" s="14" t="s">
+      <c r="E412" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="F412" s="14">
+      <c r="F412" s="10">
         <v>772289185</v>
       </c>
-      <c r="G412" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H412" s="14" t="s">
+      <c r="G412" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H412" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I412" s="14" t="s">
+      <c r="I412" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J412" s="15" t="s">
+      <c r="J412" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K412" s="14" t="s">
+      <c r="K412" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L412" s="14">
+      <c r="L412" s="10">
         <v>25</v>
       </c>
-      <c r="M412" s="16">
+      <c r="M412" s="12">
         <v>26000</v>
       </c>
-      <c r="N412" s="16">
+      <c r="N412" s="12">
         <v>650000</v>
       </c>
-      <c r="O412" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P412" s="18" t="str">
+      <c r="O412" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P412" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23175,39 +23178,39 @@
       <c r="C413" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D413" s="14" t="s">
+      <c r="D413" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E413" s="14" t="s">
+      <c r="E413" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="F413" s="14">
+      <c r="F413" s="10">
         <v>773953430</v>
       </c>
-      <c r="G413" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H413" s="14" t="s">
+      <c r="G413" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H413" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I413" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J413" s="15" t="s">
+      <c r="I413" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J413" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="K413" s="14"/>
-      <c r="L413" s="14"/>
-      <c r="M413" s="16"/>
-      <c r="N413" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O413" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P413" s="18" t="str">
+      <c r="K413" s="10"/>
+      <c r="L413" s="10"/>
+      <c r="M413" s="12"/>
+      <c r="N413" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O413" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P413" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23222,39 +23225,39 @@
       <c r="C414" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D414" s="14" t="s">
+      <c r="D414" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E414" s="14" t="s">
+      <c r="E414" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F414" s="14">
+      <c r="F414" s="10">
         <v>779110400</v>
       </c>
-      <c r="G414" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H414" s="14" t="s">
+      <c r="G414" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H414" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I414" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J414" s="15" t="s">
+      <c r="I414" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J414" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="K414" s="14"/>
-      <c r="L414" s="14"/>
-      <c r="M414" s="16"/>
-      <c r="N414" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O414" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P414" s="18" t="str">
+      <c r="K414" s="10"/>
+      <c r="L414" s="10"/>
+      <c r="M414" s="12"/>
+      <c r="N414" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O414" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P414" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23269,39 +23272,39 @@
       <c r="C415" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D415" s="14" t="s">
+      <c r="D415" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E415" s="14" t="s">
+      <c r="E415" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F415" s="14">
+      <c r="F415" s="10">
         <v>781350615</v>
       </c>
-      <c r="G415" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H415" s="14" t="s">
+      <c r="G415" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H415" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I415" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J415" s="15" t="s">
+      <c r="I415" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J415" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="K415" s="14"/>
-      <c r="L415" s="14"/>
-      <c r="M415" s="16"/>
-      <c r="N415" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O415" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P415" s="18" t="str">
+      <c r="K415" s="10"/>
+      <c r="L415" s="10"/>
+      <c r="M415" s="12"/>
+      <c r="N415" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O415" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P415" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23316,39 +23319,39 @@
       <c r="C416" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D416" s="14" t="s">
+      <c r="D416" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E416" s="14" t="s">
+      <c r="E416" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="F416" s="14">
+      <c r="F416" s="10">
         <v>789236547</v>
       </c>
-      <c r="G416" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H416" s="14" t="s">
+      <c r="G416" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H416" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I416" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J416" s="15" t="s">
+      <c r="I416" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J416" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="K416" s="14"/>
-      <c r="L416" s="14"/>
-      <c r="M416" s="16"/>
-      <c r="N416" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O416" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P416" s="18" t="str">
+      <c r="K416" s="10"/>
+      <c r="L416" s="10"/>
+      <c r="M416" s="12"/>
+      <c r="N416" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O416" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P416" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23363,39 +23366,39 @@
       <c r="C417" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D417" s="14" t="s">
+      <c r="D417" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E417" s="14" t="s">
+      <c r="E417" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="F417" s="14">
+      <c r="F417" s="10">
         <v>782489112</v>
       </c>
-      <c r="G417" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H417" s="14" t="s">
+      <c r="G417" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H417" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I417" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J417" s="15" t="s">
+      <c r="I417" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J417" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="K417" s="14"/>
-      <c r="L417" s="14"/>
-      <c r="M417" s="16"/>
-      <c r="N417" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O417" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P417" s="18" t="str">
+      <c r="K417" s="10"/>
+      <c r="L417" s="10"/>
+      <c r="M417" s="12"/>
+      <c r="N417" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O417" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P417" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23410,39 +23413,39 @@
       <c r="C418" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D418" s="14" t="s">
+      <c r="D418" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E418" s="14" t="s">
+      <c r="E418" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="F418" s="14">
+      <c r="F418" s="10">
         <v>764924460</v>
       </c>
-      <c r="G418" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H418" s="14" t="s">
+      <c r="G418" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H418" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I418" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J418" s="15" t="s">
+      <c r="I418" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J418" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="K418" s="14"/>
-      <c r="L418" s="14"/>
-      <c r="M418" s="16"/>
-      <c r="N418" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O418" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P418" s="18" t="str">
+      <c r="K418" s="10"/>
+      <c r="L418" s="10"/>
+      <c r="M418" s="12"/>
+      <c r="N418" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O418" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P418" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23457,39 +23460,39 @@
       <c r="C419" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D419" s="14" t="s">
+      <c r="D419" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E419" s="14" t="s">
+      <c r="E419" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="F419" s="14">
+      <c r="F419" s="10">
         <v>781400202</v>
       </c>
-      <c r="G419" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H419" s="14" t="s">
+      <c r="G419" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H419" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I419" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J419" s="15" t="s">
+      <c r="I419" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J419" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="K419" s="14"/>
-      <c r="L419" s="14"/>
-      <c r="M419" s="16"/>
-      <c r="N419" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O419" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P419" s="18" t="str">
+      <c r="K419" s="10"/>
+      <c r="L419" s="10"/>
+      <c r="M419" s="12"/>
+      <c r="N419" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O419" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P419" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23504,39 +23507,39 @@
       <c r="C420" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D420" s="14" t="s">
+      <c r="D420" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="E420" s="14" t="s">
+      <c r="E420" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="F420" s="14">
+      <c r="F420" s="10">
         <v>774085200</v>
       </c>
-      <c r="G420" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H420" s="14" t="s">
+      <c r="G420" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H420" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I420" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J420" s="15" t="s">
+      <c r="I420" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J420" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="K420" s="14"/>
-      <c r="L420" s="14"/>
-      <c r="M420" s="16"/>
-      <c r="N420" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O420" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P420" s="18" t="str">
+      <c r="K420" s="10"/>
+      <c r="L420" s="10"/>
+      <c r="M420" s="12"/>
+      <c r="N420" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O420" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P420" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23551,39 +23554,39 @@
       <c r="C421" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D421" s="14" t="s">
+      <c r="D421" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E421" s="14" t="s">
+      <c r="E421" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="F421" s="14">
+      <c r="F421" s="10">
         <v>776571507</v>
       </c>
-      <c r="G421" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H421" s="14" t="s">
+      <c r="G421" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H421" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I421" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J421" s="15" t="s">
+      <c r="I421" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J421" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="K421" s="14"/>
-      <c r="L421" s="14"/>
-      <c r="M421" s="16"/>
-      <c r="N421" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O421" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P421" s="18" t="str">
+      <c r="K421" s="10"/>
+      <c r="L421" s="10"/>
+      <c r="M421" s="12"/>
+      <c r="N421" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O421" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P421" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23598,39 +23601,39 @@
       <c r="C422" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D422" s="14" t="s">
+      <c r="D422" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E422" s="14" t="s">
+      <c r="E422" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="F422" s="14">
+      <c r="F422" s="10">
         <v>779460713</v>
       </c>
-      <c r="G422" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H422" s="14" t="s">
+      <c r="G422" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H422" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I422" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J422" s="15" t="s">
+      <c r="I422" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J422" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="K422" s="14"/>
-      <c r="L422" s="14"/>
-      <c r="M422" s="16"/>
-      <c r="N422" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O422" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P422" s="18" t="str">
+      <c r="K422" s="10"/>
+      <c r="L422" s="10"/>
+      <c r="M422" s="12"/>
+      <c r="N422" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O422" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P422" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23645,39 +23648,39 @@
       <c r="C423" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D423" s="14" t="s">
+      <c r="D423" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E423" s="14" t="s">
+      <c r="E423" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="F423" s="14">
+      <c r="F423" s="10">
         <v>775079426</v>
       </c>
-      <c r="G423" s="14" t="s">
+      <c r="G423" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H423" s="14" t="s">
+      <c r="H423" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I423" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J423" s="15" t="s">
+      <c r="I423" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J423" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="K423" s="14"/>
-      <c r="L423" s="14"/>
-      <c r="M423" s="16"/>
-      <c r="N423" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O423" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P423" s="18" t="str">
+      <c r="K423" s="10"/>
+      <c r="L423" s="10"/>
+      <c r="M423" s="12"/>
+      <c r="N423" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O423" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P423" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23692,44 +23695,44 @@
       <c r="C424" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D424" s="14" t="s">
+      <c r="D424" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E424" s="14" t="s">
+      <c r="E424" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F424" s="14">
+      <c r="F424" s="10">
         <v>778096419</v>
       </c>
-      <c r="G424" s="14" t="s">
+      <c r="G424" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H424" s="14" t="s">
+      <c r="H424" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I424" s="14" t="s">
+      <c r="I424" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J424" s="15" t="s">
+      <c r="J424" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K424" s="14" t="s">
+      <c r="K424" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="L424" s="14">
+      <c r="L424" s="10">
         <v>5</v>
       </c>
-      <c r="M424" s="16">
+      <c r="M424" s="12">
         <v>33500</v>
       </c>
-      <c r="N424" s="16">
+      <c r="N424" s="12">
         <v>167500</v>
       </c>
-      <c r="O424" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P424" s="18" t="str">
+      <c r="O424" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P424" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23744,44 +23747,44 @@
       <c r="C425" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D425" s="14" t="s">
+      <c r="D425" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E425" s="14" t="s">
+      <c r="E425" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F425" s="14">
+      <c r="F425" s="10">
         <v>778096419</v>
       </c>
-      <c r="G425" s="14" t="s">
+      <c r="G425" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H425" s="14" t="s">
+      <c r="H425" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I425" s="14" t="s">
+      <c r="I425" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J425" s="15" t="s">
+      <c r="J425" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K425" s="14" t="s">
+      <c r="K425" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L425" s="14">
+      <c r="L425" s="10">
         <v>25</v>
       </c>
-      <c r="M425" s="16">
+      <c r="M425" s="12">
         <v>9750</v>
       </c>
-      <c r="N425" s="16">
+      <c r="N425" s="12">
         <v>243750</v>
       </c>
-      <c r="O425" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P425" s="18" t="str">
+      <c r="O425" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P425" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23796,44 +23799,44 @@
       <c r="C426" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D426" s="14" t="s">
+      <c r="D426" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E426" s="14" t="s">
+      <c r="E426" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="F426" s="14">
+      <c r="F426" s="10">
         <v>787554231</v>
       </c>
-      <c r="G426" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H426" s="14" t="s">
+      <c r="G426" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H426" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I426" s="14" t="s">
+      <c r="I426" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J426" s="15" t="s">
+      <c r="J426" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K426" s="14" t="s">
+      <c r="K426" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L426" s="14">
+      <c r="L426" s="10">
         <v>25</v>
       </c>
-      <c r="M426" s="16">
+      <c r="M426" s="12">
         <v>26000</v>
       </c>
-      <c r="N426" s="16">
+      <c r="N426" s="12">
         <v>650000</v>
       </c>
-      <c r="O426" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P426" s="18" t="str">
+      <c r="O426" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P426" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23848,39 +23851,39 @@
       <c r="C427" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D427" s="14" t="s">
+      <c r="D427" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E427" s="14" t="s">
+      <c r="E427" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="F427" s="14">
+      <c r="F427" s="10">
         <v>776576160</v>
       </c>
-      <c r="G427" s="14" t="s">
+      <c r="G427" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H427" s="14" t="s">
+      <c r="H427" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I427" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J427" s="15" t="s">
+      <c r="I427" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J427" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K427" s="14"/>
-      <c r="L427" s="14"/>
-      <c r="M427" s="16"/>
-      <c r="N427" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O427" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P427" s="18" t="str">
+      <c r="K427" s="10"/>
+      <c r="L427" s="10"/>
+      <c r="M427" s="12"/>
+      <c r="N427" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O427" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P427" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23895,39 +23898,39 @@
       <c r="C428" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D428" s="14" t="s">
+      <c r="D428" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E428" s="14" t="s">
+      <c r="E428" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="F428" s="14">
+      <c r="F428" s="10">
         <v>775959432</v>
       </c>
-      <c r="G428" s="14" t="s">
+      <c r="G428" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="H428" s="14" t="s">
+      <c r="H428" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I428" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J428" s="15" t="s">
+      <c r="I428" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J428" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K428" s="14"/>
-      <c r="L428" s="14"/>
-      <c r="M428" s="16"/>
-      <c r="N428" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O428" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P428" s="18" t="str">
+      <c r="K428" s="10"/>
+      <c r="L428" s="10"/>
+      <c r="M428" s="12"/>
+      <c r="N428" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O428" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P428" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23942,39 +23945,39 @@
       <c r="C429" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D429" s="14" t="s">
+      <c r="D429" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E429" s="14" t="s">
+      <c r="E429" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F429" s="14">
+      <c r="F429" s="10">
         <v>781665889</v>
       </c>
-      <c r="G429" s="14" t="s">
+      <c r="G429" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H429" s="14" t="s">
+      <c r="H429" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I429" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J429" s="15" t="s">
+      <c r="I429" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J429" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K429" s="14"/>
-      <c r="L429" s="14"/>
-      <c r="M429" s="16"/>
-      <c r="N429" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O429" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P429" s="18" t="str">
+      <c r="K429" s="10"/>
+      <c r="L429" s="10"/>
+      <c r="M429" s="12"/>
+      <c r="N429" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O429" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P429" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -23989,39 +23992,39 @@
       <c r="C430" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D430" s="14" t="s">
+      <c r="D430" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E430" s="14" t="s">
+      <c r="E430" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="F430" s="14">
+      <c r="F430" s="10">
         <v>771554902</v>
       </c>
-      <c r="G430" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H430" s="14" t="s">
+      <c r="G430" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H430" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I430" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J430" s="15" t="s">
+      <c r="I430" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J430" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K430" s="14"/>
-      <c r="L430" s="14"/>
-      <c r="M430" s="16"/>
-      <c r="N430" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O430" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P430" s="18" t="str">
+      <c r="K430" s="10"/>
+      <c r="L430" s="10"/>
+      <c r="M430" s="12"/>
+      <c r="N430" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O430" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P430" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24036,39 +24039,39 @@
       <c r="C431" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D431" s="14" t="s">
+      <c r="D431" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E431" s="14" t="s">
+      <c r="E431" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="F431" s="14">
+      <c r="F431" s="10">
         <v>771831996</v>
       </c>
-      <c r="G431" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H431" s="14" t="s">
+      <c r="G431" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H431" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I431" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J431" s="15" t="s">
+      <c r="I431" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J431" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K431" s="14"/>
-      <c r="L431" s="14"/>
-      <c r="M431" s="16"/>
-      <c r="N431" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O431" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P431" s="18" t="str">
+      <c r="K431" s="10"/>
+      <c r="L431" s="10"/>
+      <c r="M431" s="12"/>
+      <c r="N431" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O431" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P431" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24083,39 +24086,39 @@
       <c r="C432" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D432" s="14" t="s">
+      <c r="D432" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E432" s="14" t="s">
+      <c r="E432" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="F432" s="14">
+      <c r="F432" s="10">
         <v>781397689</v>
       </c>
-      <c r="G432" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H432" s="14" t="s">
+      <c r="G432" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H432" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I432" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J432" s="15" t="s">
+      <c r="I432" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J432" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K432" s="14"/>
-      <c r="L432" s="14"/>
-      <c r="M432" s="16"/>
-      <c r="N432" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O432" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P432" s="18" t="str">
+      <c r="K432" s="10"/>
+      <c r="L432" s="10"/>
+      <c r="M432" s="12"/>
+      <c r="N432" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O432" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P432" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24130,39 +24133,39 @@
       <c r="C433" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D433" s="14" t="s">
+      <c r="D433" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E433" s="14" t="s">
+      <c r="E433" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F433" s="14">
+      <c r="F433" s="10">
         <v>781665889</v>
       </c>
-      <c r="G433" s="14" t="s">
+      <c r="G433" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H433" s="14" t="s">
+      <c r="H433" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I433" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J433" s="15" t="s">
+      <c r="I433" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J433" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K433" s="14"/>
-      <c r="L433" s="14"/>
-      <c r="M433" s="16"/>
-      <c r="N433" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O433" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P433" s="18" t="str">
+      <c r="K433" s="10"/>
+      <c r="L433" s="10"/>
+      <c r="M433" s="12"/>
+      <c r="N433" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O433" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P433" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24177,44 +24180,44 @@
       <c r="C434" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D434" s="14" t="s">
+      <c r="D434" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E434" s="14" t="s">
+      <c r="E434" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="F434" s="14">
+      <c r="F434" s="10">
         <v>771797482</v>
       </c>
-      <c r="G434" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H434" s="14" t="s">
+      <c r="G434" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H434" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I434" s="14" t="s">
+      <c r="I434" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J434" s="15" t="s">
+      <c r="J434" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="K434" s="14" t="s">
+      <c r="K434" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L434" s="14">
+      <c r="L434" s="10">
         <v>1</v>
       </c>
-      <c r="M434" s="16">
+      <c r="M434" s="12">
         <v>26000</v>
       </c>
-      <c r="N434" s="16">
+      <c r="N434" s="12">
         <v>26000</v>
       </c>
-      <c r="O434" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P434" s="18" t="str">
+      <c r="O434" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P434" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24229,39 +24232,39 @@
       <c r="C435" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D435" s="14" t="s">
+      <c r="D435" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E435" s="14" t="s">
+      <c r="E435" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F435" s="14">
+      <c r="F435" s="10">
         <v>764094907</v>
       </c>
-      <c r="G435" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H435" s="14" t="s">
+      <c r="G435" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H435" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I435" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J435" s="15" t="s">
+      <c r="I435" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J435" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="K435" s="14"/>
-      <c r="L435" s="14"/>
-      <c r="M435" s="16"/>
-      <c r="N435" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O435" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P435" s="18" t="str">
+      <c r="K435" s="10"/>
+      <c r="L435" s="10"/>
+      <c r="M435" s="12"/>
+      <c r="N435" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O435" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P435" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24276,39 +24279,39 @@
       <c r="C436" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D436" s="14" t="s">
+      <c r="D436" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E436" s="14" t="s">
+      <c r="E436" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F436" s="14">
+      <c r="F436" s="10">
         <v>779242678</v>
       </c>
-      <c r="G436" s="14" t="s">
+      <c r="G436" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H436" s="14" t="s">
+      <c r="H436" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I436" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J436" s="15" t="s">
+      <c r="I436" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J436" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K436" s="14"/>
-      <c r="L436" s="14"/>
-      <c r="M436" s="16"/>
-      <c r="N436" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O436" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P436" s="18" t="str">
+      <c r="K436" s="10"/>
+      <c r="L436" s="10"/>
+      <c r="M436" s="12"/>
+      <c r="N436" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O436" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P436" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24323,39 +24326,39 @@
       <c r="C437" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D437" s="14" t="s">
+      <c r="D437" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E437" s="14" t="s">
+      <c r="E437" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="F437" s="14">
+      <c r="F437" s="10">
         <v>754419069</v>
       </c>
-      <c r="G437" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H437" s="14" t="s">
+      <c r="G437" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H437" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I437" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J437" s="15" t="s">
+      <c r="I437" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J437" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="K437" s="14"/>
-      <c r="L437" s="14"/>
-      <c r="M437" s="16"/>
-      <c r="N437" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O437" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P437" s="18" t="str">
+      <c r="K437" s="10"/>
+      <c r="L437" s="10"/>
+      <c r="M437" s="12"/>
+      <c r="N437" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O437" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P437" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24370,39 +24373,39 @@
       <c r="C438" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D438" s="14" t="s">
+      <c r="D438" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E438" s="14" t="s">
+      <c r="E438" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F438" s="14">
+      <c r="F438" s="10">
         <v>776591883</v>
       </c>
-      <c r="G438" s="14" t="s">
+      <c r="G438" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H438" s="14" t="s">
+      <c r="H438" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I438" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J438" s="15" t="s">
+      <c r="I438" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J438" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="K438" s="14"/>
-      <c r="L438" s="14"/>
-      <c r="M438" s="16"/>
-      <c r="N438" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O438" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P438" s="18" t="str">
+      <c r="K438" s="10"/>
+      <c r="L438" s="10"/>
+      <c r="M438" s="12"/>
+      <c r="N438" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O438" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P438" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24417,39 +24420,39 @@
       <c r="C439" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D439" s="14" t="s">
+      <c r="D439" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E439" s="14" t="s">
+      <c r="E439" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="F439" s="14">
+      <c r="F439" s="10">
         <v>771078008</v>
       </c>
-      <c r="G439" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H439" s="14" t="s">
+      <c r="G439" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H439" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I439" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J439" s="15" t="s">
+      <c r="I439" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J439" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="K439" s="14"/>
-      <c r="L439" s="14"/>
-      <c r="M439" s="16"/>
-      <c r="N439" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O439" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P439" s="18" t="str">
+      <c r="K439" s="10"/>
+      <c r="L439" s="10"/>
+      <c r="M439" s="12"/>
+      <c r="N439" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O439" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P439" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24464,44 +24467,44 @@
       <c r="C440" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D440" s="14" t="s">
+      <c r="D440" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E440" s="14" t="s">
+      <c r="E440" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="F440" s="14">
+      <c r="F440" s="10">
         <v>775710053</v>
       </c>
-      <c r="G440" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H440" s="14" t="s">
+      <c r="G440" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H440" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I440" s="14" t="s">
+      <c r="I440" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J440" s="15" t="s">
+      <c r="J440" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="K440" s="14" t="s">
+      <c r="K440" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L440" s="14">
+      <c r="L440" s="10">
         <v>1</v>
       </c>
-      <c r="M440" s="16">
+      <c r="M440" s="12">
         <v>26000</v>
       </c>
-      <c r="N440" s="16">
+      <c r="N440" s="12">
         <v>26000</v>
       </c>
-      <c r="O440" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P440" s="18" t="str">
+      <c r="O440" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P440" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24516,44 +24519,44 @@
       <c r="C441" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D441" s="14" t="s">
+      <c r="D441" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="E441" s="14" t="s">
+      <c r="E441" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F441" s="14">
+      <c r="F441" s="10">
         <v>774849293</v>
       </c>
-      <c r="G441" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H441" s="14" t="s">
+      <c r="G441" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H441" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I441" s="14" t="s">
+      <c r="I441" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J441" s="15" t="s">
+      <c r="J441" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="K441" s="14" t="s">
+      <c r="K441" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L441" s="14">
+      <c r="L441" s="10">
         <v>5</v>
       </c>
-      <c r="M441" s="16">
+      <c r="M441" s="12">
         <v>12250</v>
       </c>
-      <c r="N441" s="16">
+      <c r="N441" s="12">
         <v>61250</v>
       </c>
-      <c r="O441" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P441" s="18" t="str">
+      <c r="O441" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P441" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24568,39 +24571,39 @@
       <c r="C442" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D442" s="14" t="s">
+      <c r="D442" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E442" s="14" t="s">
+      <c r="E442" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="F442" s="14">
+      <c r="F442" s="10">
         <v>776172449</v>
       </c>
-      <c r="G442" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H442" s="14" t="s">
+      <c r="G442" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H442" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I442" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J442" s="15" t="s">
+      <c r="I442" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J442" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="K442" s="14"/>
-      <c r="L442" s="14"/>
-      <c r="M442" s="16"/>
-      <c r="N442" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O442" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P442" s="18" t="str">
+      <c r="K442" s="10"/>
+      <c r="L442" s="10"/>
+      <c r="M442" s="12"/>
+      <c r="N442" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O442" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P442" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24615,44 +24618,44 @@
       <c r="C443" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D443" s="14" t="s">
+      <c r="D443" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E443" s="14" t="s">
+      <c r="E443" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F443" s="14">
+      <c r="F443" s="10">
         <v>771837885</v>
       </c>
-      <c r="G443" s="14" t="s">
+      <c r="G443" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H443" s="14" t="s">
+      <c r="H443" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I443" s="14" t="s">
+      <c r="I443" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J443" s="15" t="s">
+      <c r="J443" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="K443" s="14" t="s">
+      <c r="K443" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L443" s="14">
+      <c r="L443" s="10">
         <v>1</v>
       </c>
-      <c r="M443" s="16">
+      <c r="M443" s="12">
         <v>19500</v>
       </c>
-      <c r="N443" s="16">
+      <c r="N443" s="12">
         <v>19500</v>
       </c>
-      <c r="O443" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P443" s="18" t="str">
+      <c r="O443" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P443" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24667,44 +24670,44 @@
       <c r="C444" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D444" s="14" t="s">
+      <c r="D444" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="E444" s="14" t="s">
+      <c r="E444" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F444" s="14">
+      <c r="F444" s="10">
         <v>771837885</v>
       </c>
-      <c r="G444" s="14" t="s">
+      <c r="G444" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H444" s="14" t="s">
+      <c r="H444" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I444" s="14" t="s">
+      <c r="I444" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J444" s="15" t="s">
+      <c r="J444" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="K444" s="14" t="s">
+      <c r="K444" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L444" s="14">
+      <c r="L444" s="10">
         <v>1</v>
       </c>
-      <c r="M444" s="16">
+      <c r="M444" s="12">
         <v>9750</v>
       </c>
-      <c r="N444" s="16">
+      <c r="N444" s="12">
         <v>9750</v>
       </c>
-      <c r="O444" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P444" s="18" t="str">
+      <c r="O444" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P444" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24719,44 +24722,44 @@
       <c r="C445" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D445" s="14" t="s">
+      <c r="D445" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E445" s="14" t="s">
+      <c r="E445" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="F445" s="14">
+      <c r="F445" s="10">
         <v>775156666</v>
       </c>
-      <c r="G445" s="14" t="s">
+      <c r="G445" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H445" s="14" t="s">
+      <c r="H445" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I445" s="14" t="s">
+      <c r="I445" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J445" s="15" t="s">
+      <c r="J445" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="K445" s="14" t="s">
+      <c r="K445" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L445" s="14">
+      <c r="L445" s="10">
         <v>5</v>
       </c>
-      <c r="M445" s="16">
+      <c r="M445" s="12">
         <v>9750</v>
       </c>
-      <c r="N445" s="16">
+      <c r="N445" s="12">
         <v>48750</v>
       </c>
-      <c r="O445" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P445" s="18" t="str">
+      <c r="O445" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P445" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24771,44 +24774,44 @@
       <c r="C446" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D446" s="14" t="s">
+      <c r="D446" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E446" s="14" t="s">
+      <c r="E446" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="F446" s="14">
+      <c r="F446" s="10">
         <v>777756403</v>
       </c>
-      <c r="G446" s="14" t="s">
+      <c r="G446" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H446" s="14" t="s">
+      <c r="H446" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I446" s="14" t="s">
+      <c r="I446" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J446" s="15" t="s">
+      <c r="J446" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="K446" s="14" t="s">
+      <c r="K446" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L446" s="14">
+      <c r="L446" s="10">
         <v>2</v>
       </c>
-      <c r="M446" s="16">
+      <c r="M446" s="12">
         <v>19500</v>
       </c>
-      <c r="N446" s="16">
+      <c r="N446" s="12">
         <v>39000</v>
       </c>
-      <c r="O446" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P446" s="18" t="str">
+      <c r="O446" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P446" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24823,44 +24826,44 @@
       <c r="C447" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D447" s="14" t="s">
+      <c r="D447" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E447" s="14" t="s">
+      <c r="E447" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="F447" s="14">
+      <c r="F447" s="10">
         <v>774725050</v>
       </c>
-      <c r="G447" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H447" s="14" t="s">
+      <c r="G447" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H447" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I447" s="14" t="s">
+      <c r="I447" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J447" s="15" t="s">
+      <c r="J447" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="K447" s="14" t="s">
+      <c r="K447" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L447" s="14">
+      <c r="L447" s="10">
         <v>5</v>
       </c>
-      <c r="M447" s="16">
+      <c r="M447" s="12">
         <v>26000</v>
       </c>
-      <c r="N447" s="16">
+      <c r="N447" s="12">
         <v>130000</v>
       </c>
-      <c r="O447" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P447" s="18" t="str">
+      <c r="O447" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P447" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24875,39 +24878,39 @@
       <c r="C448" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D448" s="14" t="s">
+      <c r="D448" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E448" s="14" t="s">
+      <c r="E448" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="F448" s="14">
+      <c r="F448" s="10">
         <v>772539977</v>
       </c>
-      <c r="G448" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H448" s="14" t="s">
+      <c r="G448" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H448" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I448" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J448" s="15" t="s">
+      <c r="I448" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J448" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="K448" s="14"/>
-      <c r="L448" s="14"/>
-      <c r="M448" s="16"/>
-      <c r="N448" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O448" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P448" s="18" t="str">
+      <c r="K448" s="10"/>
+      <c r="L448" s="10"/>
+      <c r="M448" s="12"/>
+      <c r="N448" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O448" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P448" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24922,39 +24925,39 @@
       <c r="C449" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D449" s="14" t="s">
+      <c r="D449" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E449" s="14" t="s">
+      <c r="E449" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="F449" s="14">
+      <c r="F449" s="10">
         <v>778826078</v>
       </c>
-      <c r="G449" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H449" s="14" t="s">
+      <c r="G449" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H449" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I449" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J449" s="15" t="s">
+      <c r="I449" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J449" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="K449" s="14"/>
-      <c r="L449" s="14"/>
-      <c r="M449" s="16"/>
-      <c r="N449" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O449" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P449" s="18" t="str">
+      <c r="K449" s="10"/>
+      <c r="L449" s="10"/>
+      <c r="M449" s="12"/>
+      <c r="N449" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O449" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P449" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -24969,39 +24972,39 @@
       <c r="C450" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D450" s="14" t="s">
+      <c r="D450" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E450" s="14" t="s">
+      <c r="E450" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="F450" s="14">
+      <c r="F450" s="10">
         <v>778886969</v>
       </c>
-      <c r="G450" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H450" s="14" t="s">
+      <c r="G450" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H450" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I450" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J450" s="15" t="s">
+      <c r="I450" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J450" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="K450" s="14"/>
-      <c r="L450" s="14"/>
-      <c r="M450" s="16"/>
-      <c r="N450" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O450" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P450" s="18" t="str">
+      <c r="K450" s="10"/>
+      <c r="L450" s="10"/>
+      <c r="M450" s="12"/>
+      <c r="N450" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O450" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P450" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25016,39 +25019,39 @@
       <c r="C451" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D451" s="14" t="s">
+      <c r="D451" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E451" s="14" t="s">
+      <c r="E451" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F451" s="14">
+      <c r="F451" s="10">
         <v>777370401</v>
       </c>
-      <c r="G451" s="14" t="s">
+      <c r="G451" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H451" s="14" t="s">
+      <c r="H451" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I451" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J451" s="15" t="s">
+      <c r="I451" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J451" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K451" s="14"/>
-      <c r="L451" s="14"/>
-      <c r="M451" s="16"/>
-      <c r="N451" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O451" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P451" s="18" t="str">
+      <c r="K451" s="10"/>
+      <c r="L451" s="10"/>
+      <c r="M451" s="12"/>
+      <c r="N451" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O451" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P451" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25063,39 +25066,39 @@
       <c r="C452" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D452" s="14" t="s">
+      <c r="D452" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E452" s="14" t="s">
+      <c r="E452" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="F452" s="14">
+      <c r="F452" s="10">
         <v>777321977</v>
       </c>
-      <c r="G452" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H452" s="14" t="s">
+      <c r="G452" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H452" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I452" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J452" s="15" t="s">
+      <c r="I452" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J452" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="K452" s="14"/>
-      <c r="L452" s="14"/>
-      <c r="M452" s="16"/>
-      <c r="N452" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O452" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P452" s="18" t="str">
+      <c r="K452" s="10"/>
+      <c r="L452" s="10"/>
+      <c r="M452" s="12"/>
+      <c r="N452" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O452" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P452" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25110,39 +25113,39 @@
       <c r="C453" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D453" s="14" t="s">
+      <c r="D453" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E453" s="14" t="s">
+      <c r="E453" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="F453" s="14">
+      <c r="F453" s="10">
         <v>775663399</v>
       </c>
-      <c r="G453" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H453" s="14" t="s">
+      <c r="G453" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H453" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I453" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J453" s="15" t="s">
+      <c r="I453" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J453" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="K453" s="14"/>
-      <c r="L453" s="14"/>
-      <c r="M453" s="16"/>
-      <c r="N453" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O453" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P453" s="18" t="str">
+      <c r="K453" s="10"/>
+      <c r="L453" s="10"/>
+      <c r="M453" s="12"/>
+      <c r="N453" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O453" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P453" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25157,39 +25160,39 @@
       <c r="C454" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D454" s="14" t="s">
+      <c r="D454" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E454" s="14" t="s">
+      <c r="E454" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F454" s="14">
+      <c r="F454" s="10">
         <v>773493195</v>
       </c>
-      <c r="G454" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H454" s="14" t="s">
+      <c r="G454" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H454" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I454" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J454" s="15" t="s">
+      <c r="I454" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J454" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="K454" s="14"/>
-      <c r="L454" s="14"/>
-      <c r="M454" s="16"/>
-      <c r="N454" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O454" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P454" s="18" t="str">
+      <c r="K454" s="10"/>
+      <c r="L454" s="10"/>
+      <c r="M454" s="12"/>
+      <c r="N454" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O454" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P454" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25204,44 +25207,44 @@
       <c r="C455" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D455" s="14" t="s">
+      <c r="D455" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E455" s="14" t="s">
+      <c r="E455" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="F455" s="14">
+      <c r="F455" s="10">
         <v>779646150</v>
       </c>
-      <c r="G455" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H455" s="14" t="s">
+      <c r="G455" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H455" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I455" s="14" t="s">
+      <c r="I455" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J455" s="15" t="s">
+      <c r="J455" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K455" s="14" t="s">
+      <c r="K455" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L455" s="14">
+      <c r="L455" s="10">
         <v>10</v>
       </c>
-      <c r="M455" s="16">
+      <c r="M455" s="12">
         <v>18750</v>
       </c>
-      <c r="N455" s="16">
+      <c r="N455" s="12">
         <v>187500</v>
       </c>
-      <c r="O455" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P455" s="18" t="str">
+      <c r="O455" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P455" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25256,39 +25259,39 @@
       <c r="C456" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D456" s="14" t="s">
+      <c r="D456" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E456" s="14" t="s">
+      <c r="E456" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="F456" s="14">
+      <c r="F456" s="10">
         <v>775740574</v>
       </c>
-      <c r="G456" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H456" s="14" t="s">
+      <c r="G456" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H456" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I456" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J456" s="15" t="s">
+      <c r="I456" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J456" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="K456" s="14"/>
-      <c r="L456" s="14"/>
-      <c r="M456" s="16"/>
-      <c r="N456" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O456" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P456" s="18" t="str">
+      <c r="K456" s="10"/>
+      <c r="L456" s="10"/>
+      <c r="M456" s="12"/>
+      <c r="N456" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O456" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P456" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25303,39 +25306,39 @@
       <c r="C457" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D457" s="14" t="s">
+      <c r="D457" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E457" s="14" t="s">
+      <c r="E457" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F457" s="14">
+      <c r="F457" s="10">
         <v>782130484</v>
       </c>
-      <c r="G457" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H457" s="14" t="s">
+      <c r="G457" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H457" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I457" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J457" s="15" t="s">
+      <c r="I457" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J457" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="K457" s="14"/>
-      <c r="L457" s="14"/>
-      <c r="M457" s="16"/>
-      <c r="N457" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O457" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P457" s="18" t="str">
+      <c r="K457" s="10"/>
+      <c r="L457" s="10"/>
+      <c r="M457" s="12"/>
+      <c r="N457" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O457" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P457" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25350,39 +25353,39 @@
       <c r="C458" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D458" s="14" t="s">
+      <c r="D458" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E458" s="14" t="s">
+      <c r="E458" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="F458" s="14">
+      <c r="F458" s="10">
         <v>773725495</v>
       </c>
-      <c r="G458" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H458" s="14" t="s">
+      <c r="G458" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H458" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I458" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J458" s="15" t="s">
+      <c r="I458" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J458" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="K458" s="14"/>
-      <c r="L458" s="14"/>
-      <c r="M458" s="16"/>
-      <c r="N458" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O458" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P458" s="18" t="str">
+      <c r="K458" s="10"/>
+      <c r="L458" s="10"/>
+      <c r="M458" s="12"/>
+      <c r="N458" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O458" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P458" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25397,39 +25400,39 @@
       <c r="C459" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D459" s="14" t="s">
+      <c r="D459" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E459" s="14" t="s">
+      <c r="E459" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="F459" s="14">
+      <c r="F459" s="10">
         <v>770509812</v>
       </c>
-      <c r="G459" s="14" t="s">
+      <c r="G459" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H459" s="14" t="s">
+      <c r="H459" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I459" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J459" s="15" t="s">
+      <c r="I459" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J459" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="K459" s="14"/>
-      <c r="L459" s="14"/>
-      <c r="M459" s="16"/>
-      <c r="N459" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O459" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P459" s="18" t="str">
+      <c r="K459" s="10"/>
+      <c r="L459" s="10"/>
+      <c r="M459" s="12"/>
+      <c r="N459" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O459" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P459" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25444,39 +25447,39 @@
       <c r="C460" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D460" s="14" t="s">
+      <c r="D460" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E460" s="14" t="s">
+      <c r="E460" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="F460" s="14">
+      <c r="F460" s="10">
         <v>776536527</v>
       </c>
-      <c r="G460" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H460" s="14" t="s">
+      <c r="G460" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H460" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I460" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J460" s="15" t="s">
+      <c r="I460" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J460" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="K460" s="14"/>
-      <c r="L460" s="14"/>
-      <c r="M460" s="16"/>
-      <c r="N460" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O460" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P460" s="18" t="str">
+      <c r="K460" s="10"/>
+      <c r="L460" s="10"/>
+      <c r="M460" s="12"/>
+      <c r="N460" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O460" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P460" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25491,39 +25494,39 @@
       <c r="C461" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D461" s="14" t="s">
+      <c r="D461" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E461" s="14" t="s">
+      <c r="E461" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="F461" s="14">
+      <c r="F461" s="10">
         <v>783887602</v>
       </c>
-      <c r="G461" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H461" s="14" t="s">
+      <c r="G461" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H461" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I461" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J461" s="15" t="s">
+      <c r="I461" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J461" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="K461" s="14"/>
-      <c r="L461" s="14"/>
-      <c r="M461" s="16"/>
-      <c r="N461" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O461" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P461" s="18" t="str">
+      <c r="K461" s="10"/>
+      <c r="L461" s="10"/>
+      <c r="M461" s="12"/>
+      <c r="N461" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O461" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P461" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25538,39 +25541,39 @@
       <c r="C462" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D462" s="14" t="s">
+      <c r="D462" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E462" s="14" t="s">
+      <c r="E462" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="F462" s="14">
+      <c r="F462" s="10">
         <v>772245033</v>
       </c>
-      <c r="G462" s="14" t="s">
+      <c r="G462" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H462" s="14" t="s">
+      <c r="H462" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I462" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J462" s="15" t="s">
+      <c r="I462" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J462" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="K462" s="14"/>
-      <c r="L462" s="14"/>
-      <c r="M462" s="16"/>
-      <c r="N462" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O462" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P462" s="18" t="str">
+      <c r="K462" s="10"/>
+      <c r="L462" s="10"/>
+      <c r="M462" s="12"/>
+      <c r="N462" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O462" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P462" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25585,39 +25588,39 @@
       <c r="C463" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D463" s="14" t="s">
+      <c r="D463" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E463" s="14" t="s">
+      <c r="E463" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="F463" s="14">
+      <c r="F463" s="10">
         <v>775564814</v>
       </c>
-      <c r="G463" s="14" t="s">
+      <c r="G463" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H463" s="14" t="s">
+      <c r="H463" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I463" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J463" s="15" t="s">
+      <c r="I463" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J463" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="K463" s="14"/>
-      <c r="L463" s="14"/>
-      <c r="M463" s="16"/>
-      <c r="N463" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O463" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P463" s="18" t="str">
+      <c r="K463" s="10"/>
+      <c r="L463" s="10"/>
+      <c r="M463" s="12"/>
+      <c r="N463" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O463" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P463" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25632,39 +25635,39 @@
       <c r="C464" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D464" s="14" t="s">
+      <c r="D464" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E464" s="14" t="s">
+      <c r="E464" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="F464" s="14">
+      <c r="F464" s="10">
         <v>775649041</v>
       </c>
-      <c r="G464" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H464" s="14" t="s">
+      <c r="G464" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H464" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I464" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J464" s="15" t="s">
+      <c r="I464" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J464" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="K464" s="14"/>
-      <c r="L464" s="14"/>
-      <c r="M464" s="16"/>
-      <c r="N464" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O464" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P464" s="18" t="str">
+      <c r="K464" s="10"/>
+      <c r="L464" s="10"/>
+      <c r="M464" s="12"/>
+      <c r="N464" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O464" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P464" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25679,39 +25682,39 @@
       <c r="C465" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D465" s="14" t="s">
+      <c r="D465" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E465" s="14" t="s">
+      <c r="E465" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="F465" s="14">
+      <c r="F465" s="10">
         <v>784551637</v>
       </c>
-      <c r="G465" s="14" t="s">
+      <c r="G465" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H465" s="14" t="s">
+      <c r="H465" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I465" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J465" s="15" t="s">
+      <c r="I465" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J465" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="K465" s="14"/>
-      <c r="L465" s="14"/>
-      <c r="M465" s="16"/>
-      <c r="N465" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O465" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P465" s="18" t="str">
+      <c r="K465" s="10"/>
+      <c r="L465" s="10"/>
+      <c r="M465" s="12"/>
+      <c r="N465" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O465" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P465" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25726,39 +25729,39 @@
       <c r="C466" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D466" s="14" t="s">
+      <c r="D466" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E466" s="14" t="s">
+      <c r="E466" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="F466" s="14">
+      <c r="F466" s="10">
         <v>773887602</v>
       </c>
-      <c r="G466" s="14" t="s">
+      <c r="G466" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H466" s="14" t="s">
+      <c r="H466" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I466" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J466" s="15" t="s">
+      <c r="I466" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J466" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="K466" s="14"/>
-      <c r="L466" s="14"/>
-      <c r="M466" s="16"/>
-      <c r="N466" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O466" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P466" s="18" t="str">
+      <c r="K466" s="10"/>
+      <c r="L466" s="10"/>
+      <c r="M466" s="12"/>
+      <c r="N466" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O466" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P466" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25773,39 +25776,39 @@
       <c r="C467" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D467" s="14" t="s">
+      <c r="D467" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E467" s="14" t="s">
+      <c r="E467" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="F467" s="14">
+      <c r="F467" s="10">
         <v>781627979</v>
       </c>
-      <c r="G467" s="14" t="s">
+      <c r="G467" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H467" s="14" t="s">
+      <c r="H467" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I467" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J467" s="15" t="s">
+      <c r="I467" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J467" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K467" s="14"/>
-      <c r="L467" s="14"/>
-      <c r="M467" s="16"/>
-      <c r="N467" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O467" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P467" s="18" t="str">
+      <c r="K467" s="10"/>
+      <c r="L467" s="10"/>
+      <c r="M467" s="12"/>
+      <c r="N467" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O467" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P467" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25820,44 +25823,44 @@
       <c r="C468" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D468" s="14" t="s">
+      <c r="D468" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E468" s="14" t="s">
+      <c r="E468" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="F468" s="14">
+      <c r="F468" s="10">
         <v>778657940</v>
       </c>
-      <c r="G468" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H468" s="14" t="s">
+      <c r="G468" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H468" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I468" s="14" t="s">
+      <c r="I468" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J468" s="15" t="s">
+      <c r="J468" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="K468" s="14" t="s">
+      <c r="K468" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L468" s="14">
+      <c r="L468" s="10">
         <v>25</v>
       </c>
-      <c r="M468" s="16">
+      <c r="M468" s="12">
         <v>26000</v>
       </c>
-      <c r="N468" s="16">
+      <c r="N468" s="12">
         <v>650000</v>
       </c>
-      <c r="O468" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P468" s="18" t="str">
+      <c r="O468" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P468" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25872,39 +25875,39 @@
       <c r="C469" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D469" s="14" t="s">
+      <c r="D469" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E469" s="14" t="s">
+      <c r="E469" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="F469" s="14">
+      <c r="F469" s="10">
         <v>772506388</v>
       </c>
-      <c r="G469" s="14" t="s">
+      <c r="G469" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H469" s="14" t="s">
+      <c r="H469" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I469" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J469" s="15" t="s">
+      <c r="I469" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J469" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="K469" s="14"/>
-      <c r="L469" s="14"/>
-      <c r="M469" s="16"/>
-      <c r="N469" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O469" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P469" s="18" t="str">
+      <c r="K469" s="10"/>
+      <c r="L469" s="10"/>
+      <c r="M469" s="12"/>
+      <c r="N469" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O469" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P469" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25919,39 +25922,39 @@
       <c r="C470" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D470" s="14" t="s">
+      <c r="D470" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E470" s="14" t="s">
+      <c r="E470" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="F470" s="14">
+      <c r="F470" s="10">
         <v>777861171</v>
       </c>
-      <c r="G470" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H470" s="14" t="s">
+      <c r="G470" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H470" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I470" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J470" s="15" t="s">
+      <c r="I470" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J470" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="K470" s="14"/>
-      <c r="L470" s="14"/>
-      <c r="M470" s="16"/>
-      <c r="N470" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O470" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P470" s="18" t="str">
+      <c r="K470" s="10"/>
+      <c r="L470" s="10"/>
+      <c r="M470" s="12"/>
+      <c r="N470" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O470" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P470" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -25966,39 +25969,39 @@
       <c r="C471" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D471" s="14" t="s">
+      <c r="D471" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E471" s="14" t="s">
+      <c r="E471" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="F471" s="14">
+      <c r="F471" s="10">
         <v>778103828</v>
       </c>
-      <c r="G471" s="14" t="s">
+      <c r="G471" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H471" s="14" t="s">
+      <c r="H471" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I471" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J471" s="15" t="s">
+      <c r="I471" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J471" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="K471" s="14"/>
-      <c r="L471" s="14"/>
-      <c r="M471" s="16"/>
-      <c r="N471" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O471" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P471" s="18" t="str">
+      <c r="K471" s="10"/>
+      <c r="L471" s="10"/>
+      <c r="M471" s="12"/>
+      <c r="N471" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O471" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P471" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26013,39 +26016,39 @@
       <c r="C472" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D472" s="14" t="s">
+      <c r="D472" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E472" s="14" t="s">
+      <c r="E472" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="F472" s="14">
+      <c r="F472" s="10">
         <v>779344631</v>
       </c>
-      <c r="G472" s="14" t="s">
+      <c r="G472" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H472" s="14" t="s">
+      <c r="H472" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I472" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J472" s="15" t="s">
+      <c r="I472" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J472" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="K472" s="14"/>
-      <c r="L472" s="14"/>
-      <c r="M472" s="16"/>
-      <c r="N472" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O472" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P472" s="18" t="str">
+      <c r="K472" s="10"/>
+      <c r="L472" s="10"/>
+      <c r="M472" s="12"/>
+      <c r="N472" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O472" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P472" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26060,39 +26063,39 @@
       <c r="C473" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D473" s="14" t="s">
+      <c r="D473" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E473" s="14" t="s">
+      <c r="E473" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="F473" s="14">
+      <c r="F473" s="10">
         <v>775262371</v>
       </c>
-      <c r="G473" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H473" s="14" t="s">
+      <c r="G473" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H473" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I473" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J473" s="15" t="s">
+      <c r="I473" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J473" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="K473" s="14"/>
-      <c r="L473" s="14"/>
-      <c r="M473" s="16"/>
-      <c r="N473" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O473" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P473" s="18" t="str">
+      <c r="K473" s="10"/>
+      <c r="L473" s="10"/>
+      <c r="M473" s="12"/>
+      <c r="N473" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O473" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P473" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26107,39 +26110,39 @@
       <c r="C474" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D474" s="14" t="s">
+      <c r="D474" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E474" s="14" t="s">
+      <c r="E474" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F474" s="14">
+      <c r="F474" s="10">
         <v>762735182</v>
       </c>
-      <c r="G474" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H474" s="14" t="s">
+      <c r="G474" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H474" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I474" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J474" s="15" t="s">
+      <c r="I474" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J474" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="K474" s="14"/>
-      <c r="L474" s="14"/>
-      <c r="M474" s="16"/>
-      <c r="N474" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O474" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P474" s="18" t="str">
+      <c r="K474" s="10"/>
+      <c r="L474" s="10"/>
+      <c r="M474" s="12"/>
+      <c r="N474" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O474" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P474" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26154,39 +26157,39 @@
       <c r="C475" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D475" s="14" t="s">
+      <c r="D475" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E475" s="14" t="s">
+      <c r="E475" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="F475" s="14">
+      <c r="F475" s="10">
         <v>761509551</v>
       </c>
-      <c r="G475" s="14" t="s">
+      <c r="G475" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H475" s="14" t="s">
+      <c r="H475" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I475" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J475" s="15" t="s">
+      <c r="I475" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J475" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="K475" s="14"/>
-      <c r="L475" s="14"/>
-      <c r="M475" s="16"/>
-      <c r="N475" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O475" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P475" s="18" t="str">
+      <c r="K475" s="10"/>
+      <c r="L475" s="10"/>
+      <c r="M475" s="12"/>
+      <c r="N475" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O475" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P475" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26201,39 +26204,39 @@
       <c r="C476" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D476" s="14" t="s">
+      <c r="D476" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E476" s="14" t="s">
+      <c r="E476" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="F476" s="14">
+      <c r="F476" s="10">
         <v>776413480</v>
       </c>
-      <c r="G476" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H476" s="14" t="s">
+      <c r="G476" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H476" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I476" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J476" s="15" t="s">
+      <c r="I476" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J476" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="K476" s="14"/>
-      <c r="L476" s="14"/>
-      <c r="M476" s="16"/>
-      <c r="N476" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O476" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P476" s="18" t="str">
+      <c r="K476" s="10"/>
+      <c r="L476" s="10"/>
+      <c r="M476" s="12"/>
+      <c r="N476" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O476" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P476" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26248,39 +26251,39 @@
       <c r="C477" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D477" s="14" t="s">
+      <c r="D477" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E477" s="14" t="s">
+      <c r="E477" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="F477" s="14">
+      <c r="F477" s="10">
         <v>774105610</v>
       </c>
-      <c r="G477" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H477" s="14" t="s">
+      <c r="G477" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H477" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I477" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J477" s="15" t="s">
+      <c r="I477" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J477" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K477" s="14"/>
-      <c r="L477" s="14"/>
-      <c r="M477" s="16"/>
-      <c r="N477" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O477" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P477" s="18" t="str">
+      <c r="K477" s="10"/>
+      <c r="L477" s="10"/>
+      <c r="M477" s="12"/>
+      <c r="N477" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O477" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P477" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26295,39 +26298,39 @@
       <c r="C478" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D478" s="14" t="s">
+      <c r="D478" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E478" s="14" t="s">
+      <c r="E478" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="F478" s="14">
+      <c r="F478" s="10">
         <v>778066928</v>
       </c>
-      <c r="G478" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H478" s="14" t="s">
+      <c r="G478" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H478" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I478" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J478" s="15" t="s">
+      <c r="I478" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J478" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K478" s="14"/>
-      <c r="L478" s="14"/>
-      <c r="M478" s="16"/>
-      <c r="N478" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O478" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P478" s="18" t="str">
+      <c r="K478" s="10"/>
+      <c r="L478" s="10"/>
+      <c r="M478" s="12"/>
+      <c r="N478" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O478" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P478" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26342,39 +26345,39 @@
       <c r="C479" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D479" s="14" t="s">
+      <c r="D479" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E479" s="14" t="s">
+      <c r="E479" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="F479" s="14">
+      <c r="F479" s="10">
         <v>780137992</v>
       </c>
-      <c r="G479" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H479" s="14" t="s">
+      <c r="G479" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H479" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I479" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J479" s="15" t="s">
+      <c r="I479" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J479" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K479" s="14"/>
-      <c r="L479" s="14"/>
-      <c r="M479" s="16"/>
-      <c r="N479" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O479" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P479" s="18" t="str">
+      <c r="K479" s="10"/>
+      <c r="L479" s="10"/>
+      <c r="M479" s="12"/>
+      <c r="N479" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O479" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P479" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26389,39 +26392,39 @@
       <c r="C480" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D480" s="14" t="s">
+      <c r="D480" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E480" s="14" t="s">
+      <c r="E480" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="F480" s="14">
+      <c r="F480" s="10">
         <v>784071086</v>
       </c>
-      <c r="G480" s="14" t="s">
+      <c r="G480" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H480" s="14" t="s">
+      <c r="H480" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I480" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J480" s="15" t="s">
+      <c r="I480" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J480" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K480" s="14"/>
-      <c r="L480" s="14"/>
-      <c r="M480" s="16"/>
-      <c r="N480" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O480" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P480" s="18" t="str">
+      <c r="K480" s="10"/>
+      <c r="L480" s="10"/>
+      <c r="M480" s="12"/>
+      <c r="N480" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O480" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P480" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26436,39 +26439,39 @@
       <c r="C481" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D481" s="14" t="s">
+      <c r="D481" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E481" s="14" t="s">
+      <c r="E481" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F481" s="14">
+      <c r="F481" s="10">
         <v>777427919</v>
       </c>
-      <c r="G481" s="14" t="s">
+      <c r="G481" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H481" s="14" t="s">
+      <c r="H481" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I481" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J481" s="15" t="s">
+      <c r="I481" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J481" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K481" s="14"/>
-      <c r="L481" s="14"/>
-      <c r="M481" s="16"/>
-      <c r="N481" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O481" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P481" s="18" t="str">
+      <c r="K481" s="10"/>
+      <c r="L481" s="10"/>
+      <c r="M481" s="12"/>
+      <c r="N481" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O481" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P481" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26483,39 +26486,39 @@
       <c r="C482" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D482" s="14" t="s">
+      <c r="D482" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E482" s="14" t="s">
+      <c r="E482" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="F482" s="14">
+      <c r="F482" s="10">
         <v>774540017</v>
       </c>
-      <c r="G482" s="14" t="s">
+      <c r="G482" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H482" s="14" t="s">
+      <c r="H482" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I482" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J482" s="15" t="s">
+      <c r="I482" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J482" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K482" s="14"/>
-      <c r="L482" s="14"/>
-      <c r="M482" s="16"/>
-      <c r="N482" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O482" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P482" s="18" t="str">
+      <c r="K482" s="10"/>
+      <c r="L482" s="10"/>
+      <c r="M482" s="12"/>
+      <c r="N482" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O482" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P482" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26530,39 +26533,39 @@
       <c r="C483" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D483" s="14" t="s">
+      <c r="D483" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E483" s="14" t="s">
+      <c r="E483" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="F483" s="14">
+      <c r="F483" s="10">
         <v>761315270</v>
       </c>
-      <c r="G483" s="14" t="s">
+      <c r="G483" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H483" s="14" t="s">
+      <c r="H483" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I483" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J483" s="15" t="s">
+      <c r="I483" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J483" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K483" s="14"/>
-      <c r="L483" s="14"/>
-      <c r="M483" s="16"/>
-      <c r="N483" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O483" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P483" s="18" t="str">
+      <c r="K483" s="10"/>
+      <c r="L483" s="10"/>
+      <c r="M483" s="12"/>
+      <c r="N483" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O483" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P483" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26577,39 +26580,39 @@
       <c r="C484" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D484" s="14" t="s">
+      <c r="D484" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E484" s="14" t="s">
+      <c r="E484" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="F484" s="14">
+      <c r="F484" s="10">
         <v>780137992</v>
       </c>
-      <c r="G484" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H484" s="14" t="s">
+      <c r="G484" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H484" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I484" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J484" s="15" t="s">
+      <c r="I484" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J484" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K484" s="14"/>
-      <c r="L484" s="14"/>
-      <c r="M484" s="16"/>
-      <c r="N484" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O484" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P484" s="18" t="str">
+      <c r="K484" s="10"/>
+      <c r="L484" s="10"/>
+      <c r="M484" s="12"/>
+      <c r="N484" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O484" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P484" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26624,39 +26627,39 @@
       <c r="C485" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D485" s="14" t="s">
+      <c r="D485" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E485" s="14" t="s">
+      <c r="E485" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="F485" s="14">
+      <c r="F485" s="10">
         <v>778066928</v>
       </c>
-      <c r="G485" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H485" s="14" t="s">
+      <c r="G485" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H485" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I485" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J485" s="15" t="s">
+      <c r="I485" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J485" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K485" s="14"/>
-      <c r="L485" s="14"/>
-      <c r="M485" s="16"/>
-      <c r="N485" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O485" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P485" s="18" t="str">
+      <c r="K485" s="10"/>
+      <c r="L485" s="10"/>
+      <c r="M485" s="12"/>
+      <c r="N485" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O485" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P485" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26671,44 +26674,44 @@
       <c r="C486" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D486" s="14" t="s">
+      <c r="D486" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E486" s="14" t="s">
+      <c r="E486" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="F486" s="14">
+      <c r="F486" s="10">
         <v>779072194</v>
       </c>
-      <c r="G486" s="14" t="s">
+      <c r="G486" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H486" s="14" t="s">
+      <c r="H486" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I486" s="14" t="s">
+      <c r="I486" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J486" s="15" t="s">
+      <c r="J486" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K486" s="14" t="s">
+      <c r="K486" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L486" s="14">
+      <c r="L486" s="10">
         <v>1</v>
       </c>
-      <c r="M486" s="16">
+      <c r="M486" s="12">
         <v>26000</v>
       </c>
-      <c r="N486" s="16">
+      <c r="N486" s="12">
         <v>26000</v>
       </c>
-      <c r="O486" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P486" s="18" t="str">
+      <c r="O486" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P486" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26723,44 +26726,44 @@
       <c r="C487" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D487" s="14" t="s">
+      <c r="D487" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E487" s="14" t="s">
+      <c r="E487" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F487" s="14">
+      <c r="F487" s="10">
         <v>774187389</v>
       </c>
-      <c r="G487" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H487" s="14" t="s">
+      <c r="G487" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H487" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I487" s="14" t="s">
+      <c r="I487" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J487" s="15" t="s">
+      <c r="J487" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="K487" s="14" t="s">
+      <c r="K487" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L487" s="14">
+      <c r="L487" s="10">
         <v>25</v>
       </c>
-      <c r="M487" s="16">
+      <c r="M487" s="12">
         <v>26000</v>
       </c>
-      <c r="N487" s="16">
+      <c r="N487" s="12">
         <v>650000</v>
       </c>
-      <c r="O487" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P487" s="18" t="str">
+      <c r="O487" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P487" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26775,39 +26778,39 @@
       <c r="C488" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D488" s="14" t="s">
+      <c r="D488" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E488" s="14" t="s">
+      <c r="E488" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="F488" s="14">
+      <c r="F488" s="10">
         <v>779724512</v>
       </c>
-      <c r="G488" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H488" s="14" t="s">
+      <c r="G488" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H488" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I488" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J488" s="15" t="s">
+      <c r="I488" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J488" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="K488" s="14"/>
-      <c r="L488" s="14"/>
-      <c r="M488" s="16"/>
-      <c r="N488" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O488" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P488" s="18" t="str">
+      <c r="K488" s="10"/>
+      <c r="L488" s="10"/>
+      <c r="M488" s="12"/>
+      <c r="N488" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O488" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P488" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26822,39 +26825,39 @@
       <c r="C489" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D489" s="14" t="s">
+      <c r="D489" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E489" s="14" t="s">
+      <c r="E489" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="F489" s="14">
+      <c r="F489" s="10">
         <v>775038524</v>
       </c>
-      <c r="G489" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H489" s="14" t="s">
+      <c r="G489" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H489" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I489" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J489" s="15" t="s">
+      <c r="I489" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J489" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="K489" s="14"/>
-      <c r="L489" s="14"/>
-      <c r="M489" s="16"/>
-      <c r="N489" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O489" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P489" s="18" t="str">
+      <c r="K489" s="10"/>
+      <c r="L489" s="10"/>
+      <c r="M489" s="12"/>
+      <c r="N489" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O489" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P489" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26869,39 +26872,39 @@
       <c r="C490" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D490" s="14" t="s">
+      <c r="D490" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E490" s="14" t="s">
+      <c r="E490" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="F490" s="14">
+      <c r="F490" s="10">
         <v>777929047</v>
       </c>
-      <c r="G490" s="14" t="s">
+      <c r="G490" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H490" s="14" t="s">
+      <c r="H490" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I490" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J490" s="15" t="s">
+      <c r="I490" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J490" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K490" s="14"/>
-      <c r="L490" s="14"/>
-      <c r="M490" s="16"/>
-      <c r="N490" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O490" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P490" s="18" t="str">
+      <c r="K490" s="10"/>
+      <c r="L490" s="10"/>
+      <c r="M490" s="12"/>
+      <c r="N490" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O490" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P490" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26916,39 +26919,39 @@
       <c r="C491" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D491" s="14" t="s">
+      <c r="D491" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E491" s="14" t="s">
+      <c r="E491" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="F491" s="14">
+      <c r="F491" s="10">
         <v>763198632</v>
       </c>
-      <c r="G491" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H491" s="14" t="s">
+      <c r="G491" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H491" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I491" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J491" s="15" t="s">
+      <c r="I491" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J491" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="K491" s="14"/>
-      <c r="L491" s="14"/>
-      <c r="M491" s="16"/>
-      <c r="N491" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O491" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P491" s="18" t="str">
+      <c r="K491" s="10"/>
+      <c r="L491" s="10"/>
+      <c r="M491" s="12"/>
+      <c r="N491" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O491" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P491" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -26963,44 +26966,44 @@
       <c r="C492" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D492" s="14" t="s">
+      <c r="D492" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E492" s="14" t="s">
+      <c r="E492" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F492" s="14">
+      <c r="F492" s="10">
         <v>773756258</v>
       </c>
-      <c r="G492" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H492" s="14" t="s">
+      <c r="G492" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H492" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I492" s="14" t="s">
+      <c r="I492" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J492" s="15" t="s">
+      <c r="J492" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K492" s="14" t="s">
+      <c r="K492" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L492" s="14">
+      <c r="L492" s="10">
         <v>25</v>
       </c>
-      <c r="M492" s="16">
+      <c r="M492" s="12">
         <v>26000</v>
       </c>
-      <c r="N492" s="16">
+      <c r="N492" s="12">
         <v>650000</v>
       </c>
-      <c r="O492" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P492" s="18" t="str">
+      <c r="O492" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P492" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27015,44 +27018,44 @@
       <c r="C493" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D493" s="14" t="s">
+      <c r="D493" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E493" s="14" t="s">
+      <c r="E493" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="F493" s="14">
+      <c r="F493" s="10">
         <v>775484487</v>
       </c>
-      <c r="G493" s="14" t="s">
+      <c r="G493" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H493" s="14" t="s">
+      <c r="H493" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I493" s="14" t="s">
+      <c r="I493" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J493" s="15" t="s">
+      <c r="J493" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="K493" s="14" t="s">
+      <c r="K493" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="L493" s="14">
+      <c r="L493" s="10">
         <v>1</v>
       </c>
-      <c r="M493" s="16">
+      <c r="M493" s="12">
         <v>33500</v>
       </c>
-      <c r="N493" s="16">
+      <c r="N493" s="12">
         <v>33500</v>
       </c>
-      <c r="O493" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P493" s="18" t="str">
+      <c r="O493" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P493" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27067,44 +27070,44 @@
       <c r="C494" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D494" s="14" t="s">
+      <c r="D494" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E494" s="14" t="s">
+      <c r="E494" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="F494" s="14">
+      <c r="F494" s="10">
         <v>775484487</v>
       </c>
-      <c r="G494" s="14" t="s">
+      <c r="G494" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H494" s="14" t="s">
+      <c r="H494" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I494" s="14" t="s">
+      <c r="I494" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J494" s="15" t="s">
+      <c r="J494" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="K494" s="14" t="s">
+      <c r="K494" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="L494" s="14">
+      <c r="L494" s="10">
         <v>2</v>
       </c>
-      <c r="M494" s="16">
+      <c r="M494" s="12">
         <v>7500</v>
       </c>
-      <c r="N494" s="16">
+      <c r="N494" s="12">
         <v>15000</v>
       </c>
-      <c r="O494" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P494" s="18" t="str">
+      <c r="O494" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P494" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27119,44 +27122,44 @@
       <c r="C495" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D495" s="14" t="s">
+      <c r="D495" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E495" s="14" t="s">
+      <c r="E495" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="F495" s="14">
+      <c r="F495" s="10">
         <v>775484487</v>
       </c>
-      <c r="G495" s="14" t="s">
+      <c r="G495" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H495" s="14" t="s">
+      <c r="H495" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I495" s="14" t="s">
+      <c r="I495" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J495" s="15" t="s">
+      <c r="J495" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="K495" s="14" t="s">
+      <c r="K495" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="L495" s="14">
+      <c r="L495" s="10">
         <v>1</v>
       </c>
-      <c r="M495" s="16">
+      <c r="M495" s="12">
         <v>31000</v>
       </c>
-      <c r="N495" s="16">
+      <c r="N495" s="12">
         <v>31000</v>
       </c>
-      <c r="O495" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P495" s="18" t="str">
+      <c r="O495" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P495" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27171,39 +27174,39 @@
       <c r="C496" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D496" s="14" t="s">
+      <c r="D496" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E496" s="14" t="s">
+      <c r="E496" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="F496" s="14">
+      <c r="F496" s="10">
         <v>765769030</v>
       </c>
-      <c r="G496" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H496" s="14" t="s">
+      <c r="G496" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H496" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I496" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J496" s="15" t="s">
+      <c r="I496" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J496" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="K496" s="14"/>
-      <c r="L496" s="14"/>
-      <c r="M496" s="16"/>
-      <c r="N496" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O496" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P496" s="18" t="str">
+      <c r="K496" s="10"/>
+      <c r="L496" s="10"/>
+      <c r="M496" s="12"/>
+      <c r="N496" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O496" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P496" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27218,39 +27221,39 @@
       <c r="C497" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D497" s="14" t="s">
+      <c r="D497" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E497" s="14" t="s">
+      <c r="E497" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="F497" s="14">
+      <c r="F497" s="10">
         <v>785923657</v>
       </c>
-      <c r="G497" s="14" t="s">
+      <c r="G497" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H497" s="14" t="s">
+      <c r="H497" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I497" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J497" s="15" t="s">
+      <c r="I497" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J497" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="K497" s="14"/>
-      <c r="L497" s="14"/>
-      <c r="M497" s="16"/>
-      <c r="N497" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O497" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P497" s="18" t="str">
+      <c r="K497" s="10"/>
+      <c r="L497" s="10"/>
+      <c r="M497" s="12"/>
+      <c r="N497" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O497" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P497" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27265,39 +27268,39 @@
       <c r="C498" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D498" s="14" t="s">
+      <c r="D498" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E498" s="14" t="s">
+      <c r="E498" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="F498" s="14">
+      <c r="F498" s="10">
         <v>770922815</v>
       </c>
-      <c r="G498" s="14" t="s">
+      <c r="G498" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H498" s="14" t="s">
+      <c r="H498" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I498" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J498" s="15" t="s">
+      <c r="I498" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J498" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="K498" s="14"/>
-      <c r="L498" s="14"/>
-      <c r="M498" s="16"/>
-      <c r="N498" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O498" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P498" s="18" t="str">
+      <c r="K498" s="10"/>
+      <c r="L498" s="10"/>
+      <c r="M498" s="12"/>
+      <c r="N498" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O498" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P498" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27312,44 +27315,44 @@
       <c r="C499" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D499" s="14" t="s">
+      <c r="D499" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E499" s="14" t="s">
+      <c r="E499" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F499" s="14">
+      <c r="F499" s="10">
         <v>776194586</v>
       </c>
-      <c r="G499" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H499" s="14" t="s">
+      <c r="G499" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H499" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I499" s="14" t="s">
+      <c r="I499" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J499" s="15" t="s">
+      <c r="J499" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="K499" s="14" t="s">
+      <c r="K499" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L499" s="14">
+      <c r="L499" s="10">
         <v>10</v>
       </c>
-      <c r="M499" s="16">
+      <c r="M499" s="12">
         <v>26000</v>
       </c>
-      <c r="N499" s="16">
+      <c r="N499" s="12">
         <v>260000</v>
       </c>
-      <c r="O499" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P499" s="18" t="str">
+      <c r="O499" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P499" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27364,39 +27367,39 @@
       <c r="C500" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D500" s="14" t="s">
+      <c r="D500" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E500" s="14" t="s">
+      <c r="E500" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="F500" s="14">
+      <c r="F500" s="10">
         <v>782442821</v>
       </c>
-      <c r="G500" s="14" t="s">
+      <c r="G500" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H500" s="14" t="s">
+      <c r="H500" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I500" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J500" s="15" t="s">
+      <c r="I500" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J500" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="K500" s="14"/>
-      <c r="L500" s="14"/>
-      <c r="M500" s="16"/>
-      <c r="N500" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O500" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P500" s="18" t="str">
+      <c r="K500" s="10"/>
+      <c r="L500" s="10"/>
+      <c r="M500" s="12"/>
+      <c r="N500" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O500" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P500" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27411,39 +27414,39 @@
       <c r="C501" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D501" s="14" t="s">
+      <c r="D501" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E501" s="14" t="s">
+      <c r="E501" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F501" s="14">
+      <c r="F501" s="10">
         <v>770450834</v>
       </c>
-      <c r="G501" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H501" s="14" t="s">
+      <c r="G501" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H501" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I501" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J501" s="15" t="s">
+      <c r="I501" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J501" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="K501" s="14"/>
-      <c r="L501" s="14"/>
-      <c r="M501" s="16"/>
-      <c r="N501" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O501" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P501" s="18" t="str">
+      <c r="K501" s="10"/>
+      <c r="L501" s="10"/>
+      <c r="M501" s="12"/>
+      <c r="N501" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O501" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P501" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27458,39 +27461,39 @@
       <c r="C502" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D502" s="14" t="s">
+      <c r="D502" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E502" s="14" t="s">
+      <c r="E502" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="F502" s="14">
+      <c r="F502" s="10">
         <v>773806309</v>
       </c>
-      <c r="G502" s="14" t="s">
+      <c r="G502" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H502" s="14" t="s">
+      <c r="H502" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I502" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J502" s="15" t="s">
+      <c r="I502" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J502" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="K502" s="14"/>
-      <c r="L502" s="14"/>
-      <c r="M502" s="16"/>
-      <c r="N502" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O502" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P502" s="18" t="str">
+      <c r="K502" s="10"/>
+      <c r="L502" s="10"/>
+      <c r="M502" s="12"/>
+      <c r="N502" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O502" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P502" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27505,39 +27508,39 @@
       <c r="C503" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D503" s="14" t="s">
+      <c r="D503" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E503" s="14" t="s">
+      <c r="E503" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="F503" s="14">
+      <c r="F503" s="10">
         <v>761924801</v>
       </c>
-      <c r="G503" s="14" t="s">
+      <c r="G503" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="H503" s="14" t="s">
+      <c r="H503" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I503" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J503" s="15" t="s">
+      <c r="I503" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J503" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="K503" s="14"/>
-      <c r="L503" s="14"/>
-      <c r="M503" s="16"/>
-      <c r="N503" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O503" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P503" s="18" t="str">
+      <c r="K503" s="10"/>
+      <c r="L503" s="10"/>
+      <c r="M503" s="12"/>
+      <c r="N503" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O503" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P503" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27552,39 +27555,39 @@
       <c r="C504" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D504" s="14" t="s">
+      <c r="D504" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E504" s="14" t="s">
+      <c r="E504" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="F504" s="14">
+      <c r="F504" s="10">
         <v>775276149</v>
       </c>
-      <c r="G504" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H504" s="14" t="s">
+      <c r="G504" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H504" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I504" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J504" s="15" t="s">
+      <c r="I504" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J504" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="K504" s="14"/>
-      <c r="L504" s="14"/>
-      <c r="M504" s="16"/>
-      <c r="N504" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O504" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P504" s="18" t="str">
+      <c r="K504" s="10"/>
+      <c r="L504" s="10"/>
+      <c r="M504" s="12"/>
+      <c r="N504" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O504" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P504" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27599,39 +27602,39 @@
       <c r="C505" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D505" s="14" t="s">
+      <c r="D505" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="E505" s="14" t="s">
+      <c r="E505" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F505" s="14">
+      <c r="F505" s="10">
         <v>772070286</v>
       </c>
-      <c r="G505" s="14" t="s">
+      <c r="G505" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H505" s="14" t="s">
+      <c r="H505" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I505" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J505" s="15" t="s">
+      <c r="I505" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J505" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="K505" s="14"/>
-      <c r="L505" s="14"/>
-      <c r="M505" s="16"/>
-      <c r="N505" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O505" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P505" s="18" t="str">
+      <c r="K505" s="10"/>
+      <c r="L505" s="10"/>
+      <c r="M505" s="12"/>
+      <c r="N505" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O505" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P505" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27646,39 +27649,39 @@
       <c r="C506" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D506" s="14" t="s">
+      <c r="D506" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="E506" s="14" t="s">
+      <c r="E506" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="F506" s="14">
+      <c r="F506" s="10">
         <v>775014335</v>
       </c>
-      <c r="G506" s="14" t="s">
+      <c r="G506" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H506" s="14" t="s">
+      <c r="H506" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I506" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J506" s="15" t="s">
+      <c r="I506" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J506" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="K506" s="14"/>
-      <c r="L506" s="14"/>
-      <c r="M506" s="16"/>
-      <c r="N506" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O506" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P506" s="18" t="str">
+      <c r="K506" s="10"/>
+      <c r="L506" s="10"/>
+      <c r="M506" s="12"/>
+      <c r="N506" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O506" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P506" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27693,39 +27696,39 @@
       <c r="C507" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D507" s="14" t="s">
+      <c r="D507" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="E507" s="14" t="s">
+      <c r="E507" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F507" s="14">
+      <c r="F507" s="10">
         <v>772222253</v>
       </c>
-      <c r="G507" s="14" t="s">
+      <c r="G507" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H507" s="14" t="s">
+      <c r="H507" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I507" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J507" s="15" t="s">
+      <c r="I507" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J507" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="K507" s="14"/>
-      <c r="L507" s="14"/>
-      <c r="M507" s="16"/>
-      <c r="N507" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O507" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P507" s="18" t="str">
+      <c r="K507" s="10"/>
+      <c r="L507" s="10"/>
+      <c r="M507" s="12"/>
+      <c r="N507" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O507" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P507" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27740,39 +27743,39 @@
       <c r="C508" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D508" s="14" t="s">
+      <c r="D508" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E508" s="14" t="s">
+      <c r="E508" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="F508" s="14">
+      <c r="F508" s="10">
         <v>775344311</v>
       </c>
-      <c r="G508" s="14" t="s">
+      <c r="G508" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H508" s="14" t="s">
+      <c r="H508" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I508" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J508" s="15" t="s">
+      <c r="I508" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J508" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="K508" s="14"/>
-      <c r="L508" s="14"/>
-      <c r="M508" s="16"/>
-      <c r="N508" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O508" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P508" s="18" t="str">
+      <c r="K508" s="10"/>
+      <c r="L508" s="10"/>
+      <c r="M508" s="12"/>
+      <c r="N508" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O508" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P508" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27787,39 +27790,39 @@
       <c r="C509" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D509" s="14" t="s">
+      <c r="D509" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E509" s="14" t="s">
+      <c r="E509" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="F509" s="14">
+      <c r="F509" s="10">
         <v>775649041</v>
       </c>
-      <c r="G509" s="14" t="s">
+      <c r="G509" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H509" s="14" t="s">
+      <c r="H509" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I509" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J509" s="15" t="s">
+      <c r="I509" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J509" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="K509" s="14"/>
-      <c r="L509" s="14"/>
-      <c r="M509" s="16"/>
-      <c r="N509" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O509" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P509" s="18" t="str">
+      <c r="K509" s="10"/>
+      <c r="L509" s="10"/>
+      <c r="M509" s="12"/>
+      <c r="N509" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O509" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P509" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27834,44 +27837,44 @@
       <c r="C510" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D510" s="14" t="s">
+      <c r="D510" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E510" s="14" t="s">
+      <c r="E510" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="F510" s="14">
+      <c r="F510" s="10">
         <v>775484487</v>
       </c>
-      <c r="G510" s="14" t="s">
+      <c r="G510" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H510" s="14" t="s">
+      <c r="H510" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I510" s="14" t="s">
+      <c r="I510" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J510" s="15" t="s">
+      <c r="J510" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="K510" s="14" t="s">
+      <c r="K510" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="L510" s="14">
+      <c r="L510" s="10">
         <v>1</v>
       </c>
-      <c r="M510" s="16">
+      <c r="M510" s="12">
         <v>17500</v>
       </c>
-      <c r="N510" s="16">
+      <c r="N510" s="12">
         <v>17500</v>
       </c>
-      <c r="O510" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P510" s="18" t="str">
+      <c r="O510" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P510" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27886,39 +27889,39 @@
       <c r="C511" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D511" s="14" t="s">
+      <c r="D511" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E511" s="14" t="s">
+      <c r="E511" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="F511" s="14">
+      <c r="F511" s="10">
         <v>782357233</v>
       </c>
-      <c r="G511" s="14" t="s">
+      <c r="G511" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H511" s="14" t="s">
+      <c r="H511" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I511" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J511" s="15" t="s">
+      <c r="I511" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J511" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="K511" s="14"/>
-      <c r="L511" s="14"/>
-      <c r="M511" s="16"/>
-      <c r="N511" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O511" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P511" s="18" t="str">
+      <c r="K511" s="10"/>
+      <c r="L511" s="10"/>
+      <c r="M511" s="12"/>
+      <c r="N511" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O511" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P511" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27933,39 +27936,39 @@
       <c r="C512" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D512" s="14" t="s">
+      <c r="D512" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E512" s="14" t="s">
+      <c r="E512" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="F512" s="14">
+      <c r="F512" s="10">
         <v>777049024</v>
       </c>
-      <c r="G512" s="14" t="s">
+      <c r="G512" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H512" s="14" t="s">
+      <c r="H512" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I512" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J512" s="15" t="s">
+      <c r="I512" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J512" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="K512" s="14"/>
-      <c r="L512" s="14"/>
-      <c r="M512" s="16"/>
-      <c r="N512" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O512" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P512" s="18" t="str">
+      <c r="K512" s="10"/>
+      <c r="L512" s="10"/>
+      <c r="M512" s="12"/>
+      <c r="N512" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O512" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P512" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -27980,39 +27983,39 @@
       <c r="C513" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D513" s="14" t="s">
+      <c r="D513" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E513" s="14" t="s">
+      <c r="E513" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="F513" s="14">
+      <c r="F513" s="10">
         <v>776327767</v>
       </c>
-      <c r="G513" s="14" t="s">
+      <c r="G513" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H513" s="14" t="s">
+      <c r="H513" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I513" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J513" s="15" t="s">
+      <c r="I513" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J513" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="K513" s="14"/>
-      <c r="L513" s="14"/>
-      <c r="M513" s="16"/>
-      <c r="N513" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O513" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P513" s="18" t="str">
+      <c r="K513" s="10"/>
+      <c r="L513" s="10"/>
+      <c r="M513" s="12"/>
+      <c r="N513" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O513" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P513" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28027,39 +28030,39 @@
       <c r="C514" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D514" s="14" t="s">
+      <c r="D514" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E514" s="14" t="s">
+      <c r="E514" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F514" s="14">
+      <c r="F514" s="10">
         <v>772304013</v>
       </c>
-      <c r="G514" s="14" t="s">
+      <c r="G514" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H514" s="14" t="s">
+      <c r="H514" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I514" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J514" s="15" t="s">
+      <c r="I514" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J514" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="K514" s="14"/>
-      <c r="L514" s="14"/>
-      <c r="M514" s="16"/>
-      <c r="N514" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O514" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P514" s="18" t="str">
+      <c r="K514" s="10"/>
+      <c r="L514" s="10"/>
+      <c r="M514" s="12"/>
+      <c r="N514" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O514" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P514" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28074,39 +28077,39 @@
       <c r="C515" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D515" s="14" t="s">
+      <c r="D515" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E515" s="14" t="s">
+      <c r="E515" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="F515" s="14">
+      <c r="F515" s="10">
         <v>775171537</v>
       </c>
-      <c r="G515" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H515" s="14" t="s">
+      <c r="G515" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H515" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I515" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J515" s="15" t="s">
+      <c r="I515" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J515" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="K515" s="14"/>
-      <c r="L515" s="14"/>
-      <c r="M515" s="16"/>
-      <c r="N515" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O515" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P515" s="18" t="str">
+      <c r="K515" s="10"/>
+      <c r="L515" s="10"/>
+      <c r="M515" s="12"/>
+      <c r="N515" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O515" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P515" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28121,39 +28124,39 @@
       <c r="C516" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D516" s="14" t="s">
+      <c r="D516" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E516" s="14" t="s">
+      <c r="E516" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="F516" s="14">
+      <c r="F516" s="10">
         <v>773641828</v>
       </c>
-      <c r="G516" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H516" s="14" t="s">
+      <c r="G516" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H516" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I516" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J516" s="15" t="s">
+      <c r="I516" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J516" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="K516" s="14"/>
-      <c r="L516" s="14"/>
-      <c r="M516" s="16"/>
-      <c r="N516" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O516" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P516" s="18" t="str">
+      <c r="K516" s="10"/>
+      <c r="L516" s="10"/>
+      <c r="M516" s="12"/>
+      <c r="N516" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O516" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P516" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28168,44 +28171,44 @@
       <c r="C517" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D517" s="14" t="s">
+      <c r="D517" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E517" s="14" t="s">
+      <c r="E517" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="F517" s="14">
+      <c r="F517" s="10">
         <v>787554231</v>
       </c>
-      <c r="G517" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H517" s="14" t="s">
+      <c r="G517" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H517" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I517" s="14" t="s">
+      <c r="I517" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J517" s="15" t="s">
+      <c r="J517" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K517" s="14" t="s">
+      <c r="K517" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L517" s="14">
+      <c r="L517" s="10">
         <v>25</v>
       </c>
-      <c r="M517" s="16">
+      <c r="M517" s="12">
         <v>26000</v>
       </c>
-      <c r="N517" s="16">
+      <c r="N517" s="12">
         <v>650000</v>
       </c>
-      <c r="O517" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P517" s="18" t="str">
+      <c r="O517" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P517" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28220,39 +28223,39 @@
       <c r="C518" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D518" s="14" t="s">
+      <c r="D518" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E518" s="14" t="s">
+      <c r="E518" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F518" s="14">
+      <c r="F518" s="10">
         <v>770933357</v>
       </c>
-      <c r="G518" s="14" t="s">
+      <c r="G518" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H518" s="14" t="s">
+      <c r="H518" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I518" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J518" s="15" t="s">
+      <c r="I518" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J518" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="K518" s="14"/>
-      <c r="L518" s="14"/>
-      <c r="M518" s="16"/>
-      <c r="N518" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O518" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P518" s="18" t="str">
+      <c r="K518" s="10"/>
+      <c r="L518" s="10"/>
+      <c r="M518" s="12"/>
+      <c r="N518" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O518" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P518" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28267,39 +28270,39 @@
       <c r="C519" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D519" s="14" t="s">
+      <c r="D519" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E519" s="14" t="s">
+      <c r="E519" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="F519" s="14">
+      <c r="F519" s="10">
         <v>771207041</v>
       </c>
-      <c r="G519" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H519" s="14" t="s">
+      <c r="G519" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H519" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I519" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J519" s="15" t="s">
+      <c r="I519" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J519" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="K519" s="14"/>
-      <c r="L519" s="14"/>
-      <c r="M519" s="16"/>
-      <c r="N519" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O519" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P519" s="18" t="str">
+      <c r="K519" s="10"/>
+      <c r="L519" s="10"/>
+      <c r="M519" s="12"/>
+      <c r="N519" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O519" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P519" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28314,39 +28317,39 @@
       <c r="C520" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D520" s="14" t="s">
+      <c r="D520" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E520" s="14" t="s">
+      <c r="E520" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="F520" s="14">
+      <c r="F520" s="10">
         <v>779773605</v>
       </c>
-      <c r="G520" s="14" t="s">
+      <c r="G520" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H520" s="14" t="s">
+      <c r="H520" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I520" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J520" s="15" t="s">
+      <c r="I520" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J520" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="K520" s="14"/>
-      <c r="L520" s="14"/>
-      <c r="M520" s="16"/>
-      <c r="N520" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O520" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P520" s="18" t="str">
+      <c r="K520" s="10"/>
+      <c r="L520" s="10"/>
+      <c r="M520" s="12"/>
+      <c r="N520" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O520" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P520" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28361,39 +28364,39 @@
       <c r="C521" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D521" s="14" t="s">
+      <c r="D521" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E521" s="14" t="s">
+      <c r="E521" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="F521" s="14">
+      <c r="F521" s="10">
         <v>770392582</v>
       </c>
-      <c r="G521" s="14" t="s">
+      <c r="G521" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H521" s="14" t="s">
+      <c r="H521" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I521" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J521" s="15" t="s">
+      <c r="I521" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J521" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="K521" s="14"/>
-      <c r="L521" s="14"/>
-      <c r="M521" s="16"/>
-      <c r="N521" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O521" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P521" s="18" t="str">
+      <c r="K521" s="10"/>
+      <c r="L521" s="10"/>
+      <c r="M521" s="12"/>
+      <c r="N521" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O521" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P521" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28408,39 +28411,39 @@
       <c r="C522" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D522" s="14" t="s">
+      <c r="D522" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E522" s="14" t="s">
+      <c r="E522" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="F522" s="14">
+      <c r="F522" s="10">
         <v>764690084</v>
       </c>
-      <c r="G522" s="14" t="s">
+      <c r="G522" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H522" s="14" t="s">
+      <c r="H522" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I522" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J522" s="15" t="s">
+      <c r="I522" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J522" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="K522" s="14"/>
-      <c r="L522" s="14"/>
-      <c r="M522" s="16"/>
-      <c r="N522" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O522" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P522" s="18" t="str">
+      <c r="K522" s="10"/>
+      <c r="L522" s="10"/>
+      <c r="M522" s="12"/>
+      <c r="N522" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O522" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P522" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28455,39 +28458,39 @@
       <c r="C523" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D523" s="14" t="s">
+      <c r="D523" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E523" s="14" t="s">
+      <c r="E523" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F523" s="14">
+      <c r="F523" s="10">
         <v>775361133</v>
       </c>
-      <c r="G523" s="14" t="s">
+      <c r="G523" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H523" s="14" t="s">
+      <c r="H523" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I523" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J523" s="15" t="s">
+      <c r="I523" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J523" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="K523" s="14"/>
-      <c r="L523" s="14"/>
-      <c r="M523" s="16"/>
-      <c r="N523" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O523" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P523" s="18" t="str">
+      <c r="K523" s="10"/>
+      <c r="L523" s="10"/>
+      <c r="M523" s="12"/>
+      <c r="N523" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O523" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P523" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28502,39 +28505,39 @@
       <c r="C524" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D524" s="14" t="s">
+      <c r="D524" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E524" s="14" t="s">
+      <c r="E524" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="F524" s="14">
+      <c r="F524" s="10">
         <v>771166656</v>
       </c>
-      <c r="G524" s="14" t="s">
+      <c r="G524" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H524" s="14" t="s">
+      <c r="H524" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I524" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J524" s="15" t="s">
+      <c r="I524" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J524" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="K524" s="14"/>
-      <c r="L524" s="14"/>
-      <c r="M524" s="16"/>
-      <c r="N524" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O524" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P524" s="18" t="str">
+      <c r="K524" s="10"/>
+      <c r="L524" s="10"/>
+      <c r="M524" s="12"/>
+      <c r="N524" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O524" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P524" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28549,39 +28552,39 @@
       <c r="C525" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D525" s="14" t="s">
+      <c r="D525" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E525" s="14" t="s">
+      <c r="E525" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="F525" s="14">
+      <c r="F525" s="10">
         <v>761386330</v>
       </c>
-      <c r="G525" s="14" t="s">
+      <c r="G525" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H525" s="14" t="s">
+      <c r="H525" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I525" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J525" s="15" t="s">
+      <c r="I525" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J525" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="K525" s="14"/>
-      <c r="L525" s="14"/>
-      <c r="M525" s="16"/>
-      <c r="N525" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O525" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P525" s="18" t="str">
+      <c r="K525" s="10"/>
+      <c r="L525" s="10"/>
+      <c r="M525" s="12"/>
+      <c r="N525" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O525" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P525" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28596,39 +28599,39 @@
       <c r="C526" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D526" s="14" t="s">
+      <c r="D526" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E526" s="14" t="s">
+      <c r="E526" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="F526" s="14">
+      <c r="F526" s="10">
         <v>773481721</v>
       </c>
-      <c r="G526" s="14" t="s">
+      <c r="G526" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H526" s="14" t="s">
+      <c r="H526" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I526" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J526" s="15" t="s">
+      <c r="I526" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J526" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="K526" s="14"/>
-      <c r="L526" s="14"/>
-      <c r="M526" s="16"/>
-      <c r="N526" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O526" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P526" s="18" t="str">
+      <c r="K526" s="10"/>
+      <c r="L526" s="10"/>
+      <c r="M526" s="12"/>
+      <c r="N526" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O526" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P526" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28643,39 +28646,39 @@
       <c r="C527" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D527" s="14" t="s">
+      <c r="D527" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E527" s="14" t="s">
+      <c r="E527" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F527" s="14">
+      <c r="F527" s="10">
         <v>777112307</v>
       </c>
-      <c r="G527" s="14" t="s">
+      <c r="G527" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H527" s="14" t="s">
+      <c r="H527" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I527" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J527" s="15" t="s">
+      <c r="I527" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J527" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="K527" s="14"/>
-      <c r="L527" s="14"/>
-      <c r="M527" s="16"/>
-      <c r="N527" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O527" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P527" s="18" t="str">
+      <c r="K527" s="10"/>
+      <c r="L527" s="10"/>
+      <c r="M527" s="12"/>
+      <c r="N527" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O527" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P527" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -28690,39 +28693,91 @@
       <c r="C528" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D528" s="14" t="s">
+      <c r="D528" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E528" s="14" t="s">
+      <c r="E528" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="F528" s="14">
+      <c r="F528" s="10">
         <v>761321039</v>
       </c>
-      <c r="G528" s="14" t="s">
+      <c r="G528" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H528" s="14" t="s">
+      <c r="H528" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I528" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J528" s="15" t="s">
+      <c r="I528" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J528" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K528" s="14"/>
-      <c r="L528" s="14"/>
-      <c r="M528" s="16"/>
-      <c r="N528" s="16">
-        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
-        <v>0</v>
-      </c>
-      <c r="O528" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P528" s="18" t="str">
+      <c r="K528" s="10"/>
+      <c r="L528" s="10"/>
+      <c r="M528" s="12"/>
+      <c r="N528" s="12">
+        <f>Semaine_1[[#This Row],[Prix_Unitaire]]*Semaine_1[[#This Row],[Quantites]]</f>
+        <v>0</v>
+      </c>
+      <c r="O528" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P528" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A529" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D529" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E529" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="F529" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G529" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H529" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I529" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J529" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K529" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L529" s="14">
+        <v>50</v>
+      </c>
+      <c r="M529" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N529" s="16">
+        <v>975000</v>
+      </c>
+      <c r="O529" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P529" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05760F7F-0BB9-4A53-A388-1065C8939215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32B087-FCCF-4A10-8B45-73F40A96B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,7 +2661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2694,15 +2694,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3282,8 +3273,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529:N529"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17829,10 +17820,10 @@
         <v>1</v>
       </c>
       <c r="M302" s="12">
-        <v>1250</v>
+        <v>10250</v>
       </c>
       <c r="N302" s="12">
-        <v>1250</v>
+        <v>10250</v>
       </c>
       <c r="O302" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -28740,44 +28731,44 @@
       <c r="C529" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D529" s="14" t="s">
+      <c r="D529" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E529" s="14" t="s">
+      <c r="E529" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="F529" s="14">
+      <c r="F529" s="10">
         <v>773817561</v>
       </c>
-      <c r="G529" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H529" s="14" t="s">
+      <c r="G529" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H529" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I529" s="14" t="s">
+      <c r="I529" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J529" s="15" t="s">
+      <c r="J529" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K529" s="14" t="s">
+      <c r="K529" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L529" s="14">
+      <c r="L529" s="10">
         <v>50</v>
       </c>
-      <c r="M529" s="16">
+      <c r="M529" s="12">
         <v>19500</v>
       </c>
-      <c r="N529" s="16">
+      <c r="N529" s="12">
         <v>975000</v>
       </c>
-      <c r="O529" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S37</v>
-      </c>
-      <c r="P529" s="18" t="str">
+      <c r="O529" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S37</v>
+      </c>
+      <c r="P529" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACF3B53-67A7-415C-9404-9971E80825AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF894F-BADD-4861-B7E5-FB48F35AB933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="638">
   <si>
     <t>Date</t>
   </si>
@@ -1728,6 +1728,231 @@
   </si>
   <si>
     <t>Il lui reste 6 cartons café stick Refraish et dis qu'il va essayer les pots</t>
+  </si>
+  <si>
+    <t>Momadou Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait le café refresh mais il est terminé depuis après il achète un autre </t>
+  </si>
+  <si>
+    <t>DJIBRIL Traoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait stoké beaucoup de café refresh mais sa reste un peu </t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>MACTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit que le café refraich stick est trop lend et veut le café Altimo </t>
+  </si>
+  <si>
+    <t>Abdou sow 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste nos pots de 50 g et de 200g refraich </t>
+  </si>
+  <si>
+    <t>AMADOU Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste d'autres produits mais il a le café Altimo stick </t>
+  </si>
+  <si>
+    <t>Ndiaye Malika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit qu'il lui reste d'autres produits </t>
+  </si>
+  <si>
+    <t>Salif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il de repasser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron n' est pas présent </t>
+  </si>
+  <si>
+    <t>Tonton Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775945555 cheikh demi gros malika clients non partenaires </t>
+  </si>
+  <si>
+    <t>DJIBRIL laye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ae café refraich qu'il a acheté a Thiaroye et demande pourquoi je ne peux pas lui livre ces commandes de café stick </t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est sorti </t>
+  </si>
+  <si>
+    <t>Talla Diagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demi gros dit qu'il n a pas commencé à vendre nos produits </t>
+  </si>
+  <si>
+    <t>Tamsir (Amadou)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit qu' il n' a pas commencé à vendre nos produits </t>
+  </si>
+  <si>
+    <t>Abdou sow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demi gros il lui reste 07 cartons de refraich 200g il dit que c'est lend </t>
+  </si>
+  <si>
+    <t>Amadou Tidiane Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit qu'il veut essayer le café Altimo mais il n' a pas d'argent </t>
+  </si>
+  <si>
+    <t>Fallou</t>
+  </si>
+  <si>
+    <t>Niang et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste le café Altimo </t>
+  </si>
+  <si>
+    <t>Sada</t>
+  </si>
+  <si>
+    <t>Il lui reste 5 cartons de refraich (3 200g et 2 cartons 50g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La boutique est fermée </t>
+  </si>
+  <si>
+    <t>Yeumbeul Tally Diallo</t>
+  </si>
+  <si>
+    <t>NIANG ET FRÉRE</t>
+  </si>
+  <si>
+    <t>Yacine Diallo</t>
+  </si>
+  <si>
+    <t>Rereta 8 50g</t>
+  </si>
+  <si>
+    <t>Il faut remplacé ce nom par le nom du propriétaire Mamadou Ba 772149720</t>
+  </si>
+  <si>
+    <t>Cheikh Bara</t>
+  </si>
+  <si>
+    <t>Client satisfait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a son compte a l'usine </t>
+  </si>
+  <si>
+    <t>Grand Dakar</t>
+  </si>
+  <si>
+    <t>Babacar Thiam</t>
+  </si>
+  <si>
+    <t>Ça faisait longtemps qu'il avait arrêté le janus parce que la rotation était lente.mais il a promis de revenir</t>
+  </si>
+  <si>
+    <t>Il y a le café refresh mais c'est trop lent chez lui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ya n'a mais il avait acheté à Dakar </t>
+  </si>
+  <si>
+    <t>Bassoum khamza</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Khalifa</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock café janus pot</t>
+  </si>
+  <si>
+    <t>Aladji</t>
+  </si>
+  <si>
+    <t>Diey</t>
+  </si>
+  <si>
+    <t>NDioguou</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Il veut demi carton caron altimo pot 200g + demi carton altimo pot 50g</t>
+  </si>
+  <si>
+    <t>Superette</t>
+  </si>
+  <si>
+    <t>Revenir la semaine prochaine.il lui reste quelques pots</t>
+  </si>
+  <si>
+    <t>Wane</t>
+  </si>
+  <si>
+    <t>Il lui du stock</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>Il ya le lait janus 400g mais il a duré c'est à cause qu'il esite de prendre le café</t>
+  </si>
+  <si>
+    <t>Khar Yalla</t>
+  </si>
+  <si>
+    <t>Mbaye seye</t>
+  </si>
+  <si>
+    <t>Seydou Diallo</t>
+  </si>
+  <si>
+    <t>Mamadou Ba</t>
+  </si>
+  <si>
+    <t>Mamadou Bah</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Alimentation Générale</t>
+  </si>
+  <si>
+    <t>Amadou Ba</t>
+  </si>
+  <si>
+    <t>Baye sy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À la prochaine </t>
+  </si>
+  <si>
+    <t>Lait Janus 400gx10</t>
   </si>
 </sst>
 </file>
@@ -1735,9 +1960,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,6 +1981,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="TIMES"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1791,7 +2020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1815,12 +2044,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1865,18 +2108,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1903,6 +2134,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2017,6 +2249,14 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -2105,27 +2345,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P348" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P348" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P412" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P412" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="5">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
       <calculatedColumnFormula>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2419,10 +2659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P348"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349:N412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17458,6 +17698,2942 @@
         <v>septembre</v>
       </c>
     </row>
+    <row r="349" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A349" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C349" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F349" s="12">
+        <v>770607009</v>
+      </c>
+      <c r="G349" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H349" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I349" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J349" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="K349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="14"/>
+      <c r="N349" s="14"/>
+      <c r="O349" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P349" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A350" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F350" s="12">
+        <v>775262371</v>
+      </c>
+      <c r="G350" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H350" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I350" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J350" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="14"/>
+      <c r="N350" s="14"/>
+      <c r="O350" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P350" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A351" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F351" s="12">
+        <v>775740574</v>
+      </c>
+      <c r="G351" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H351" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I351" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J351" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="K351" s="12"/>
+      <c r="L351" s="12"/>
+      <c r="M351" s="14"/>
+      <c r="N351" s="14"/>
+      <c r="O351" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P351" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A352" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F352" s="12">
+        <v>779646150</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H352" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I352" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J352" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="K352" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L352" s="12">
+        <v>25</v>
+      </c>
+      <c r="M352" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N352" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O352" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P352" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A353" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F353" s="12">
+        <v>777321977</v>
+      </c>
+      <c r="G353" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H353" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I353" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J353" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="K353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="14"/>
+      <c r="N353" s="14"/>
+      <c r="O353" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P353" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A354" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E354" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="F354" s="12">
+        <v>772494182</v>
+      </c>
+      <c r="G354" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H354" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I354" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J354" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="K354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="14"/>
+      <c r="N354" s="14"/>
+      <c r="O354" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P354" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A355" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E355" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F355" s="12">
+        <v>778886969</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H355" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I355" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J355" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="14"/>
+      <c r="N355" s="14"/>
+      <c r="O355" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P355" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A356" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F356" s="12">
+        <v>773493195</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H356" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I356" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J356" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="14"/>
+      <c r="N356" s="14"/>
+      <c r="O356" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P356" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A357" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F357" s="12">
+        <v>775663399</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H357" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I357" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J357" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="14"/>
+      <c r="N357" s="14"/>
+      <c r="O357" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P357" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A358" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F358" s="12">
+        <v>778657940</v>
+      </c>
+      <c r="G358" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H358" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I358" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J358" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="14"/>
+      <c r="N358" s="14"/>
+      <c r="O358" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P358" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A359" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="F359" s="12">
+        <v>773887602</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H359" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I359" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J359" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="14"/>
+      <c r="N359" s="14"/>
+      <c r="O359" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P359" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A360" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="F360" s="12">
+        <v>777861171</v>
+      </c>
+      <c r="G360" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I360" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J360" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="14"/>
+      <c r="N360" s="14"/>
+      <c r="O360" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P360" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A361" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F361" s="12">
+        <v>773592330</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I361" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+      <c r="M361" s="14"/>
+      <c r="N361" s="14"/>
+      <c r="O361" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P361" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A362" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F362" s="12">
+        <v>779724512</v>
+      </c>
+      <c r="G362" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H362" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I362" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J362" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+      <c r="M362" s="14"/>
+      <c r="N362" s="14"/>
+      <c r="O362" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P362" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A363" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F363" s="12">
+        <v>772245033</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H363" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I363" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J363" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="14"/>
+      <c r="N363" s="14"/>
+      <c r="O363" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P363" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A364" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="F364" s="12">
+        <v>774187389</v>
+      </c>
+      <c r="G364" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H364" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I364" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J364" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="14"/>
+      <c r="N364" s="14"/>
+      <c r="O364" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P364" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A365" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F365" s="12">
+        <v>776212473</v>
+      </c>
+      <c r="G365" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H365" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I365" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J365" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="14"/>
+      <c r="N365" s="14"/>
+      <c r="O365" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P365" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A366" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F366" s="12">
+        <v>776536527</v>
+      </c>
+      <c r="G366" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H366" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I366" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J366" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="K366" s="12"/>
+      <c r="L366" s="12"/>
+      <c r="M366" s="14"/>
+      <c r="N366" s="14"/>
+      <c r="O366" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P366" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A367" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F367" s="12">
+        <v>773592330</v>
+      </c>
+      <c r="G367" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H367" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I367" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J367" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K367" s="12"/>
+      <c r="L367" s="12"/>
+      <c r="M367" s="14"/>
+      <c r="N367" s="14"/>
+      <c r="O367" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P367" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A368" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="F368" s="12">
+        <v>773725495</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H368" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I368" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J368" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="14"/>
+      <c r="N368" s="14"/>
+      <c r="O368" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P368" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A369" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F369" s="12">
+        <v>782130484</v>
+      </c>
+      <c r="G369" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H369" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I369" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J369" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="K369" s="12"/>
+      <c r="L369" s="12"/>
+      <c r="M369" s="14"/>
+      <c r="N369" s="14"/>
+      <c r="O369" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P369" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A370" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F370" s="12">
+        <v>784426640</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H370" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I370" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J370" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K370" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L370" s="12">
+        <v>10</v>
+      </c>
+      <c r="M370" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N370" s="14">
+        <v>195000</v>
+      </c>
+      <c r="O370" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P370" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A371" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F371" s="12">
+        <v>784426640</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H371" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I371" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J371" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K371" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L371" s="12">
+        <v>10</v>
+      </c>
+      <c r="M371" s="14">
+        <v>9750</v>
+      </c>
+      <c r="N371" s="14">
+        <v>97500</v>
+      </c>
+      <c r="O371" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P371" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A372" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F372" s="12">
+        <v>784426640</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H372" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I372" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J372" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K372" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L372" s="12">
+        <v>25</v>
+      </c>
+      <c r="M372" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N372" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O372" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P372" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A373" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F373" s="12">
+        <v>338729194</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H373" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I373" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J373" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K373" s="12"/>
+      <c r="L373" s="12"/>
+      <c r="M373" s="14"/>
+      <c r="N373" s="14"/>
+      <c r="O373" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P373" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A374" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="F374" s="12">
+        <v>764631568</v>
+      </c>
+      <c r="G374" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H374" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I374" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J374" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K374" s="12"/>
+      <c r="L374" s="12"/>
+      <c r="M374" s="14"/>
+      <c r="N374" s="14"/>
+      <c r="O374" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P374" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A375" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E375" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F375" s="12">
+        <v>778056161</v>
+      </c>
+      <c r="G375" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H375" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I375" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J375" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="K375" s="12"/>
+      <c r="L375" s="12"/>
+      <c r="M375" s="14"/>
+      <c r="N375" s="14"/>
+      <c r="O375" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P375" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A376" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E376" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F376" s="12">
+        <v>768059355</v>
+      </c>
+      <c r="G376" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H376" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I376" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J376" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K376" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L376" s="12">
+        <v>50</v>
+      </c>
+      <c r="M376" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N376" s="14">
+        <v>975000</v>
+      </c>
+      <c r="O376" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P376" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A377" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E377" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F377" s="12">
+        <v>775839852</v>
+      </c>
+      <c r="G377" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H377" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I377" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J377" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="K377" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L377" s="12">
+        <v>25</v>
+      </c>
+      <c r="M377" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N377" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O377" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P377" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A378" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E378" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F378" s="12">
+        <v>775839852</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H378" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I378" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J378" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="K378" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L378" s="12">
+        <v>12</v>
+      </c>
+      <c r="M378" s="14">
+        <v>9750</v>
+      </c>
+      <c r="N378" s="14">
+        <v>117000</v>
+      </c>
+      <c r="O378" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P378" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A379" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E379" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="F379" s="12">
+        <v>779661523</v>
+      </c>
+      <c r="G379" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H379" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I379" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J379" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="K379" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L379" s="12">
+        <v>25</v>
+      </c>
+      <c r="M379" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N379" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O379" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P379" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A380" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E380" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F380" s="12">
+        <v>775663399</v>
+      </c>
+      <c r="G380" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H380" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I380" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J380" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="K380" s="12"/>
+      <c r="L380" s="12"/>
+      <c r="M380" s="14"/>
+      <c r="N380" s="14"/>
+      <c r="O380" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P380" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A381" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E381" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F381" s="12">
+        <v>779676016</v>
+      </c>
+      <c r="G381" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H381" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I381" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J381" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K381" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L381" s="12">
+        <v>25</v>
+      </c>
+      <c r="M381" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N381" s="14">
+        <v>487500</v>
+      </c>
+      <c r="O381" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P381" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A382" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E382" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F382" s="12">
+        <v>778195274</v>
+      </c>
+      <c r="G382" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H382" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I382" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J382" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K382" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L382" s="12">
+        <v>50</v>
+      </c>
+      <c r="M382" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N382" s="14">
+        <v>1300000</v>
+      </c>
+      <c r="O382" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P382" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A383" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E383" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="F383" s="12">
+        <v>770589198</v>
+      </c>
+      <c r="G383" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H383" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I383" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J383" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="K383" s="12"/>
+      <c r="L383" s="12"/>
+      <c r="M383" s="14"/>
+      <c r="N383" s="14"/>
+      <c r="O383" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P383" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A384" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E384" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F384" s="12">
+        <v>772506388</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H384" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I384" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J384" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="K384" s="12"/>
+      <c r="L384" s="12"/>
+      <c r="M384" s="14"/>
+      <c r="N384" s="14"/>
+      <c r="O384" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P384" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A385" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E385" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F385" s="12">
+        <v>762735182</v>
+      </c>
+      <c r="G385" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H385" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I385" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J385" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="K385" s="12"/>
+      <c r="L385" s="12"/>
+      <c r="M385" s="14"/>
+      <c r="N385" s="14"/>
+      <c r="O385" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P385" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A386" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E386" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="F386" s="12">
+        <v>778013213</v>
+      </c>
+      <c r="G386" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H386" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I386" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J386" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K386" s="12"/>
+      <c r="L386" s="12"/>
+      <c r="M386" s="14"/>
+      <c r="N386" s="14"/>
+      <c r="O386" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P386" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A387" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E387" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F387" s="12">
+        <v>772064446</v>
+      </c>
+      <c r="G387" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I387" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J387" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K387" s="12"/>
+      <c r="L387" s="12"/>
+      <c r="M387" s="14"/>
+      <c r="N387" s="14"/>
+      <c r="O387" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P387" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A388" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E388" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F388" s="12">
+        <v>776414102</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H388" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I388" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J388" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="K388" s="12"/>
+      <c r="L388" s="12"/>
+      <c r="M388" s="14"/>
+      <c r="N388" s="14"/>
+      <c r="O388" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P388" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A389" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E389" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F389" s="12">
+        <v>779509819</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H389" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I389" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J389" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K389" s="12"/>
+      <c r="L389" s="12"/>
+      <c r="M389" s="14"/>
+      <c r="N389" s="14"/>
+      <c r="O389" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P389" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A390" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E390" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="F390" s="12">
+        <v>772377240</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H390" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I390" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J390" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K390" s="12"/>
+      <c r="L390" s="12"/>
+      <c r="M390" s="14"/>
+      <c r="N390" s="14"/>
+      <c r="O390" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P390" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A391" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F391" s="12">
+        <v>779281016</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H391" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I391" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J391" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K391" s="12"/>
+      <c r="L391" s="12"/>
+      <c r="M391" s="14"/>
+      <c r="N391" s="14"/>
+      <c r="O391" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P391" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A392" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="F392" s="12">
+        <v>775597258</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H392" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I392" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J392" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K392" s="12"/>
+      <c r="L392" s="12"/>
+      <c r="M392" s="14"/>
+      <c r="N392" s="14"/>
+      <c r="O392" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P392" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A393" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="F393" s="12">
+        <v>776562950</v>
+      </c>
+      <c r="G393" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H393" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I393" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J393" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K393" s="12"/>
+      <c r="L393" s="12"/>
+      <c r="M393" s="14"/>
+      <c r="N393" s="14"/>
+      <c r="O393" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P393" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A394" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="F394" s="12">
+        <v>338243115</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I394" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J394" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K394" s="12"/>
+      <c r="L394" s="12"/>
+      <c r="M394" s="14"/>
+      <c r="N394" s="14"/>
+      <c r="O394" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P394" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A395" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F395" s="12">
+        <v>705098872</v>
+      </c>
+      <c r="G395" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H395" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I395" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J395" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="K395" s="12"/>
+      <c r="L395" s="12"/>
+      <c r="M395" s="14"/>
+      <c r="N395" s="14"/>
+      <c r="O395" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P395" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A396" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F396" s="12">
+        <v>775076862</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="H396" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I396" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J396" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="K396" s="12"/>
+      <c r="L396" s="12"/>
+      <c r="M396" s="14"/>
+      <c r="N396" s="14"/>
+      <c r="O396" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P396" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A397" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="F397" s="12">
+        <v>775411988</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H397" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I397" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J397" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="K397" s="12"/>
+      <c r="L397" s="12"/>
+      <c r="M397" s="14"/>
+      <c r="N397" s="14"/>
+      <c r="O397" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P397" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A398" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F398" s="12">
+        <v>772222253</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I398" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J398" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K398" s="12"/>
+      <c r="L398" s="12"/>
+      <c r="M398" s="14"/>
+      <c r="N398" s="14"/>
+      <c r="O398" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P398" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A399" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B399" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F399" s="12">
+        <v>762692020</v>
+      </c>
+      <c r="G399" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H399" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I399" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J399" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="K399" s="12"/>
+      <c r="L399" s="12"/>
+      <c r="M399" s="14"/>
+      <c r="N399" s="14"/>
+      <c r="O399" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P399" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A400" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E400" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="F400" s="12">
+        <v>774540017</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H400" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I400" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J400" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K400" s="12"/>
+      <c r="L400" s="12"/>
+      <c r="M400" s="14"/>
+      <c r="N400" s="14"/>
+      <c r="O400" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P400" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A401" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E401" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F401" s="12">
+        <v>773140899</v>
+      </c>
+      <c r="G401" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H401" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I401" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J401" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K401" s="12"/>
+      <c r="L401" s="12"/>
+      <c r="M401" s="14"/>
+      <c r="N401" s="14"/>
+      <c r="O401" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P401" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A402" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F402" s="12">
+        <v>780137992</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I402" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J402" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="14"/>
+      <c r="N402" s="14"/>
+      <c r="O402" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P402" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A403" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F403" s="12">
+        <v>780137992</v>
+      </c>
+      <c r="G403" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H403" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J403" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K403" s="12"/>
+      <c r="L403" s="12"/>
+      <c r="M403" s="14"/>
+      <c r="N403" s="14"/>
+      <c r="O403" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P403" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A404" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E404" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="F404" s="12">
+        <v>774105610</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H404" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I404" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J404" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K404" s="12"/>
+      <c r="L404" s="12"/>
+      <c r="M404" s="14"/>
+      <c r="N404" s="14"/>
+      <c r="O404" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P404" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A405" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="F405" s="12">
+        <v>761315270</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I405" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J405" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K405" s="12"/>
+      <c r="L405" s="12"/>
+      <c r="M405" s="14"/>
+      <c r="N405" s="14"/>
+      <c r="O405" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P405" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A406" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="F406" s="12">
+        <v>784071086</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I406" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J406" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K406" s="12"/>
+      <c r="L406" s="12"/>
+      <c r="M406" s="14"/>
+      <c r="N406" s="14"/>
+      <c r="O406" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P406" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A407" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E407" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="F407" s="12">
+        <v>779072194</v>
+      </c>
+      <c r="G407" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H407" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I407" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J407" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K407" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L407" s="12">
+        <v>1</v>
+      </c>
+      <c r="M407" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N407" s="14">
+        <v>26000</v>
+      </c>
+      <c r="O407" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P407" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A408" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E408" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="F408" s="12">
+        <v>777427919</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H408" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I408" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J408" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K408" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L408" s="12">
+        <v>1</v>
+      </c>
+      <c r="M408" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N408" s="14">
+        <v>26000</v>
+      </c>
+      <c r="O408" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P408" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A409" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E409" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="F409" s="12">
+        <v>775014335</v>
+      </c>
+      <c r="G409" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I409" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J409" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="K409" s="12"/>
+      <c r="L409" s="12"/>
+      <c r="M409" s="14"/>
+      <c r="N409" s="14"/>
+      <c r="O409" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P409" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A410" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B410" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F410" s="12">
+        <v>772070286</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H410" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I410" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J410" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="K410" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="L410" s="12">
+        <v>1</v>
+      </c>
+      <c r="M410" s="14">
+        <v>12250</v>
+      </c>
+      <c r="N410" s="14">
+        <v>12250</v>
+      </c>
+      <c r="O410" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P410" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A411" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E411" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F411" s="12">
+        <v>772070286</v>
+      </c>
+      <c r="G411" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H411" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I411" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J411" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="K411" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L411" s="12">
+        <v>1</v>
+      </c>
+      <c r="M411" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N411" s="14">
+        <v>26000</v>
+      </c>
+      <c r="O411" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P411" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A412" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E412" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="F412" s="12">
+        <v>779661523</v>
+      </c>
+      <c r="G412" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H412" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I412" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J412" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="K412" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L412" s="12">
+        <v>13</v>
+      </c>
+      <c r="M412" s="14">
+        <v>9750</v>
+      </c>
+      <c r="N412" s="14">
+        <v>126750</v>
+      </c>
+      <c r="O412" s="15" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S38</v>
+      </c>
+      <c r="P412" s="16" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFD185-733F-4716-98AD-57DF843E5421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A6F775-9F18-48A7-AA45-A23D7E318DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>Merci</t>
+  </si>
+  <si>
+    <t>Lye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci beaucoup </t>
+  </si>
+  <si>
+    <t>DIATTA FAYE</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>Bargny</t>
+  </si>
+  <si>
+    <t>Wakeur Alpha Thiombane</t>
+  </si>
+  <si>
+    <t>Il attend son café refraish 1,5 pour demain</t>
   </si>
 </sst>
 </file>
@@ -196,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +236,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="TIMES"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -272,6 +297,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P10" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P10" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P14" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P14" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -850,7 +890,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -957,13 +997,13 @@
         <v>19</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4">
         <v>10250</v>
       </c>
       <c r="N2" s="4">
-        <v>82000</v>
+        <v>10250</v>
       </c>
       <c r="O2" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1061,13 +1101,13 @@
         <v>25</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M4" s="4">
         <v>19500</v>
       </c>
       <c r="N4" s="4">
-        <v>487500</v>
+        <v>97500</v>
       </c>
       <c r="O4" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1390,9 +1430,214 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10">
+        <v>776180875</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="10">
+        <v>25</v>
+      </c>
+      <c r="M11" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N11" s="12">
+        <v>487500</v>
+      </c>
+      <c r="O11" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P11" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10">
+        <v>775426848</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="10">
+        <v>20</v>
+      </c>
+      <c r="M12" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N12" s="12">
+        <v>390000</v>
+      </c>
+      <c r="O12" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P12" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="10">
+        <v>775426848</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+      <c r="M13" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N13" s="12">
+        <v>51250</v>
+      </c>
+      <c r="O13" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P13" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
+        <v>45925</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="13">
+        <v>783758073</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="13">
+        <v>25</v>
+      </c>
+      <c r="M14" s="15">
+        <v>19500</v>
+      </c>
+      <c r="N14" s="15">
+        <v>487500</v>
+      </c>
+      <c r="O14" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P14" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A6F775-9F18-48A7-AA45-A23D7E318DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C003857-B38F-4A2F-8F70-EDF076742EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>Il attend son café refraish 1,5 pour demain</t>
+  </si>
+  <si>
+    <t>Mor Diop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci </t>
+  </si>
+  <si>
+    <t>SEYNABOU BA</t>
+  </si>
+  <si>
+    <t>Il dit qu'il attend son café altimo pour lundi car il y en n'a plus depuis et que pour le pot 200g les clients demandent à ce qu'il soit rempli car c'est pas le cas</t>
+  </si>
+  <si>
+    <t>Abdou Rakhmane Baldé</t>
+  </si>
+  <si>
+    <t>Client satisfait</t>
   </si>
 </sst>
 </file>
@@ -573,8 +591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P14" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P14" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P19" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P19" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -887,10 +905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1596,44 +1614,304 @@
       <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>783758073</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <v>25</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>19500</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="12">
         <v>487500</v>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="13">
+        <v>777262311</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>19500</v>
+      </c>
+      <c r="N15" s="15">
+        <v>39000</v>
+      </c>
+      <c r="O15" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P15" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13">
+        <v>779420909</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="13">
+        <v>5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>19500</v>
+      </c>
+      <c r="N16" s="15">
+        <v>97500</v>
+      </c>
+      <c r="O16" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P16" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="55.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="13">
+        <v>783758073</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="13">
+        <v>25</v>
+      </c>
+      <c r="M17" s="15">
+        <v>26000</v>
+      </c>
+      <c r="N17" s="15">
+        <v>650000</v>
+      </c>
+      <c r="O17" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P17" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="13">
+        <v>774993694</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="13">
+        <v>50</v>
+      </c>
+      <c r="M18" s="15">
+        <v>9750</v>
+      </c>
+      <c r="N18" s="15">
+        <v>487500</v>
+      </c>
+      <c r="O18" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="13">
+        <v>774993694</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="13">
+        <v>50</v>
+      </c>
+      <c r="M19" s="15">
+        <v>26000</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="O19" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P19" s="17" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C003857-B38F-4A2F-8F70-EDF076742EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD690EC-B428-47C6-84FC-94245C07249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -321,15 +321,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +898,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1666,44 +1657,44 @@
       <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>777262311</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="K15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10">
         <v>2</v>
       </c>
-      <c r="M15" s="15">
-        <v>19500</v>
-      </c>
-      <c r="N15" s="15">
-        <v>39000</v>
-      </c>
-      <c r="O15" s="16" t="str">
+      <c r="M15" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N15" s="12">
+        <v>20500</v>
+      </c>
+      <c r="O15" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -1718,44 +1709,44 @@
       <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>779420909</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="12">
         <v>19500</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="12">
         <v>97500</v>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -1770,44 +1761,44 @@
       <c r="C17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>783758073</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>25</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>26000</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="12">
         <v>650000</v>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -1822,44 +1813,44 @@
       <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>774993694</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="10">
         <v>50</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="12">
         <v>9750</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="12">
         <v>487500</v>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
@@ -1874,44 +1865,44 @@
       <c r="C19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <v>774993694</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="10">
         <v>50</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>26000</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="12">
         <v>1300000</v>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD690EC-B428-47C6-84FC-94245C07249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A4903-2CA5-4344-8D41-2E13A03DB7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="10882" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -584,6 +584,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P19" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:P19" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+    <sortCondition descending="1" ref="B1:B19"/>
+  </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -898,8 +901,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N15"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1023,27 +1026,27 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>45924</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>778096419</v>
+        <v>775894235</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1052,19 +1055,19 @@
         <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" s="4">
-        <v>60000</v>
+        <v>19500</v>
       </c>
       <c r="N3" s="4">
-        <v>300000</v>
+        <v>97500</v>
       </c>
       <c r="O3" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1076,47 +1079,47 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>45924</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>775894235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="10">
+        <v>775426848</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="L4" s="10">
+        <v>20</v>
+      </c>
+      <c r="M4" s="12">
         <v>19500</v>
       </c>
-      <c r="N4" s="4">
-        <v>97500</v>
+      <c r="N4" s="12">
+        <v>390000</v>
       </c>
       <c r="O4" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1128,47 +1131,47 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>45924</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <v>778056161</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="10">
+        <v>775426848</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4">
-        <v>9750</v>
-      </c>
-      <c r="N5" s="4">
-        <v>97500</v>
+      <c r="L5" s="10">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N5" s="12">
+        <v>51250</v>
       </c>
       <c r="O5" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1180,47 +1183,47 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>45924</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>775213948</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10">
+        <v>777262311</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4">
-        <v>26000</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1300000</v>
+      <c r="J6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N6" s="12">
+        <v>20500</v>
       </c>
       <c r="O6" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1263,16 +1266,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N7" s="4">
-        <v>487500</v>
+        <v>97500</v>
       </c>
       <c r="O7" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1294,16 +1297,16 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>776180875</v>
+        <v>775213948</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1440,46 +1443,46 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>45924</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="10">
-        <v>776180875</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>778056161</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11">
         <v>25</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="4">
         <v>19500</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="4">
         <v>487500</v>
       </c>
       <c r="O11" s="7" t="str">
@@ -1492,47 +1495,47 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>45924</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="10">
-        <v>775426848</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>776180875</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="10">
-        <v>20</v>
-      </c>
-      <c r="M12" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N12" s="12">
-        <v>390000</v>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" s="4">
+        <v>26000</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1300000</v>
       </c>
       <c r="O12" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1548,22 +1551,22 @@
         <v>45924</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10">
-        <v>775426848</v>
+        <v>776180875</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>14</v>
@@ -1572,19 +1575,19 @@
         <v>18</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L13" s="10">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M13" s="12">
-        <v>10250</v>
+        <v>19500</v>
       </c>
       <c r="N13" s="12">
-        <v>51250</v>
+        <v>487500</v>
       </c>
       <c r="O13" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1647,48 +1650,48 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
         <v>45924</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="10">
-        <v>777262311</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>778096419</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10">
-        <v>2</v>
-      </c>
-      <c r="M15" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N15" s="12">
-        <v>20500</v>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>60000</v>
+      </c>
+      <c r="N15" s="4">
+        <v>300000</v>
       </c>
       <c r="O15" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3ADC1C-949F-4E8C-B29E-AEFFFB4B15F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF9E39-D500-44F2-8073-F314DC50DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="10882" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>Client satisfait</t>
+  </si>
+  <si>
+    <t>Keur Massar Ainoumady</t>
+  </si>
+  <si>
+    <t>Seye et fils</t>
+  </si>
+  <si>
+    <t>Ras</t>
   </si>
 </sst>
 </file>
@@ -293,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -321,6 +330,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,74 +346,10 @@
   <dxfs count="19">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -450,6 +404,20 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -563,6 +531,56 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -582,30 +600,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P19" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A1:P19" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P21" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P21" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
     <sortCondition descending="1" ref="B1:B19"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,10 +917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1910,6 +1928,110 @@
         <v>septembre</v>
       </c>
     </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="13">
+        <v>774249184</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="13">
+        <v>25</v>
+      </c>
+      <c r="M20" s="15">
+        <v>26000</v>
+      </c>
+      <c r="N20" s="15">
+        <v>650000</v>
+      </c>
+      <c r="O20" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P20" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
+        <v>45926</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="13">
+        <v>774249184</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="13">
+        <v>25</v>
+      </c>
+      <c r="M21" s="15">
+        <v>19500</v>
+      </c>
+      <c r="N21" s="15">
+        <v>487500</v>
+      </c>
+      <c r="O21" s="16" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S39</v>
+      </c>
+      <c r="P21" s="17" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF9E39-D500-44F2-8073-F314DC50DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F44C8-8B8C-42E7-884E-CAC51E48B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="10882" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Merci </t>
-  </si>
-  <si>
-    <t>SEYNABOU BA</t>
   </si>
   <si>
     <t>Il dit qu'il attend son café altimo pour lundi car il y en n'a plus depuis et que pour le pot 200g les clients demandent à ce qu'il soit rempli car c'est pas le cas</t>
@@ -269,12 +266,24 @@
       <name val="TIMES"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -302,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -323,7 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -339,6 +347,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +638,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P21" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P21" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
-    <sortCondition descending="1" ref="B1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P20" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P20" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P20">
+    <sortCondition ref="A1:A20"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
@@ -917,10 +955,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -993,723 +1031,723 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
-        <v>45924</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>776634479</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="A2" s="17">
+        <v>45923</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18">
+        <v>776175166</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>10250</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10250</v>
-      </c>
-      <c r="O2" s="7" t="str">
+      <c r="J2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="18">
+        <v>100</v>
+      </c>
+      <c r="M2" s="20">
+        <v>19500</v>
+      </c>
+      <c r="N2" s="20">
+        <v>1950000</v>
+      </c>
+      <c r="O2" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <v>45924</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>775894235</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="A3" s="17">
+        <v>45923</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18">
+        <v>776175166</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" s="4">
-        <v>19500</v>
-      </c>
-      <c r="N3" s="4">
-        <v>97500</v>
-      </c>
-      <c r="O3" s="7" t="str">
+      <c r="J3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="18">
+        <v>100</v>
+      </c>
+      <c r="M3" s="20">
+        <v>26000</v>
+      </c>
+      <c r="N3" s="20">
+        <v>2600000</v>
+      </c>
+      <c r="O3" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P3" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="26">
         <v>45924</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="10">
-        <v>775426848</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27">
+        <v>776634479</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="10">
-        <v>20</v>
-      </c>
-      <c r="M4" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N4" s="12">
-        <v>390000</v>
-      </c>
-      <c r="O4" s="7" t="str">
+      <c r="J4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="29">
+        <v>10250</v>
+      </c>
+      <c r="N4" s="29">
+        <v>10250</v>
+      </c>
+      <c r="O4" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="26">
         <v>45924</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10">
-        <v>775426848</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="E5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="27">
+        <v>775894235</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="J5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="27">
         <v>5</v>
       </c>
-      <c r="M5" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N5" s="12">
-        <v>51250</v>
-      </c>
-      <c r="O5" s="7" t="str">
+      <c r="M5" s="29">
+        <v>19500</v>
+      </c>
+      <c r="N5" s="29">
+        <v>97500</v>
+      </c>
+      <c r="O5" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="31">
         <v>45924</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="10">
-        <v>777262311</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="32">
+        <v>775426848</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N6" s="12">
-        <v>20500</v>
-      </c>
-      <c r="O6" s="7" t="str">
+      <c r="J6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="32">
+        <v>20</v>
+      </c>
+      <c r="M6" s="34">
+        <v>19500</v>
+      </c>
+      <c r="N6" s="34">
+        <v>390000</v>
+      </c>
+      <c r="O6" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
+      <c r="A7" s="31">
         <v>45924</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <v>778056161</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="32">
+        <v>775426848</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>9750</v>
-      </c>
-      <c r="N7" s="4">
-        <v>97500</v>
-      </c>
-      <c r="O7" s="7" t="str">
+      <c r="L7" s="32">
+        <v>5</v>
+      </c>
+      <c r="M7" s="34">
+        <v>10250</v>
+      </c>
+      <c r="N7" s="34">
+        <v>51250</v>
+      </c>
+      <c r="O7" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
+      <c r="A8" s="31">
         <v>45924</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>775213948</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="32">
+        <v>777262311</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8" s="4">
-        <v>26000</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1300000</v>
-      </c>
-      <c r="O8" s="7" t="str">
+      <c r="J8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="32">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34">
+        <v>10250</v>
+      </c>
+      <c r="N8" s="34">
+        <v>20500</v>
+      </c>
+      <c r="O8" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
-        <v>45923</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>776175166</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="A9" s="17">
+        <v>45924</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="18">
+        <v>778056161</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9" s="4">
-        <v>19500</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1950000</v>
-      </c>
-      <c r="O9" s="7" t="str">
+      <c r="J9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="18">
+        <v>10</v>
+      </c>
+      <c r="M9" s="20">
+        <v>9750</v>
+      </c>
+      <c r="N9" s="20">
+        <v>97500</v>
+      </c>
+      <c r="O9" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
-        <v>45923</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>776175166</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="A10" s="17">
+        <v>45924</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="18">
+        <v>775213948</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="L10" s="18">
+        <v>50</v>
+      </c>
+      <c r="M10" s="20">
         <v>26000</v>
       </c>
-      <c r="N10" s="4">
-        <v>2600000</v>
-      </c>
-      <c r="O10" s="7" t="str">
+      <c r="N10" s="20">
+        <v>1300000</v>
+      </c>
+      <c r="O10" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>45924</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="18">
         <v>778056161</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="18">
         <v>25</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="20">
         <v>19500</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="20">
         <v>487500</v>
       </c>
-      <c r="O11" s="7" t="str">
+      <c r="O11" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>45924</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="18">
         <v>776180875</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="18">
         <v>50</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="20">
         <v>26000</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="20">
         <v>1300000</v>
       </c>
-      <c r="O12" s="7" t="str">
+      <c r="O12" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+      <c r="A13" s="22">
         <v>45924</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="23">
         <v>776180875</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="23">
         <v>25</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="25">
         <v>19500</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="25">
         <v>487500</v>
       </c>
-      <c r="O13" s="7" t="str">
+      <c r="O13" s="21" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
-        <v>45925</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="10">
-        <v>783758073</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="10" t="s">
+    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="26">
+        <v>45924</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="27">
+        <v>778096419</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="10">
-        <v>25</v>
-      </c>
-      <c r="M14" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N14" s="12">
-        <v>487500</v>
-      </c>
-      <c r="O14" s="7" t="str">
+      <c r="J14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="27">
+        <v>5</v>
+      </c>
+      <c r="M14" s="29">
+        <v>60000</v>
+      </c>
+      <c r="N14" s="29">
+        <v>300000</v>
+      </c>
+      <c r="O14" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P14" t="str">
+      <c r="P14" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
-        <v>45924</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15">
-        <v>778096419</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
+        <v>45925</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="9">
+        <v>783758073</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>60000</v>
-      </c>
-      <c r="N15" s="4">
-        <v>300000</v>
+      <c r="J15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="9">
+        <v>25</v>
+      </c>
+      <c r="M15" s="11">
+        <v>19500</v>
+      </c>
+      <c r="N15" s="11">
+        <v>487500</v>
       </c>
       <c r="O15" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1720,314 +1758,262 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+    <row r="16" spans="1:16" ht="55.9" x14ac:dyDescent="0.45">
+      <c r="A16" s="31">
         <v>45926</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="32">
+        <v>783758073</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="10">
-        <v>779420909</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="32">
         <v>25</v>
       </c>
-      <c r="L16" s="10">
-        <v>5</v>
-      </c>
-      <c r="M16" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N16" s="12">
-        <v>97500</v>
-      </c>
-      <c r="O16" s="7" t="str">
+      <c r="M16" s="34">
+        <v>26000</v>
+      </c>
+      <c r="N16" s="34">
+        <v>650000</v>
+      </c>
+      <c r="O16" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P16" t="str">
+      <c r="P16" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="55.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="31">
         <v>45926</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="10">
-        <v>783758073</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="E17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="32">
+        <v>774993694</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="10">
-        <v>25</v>
-      </c>
-      <c r="M17" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N17" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O17" s="7" t="str">
+      <c r="J17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="32">
+        <v>50</v>
+      </c>
+      <c r="M17" s="34">
+        <v>9750</v>
+      </c>
+      <c r="N17" s="34">
+        <v>487500</v>
+      </c>
+      <c r="O17" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P17" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+      <c r="A18" s="31">
         <v>45926</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="32">
+        <v>774993694</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="10">
-        <v>774993694</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="K18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="32">
         <v>50</v>
       </c>
-      <c r="M18" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N18" s="12">
-        <v>487500</v>
-      </c>
-      <c r="O18" s="7" t="str">
+      <c r="M18" s="34">
+        <v>26000</v>
+      </c>
+      <c r="N18" s="34">
+        <v>1300000</v>
+      </c>
+      <c r="O18" s="30" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P18" t="str">
+      <c r="P18" s="27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>45926</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="10">
-        <v>774993694</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="12">
+        <v>774249184</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="J19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="10">
-        <v>50</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="L19" s="12">
+        <v>25</v>
+      </c>
+      <c r="M19" s="14">
         <v>26000</v>
       </c>
-      <c r="N19" s="12">
-        <v>1300000</v>
-      </c>
-      <c r="O19" s="7" t="str">
+      <c r="N19" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O19" s="15" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P19" t="str">
+      <c r="P19" s="16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>45926</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="12">
+        <v>774249184</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="13">
-        <v>774249184</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="13">
+      <c r="K20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="15">
-        <v>26000</v>
-      </c>
-      <c r="N20" s="15">
-        <v>650000</v>
-      </c>
-      <c r="O20" s="16" t="str">
+      <c r="L20" s="12">
+        <v>25</v>
+      </c>
+      <c r="M20" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N20" s="14">
+        <v>487500</v>
+      </c>
+      <c r="O20" s="15" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S39</v>
       </c>
-      <c r="P20" s="17" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>septembre</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>45926</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="13">
-        <v>774249184</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="13">
-        <v>25</v>
-      </c>
-      <c r="M21" s="15">
-        <v>19500</v>
-      </c>
-      <c r="N21" s="15">
-        <v>487500</v>
-      </c>
-      <c r="O21" s="16" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S39</v>
-      </c>
-      <c r="P21" s="17" t="str">
+      <c r="P20" s="16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3285B-22CE-4A95-8210-937E1FAAE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59856D1D-F59A-4119-9BC9-F2C8E8641D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>CHERIF DIALLO</t>
+  </si>
+  <si>
+    <t>Gueule Tapée</t>
+  </si>
+  <si>
+    <t>Souleymane</t>
+  </si>
+  <si>
+    <t>Reçue</t>
+  </si>
+  <si>
+    <t>Café stick Altimo 1,5gx09boites</t>
+  </si>
+  <si>
+    <t>Point E</t>
+  </si>
+  <si>
+    <t>Diouf</t>
+  </si>
+  <si>
+    <t>Commande reçue</t>
+  </si>
+  <si>
+    <t>Kamlac évaporé 48x160g</t>
   </si>
 </sst>
 </file>
@@ -244,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -265,26 +289,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -294,6 +329,60 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -308,83 +397,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -503,6 +515,20 @@
         <name val="TIMES"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -571,30 +597,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P9" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P9" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P12" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -888,10 +914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -964,7 +990,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>45929</v>
       </c>
       <c r="B2" t="s">
@@ -1016,7 +1042,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>45929</v>
       </c>
       <c r="B3" t="s">
@@ -1068,46 +1094,46 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>45929</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>776256670</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>25</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="12">
         <v>19500</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="12">
         <v>487500</v>
       </c>
       <c r="O4" s="7" t="str">
@@ -1120,46 +1146,46 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>45930</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>770217868</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>25</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="12">
         <v>19500</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="12">
         <v>487500</v>
       </c>
       <c r="O5" s="7" t="str">
@@ -1172,46 +1198,46 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>45930</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>783758073</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>25</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="12">
         <v>26000</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="12">
         <v>650000</v>
       </c>
       <c r="O6" s="7" t="str">
@@ -1224,46 +1250,46 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>45930</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>774415358</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <v>25</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="12">
         <v>26000</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="12">
         <v>650000</v>
       </c>
       <c r="O7" s="7" t="str">
@@ -1276,46 +1302,46 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>45930</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>781282357</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="10">
         <v>50</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="12">
         <v>26000</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="12">
         <v>1300000</v>
       </c>
       <c r="O8" s="7" t="str">
@@ -1328,46 +1354,46 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>45930</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>774245132</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10">
         <v>50</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="12">
         <v>26000</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="12">
         <v>1300000</v>
       </c>
       <c r="O9" s="7" t="str">
@@ -1380,184 +1406,160 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="13">
+        <v>45931</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="14">
+        <v>773366070</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="14">
+        <v>5</v>
+      </c>
+      <c r="M10" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N10" s="16">
+        <v>155000</v>
+      </c>
+      <c r="O10" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="13">
+        <v>45931</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="14">
+        <v>775653543</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="14">
+        <v>30</v>
+      </c>
+      <c r="M11" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N11" s="16">
+        <v>345000</v>
+      </c>
+      <c r="O11" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P11" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="8"/>
+      <c r="A12" s="13">
+        <v>45931</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="14">
+        <v>773366070</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="14">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N12" s="16">
+        <v>130000</v>
+      </c>
+      <c r="O12" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P12" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59856D1D-F59A-4119-9BC9-F2C8E8641D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC16882-E3D8-4665-A339-69DC55DE6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Kamlac évaporé 48x160g</t>
+  </si>
+  <si>
+    <t>SoGEcAl SARL</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P12" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P13" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -914,10 +917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N12"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1406,157 +1409,209 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>45931</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>773366070</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="12">
         <v>31000</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="12">
         <v>155000</v>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P10" s="18" t="str">
+      <c r="P10" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>45931</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>775653543</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>30</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="12">
         <v>11500</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="12">
         <v>345000</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P11" s="18" t="str">
+      <c r="P11" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>45931</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>773366070</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <v>5</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="12">
         <v>26000</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="12">
         <v>130000</v>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P12" s="18" t="str">
+      <c r="P12" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="13">
+        <v>45932</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="14">
+        <v>338559599</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="14">
+        <v>50</v>
+      </c>
+      <c r="M13" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1550000</v>
+      </c>
+      <c r="O13" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P13" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC16882-E3D8-4665-A339-69DC55DE6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADE437-91BE-45D9-AFC8-8B2D05209E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,36 @@
   </si>
   <si>
     <t>SoGEcAl SARL</t>
+  </si>
+  <si>
+    <t>DKR Plateau</t>
+  </si>
+  <si>
+    <t>Ameth</t>
+  </si>
+  <si>
+    <t>S.K.L</t>
+  </si>
+  <si>
+    <t>Yeumbeul Mbéde Sass</t>
+  </si>
+  <si>
+    <t>NAFAR BOUTIQUE</t>
+  </si>
+  <si>
+    <t>Yeumbeul Tally Diallo</t>
+  </si>
+  <si>
+    <t>ABLAYE DIALLO</t>
+  </si>
+  <si>
+    <t>Grand Yoff</t>
+  </si>
+  <si>
+    <t>Dame DIOP</t>
+  </si>
+  <si>
+    <t>Modou boye</t>
   </si>
 </sst>
 </file>
@@ -600,8 +630,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P13" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P13" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P19" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P19" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -917,10 +947,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1565,53 +1595,365 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>45932</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>338559599</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <v>50</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="12">
         <v>31000</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="12">
         <v>1550000</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P13" s="18" t="str">
+      <c r="P13" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="14">
+        <v>775602981</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="14">
+        <v>25</v>
+      </c>
+      <c r="M14" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N14" s="16">
+        <v>150000</v>
+      </c>
+      <c r="O14" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P14" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="14">
+        <v>778195274</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="14">
+        <v>50</v>
+      </c>
+      <c r="M15" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O15" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P15" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="14">
+        <v>762974040</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="14">
+        <v>25</v>
+      </c>
+      <c r="M16" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N16" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O16" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P16" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="14">
+        <v>778056161</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="14">
+        <v>25</v>
+      </c>
+      <c r="M17" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N17" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O17" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P17" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="14">
+        <v>774216339</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="14">
+        <v>50</v>
+      </c>
+      <c r="M18" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O18" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P18" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
+        <v>45933</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="14">
+        <v>767379110</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="14">
+        <v>50</v>
+      </c>
+      <c r="M19" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O19" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P19" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADE437-91BE-45D9-AFC8-8B2D05209E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7202D-A597-4AB9-96EF-C845A78CE0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,42 @@
   </si>
   <si>
     <t>Modou boye</t>
+  </si>
+  <si>
+    <t>Seynabou SOW</t>
+  </si>
+  <si>
+    <t>CASTOR</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Ndioguou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci beaucoup </t>
+  </si>
+  <si>
+    <t>MATAR LY</t>
+  </si>
+  <si>
+    <t>Marché Bou Bess</t>
+  </si>
+  <si>
+    <t>MOUSTAPHA DIALLO</t>
+  </si>
+  <si>
+    <t>Café pot Refraish 50g</t>
+  </si>
+  <si>
+    <t>MOUSTAPHA MBAO</t>
+  </si>
+  <si>
+    <t>Alpha ba</t>
+  </si>
+  <si>
+    <t>Merci beaucoup</t>
   </si>
 </sst>
 </file>
@@ -630,8 +666,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P19" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P19" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P26" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P26" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -947,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1647,313 +1683,677 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>45933</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>775602981</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="10">
         <v>25</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="12">
         <v>6000</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="12">
         <v>150000</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P14" s="18" t="str">
+      <c r="P14" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>45933</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>778195274</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="10">
         <v>50</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="12">
         <v>26000</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="12">
         <v>1300000</v>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P15" s="18" t="str">
+      <c r="P15" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>45933</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>762974040</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="10">
         <v>25</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="12">
         <v>26000</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="12">
         <v>650000</v>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P16" s="18" t="str">
+      <c r="P16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>45933</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>778056161</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="G17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="10">
         <v>25</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="12">
         <v>26000</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="12">
         <v>650000</v>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P17" s="18" t="str">
+      <c r="P17" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>45933</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>774216339</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="G18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="10">
         <v>50</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="12">
         <v>26000</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="12">
         <v>1300000</v>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P18" s="18" t="str">
+      <c r="P18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>45933</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>767379110</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="15" t="s">
+      <c r="G19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="10">
         <v>50</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="12">
         <v>26000</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="12">
         <v>1300000</v>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P19" s="18" t="str">
+      <c r="P19" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="14">
+        <v>776634479</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3</v>
+      </c>
+      <c r="M20" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N20" s="16">
+        <v>58500</v>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P20" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="14">
+        <v>773531341</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="14">
+        <v>200</v>
+      </c>
+      <c r="M21" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N21" s="16">
+        <v>5200000</v>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P21" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14">
+        <v>25</v>
+      </c>
+      <c r="M22" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N22" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O22" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P22" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="14">
+        <v>25</v>
+      </c>
+      <c r="M23" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N23" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O23" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P23" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="14">
+        <v>50</v>
+      </c>
+      <c r="M24" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O24" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P24" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="14">
+        <v>776503464</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="14">
+        <v>25</v>
+      </c>
+      <c r="M25" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N25" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O25" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P25" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="14">
+        <v>773564759</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="14">
+        <v>5</v>
+      </c>
+      <c r="M26" s="16">
+        <v>10250</v>
+      </c>
+      <c r="N26" s="16">
+        <v>51250</v>
+      </c>
+      <c r="O26" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P26" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7202D-A597-4AB9-96EF-C845A78CE0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E210D-921C-4B57-87C5-A010124F5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>Merci beaucoup</t>
+  </si>
+  <si>
+    <t>Ngouye NDIAYE</t>
+  </si>
+  <si>
+    <t>PIKINE</t>
+  </si>
+  <si>
+    <t>Keur Mbaye Fall</t>
+  </si>
+  <si>
+    <t>Alassane Diallo</t>
   </si>
 </sst>
 </file>
@@ -666,8 +678,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P26" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P26" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P27" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P27" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -983,10 +995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:N26"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1995,365 +2007,417 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>45936</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>776634479</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="15" t="s">
+      <c r="G20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="10">
         <v>3</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="12">
         <v>19500</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="12">
         <v>58500</v>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P20" s="18" t="str">
+      <c r="P20" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>45936</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>773531341</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="10">
         <v>200</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="12">
         <v>26000</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="12">
         <v>5200000</v>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P21" s="18" t="str">
+      <c r="P21" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>45936</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>784537895</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="G22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="10">
         <v>25</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="12">
         <v>19500</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="12">
         <v>487500</v>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P22" s="18" t="str">
+      <c r="P22" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>45936</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>784537895</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="G23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="10">
         <v>25</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="12">
         <v>9750</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="12">
         <v>243750</v>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P23" s="18" t="str">
+      <c r="P23" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>45936</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="10">
         <v>784537895</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="G24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="10">
         <v>50</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="12">
         <v>26000</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="12">
         <v>1300000</v>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P24" s="18" t="str">
+      <c r="P24" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>45936</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="10">
         <v>776503464</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="15" t="s">
+      <c r="G25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="10">
         <v>25</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="12">
         <v>26000</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="12">
         <v>650000</v>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P25" s="18" t="str">
+      <c r="P25" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>45936</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <v>773564759</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="G26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="14">
-        <v>5</v>
-      </c>
-      <c r="M26" s="16">
+      <c r="L26" s="10">
+        <v>3</v>
+      </c>
+      <c r="M26" s="12">
         <v>10250</v>
       </c>
-      <c r="N26" s="16">
-        <v>51250</v>
-      </c>
-      <c r="O26" s="17" t="str">
+      <c r="N26" s="12">
+        <v>30750</v>
+      </c>
+      <c r="O26" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P26" s="18" t="str">
+      <c r="P26" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="13">
+        <v>45936</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="14">
+        <v>772289185</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="14">
+        <v>25</v>
+      </c>
+      <c r="M27" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N27" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O27" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P27" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E210D-921C-4B57-87C5-A010124F5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C32CBD-9A29-4941-9A58-406731B4264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,48 @@
   </si>
   <si>
     <t>Alassane Diallo</t>
+  </si>
+  <si>
+    <t>Zone de captage</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Demi-Gros</t>
+  </si>
+  <si>
+    <t>Client non Partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais essayer avec </t>
+  </si>
+  <si>
+    <t>Mor Diop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais essayer </t>
+  </si>
+  <si>
+    <t>Assane Wade</t>
+  </si>
+  <si>
+    <t>Liberté 1 à 6</t>
+  </si>
+  <si>
+    <t>Moussa</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Ngor</t>
+  </si>
+  <si>
+    <t>Cheikh Boussole</t>
+  </si>
+  <si>
+    <t>El Hadji</t>
   </si>
 </sst>
 </file>
@@ -678,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P27" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P27" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P35" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -995,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2371,53 +2413,469 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>45936</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="10">
         <v>772289185</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="15" t="s">
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="10">
         <v>25</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="12">
         <v>26000</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="12">
         <v>650000</v>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P27" s="18" t="str">
+      <c r="P27" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="14">
+        <v>776634479</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="16">
+        <v>10250</v>
+      </c>
+      <c r="N28" s="16">
+        <v>10250</v>
+      </c>
+      <c r="O28" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P28" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="14">
+        <v>704738232</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N29" s="16">
+        <v>11500</v>
+      </c>
+      <c r="O29" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P29" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="14">
+        <v>777262311</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="14">
+        <v>2</v>
+      </c>
+      <c r="M30" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N30" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O30" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P30" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="14">
+        <v>775884054</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="14">
+        <v>2</v>
+      </c>
+      <c r="M31" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N31" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O31" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P31" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="14">
+        <v>771837885</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="14">
+        <v>2</v>
+      </c>
+      <c r="M32" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N32" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O32" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P32" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="14">
+        <v>773170826</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="14">
+        <v>1</v>
+      </c>
+      <c r="M33" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N33" s="16">
+        <v>11500</v>
+      </c>
+      <c r="O33" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P33" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="14">
+        <v>777802399</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="14">
+        <v>3</v>
+      </c>
+      <c r="M34" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N34" s="16">
+        <v>34500</v>
+      </c>
+      <c r="O34" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P34" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="13">
+        <v>45937</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="14">
+        <v>773739328</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="14">
+        <v>12</v>
+      </c>
+      <c r="M35" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N35" s="16">
+        <v>138000</v>
+      </c>
+      <c r="O35" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P35" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C32CBD-9A29-4941-9A58-406731B4264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F0A63-0A04-4E80-B811-9FEF4B57116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,90 @@
   </si>
   <si>
     <t>El Hadji</t>
+  </si>
+  <si>
+    <t>Elhadj Ly</t>
+  </si>
+  <si>
+    <t>Pour essayer</t>
+  </si>
+  <si>
+    <t>Chocolat Orange 10 g x 60 pcs x 6 boites</t>
+  </si>
+  <si>
+    <t>Bacary</t>
+  </si>
+  <si>
+    <t>Commande reçue.il veut essayer d'abord</t>
+  </si>
+  <si>
+    <t>Chocolat transparent 200gx24pcs</t>
+  </si>
+  <si>
+    <t>Chocolat transparent 400gx12pcs</t>
+  </si>
+  <si>
+    <t>Chocolat jaune 200g x 24 pcs</t>
+  </si>
+  <si>
+    <t>Chocolat jaune 400g x 12 pcs</t>
+  </si>
+  <si>
+    <t>Chocolat 3-en-1 30x120 pcs</t>
+  </si>
+  <si>
+    <t>Fatoumata TRAORE</t>
+  </si>
+  <si>
+    <t>KEUR MASSAR</t>
+  </si>
+  <si>
+    <t>Terminus 54</t>
+  </si>
+  <si>
+    <t>BABACAR Cissé</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>Keur Massar Sotrac</t>
+  </si>
+  <si>
+    <t>Khadam seye</t>
+  </si>
+  <si>
+    <t>Keur Massar Gouygui</t>
+  </si>
+  <si>
+    <t>CPm</t>
+  </si>
+  <si>
+    <t>Supermarché</t>
+  </si>
+  <si>
+    <t>Ras</t>
+  </si>
+  <si>
+    <t>Dame Castor</t>
+  </si>
+  <si>
+    <t>Je vais t'appeler après</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 50g x 24 pcs</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 100g x 24 pcs</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 200g x 12 pcs</t>
+  </si>
+  <si>
+    <t>Pa Sylla</t>
+  </si>
+  <si>
+    <t>Mbaye</t>
   </si>
 </sst>
 </file>
@@ -661,16 +745,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -720,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P35" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P35" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P60" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="A1:P60" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1037,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2465,417 +2549,1717 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>45937</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="10">
         <v>776634479</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="G28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="10">
+        <v>2</v>
+      </c>
+      <c r="M28" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N28" s="12">
+        <v>20500</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P28" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="10">
+        <v>704738232</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="10">
         <v>1</v>
       </c>
-      <c r="M28" s="16">
-        <v>10250</v>
-      </c>
-      <c r="N28" s="16">
-        <v>10250</v>
-      </c>
-      <c r="O28" s="17" t="str">
+      <c r="M29" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N29" s="12">
+        <v>11500</v>
+      </c>
+      <c r="O29" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P28" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="13">
+      <c r="P29" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
         <v>45937</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="10">
+        <v>777262311</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="10">
+        <v>2</v>
+      </c>
+      <c r="M30" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N30" s="12">
+        <v>23000</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P30" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="10">
+        <v>775884054</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="10">
+        <v>2</v>
+      </c>
+      <c r="M31" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N31" s="12">
+        <v>23000</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P31" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="10">
+        <v>771837885</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2</v>
+      </c>
+      <c r="M32" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N32" s="12">
+        <v>23000</v>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P32" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="10">
+        <v>773170826</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N33" s="12">
+        <v>11500</v>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P33" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="10">
+        <v>777802399</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="10">
+        <v>3</v>
+      </c>
+      <c r="M34" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N34" s="12">
+        <v>34500</v>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P34" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="14">
-        <v>704738232</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="E35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="10">
+        <v>773739328</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="10">
+        <v>14</v>
+      </c>
+      <c r="M35" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N35" s="12">
+        <v>161000</v>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="14">
+        <v>772873297</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="14">
+        <v>2</v>
+      </c>
+      <c r="M36" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N36" s="16">
+        <v>20000</v>
+      </c>
+      <c r="O36" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P36" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="14">
+        <v>770158721</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="14">
+        <v>25</v>
+      </c>
+      <c r="M37" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N37" s="16">
+        <v>312500</v>
+      </c>
+      <c r="O37" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P37" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="14">
+        <v>770158721</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="14">
+        <v>10</v>
+      </c>
+      <c r="M38" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N38" s="16">
+        <v>125000</v>
+      </c>
+      <c r="O38" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P38" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="14">
+        <v>770158721</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="14">
+        <v>25</v>
+      </c>
+      <c r="M39" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N39" s="16">
+        <v>387500</v>
+      </c>
+      <c r="O39" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P39" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="14">
+        <v>770158721</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="14">
+        <v>10</v>
+      </c>
+      <c r="M40" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N40" s="16">
+        <v>155000</v>
+      </c>
+      <c r="O40" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P40" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="14">
+        <v>772873297</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="14">
+        <v>2</v>
+      </c>
+      <c r="M41" s="16">
+        <v>13000</v>
+      </c>
+      <c r="N41" s="16">
+        <v>26000</v>
+      </c>
+      <c r="O41" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P41" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="14">
+        <v>783682649</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="14">
+        <v>13</v>
+      </c>
+      <c r="M42" s="16">
+        <v>18750</v>
+      </c>
+      <c r="N42" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O42" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P42" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="14">
+        <v>783682649</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="14">
+        <v>25</v>
+      </c>
+      <c r="M43" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N43" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O43" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P43" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="14">
+        <v>777249189</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="14">
+        <v>13</v>
+      </c>
+      <c r="M44" s="16">
+        <v>18750</v>
+      </c>
+      <c r="N44" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O44" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P44" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="14">
+        <v>777249189</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="14">
+        <v>25</v>
+      </c>
+      <c r="M45" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N45" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O45" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P45" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="14">
+        <v>778003741</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" s="14">
+        <v>1</v>
+      </c>
+      <c r="M46" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N46" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O46" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P46" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="14">
+        <v>778003741</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1</v>
+      </c>
+      <c r="M47" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N47" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O47" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P47" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1</v>
+      </c>
+      <c r="M48" s="16">
+        <v>17500</v>
+      </c>
+      <c r="N48" s="16">
+        <v>17500</v>
+      </c>
+      <c r="O48" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P48" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1</v>
+      </c>
+      <c r="M49" s="16">
+        <v>33500</v>
+      </c>
+      <c r="N49" s="16">
+        <v>33500</v>
+      </c>
+      <c r="O49" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P49" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1</v>
+      </c>
+      <c r="M50" s="16">
+        <v>34500</v>
+      </c>
+      <c r="N50" s="16">
+        <v>34500</v>
+      </c>
+      <c r="O50" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P50" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2</v>
+      </c>
+      <c r="M51" s="16">
+        <v>15000</v>
+      </c>
+      <c r="N51" s="16">
+        <v>30000</v>
+      </c>
+      <c r="O51" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P51" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="14">
+        <v>778276533</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="I52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="14">
+        <v>6</v>
+      </c>
+      <c r="M52" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N52" s="16">
+        <v>156000</v>
+      </c>
+      <c r="O52" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P52" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="14">
+        <v>778276533</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="14">
+        <v>6</v>
+      </c>
+      <c r="M53" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N53" s="16">
+        <v>117000</v>
+      </c>
+      <c r="O53" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P53" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="14">
+        <v>778276533</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="14">
+        <v>1</v>
+      </c>
+      <c r="M54" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N54" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O54" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P54" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="14">
+        <v>778276533</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1</v>
+      </c>
+      <c r="M55" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N55" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O55" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P55" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="14">
+        <v>776634479</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L56" s="14">
+        <v>2</v>
+      </c>
+      <c r="M56" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N56" s="16">
+        <v>31000</v>
+      </c>
+      <c r="O56" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P56" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="14">
+        <v>773040043</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L57" s="14">
+        <v>1</v>
+      </c>
+      <c r="M57" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N57" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O57" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P57" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="14">
+        <v>773040043</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="14">
+        <v>2</v>
+      </c>
+      <c r="M58" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N58" s="16">
+        <v>25000</v>
+      </c>
+      <c r="O58" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P58" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="14">
+        <v>773817561</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K59" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="14">
-        <v>1</v>
-      </c>
-      <c r="M29" s="16">
+      <c r="L59" s="14">
+        <v>5</v>
+      </c>
+      <c r="M59" s="16">
         <v>11500</v>
       </c>
-      <c r="N29" s="16">
-        <v>11500</v>
-      </c>
-      <c r="O29" s="17" t="str">
+      <c r="N59" s="16">
+        <v>57500</v>
+      </c>
+      <c r="O59" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P29" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="14">
-        <v>777262311</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="14">
-        <v>2</v>
-      </c>
-      <c r="M30" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N30" s="16">
-        <v>23000</v>
-      </c>
-      <c r="O30" s="17" t="str">
+      <c r="P59" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60" s="13">
+        <v>45938</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="14">
+        <v>775586604</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="14">
+        <v>25</v>
+      </c>
+      <c r="M60" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N60" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O60" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
-      <c r="P30" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="14">
-        <v>775884054</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="14">
-        <v>2</v>
-      </c>
-      <c r="M31" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N31" s="16">
-        <v>23000</v>
-      </c>
-      <c r="O31" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P31" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="14">
-        <v>771837885</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="14">
-        <v>2</v>
-      </c>
-      <c r="M32" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N32" s="16">
-        <v>23000</v>
-      </c>
-      <c r="O32" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P32" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="14">
-        <v>773170826</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="14">
-        <v>1</v>
-      </c>
-      <c r="M33" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N33" s="16">
-        <v>11500</v>
-      </c>
-      <c r="O33" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P33" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="14">
-        <v>777802399</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="14">
-        <v>3</v>
-      </c>
-      <c r="M34" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N34" s="16">
-        <v>34500</v>
-      </c>
-      <c r="O34" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P34" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="13">
-        <v>45937</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="14">
-        <v>773739328</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="14">
-        <v>12</v>
-      </c>
-      <c r="M35" s="16">
-        <v>11500</v>
-      </c>
-      <c r="N35" s="16">
-        <v>138000</v>
-      </c>
-      <c r="O35" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P35" s="18" t="str">
+      <c r="P60" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F0A63-0A04-4E80-B811-9FEF4B57116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE13E78A-85DD-45DE-AE49-282EDA0E5374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="158">
   <si>
     <t>Date</t>
   </si>
@@ -408,6 +408,105 @@
   </si>
   <si>
     <t>Mbaye</t>
+  </si>
+  <si>
+    <t>MAMDOU DIA</t>
+  </si>
+  <si>
+    <t>THIERNO GUISSE</t>
+  </si>
+  <si>
+    <t>MOUSSA BA</t>
+  </si>
+  <si>
+    <t>SADIO</t>
+  </si>
+  <si>
+    <t>Jus Lido</t>
+  </si>
+  <si>
+    <t>Chocolat Jaune 10gx60pcsx6 boites</t>
+  </si>
+  <si>
+    <t>Pikine Sandika</t>
+  </si>
+  <si>
+    <t>Omar NDIAYE</t>
+  </si>
+  <si>
+    <t>Galle GOLLE</t>
+  </si>
+  <si>
+    <t>Mbao</t>
+  </si>
+  <si>
+    <t>Abdou Gueye</t>
+  </si>
+  <si>
+    <t>Lamine Diallo</t>
+  </si>
+  <si>
+    <t>Keur Massar Ainoumady</t>
+  </si>
+  <si>
+    <t>Abdourahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste 25 cartons refraich stick à livré </t>
+  </si>
+  <si>
+    <t>Pape</t>
+  </si>
+  <si>
+    <t>Tivaouane Peulh</t>
+  </si>
+  <si>
+    <t>Oumar sy</t>
+  </si>
+  <si>
+    <t>Grand Dakar</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Veut essayer les pots 200g</t>
+  </si>
+  <si>
+    <t>Wane</t>
+  </si>
+  <si>
+    <t>Veut essayer</t>
+  </si>
+  <si>
+    <t>Yéne</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client satisfait </t>
+  </si>
+  <si>
+    <t>Babacar Diop</t>
+  </si>
+  <si>
+    <t>Adama</t>
+  </si>
+  <si>
+    <t>Lait Kamlac sachet 18gx100</t>
+  </si>
+  <si>
+    <t>Ismaïla</t>
+  </si>
+  <si>
+    <t>Il a beau attendu son café</t>
+  </si>
+  <si>
+    <t>SEYDOU TALL</t>
+  </si>
+  <si>
+    <t>Il attend toujours son café altimo 1,5 g</t>
   </si>
 </sst>
 </file>
@@ -745,16 +844,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -804,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P60" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
-  <autoFilter ref="A1:P60" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P97" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P97" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1121,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2965,1301 +3064,3225 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="13">
+      <c r="A36" s="9">
         <v>45938</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="10">
         <v>772873297</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="15" t="s">
+      <c r="H36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10">
         <v>2</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="12">
         <v>10000</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="12">
         <v>20000</v>
       </c>
-      <c r="O36" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P36" s="18" t="str">
+      <c r="O36" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="13">
+      <c r="A37" s="9">
         <v>45938</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="10">
         <v>770158721</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="15" t="s">
+      <c r="G37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="10">
         <v>25</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="12">
         <v>12500</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="12">
         <v>312500</v>
       </c>
-      <c r="O37" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P37" s="18" t="str">
+      <c r="O37" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P37" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="13">
+      <c r="A38" s="9">
         <v>45938</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="10">
         <v>770158721</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="15" t="s">
+      <c r="G38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="10">
         <v>10</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="12">
         <v>12500</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="12">
         <v>125000</v>
       </c>
-      <c r="O38" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P38" s="18" t="str">
+      <c r="O38" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P38" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="13">
+      <c r="A39" s="9">
         <v>45938</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="10">
         <v>770158721</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="15" t="s">
+      <c r="G39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="10">
         <v>25</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="12">
         <v>15500</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="12">
         <v>387500</v>
       </c>
-      <c r="O39" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P39" s="18" t="str">
+      <c r="O39" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P39" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="13">
+      <c r="A40" s="9">
         <v>45938</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="10">
         <v>770158721</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="15" t="s">
+      <c r="G40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="10">
         <v>10</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="12">
         <v>15500</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="12">
         <v>155000</v>
       </c>
-      <c r="O40" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P40" s="18" t="str">
+      <c r="O40" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P40" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="13">
+      <c r="A41" s="9">
         <v>45938</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="10">
         <v>772873297</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="15" t="s">
+      <c r="H41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="10">
         <v>2</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="12">
         <v>13000</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="12">
         <v>26000</v>
       </c>
-      <c r="O41" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P41" s="18" t="str">
+      <c r="O41" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P41" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="13">
+      <c r="A42" s="9">
         <v>45938</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="10">
         <v>783682649</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="15" t="s">
+      <c r="G42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="14">
-        <v>13</v>
-      </c>
-      <c r="M42" s="16">
+      <c r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="12">
         <v>18750</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="12">
         <v>243750</v>
       </c>
-      <c r="O42" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P42" s="18" t="str">
+      <c r="O42" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P42" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="13">
+      <c r="A43" s="9">
         <v>45938</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="10">
         <v>783682649</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="15" t="s">
+      <c r="G43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="10">
         <v>25</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="12">
         <v>26000</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="12">
         <v>650000</v>
       </c>
-      <c r="O43" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P43" s="18" t="str">
+      <c r="O43" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P43" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="13">
+      <c r="A44" s="9">
         <v>45938</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="10">
         <v>777249189</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="15" t="s">
+      <c r="G44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="14">
-        <v>13</v>
-      </c>
-      <c r="M44" s="16">
+      <c r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="12">
         <v>18750</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="12">
         <v>243750</v>
       </c>
-      <c r="O44" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P44" s="18" t="str">
+      <c r="O44" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P44" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="13">
+      <c r="A45" s="9">
         <v>45938</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="10">
         <v>777249189</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="15" t="s">
+      <c r="G45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="10">
         <v>25</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="12">
         <v>26000</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="12">
         <v>650000</v>
       </c>
-      <c r="O45" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P45" s="18" t="str">
+      <c r="O45" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P45" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="13">
+      <c r="A46" s="9">
         <v>45938</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="10">
         <v>778003741</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="15" t="s">
+      <c r="H46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="10">
         <v>1</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="12">
         <v>12500</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="12">
         <v>12500</v>
       </c>
-      <c r="O46" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P46" s="18" t="str">
+      <c r="O46" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P46" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" s="13">
+      <c r="A47" s="9">
         <v>45938</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="10">
         <v>778003741</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="15" t="s">
+      <c r="H47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="10">
         <v>1</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M47" s="12">
         <v>15500</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="12">
         <v>15500</v>
       </c>
-      <c r="O47" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P47" s="18" t="str">
+      <c r="O47" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P47" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48" s="13">
+      <c r="A48" s="9">
         <v>45938</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="10">
         <v>773817561</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="15" t="s">
+      <c r="G48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="10">
         <v>1</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="12">
         <v>17500</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N48" s="12">
         <v>17500</v>
       </c>
-      <c r="O48" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P48" s="18" t="str">
+      <c r="O48" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P48" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A49" s="13">
+      <c r="A49" s="9">
         <v>45938</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="10">
         <v>773817561</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="15" t="s">
+      <c r="G49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="10">
         <v>1</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="12">
         <v>33500</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="12">
         <v>33500</v>
       </c>
-      <c r="O49" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P49" s="18" t="str">
+      <c r="O49" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P49" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A50" s="13">
+      <c r="A50" s="9">
         <v>45938</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="10">
         <v>773817561</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="15" t="s">
+      <c r="G50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="10">
         <v>1</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="12">
         <v>34500</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N50" s="12">
         <v>34500</v>
       </c>
-      <c r="O50" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P50" s="18" t="str">
+      <c r="O50" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P50" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A51" s="13">
+      <c r="A51" s="9">
         <v>45938</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="10">
         <v>773817561</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="15" t="s">
+      <c r="G51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="10">
         <v>2</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="12">
         <v>15000</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N51" s="12">
         <v>30000</v>
       </c>
-      <c r="O51" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P51" s="18" t="str">
+      <c r="O51" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P51" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A52" s="13">
+      <c r="A52" s="9">
         <v>45938</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="10">
         <v>778276533</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="14" t="s">
+      <c r="G52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="15" t="s">
+      <c r="I52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="10">
         <v>6</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="12">
         <v>26000</v>
       </c>
-      <c r="N52" s="16">
+      <c r="N52" s="12">
         <v>156000</v>
       </c>
-      <c r="O52" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P52" s="18" t="str">
+      <c r="O52" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P52" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A53" s="13">
+      <c r="A53" s="9">
         <v>45938</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="10">
         <v>778276533</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="14" t="s">
+      <c r="G53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="15" t="s">
+      <c r="I53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="10">
         <v>6</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="12">
         <v>19500</v>
       </c>
-      <c r="N53" s="16">
+      <c r="N53" s="12">
         <v>117000</v>
       </c>
-      <c r="O53" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P53" s="18" t="str">
+      <c r="O53" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P53" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A54" s="13">
+      <c r="A54" s="9">
         <v>45938</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="10">
         <v>778276533</v>
       </c>
-      <c r="G54" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="14" t="s">
+      <c r="G54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="10">
         <v>1</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M54" s="12">
         <v>15500</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N54" s="12">
         <v>15500</v>
       </c>
-      <c r="O54" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P54" s="18" t="str">
+      <c r="O54" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P54" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A55" s="13">
+      <c r="A55" s="9">
         <v>45938</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="10">
         <v>778276533</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="14" t="s">
+      <c r="G55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="15" t="s">
+      <c r="I55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="10">
         <v>1</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M55" s="12">
         <v>12500</v>
       </c>
-      <c r="N55" s="16">
+      <c r="N55" s="12">
         <v>12500</v>
       </c>
-      <c r="O55" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P55" s="18" t="str">
+      <c r="O55" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P55" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A56" s="13">
+      <c r="A56" s="9">
         <v>45938</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="10">
         <v>776634479</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="15" t="s">
+      <c r="G56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="10">
         <v>2</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="12">
         <v>15500</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N56" s="12">
         <v>31000</v>
       </c>
-      <c r="O56" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P56" s="18" t="str">
+      <c r="O56" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P56" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A57" s="13">
+      <c r="A57" s="9">
         <v>45938</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="10">
         <v>773040043</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="15" t="s">
+      <c r="I57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="10">
         <v>1</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="12">
         <v>12500</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="12">
         <v>12500</v>
       </c>
-      <c r="O57" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P57" s="18" t="str">
+      <c r="O57" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P57" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A58" s="13">
+      <c r="A58" s="9">
         <v>45938</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="10">
         <v>773040043</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="15" t="s">
+      <c r="I58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="10">
         <v>2</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="12">
         <v>12500</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N58" s="12">
         <v>25000</v>
       </c>
-      <c r="O58" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P58" s="18" t="str">
+      <c r="O58" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P58" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A59" s="13">
+      <c r="A59" s="9">
         <v>45938</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="10">
         <v>773817561</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="15" t="s">
+      <c r="G59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="10">
         <v>5</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="12">
         <v>11500</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="12">
         <v>57500</v>
       </c>
-      <c r="O59" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P59" s="18" t="str">
+      <c r="O59" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P59" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>45938</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="10">
         <v>775586604</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="15" t="s">
+      <c r="G60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>25</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="12">
         <v>19500</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="12">
         <v>487500</v>
       </c>
-      <c r="O60" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P60" s="18" t="str">
+      <c r="O60" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P60" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="14">
+        <v>768059355</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="14">
+        <v>50</v>
+      </c>
+      <c r="M61" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N61" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O61" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P61" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="14">
+        <v>777132186</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L62" s="14">
+        <v>1</v>
+      </c>
+      <c r="M62" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N62" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O62" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P62" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="14">
+        <v>777132186</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L63" s="14">
+        <v>1</v>
+      </c>
+      <c r="M63" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N63" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O63" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P63" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="14">
+        <v>777132186</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L64" s="14">
+        <v>1</v>
+      </c>
+      <c r="M64" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N64" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O64" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P64" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="14">
+        <v>777132186</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="14">
+        <v>1</v>
+      </c>
+      <c r="M65" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N65" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O65" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P65" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="14">
+        <v>781532059</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L66" s="14">
+        <v>1</v>
+      </c>
+      <c r="M66" s="16">
+        <v>15000</v>
+      </c>
+      <c r="N66" s="16">
+        <v>15000</v>
+      </c>
+      <c r="O66" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P66" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A67" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="14">
+        <v>781532059</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="14">
+        <v>1</v>
+      </c>
+      <c r="M67" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N67" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O67" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P67" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="14">
+        <v>778704739</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L68" s="14">
+        <v>15</v>
+      </c>
+      <c r="M68" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N68" s="16">
+        <v>180000</v>
+      </c>
+      <c r="O68" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P68" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="14">
+        <v>768059355</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" s="14">
+        <v>1</v>
+      </c>
+      <c r="M69" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N69" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O69" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P69" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="14">
+        <v>768059355</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L70" s="14">
+        <v>1</v>
+      </c>
+      <c r="M70" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N70" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O70" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P70" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="14">
+        <v>768059355</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71" s="14">
+        <v>30</v>
+      </c>
+      <c r="M71" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N71" s="16">
+        <v>930000</v>
+      </c>
+      <c r="O71" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P71" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="14">
+        <v>774521295</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="14">
+        <v>25</v>
+      </c>
+      <c r="M72" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N72" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O72" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P72" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="14">
+        <v>775586819</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="14">
+        <v>25</v>
+      </c>
+      <c r="M73" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N73" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O73" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P73" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="14">
+        <v>771207041</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="14">
+        <v>25</v>
+      </c>
+      <c r="M74" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N74" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O74" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P74" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="14">
+        <v>781297575</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="14">
+        <v>25</v>
+      </c>
+      <c r="M75" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N75" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O75" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P75" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="14">
+        <v>772252177</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="14">
+        <v>25</v>
+      </c>
+      <c r="M76" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N76" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O76" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P76" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A77" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="14">
+        <v>785107921</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L77" s="14">
+        <v>25</v>
+      </c>
+      <c r="M77" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N77" s="16">
+        <v>287500</v>
+      </c>
+      <c r="O77" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P77" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A78" s="13">
+        <v>45940</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="14">
+        <v>772443935</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="14">
+        <v>25</v>
+      </c>
+      <c r="M78" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N78" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O78" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P78" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A79" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="14">
+        <v>772064446</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="14">
+        <v>25</v>
+      </c>
+      <c r="M79" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N79" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O79" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P79" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A80" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" s="14">
+        <v>775411988</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L80" s="14">
+        <v>25</v>
+      </c>
+      <c r="M80" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N80" s="16">
+        <v>312500</v>
+      </c>
+      <c r="O80" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P80" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A81" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="14">
+        <v>775411988</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="14">
+        <v>5</v>
+      </c>
+      <c r="M81" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N81" s="16">
+        <v>97500</v>
+      </c>
+      <c r="O81" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P81" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A82" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="14">
+        <v>775602981</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L82" s="14">
+        <v>25</v>
+      </c>
+      <c r="M82" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N82" s="16">
+        <v>312500</v>
+      </c>
+      <c r="O82" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P82" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="14">
+        <v>775602981</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L83" s="14">
+        <v>4</v>
+      </c>
+      <c r="M83" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N83" s="16">
+        <v>40000</v>
+      </c>
+      <c r="O83" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P83" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L84" s="14">
+        <v>5</v>
+      </c>
+      <c r="M84" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N84" s="16">
+        <v>62500</v>
+      </c>
+      <c r="O84" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P84" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="14">
+        <v>3</v>
+      </c>
+      <c r="M85" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N85" s="16">
+        <v>30000</v>
+      </c>
+      <c r="O85" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P85" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="14">
+        <v>781297575</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="14">
+        <v>25</v>
+      </c>
+      <c r="M86" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N86" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O86" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P86" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="14">
+        <v>774216339</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L87" s="14">
+        <v>25</v>
+      </c>
+      <c r="M87" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N87" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O87" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P87" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A88" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" s="14">
+        <v>774880562</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L88" s="14">
+        <v>8</v>
+      </c>
+      <c r="M88" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N88" s="16">
+        <v>124000</v>
+      </c>
+      <c r="O88" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P88" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="14">
+        <v>705121758</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L89" s="14">
+        <v>7</v>
+      </c>
+      <c r="M89" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N89" s="16">
+        <v>87500</v>
+      </c>
+      <c r="O89" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P89" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="14">
+        <v>705121758</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="14">
+        <v>50</v>
+      </c>
+      <c r="M90" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N90" s="16">
+        <v>575000</v>
+      </c>
+      <c r="O90" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P90" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F91" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" s="14">
+        <v>5</v>
+      </c>
+      <c r="M91" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N91" s="16">
+        <v>77500</v>
+      </c>
+      <c r="O91" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P91" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L92" s="14">
+        <v>11</v>
+      </c>
+      <c r="M92" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N92" s="16">
+        <v>132000</v>
+      </c>
+      <c r="O92" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P92" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F93" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L93" s="14">
+        <v>10</v>
+      </c>
+      <c r="M93" s="16">
+        <v>7500</v>
+      </c>
+      <c r="N93" s="16">
+        <v>75000</v>
+      </c>
+      <c r="O93" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P93" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F94" s="14">
+        <v>775276149</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="14">
+        <v>25</v>
+      </c>
+      <c r="M94" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N94" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O94" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P94" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A95" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F95" s="14">
+        <v>776194586</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="14">
+        <v>25</v>
+      </c>
+      <c r="M95" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N95" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O95" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P95" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="14">
+        <v>786323232</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="14">
+        <v>100</v>
+      </c>
+      <c r="M96" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N96" s="16">
+        <v>2600000</v>
+      </c>
+      <c r="O96" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P96" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A97" s="13">
+        <v>45939</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="14">
+        <v>783758073</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L97" s="14">
+        <v>25</v>
+      </c>
+      <c r="M97" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N97" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O97" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P97" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE13E78A-85DD-45DE-AE49-282EDA0E5374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31F62F-BC99-42BF-A006-AE6D58E7BBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -602,16 +602,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1212,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4364,1925 +4354,1925 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>45940</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="10">
         <v>768059355</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="15" t="s">
+      <c r="G61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="10">
         <v>50</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="12">
         <v>9750</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="12">
         <v>487500</v>
       </c>
-      <c r="O61" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P61" s="18" t="str">
+      <c r="O61" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P61" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>45940</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="10">
         <v>777132186</v>
       </c>
-      <c r="G62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="15" t="s">
+      <c r="G62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="10">
         <v>1</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="12">
         <v>12500</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="12">
         <v>12500</v>
       </c>
-      <c r="O62" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P62" s="18" t="str">
+      <c r="O62" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P62" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>45940</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="10">
         <v>777132186</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="15" t="s">
+      <c r="G63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="10">
         <v>1</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="12">
         <v>12500</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="12">
         <v>12500</v>
       </c>
-      <c r="O63" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P63" s="18" t="str">
+      <c r="O63" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P63" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>45940</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="10">
         <v>777132186</v>
       </c>
-      <c r="G64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="15" t="s">
+      <c r="G64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="10">
         <v>1</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="12">
         <v>15500</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="12">
         <v>15500</v>
       </c>
-      <c r="O64" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P64" s="18" t="str">
+      <c r="O64" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P64" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>45940</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="10">
         <v>777132186</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="15" t="s">
+      <c r="G65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="10">
         <v>1</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="12">
         <v>15500</v>
       </c>
-      <c r="N65" s="16">
+      <c r="N65" s="12">
         <v>15500</v>
       </c>
-      <c r="O65" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P65" s="18" t="str">
+      <c r="O65" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P65" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>45940</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="10">
         <v>781532059</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="15" t="s">
+      <c r="H66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="10">
         <v>1</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="12">
         <v>15000</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N66" s="12">
         <v>15000</v>
       </c>
-      <c r="O66" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P66" s="18" t="str">
+      <c r="O66" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P66" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>45940</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="10">
         <v>781532059</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="15" t="s">
+      <c r="H67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="10">
         <v>1</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M67" s="12">
         <v>15500</v>
       </c>
-      <c r="N67" s="16">
+      <c r="N67" s="12">
         <v>15500</v>
       </c>
-      <c r="O67" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P67" s="18" t="str">
+      <c r="O67" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P67" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>45940</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="10">
         <v>778704739</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="15" t="s">
+      <c r="I68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="10">
         <v>15</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="12">
         <v>12000</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="12">
         <v>180000</v>
       </c>
-      <c r="O68" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P68" s="18" t="str">
+      <c r="O68" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P68" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>45940</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="10">
         <v>768059355</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="15" t="s">
+      <c r="G69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="10">
         <v>1</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="12">
         <v>12500</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="12">
         <v>12500</v>
       </c>
-      <c r="O69" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P69" s="18" t="str">
+      <c r="O69" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P69" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>45940</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="10">
         <v>768059355</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="15" t="s">
+      <c r="G70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="10">
         <v>1</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="12">
         <v>10000</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="12">
         <v>10000</v>
       </c>
-      <c r="O70" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P70" s="18" t="str">
+      <c r="O70" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P70" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>45940</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="10">
         <v>768059355</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="G71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="10">
         <v>30</v>
       </c>
-      <c r="M71" s="16">
-        <v>31000</v>
-      </c>
-      <c r="N71" s="16">
-        <v>930000</v>
-      </c>
-      <c r="O71" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P71" s="18" t="str">
+      <c r="M71" s="12">
+        <v>30500</v>
+      </c>
+      <c r="N71" s="12">
+        <v>915000</v>
+      </c>
+      <c r="O71" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P71" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>45940</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="10">
         <v>774521295</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="G72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <v>25</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="12">
         <v>26000</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="12">
         <v>650000</v>
       </c>
-      <c r="O72" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P72" s="18" t="str">
+      <c r="O72" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P72" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="13">
+      <c r="A73" s="9">
         <v>45940</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="10">
         <v>775586819</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="G73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="10">
         <v>25</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M73" s="12">
         <v>26000</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="12">
         <v>650000</v>
       </c>
-      <c r="O73" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P73" s="18" t="str">
+      <c r="O73" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P73" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="13">
+      <c r="A74" s="9">
         <v>45940</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="10">
         <v>771207041</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="14" t="s">
+      <c r="G74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="10">
         <v>25</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M74" s="12">
         <v>26000</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N74" s="12">
         <v>650000</v>
       </c>
-      <c r="O74" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P74" s="18" t="str">
+      <c r="O74" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P74" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="13">
+      <c r="A75" s="9">
         <v>45940</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="10">
         <v>781297575</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="15" t="s">
+      <c r="G75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="10">
         <v>25</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M75" s="12">
         <v>26000</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N75" s="12">
         <v>650000</v>
       </c>
-      <c r="O75" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P75" s="18" t="str">
+      <c r="O75" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P75" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="13">
+      <c r="A76" s="9">
         <v>45940</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="10">
         <v>772252177</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="15" t="s">
+      <c r="I76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="10">
         <v>25</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M76" s="12">
         <v>26000</v>
       </c>
-      <c r="N76" s="16">
+      <c r="N76" s="12">
         <v>650000</v>
       </c>
-      <c r="O76" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P76" s="18" t="str">
+      <c r="O76" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P76" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="13">
+      <c r="A77" s="9">
         <v>45940</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="10">
         <v>785107921</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="15" t="s">
+      <c r="I77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="10">
         <v>25</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M77" s="12">
         <v>11500</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N77" s="12">
         <v>287500</v>
       </c>
-      <c r="O77" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P77" s="18" t="str">
+      <c r="O77" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P77" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="13">
+      <c r="A78" s="9">
         <v>45940</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="10">
         <v>772443935</v>
       </c>
-      <c r="G78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="15" t="s">
+      <c r="G78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="10">
         <v>25</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M78" s="12">
         <v>26000</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N78" s="12">
         <v>650000</v>
       </c>
-      <c r="O78" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P78" s="18" t="str">
+      <c r="O78" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P78" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="13">
+      <c r="A79" s="9">
         <v>45939</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="10">
         <v>772064446</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="15" t="s">
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="10">
         <v>25</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M79" s="12">
         <v>19500</v>
       </c>
-      <c r="N79" s="16">
+      <c r="N79" s="12">
         <v>487500</v>
       </c>
-      <c r="O79" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P79" s="18" t="str">
+      <c r="O79" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P79" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="13">
+      <c r="A80" s="9">
         <v>45939</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="10">
         <v>775411988</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="15" t="s">
+      <c r="H80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="10">
         <v>25</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="12">
         <v>12500</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N80" s="12">
         <v>312500</v>
       </c>
-      <c r="O80" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P80" s="18" t="str">
+      <c r="O80" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P80" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="13">
+      <c r="A81" s="9">
         <v>45939</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="10">
         <v>775411988</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="15" t="s">
+      <c r="H81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="10">
         <v>5</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M81" s="12">
         <v>19500</v>
       </c>
-      <c r="N81" s="16">
+      <c r="N81" s="12">
         <v>97500</v>
       </c>
-      <c r="O81" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P81" s="18" t="str">
+      <c r="O81" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P81" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>45939</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="10">
         <v>775602981</v>
       </c>
-      <c r="G82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="G82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="10">
         <v>25</v>
       </c>
-      <c r="M82" s="16">
+      <c r="M82" s="12">
         <v>12500</v>
       </c>
-      <c r="N82" s="16">
+      <c r="N82" s="12">
         <v>312500</v>
       </c>
-      <c r="O82" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P82" s="18" t="str">
+      <c r="O82" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P82" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="13">
+      <c r="A83" s="9">
         <v>45939</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="10">
         <v>775602981</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="15" t="s">
+      <c r="G83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="10">
         <v>4</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M83" s="12">
         <v>10000</v>
       </c>
-      <c r="N83" s="16">
+      <c r="N83" s="12">
         <v>40000</v>
       </c>
-      <c r="O83" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P83" s="18" t="str">
+      <c r="O83" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P83" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>45939</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="10">
         <v>775276149</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="15" t="s">
+      <c r="G84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K84" s="14" t="s">
+      <c r="K84" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L84" s="10">
         <v>5</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M84" s="12">
         <v>12500</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N84" s="12">
         <v>62500</v>
       </c>
-      <c r="O84" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P84" s="18" t="str">
+      <c r="O84" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P84" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="13">
+      <c r="A85" s="9">
         <v>45939</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="10">
         <v>775276149</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="15" t="s">
+      <c r="G85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K85" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="10">
         <v>3</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M85" s="12">
         <v>10000</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N85" s="12">
         <v>30000</v>
       </c>
-      <c r="O85" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P85" s="18" t="str">
+      <c r="O85" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P85" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>45939</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="10">
         <v>781297575</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="15" t="s">
+      <c r="G86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K86" s="14" t="s">
+      <c r="K86" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="10">
         <v>25</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M86" s="12">
         <v>19500</v>
       </c>
-      <c r="N86" s="16">
+      <c r="N86" s="12">
         <v>487500</v>
       </c>
-      <c r="O86" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P86" s="18" t="str">
+      <c r="O86" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P86" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="13">
+      <c r="A87" s="9">
         <v>45939</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="10">
         <v>774216339</v>
       </c>
-      <c r="G87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="15" t="s">
+      <c r="G87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K87" s="14" t="s">
+      <c r="K87" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L87" s="10">
         <v>25</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M87" s="12">
         <v>9750</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N87" s="12">
         <v>243750</v>
       </c>
-      <c r="O87" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P87" s="18" t="str">
+      <c r="O87" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P87" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A88" s="13">
+      <c r="A88" s="9">
         <v>45939</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="10">
         <v>774880562</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="15" t="s">
+      <c r="I88" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="10">
         <v>8</v>
       </c>
-      <c r="M88" s="16">
+      <c r="M88" s="12">
         <v>15500</v>
       </c>
-      <c r="N88" s="16">
+      <c r="N88" s="12">
         <v>124000</v>
       </c>
-      <c r="O88" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P88" s="18" t="str">
+      <c r="O88" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P88" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A89" s="13">
+      <c r="A89" s="9">
         <v>45939</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="10">
         <v>705121758</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="15" t="s">
+      <c r="G89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="10">
         <v>7</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="12">
         <v>12500</v>
       </c>
-      <c r="N89" s="16">
+      <c r="N89" s="12">
         <v>87500</v>
       </c>
-      <c r="O89" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P89" s="18" t="str">
+      <c r="O89" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P89" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A90" s="13">
+      <c r="A90" s="9">
         <v>45939</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="10">
         <v>705121758</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="15" t="s">
+      <c r="G90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="10">
         <v>50</v>
       </c>
-      <c r="M90" s="16">
+      <c r="M90" s="12">
         <v>11500</v>
       </c>
-      <c r="N90" s="16">
+      <c r="N90" s="12">
         <v>575000</v>
       </c>
-      <c r="O90" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P90" s="18" t="str">
+      <c r="O90" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P90" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A91" s="13">
+      <c r="A91" s="9">
         <v>45939</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="10">
         <v>775276149</v>
       </c>
-      <c r="G91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="15" t="s">
+      <c r="G91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L91" s="10">
         <v>5</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M91" s="12">
         <v>15500</v>
       </c>
-      <c r="N91" s="16">
+      <c r="N91" s="12">
         <v>77500</v>
       </c>
-      <c r="O91" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P91" s="18" t="str">
+      <c r="O91" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P91" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A92" s="13">
+      <c r="A92" s="9">
         <v>45939</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="10">
         <v>775276149</v>
       </c>
-      <c r="G92" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="15" t="s">
+      <c r="G92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="10">
         <v>11</v>
       </c>
-      <c r="M92" s="16">
+      <c r="M92" s="12">
         <v>12000</v>
       </c>
-      <c r="N92" s="16">
+      <c r="N92" s="12">
         <v>132000</v>
       </c>
-      <c r="O92" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P92" s="18" t="str">
+      <c r="O92" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P92" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A93" s="13">
+      <c r="A93" s="9">
         <v>45939</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="10">
         <v>775276149</v>
       </c>
-      <c r="G93" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="15" t="s">
+      <c r="G93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K93" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="10">
         <v>10</v>
       </c>
-      <c r="M93" s="16">
+      <c r="M93" s="12">
         <v>7500</v>
       </c>
-      <c r="N93" s="16">
+      <c r="N93" s="12">
         <v>75000</v>
       </c>
-      <c r="O93" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P93" s="18" t="str">
+      <c r="O93" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P93" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A94" s="13">
+      <c r="A94" s="9">
         <v>45939</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="10">
         <v>775276149</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="15" t="s">
+      <c r="G94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="K94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L94" s="10">
         <v>25</v>
       </c>
-      <c r="M94" s="16">
+      <c r="M94" s="12">
         <v>26000</v>
       </c>
-      <c r="N94" s="16">
+      <c r="N94" s="12">
         <v>650000</v>
       </c>
-      <c r="O94" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P94" s="18" t="str">
+      <c r="O94" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P94" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A95" s="13">
+      <c r="A95" s="9">
         <v>45939</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="10">
         <v>776194586</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="15" t="s">
+      <c r="G95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="K95" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L95" s="14">
+      <c r="L95" s="10">
         <v>25</v>
       </c>
-      <c r="M95" s="16">
+      <c r="M95" s="12">
         <v>26000</v>
       </c>
-      <c r="N95" s="16">
+      <c r="N95" s="12">
         <v>650000</v>
       </c>
-      <c r="O95" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P95" s="18" t="str">
+      <c r="O95" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P95" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A96" s="13">
+      <c r="A96" s="9">
         <v>45939</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="10">
         <v>786323232</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="15" t="s">
+      <c r="G96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K96" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L96" s="14">
+      <c r="L96" s="10">
         <v>100</v>
       </c>
-      <c r="M96" s="16">
+      <c r="M96" s="12">
         <v>26000</v>
       </c>
-      <c r="N96" s="16">
+      <c r="N96" s="12">
         <v>2600000</v>
       </c>
-      <c r="O96" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P96" s="18" t="str">
+      <c r="O96" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P96" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="13">
+      <c r="A97" s="9">
         <v>45939</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="10">
         <v>783758073</v>
       </c>
-      <c r="G97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="15" t="s">
+      <c r="G97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K97" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L97" s="14">
+      <c r="L97" s="10">
         <v>25</v>
       </c>
-      <c r="M97" s="16">
+      <c r="M97" s="12">
         <v>9750</v>
       </c>
-      <c r="N97" s="16">
+      <c r="N97" s="12">
         <v>243750</v>
       </c>
-      <c r="O97" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P97" s="18" t="str">
+      <c r="O97" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P97" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31F62F-BC99-42BF-A006-AE6D58E7BBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEEB81-3DBB-4487-A348-DAFA58298ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -393,15 +393,6 @@
   </si>
   <si>
     <t>Je vais t'appeler après</t>
-  </si>
-  <si>
-    <t>Café Altimo pot 50g x 24 pcs</t>
-  </si>
-  <si>
-    <t>Café Altimo pot 100g x 24 pcs</t>
-  </si>
-  <si>
-    <t>Café Altimo pot 200g x 12 pcs</t>
   </si>
   <si>
     <t>Pa Sylla</t>
@@ -541,12 +532,18 @@
       <name val="TIMES"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -574,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -602,6 +599,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,8 +891,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P97" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P97" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P94" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P94" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Seynabou SOW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1210,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+      <selection activeCell="A48" sqref="A48:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1285,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8">
         <v>45929</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>45929</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>45929</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>45930</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>45930</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>45930</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>45930</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>45930</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>45931</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>45931</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>45931</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>45932</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>45933</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>45933</v>
       </c>
@@ -2013,7 +2017,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>45933</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>45933</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>45933</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>45933</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>45936</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>45936</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>45936</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>45936</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>45936</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>45936</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
         <v>45938</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>45938</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>45938</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>45938</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>45938</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>45938</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>45938</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>45938</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>45938</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>45938</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>45938</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>45938</v>
       </c>
@@ -3708,17 +3712,17 @@
       <c r="J48" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>120</v>
+      <c r="K48" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="L48" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="12">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N48" s="12">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="O48" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3743,34 +3747,34 @@
         <v>69</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F49" s="10">
-        <v>773817561</v>
+        <v>778276533</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>121</v>
+        <v>78</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="L49" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M49" s="12">
-        <v>33500</v>
+        <v>26000</v>
       </c>
       <c r="N49" s="12">
-        <v>33500</v>
+        <v>156000</v>
       </c>
       <c r="O49" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3795,34 +3799,34 @@
         <v>69</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F50" s="10">
-        <v>773817561</v>
+        <v>778276533</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="L50" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50" s="12">
-        <v>34500</v>
+        <v>19500</v>
       </c>
       <c r="N50" s="12">
-        <v>34500</v>
+        <v>117000</v>
       </c>
       <c r="O50" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3847,34 +3851,34 @@
         <v>69</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F51" s="10">
-        <v>773817561</v>
+        <v>778276533</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="L51" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="12">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="N51" s="12">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="O51" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3899,7 +3903,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F52" s="10">
         <v>778276533</v>
@@ -3916,17 +3920,17 @@
       <c r="J52" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K52" s="10" t="s">
-        <v>20</v>
+      <c r="K52" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="L52" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M52" s="12">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="N52" s="12">
-        <v>156000</v>
+        <v>12500</v>
       </c>
       <c r="O52" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3951,16 +3955,16 @@
         <v>69</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F53" s="10">
-        <v>778276533</v>
+        <v>776634479</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>17</v>
@@ -3968,17 +3972,17 @@
       <c r="J53" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="10" t="s">
-        <v>21</v>
+      <c r="K53" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="L53" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M53" s="12">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N53" s="12">
-        <v>117000</v>
+        <v>31000</v>
       </c>
       <c r="O53" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4003,13 +4007,13 @@
         <v>69</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" s="10">
-        <v>778276533</v>
+        <v>773040043</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>86</v>
@@ -4018,19 +4022,19 @@
         <v>17</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="L54" s="10">
         <v>1</v>
       </c>
       <c r="M54" s="12">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N54" s="12">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O54" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4055,13 +4059,13 @@
         <v>69</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F55" s="10">
-        <v>778276533</v>
+        <v>773040043</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>86</v>
@@ -4072,17 +4076,17 @@
       <c r="J55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="13" t="s">
         <v>102</v>
       </c>
       <c r="L55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="12">
         <v>12500</v>
       </c>
       <c r="N55" s="12">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="O55" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4107,10 +4111,10 @@
         <v>69</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F56" s="10">
-        <v>776634479</v>
+        <v>773817561</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>16</v>
@@ -4122,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="L56" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M56" s="12">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N56" s="12">
-        <v>31000</v>
+        <v>57500</v>
       </c>
       <c r="O56" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4145,153 +4149,153 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>45938</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F57" s="10">
-        <v>773040043</v>
+        <v>775586604</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="L57" s="10">
+        <v>25</v>
+      </c>
+      <c r="M57" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N57" s="12">
+        <v>487500</v>
+      </c>
+      <c r="O57" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P57" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="9">
+        <v>45940</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="10">
+        <v>768059355</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="12">
+        <v>9750</v>
+      </c>
+      <c r="N58" s="12">
+        <v>487500</v>
+      </c>
+      <c r="O58" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P58" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="9">
+        <v>45940</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="10">
+        <v>777132186</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" s="10">
         <v>1</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M59" s="12">
         <v>12500</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N59" s="12">
         <v>12500</v>
       </c>
-      <c r="O57" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P57" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A58" s="9">
-        <v>45938</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="10">
-        <v>773040043</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L58" s="10">
-        <v>2</v>
-      </c>
-      <c r="M58" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N58" s="12">
-        <v>25000</v>
-      </c>
-      <c r="O58" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P58" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A59" s="9">
-        <v>45938</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="10">
-        <v>773817561</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" s="10">
-        <v>5</v>
-      </c>
-      <c r="M59" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N59" s="12">
-        <v>57500</v>
-      </c>
       <c r="O59" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
@@ -4301,9 +4305,9 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>18</v>
@@ -4312,13 +4316,13 @@
         <v>19</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F60" s="10">
-        <v>775586604</v>
+        <v>777132186</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>16</v>
@@ -4333,16 +4337,16 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L60" s="10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M60" s="12">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N60" s="12">
-        <v>487500</v>
+        <v>12500</v>
       </c>
       <c r="O60" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4353,7 +4357,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>45940</v>
       </c>
@@ -4364,13 +4368,13 @@
         <v>19</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F61" s="10">
-        <v>768059355</v>
+        <v>777132186</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>16</v>
@@ -4385,16 +4389,16 @@
         <v>25</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="L61" s="10">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M61" s="12">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N61" s="12">
-        <v>487500</v>
+        <v>15500</v>
       </c>
       <c r="O61" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4405,7 +4409,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>45940</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>44</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F62" s="10">
         <v>777132186</v>
@@ -4437,16 +4441,16 @@
         <v>25</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L62" s="10">
         <v>1</v>
       </c>
       <c r="M62" s="12">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N62" s="12">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O62" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4457,7 +4461,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>45940</v>
       </c>
@@ -4468,16 +4472,16 @@
         <v>19</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F63" s="10">
-        <v>777132186</v>
+        <v>781532059</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>13</v>
@@ -4489,16 +4493,16 @@
         <v>25</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L63" s="10">
         <v>1</v>
       </c>
       <c r="M63" s="12">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N63" s="12">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O63" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4509,7 +4513,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>45940</v>
       </c>
@@ -4520,16 +4524,16 @@
         <v>19</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F64" s="10">
-        <v>777132186</v>
+        <v>781532059</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>13</v>
@@ -4541,7 +4545,7 @@
         <v>25</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L64" s="10">
         <v>1</v>
@@ -4561,7 +4565,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>45940</v>
       </c>
@@ -4572,19 +4576,19 @@
         <v>19</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" s="10">
-        <v>777132186</v>
+        <v>778704739</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>17</v>
@@ -4593,16 +4597,16 @@
         <v>25</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="L65" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M65" s="12">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="N65" s="12">
-        <v>15500</v>
+        <v>180000</v>
       </c>
       <c r="O65" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4613,7 +4617,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>45940</v>
       </c>
@@ -4627,13 +4631,13 @@
         <v>60</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" s="10">
-        <v>781532059</v>
+        <v>768059355</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>13</v>
@@ -4645,16 +4649,16 @@
         <v>25</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L66" s="10">
         <v>1</v>
       </c>
       <c r="M66" s="12">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N66" s="12">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O66" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4665,7 +4669,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>45940</v>
       </c>
@@ -4679,13 +4683,13 @@
         <v>60</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F67" s="10">
-        <v>781532059</v>
+        <v>768059355</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>13</v>
@@ -4697,16 +4701,16 @@
         <v>25</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L67" s="10">
         <v>1</v>
       </c>
       <c r="M67" s="12">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="N67" s="12">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="O67" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4717,7 +4721,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>45940</v>
       </c>
@@ -4728,19 +4732,19 @@
         <v>19</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F68" s="10">
-        <v>778704739</v>
+        <v>768059355</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>17</v>
@@ -4749,16 +4753,16 @@
         <v>25</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="L68" s="10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M68" s="12">
-        <v>12000</v>
+        <v>30500</v>
       </c>
       <c r="N68" s="12">
-        <v>180000</v>
+        <v>915000</v>
       </c>
       <c r="O68" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4769,24 +4773,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
         <v>45940</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F69" s="10">
-        <v>768059355</v>
+        <v>774521295</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>16</v>
@@ -4801,16 +4805,16 @@
         <v>25</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="L69" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M69" s="12">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N69" s="12">
-        <v>12500</v>
+        <v>650000</v>
       </c>
       <c r="O69" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4821,24 +4825,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
         <v>45940</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F70" s="10">
-        <v>768059355</v>
+        <v>775586819</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>16</v>
@@ -4853,16 +4857,16 @@
         <v>25</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="L70" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M70" s="12">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="N70" s="12">
-        <v>10000</v>
+        <v>650000</v>
       </c>
       <c r="O70" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4873,24 +4877,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
         <v>45940</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F71" s="10">
-        <v>768059355</v>
+        <v>771207041</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>16</v>
@@ -4902,19 +4906,19 @@
         <v>17</v>
       </c>
       <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="10">
         <v>25</v>
       </c>
-      <c r="K71" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L71" s="10">
-        <v>30</v>
-      </c>
       <c r="M71" s="12">
-        <v>30500</v>
+        <v>26000</v>
       </c>
       <c r="N71" s="12">
-        <v>915000</v>
+        <v>650000</v>
       </c>
       <c r="O71" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4925,24 +4929,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>45940</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" s="10">
-        <v>774521295</v>
+        <v>781297575</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>16</v>
@@ -4954,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>20</v>
@@ -4977,36 +4981,36 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
         <v>45940</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F73" s="10">
-        <v>775586819</v>
+        <v>772252177</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>20</v>
@@ -5029,48 +5033,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9">
         <v>45940</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F74" s="10">
-        <v>771207041</v>
+        <v>785107921</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L74" s="10">
         <v>25</v>
       </c>
       <c r="M74" s="12">
-        <v>26000</v>
+        <v>11500</v>
       </c>
       <c r="N74" s="12">
-        <v>650000</v>
+        <v>287500</v>
       </c>
       <c r="O74" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5081,24 +5085,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
         <v>45940</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F75" s="10">
-        <v>781297575</v>
+        <v>772443935</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>16</v>
@@ -5110,7 +5114,7 @@
         <v>17</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>20</v>
@@ -5133,24 +5137,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F76" s="10">
-        <v>772252177</v>
+        <v>772064446</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>85</v>
@@ -5162,19 +5166,19 @@
         <v>17</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L76" s="10">
         <v>25</v>
       </c>
       <c r="M76" s="12">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="N76" s="12">
-        <v>650000</v>
+        <v>487500</v>
       </c>
       <c r="O76" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5185,48 +5189,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="9">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F77" s="10">
-        <v>785107921</v>
+        <v>775411988</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>85</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="L77" s="10">
         <v>25</v>
       </c>
       <c r="M77" s="12">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N77" s="12">
-        <v>287500</v>
+        <v>312500</v>
       </c>
       <c r="O77" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5237,27 +5241,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="9">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F78" s="10">
-        <v>772443935</v>
+        <v>775411988</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>13</v>
@@ -5266,19 +5270,19 @@
         <v>17</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L78" s="10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M78" s="12">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="N78" s="12">
-        <v>650000</v>
+        <v>97500</v>
       </c>
       <c r="O78" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5289,7 +5293,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="9">
         <v>45939</v>
       </c>
@@ -5300,37 +5304,37 @@
         <v>15</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E79" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="10">
+        <v>775602981</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="10">
-        <v>772064446</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="K79" s="10" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="L79" s="10">
         <v>25</v>
       </c>
       <c r="M79" s="12">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N79" s="12">
-        <v>487500</v>
+        <v>312500</v>
       </c>
       <c r="O79" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5341,7 +5345,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
         <v>45939</v>
       </c>
@@ -5352,16 +5356,16 @@
         <v>15</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="F80" s="10">
-        <v>775411988</v>
+        <v>775602981</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>13</v>
@@ -5370,19 +5374,19 @@
         <v>17</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="L80" s="10">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M80" s="12">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N80" s="12">
-        <v>312500</v>
+        <v>40000</v>
       </c>
       <c r="O80" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5393,27 +5397,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="9">
         <v>45939</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>146</v>
       </c>
       <c r="F81" s="10">
-        <v>775411988</v>
+        <v>775276149</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>13</v>
@@ -5425,16 +5429,16 @@
         <v>147</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L81" s="10">
         <v>5</v>
       </c>
       <c r="M81" s="12">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N81" s="12">
-        <v>97500</v>
+        <v>62500</v>
       </c>
       <c r="O81" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5445,24 +5449,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="9">
         <v>45939</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="F82" s="10">
-        <v>775602981</v>
+        <v>775276149</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>16</v>
@@ -5477,16 +5481,16 @@
         <v>147</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L82" s="10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M82" s="12">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N82" s="12">
-        <v>312500</v>
+        <v>30000</v>
       </c>
       <c r="O82" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5497,24 +5501,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="9">
         <v>45939</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="F83" s="10">
-        <v>775602981</v>
+        <v>781297575</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>16</v>
@@ -5526,19 +5530,19 @@
         <v>17</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="L83" s="10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M83" s="12">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="N83" s="12">
-        <v>40000</v>
+        <v>487500</v>
       </c>
       <c r="O83" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5549,24 +5553,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="9">
         <v>45939</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="F84" s="10">
-        <v>775276149</v>
+        <v>774216339</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>16</v>
@@ -5578,19 +5582,19 @@
         <v>17</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L84" s="10">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M84" s="12">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N84" s="12">
-        <v>62500</v>
+        <v>243750</v>
       </c>
       <c r="O84" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5601,48 +5605,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
         <v>45939</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="F85" s="10">
-        <v>775276149</v>
+        <v>774880562</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L85" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M85" s="12">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N85" s="12">
-        <v>30000</v>
+        <v>124000</v>
       </c>
       <c r="O85" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5653,7 +5657,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="9">
         <v>45939</v>
       </c>
@@ -5667,10 +5671,10 @@
         <v>64</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F86" s="10">
-        <v>781297575</v>
+        <v>705121758</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>16</v>
@@ -5685,16 +5689,16 @@
         <v>35</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L86" s="10">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M86" s="12">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N86" s="12">
-        <v>487500</v>
+        <v>87500</v>
       </c>
       <c r="O86" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5705,7 +5709,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="9">
         <v>45939</v>
       </c>
@@ -5719,10 +5723,10 @@
         <v>64</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="F87" s="10">
-        <v>774216339</v>
+        <v>705121758</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>16</v>
@@ -5737,16 +5741,16 @@
         <v>35</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L87" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M87" s="12">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N87" s="12">
-        <v>243750</v>
+        <v>575000</v>
       </c>
       <c r="O87" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5757,48 +5761,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="9">
         <v>45939</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F88" s="10">
-        <v>774880562</v>
+        <v>775276149</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="K88" s="10" t="s">
         <v>104</v>
       </c>
       <c r="L88" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M88" s="12">
         <v>15500</v>
       </c>
       <c r="N88" s="12">
-        <v>124000</v>
+        <v>77500</v>
       </c>
       <c r="O88" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5809,24 +5813,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="9">
         <v>45939</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F89" s="10">
-        <v>705121758</v>
+        <v>775276149</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>16</v>
@@ -5838,19 +5842,19 @@
         <v>17</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L89" s="10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M89" s="12">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N89" s="12">
-        <v>87500</v>
+        <v>132000</v>
       </c>
       <c r="O89" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5861,24 +5865,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="9">
         <v>45939</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F90" s="10">
-        <v>705121758</v>
+        <v>775276149</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>16</v>
@@ -5890,19 +5894,19 @@
         <v>17</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L90" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M90" s="12">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N90" s="12">
-        <v>575000</v>
+        <v>75000</v>
       </c>
       <c r="O90" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5913,7 +5917,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="9">
         <v>45939</v>
       </c>
@@ -5924,10 +5928,10 @@
         <v>27</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F91" s="10">
         <v>775276149</v>
@@ -5942,19 +5946,19 @@
         <v>17</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="L91" s="10">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M91" s="12">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="N91" s="12">
-        <v>77500</v>
+        <v>650000</v>
       </c>
       <c r="O91" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5965,7 +5969,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="9">
         <v>45939</v>
       </c>
@@ -5976,13 +5980,13 @@
         <v>27</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F92" s="10">
-        <v>775276149</v>
+        <v>776194586</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>16</v>
@@ -5994,19 +5998,19 @@
         <v>17</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="L92" s="10">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M92" s="12">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="N92" s="12">
-        <v>132000</v>
+        <v>650000</v>
       </c>
       <c r="O92" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -6017,24 +6021,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="9">
         <v>45939</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F93" s="10">
-        <v>775276149</v>
+        <v>786323232</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>16</v>
@@ -6046,19 +6050,19 @@
         <v>17</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="L93" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M93" s="12">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="N93" s="12">
-        <v>75000</v>
+        <v>2600000</v>
       </c>
       <c r="O93" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -6069,7 +6073,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="9">
         <v>45939</v>
       </c>
@@ -6080,13 +6084,13 @@
         <v>27</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="F94" s="10">
-        <v>775276149</v>
+        <v>783758073</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>16</v>
@@ -6098,181 +6102,25 @@
         <v>17</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="L94" s="10">
         <v>25</v>
       </c>
       <c r="M94" s="12">
-        <v>26000</v>
+        <v>9750</v>
       </c>
       <c r="N94" s="12">
-        <v>650000</v>
+        <v>243750</v>
       </c>
       <c r="O94" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S41</v>
       </c>
       <c r="P94" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A95" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F95" s="10">
-        <v>776194586</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" s="10">
-        <v>25</v>
-      </c>
-      <c r="M95" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N95" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O95" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P95" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A96" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="10">
-        <v>786323232</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" s="10">
-        <v>100</v>
-      </c>
-      <c r="M96" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N96" s="12">
-        <v>2600000</v>
-      </c>
-      <c r="O96" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P96" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="10">
-        <v>783758073</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L97" s="10">
-        <v>25</v>
-      </c>
-      <c r="M97" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N97" s="12">
-        <v>243750</v>
-      </c>
-      <c r="O97" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P97" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEEB81-3DBB-4487-A348-DAFA58298ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04490B-BFE9-4EEA-B50F-C449759CB17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
       <name val="TIMES"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -600,6 +606,7 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,15 +899,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P94" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P94" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Seynabou SOW"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
-    <sortCondition ref="A1:A2"/>
+  <autoFilter ref="A1:P94" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:P94">
+    <sortCondition ref="B1:B94"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
@@ -1216,8 +1217,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:P50"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1289,48 +1290,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
         <v>45929</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>775273147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2">
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10">
+        <v>776256670</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="10">
         <v>25</v>
       </c>
-      <c r="M2">
-        <v>6000</v>
-      </c>
-      <c r="N2">
-        <v>150000</v>
+      <c r="M2" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N2" s="12">
+        <v>487500</v>
       </c>
       <c r="O2" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1341,7 +1342,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>45929</v>
       </c>
@@ -1373,79 +1374,79 @@
         <v>35</v>
       </c>
       <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>6000</v>
+      </c>
+      <c r="N3">
+        <v>150000</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S40</v>
+      </c>
+      <c r="P3" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>septembre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>45929</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>775273147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>26000</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>52000</v>
       </c>
-      <c r="O3" s="7" t="str">
+      <c r="O4" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S40</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P4" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>septembre</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
-        <v>45929</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10">
-        <v>776256670</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="10">
-        <v>25</v>
-      </c>
-      <c r="M4" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N4" s="12">
-        <v>487500</v>
-      </c>
-      <c r="O4" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S40</v>
-      </c>
-      <c r="P4" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>septembre</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>45930</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>45930</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>45930</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>45930</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>45930</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>septembre</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>45931</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>45931</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>45931</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>45932</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>45933</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>45933</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>45933</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>45933</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>45933</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>45933</v>
       </c>
@@ -2227,22 +2228,22 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F20" s="10">
-        <v>776634479</v>
+        <v>775276149</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
@@ -2254,71 +2255,71 @@
         <v>17</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L20" s="10">
+        <v>5</v>
+      </c>
+      <c r="M20" s="12">
+        <v>12500</v>
+      </c>
+      <c r="N20" s="14">
+        <v>62500</v>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P20" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="10">
+        <v>775276149</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="10">
         <v>3</v>
       </c>
-      <c r="M20" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N20" s="12">
-        <v>58500</v>
-      </c>
-      <c r="O20" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P20" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>45936</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="10">
-        <v>773531341</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="10">
-        <v>200</v>
-      </c>
       <c r="M21" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N21" s="12">
-        <v>5200000</v>
+        <v>10000</v>
+      </c>
+      <c r="N21" s="14">
+        <v>30000</v>
       </c>
       <c r="O21" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2329,24 +2330,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="F22" s="10">
-        <v>784537895</v>
+        <v>775276149</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>16</v>
@@ -2358,19 +2359,19 @@
         <v>17</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="L22" s="10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M22" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N22" s="12">
-        <v>487500</v>
+        <v>15500</v>
+      </c>
+      <c r="N22" s="14">
+        <v>77500</v>
       </c>
       <c r="O22" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2381,24 +2382,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="F23" s="10">
-        <v>784537895</v>
+        <v>775276149</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>16</v>
@@ -2410,19 +2411,19 @@
         <v>17</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="L23" s="10">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M23" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N23" s="12">
-        <v>243750</v>
+        <v>12000</v>
+      </c>
+      <c r="N23" s="14">
+        <v>132000</v>
       </c>
       <c r="O23" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2433,24 +2434,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="F24" s="10">
-        <v>784537895</v>
+        <v>775276149</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>16</v>
@@ -2462,19 +2463,19 @@
         <v>17</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="L24" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M24" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N24" s="12">
-        <v>1300000</v>
+        <v>7500</v>
+      </c>
+      <c r="N24" s="14">
+        <v>75000</v>
       </c>
       <c r="O24" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2485,24 +2486,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="F25" s="10">
-        <v>776503464</v>
+        <v>775276149</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>16</v>
@@ -2514,7 +2515,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -2525,7 +2526,7 @@
       <c r="M25" s="12">
         <v>26000</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="14">
         <v>650000</v>
       </c>
       <c r="O25" s="7" t="str">
@@ -2539,22 +2540,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="F26" s="10">
-        <v>773564759</v>
+        <v>776194586</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>16</v>
@@ -2566,71 +2567,71 @@
         <v>17</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <v>25</v>
+      </c>
+      <c r="M26" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N26" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P26" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10">
+        <v>783758073</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="L26" s="10">
-        <v>3</v>
-      </c>
-      <c r="M26" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N26" s="12">
-        <v>30750</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P26" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
-        <v>45936</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="10">
-        <v>772289185</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="L27" s="10">
         <v>25</v>
       </c>
       <c r="M27" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N27" s="12">
-        <v>650000</v>
+        <v>9750</v>
+      </c>
+      <c r="N27" s="14">
+        <v>243750</v>
       </c>
       <c r="O27" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2643,22 +2644,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F28" s="10">
-        <v>776634479</v>
+        <v>783682649</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>16</v>
@@ -2670,19 +2671,19 @@
         <v>17</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="L28" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M28" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N28" s="12">
-        <v>20500</v>
+        <v>18750</v>
+      </c>
+      <c r="N28" s="14">
+        <v>243750</v>
       </c>
       <c r="O28" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2695,46 +2696,46 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F29" s="10">
-        <v>704738232</v>
+        <v>783682649</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L29" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M29" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N29" s="12">
-        <v>11500</v>
+        <v>26000</v>
+      </c>
+      <c r="N29" s="14">
+        <v>650000</v>
       </c>
       <c r="O29" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2747,22 +2748,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F30" s="10">
-        <v>777262311</v>
+        <v>777249189</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>16</v>
@@ -2774,19 +2775,19 @@
         <v>17</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L30" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M30" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N30" s="12">
-        <v>23000</v>
+        <v>18750</v>
+      </c>
+      <c r="N30" s="14">
+        <v>243750</v>
       </c>
       <c r="O30" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2799,46 +2800,46 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F31" s="10">
-        <v>775884054</v>
+        <v>777249189</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L31" s="10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M31" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N31" s="12">
-        <v>23000</v>
+        <v>26000</v>
+      </c>
+      <c r="N31" s="14">
+        <v>650000</v>
       </c>
       <c r="O31" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2851,25 +2852,25 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F32" s="10">
-        <v>771837885</v>
+        <v>778003741</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>13</v>
@@ -2878,19 +2879,19 @@
         <v>17</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="L32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N32" s="12">
-        <v>23000</v>
+        <v>12500</v>
+      </c>
+      <c r="N32" s="14">
+        <v>12500</v>
       </c>
       <c r="O32" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2903,46 +2904,46 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F33" s="10">
-        <v>773170826</v>
+        <v>778003741</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L33" s="10">
         <v>1</v>
       </c>
       <c r="M33" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N33" s="12">
-        <v>11500</v>
+        <v>15500</v>
+      </c>
+      <c r="N33" s="14">
+        <v>15500</v>
       </c>
       <c r="O33" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2955,22 +2956,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
-        <v>45937</v>
+        <v>45940</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F34" s="10">
-        <v>777802399</v>
+        <v>772252177</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>85</v>
@@ -2982,19 +2983,19 @@
         <v>17</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L34" s="10">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M34" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N34" s="12">
-        <v>34500</v>
+        <v>26000</v>
+      </c>
+      <c r="N34" s="14">
+        <v>650000</v>
       </c>
       <c r="O34" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3007,46 +3008,46 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
-        <v>45937</v>
+        <v>45940</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F35" s="10">
-        <v>773739328</v>
+        <v>785107921</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>85</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>55</v>
       </c>
       <c r="L35" s="10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M35" s="12">
         <v>11500</v>
       </c>
-      <c r="N35" s="12">
-        <v>161000</v>
+      <c r="N35" s="14">
+        <v>287500</v>
       </c>
       <c r="O35" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3057,27 +3058,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F36" s="10">
-        <v>772873297</v>
+        <v>772443935</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>13</v>
@@ -3086,19 +3087,19 @@
         <v>17</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="L36" s="10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M36" s="12">
-        <v>10000</v>
-      </c>
-      <c r="N36" s="12">
-        <v>20000</v>
+        <v>26000</v>
+      </c>
+      <c r="N36" s="14">
+        <v>650000</v>
       </c>
       <c r="O36" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3109,7 +3110,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>45938</v>
       </c>
@@ -3120,16 +3121,16 @@
         <v>15</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="10">
-        <v>770158721</v>
+        <v>772873297</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>13</v>
@@ -3138,19 +3139,19 @@
         <v>17</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L37" s="10">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M37" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N37" s="12">
-        <v>312500</v>
+        <v>10000</v>
+      </c>
+      <c r="N37" s="14">
+        <v>20000</v>
       </c>
       <c r="O37" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3161,7 +3162,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>45938</v>
       </c>
@@ -3193,16 +3194,16 @@
         <v>101</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L38" s="10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M38" s="12">
         <v>12500</v>
       </c>
-      <c r="N38" s="12">
-        <v>125000</v>
+      <c r="N38" s="14">
+        <v>312500</v>
       </c>
       <c r="O38" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3213,7 +3214,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>45938</v>
       </c>
@@ -3245,16 +3246,16 @@
         <v>101</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L39" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M39" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N39" s="12">
-        <v>387500</v>
+        <v>12500</v>
+      </c>
+      <c r="N39" s="14">
+        <v>125000</v>
       </c>
       <c r="O39" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3265,7 +3266,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>45938</v>
       </c>
@@ -3297,16 +3298,16 @@
         <v>101</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L40" s="10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M40" s="12">
         <v>15500</v>
       </c>
-      <c r="N40" s="12">
-        <v>155000</v>
+      <c r="N40" s="14">
+        <v>387500</v>
       </c>
       <c r="O40" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3317,7 +3318,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>45938</v>
       </c>
@@ -3328,16 +3329,16 @@
         <v>15</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F41" s="10">
-        <v>772873297</v>
+        <v>770158721</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>13</v>
@@ -3346,19 +3347,19 @@
         <v>17</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L41" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M41" s="12">
-        <v>13000</v>
-      </c>
-      <c r="N41" s="12">
-        <v>26000</v>
+        <v>15500</v>
+      </c>
+      <c r="N41" s="14">
+        <v>155000</v>
       </c>
       <c r="O41" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3369,27 +3370,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>45938</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F42" s="10">
-        <v>783682649</v>
+        <v>772873297</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>13</v>
@@ -3398,71 +3399,71 @@
         <v>17</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L42" s="10">
+        <v>2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>13000</v>
+      </c>
+      <c r="N42" s="14">
+        <v>26000</v>
+      </c>
+      <c r="O42" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P42" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="10">
+        <v>772064446</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="L42" s="10">
-        <v>13</v>
-      </c>
-      <c r="M42" s="12">
-        <v>18750</v>
-      </c>
-      <c r="N42" s="12">
-        <v>243750</v>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P42" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="9">
-        <v>45938</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="10">
-        <v>783682649</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="L43" s="10">
         <v>25</v>
       </c>
       <c r="M43" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N43" s="12">
-        <v>650000</v>
+        <v>19500</v>
+      </c>
+      <c r="N43" s="14">
+        <v>487500</v>
       </c>
       <c r="O43" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3473,27 +3474,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F44" s="10">
-        <v>777249189</v>
+        <v>775411988</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>13</v>
@@ -3502,123 +3503,123 @@
         <v>17</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="K44" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="10">
+        <v>25</v>
+      </c>
+      <c r="M44" s="12">
+        <v>12500</v>
+      </c>
+      <c r="N44" s="14">
+        <v>312500</v>
+      </c>
+      <c r="O44" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P44" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="10">
+        <v>775411988</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="10">
-        <v>13</v>
-      </c>
-      <c r="M44" s="12">
-        <v>18750</v>
-      </c>
-      <c r="N44" s="12">
-        <v>243750</v>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P44" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="9">
-        <v>45938</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="10">
-        <v>777249189</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="L45" s="10">
+        <v>5</v>
+      </c>
+      <c r="M45" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N45" s="14">
+        <v>97500</v>
+      </c>
+      <c r="O45" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P45" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="10">
+        <v>775602981</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="10">
         <v>25</v>
-      </c>
-      <c r="M45" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N45" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P45" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="9">
-        <v>45938</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="10">
-        <v>778003741</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" s="10">
-        <v>1</v>
       </c>
       <c r="M46" s="12">
         <v>12500</v>
       </c>
-      <c r="N46" s="12">
-        <v>12500</v>
+      <c r="N46" s="14">
+        <v>312500</v>
       </c>
       <c r="O46" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3629,27 +3630,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F47" s="10">
-        <v>778003741</v>
+        <v>775602981</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>13</v>
@@ -3658,19 +3659,19 @@
         <v>17</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L47" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M47" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N47" s="12">
-        <v>15500</v>
+        <v>10000</v>
+      </c>
+      <c r="N47" s="14">
+        <v>40000</v>
       </c>
       <c r="O47" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3683,22 +3684,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F48" s="10">
-        <v>773817561</v>
+        <v>771207041</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>16</v>
@@ -3710,19 +3711,19 @@
         <v>17</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="L48" s="10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M48" s="12">
-        <v>15000</v>
-      </c>
-      <c r="N48" s="12">
-        <v>30000</v>
+        <v>26000</v>
+      </c>
+      <c r="N48" s="14">
+        <v>650000</v>
       </c>
       <c r="O48" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3735,46 +3736,46 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F49" s="10">
-        <v>778276533</v>
+        <v>773531341</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="10">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="M49" s="12">
         <v>26000</v>
       </c>
-      <c r="N49" s="12">
-        <v>156000</v>
+      <c r="N49" s="14">
+        <v>5200000</v>
       </c>
       <c r="O49" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3787,46 +3788,46 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F50" s="10">
-        <v>778276533</v>
+        <v>784537895</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M50" s="12">
         <v>19500</v>
       </c>
-      <c r="N50" s="12">
-        <v>117000</v>
+      <c r="N50" s="14">
+        <v>487500</v>
       </c>
       <c r="O50" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3839,46 +3840,46 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F51" s="10">
-        <v>778276533</v>
+        <v>784537895</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="L51" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M51" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N51" s="12">
-        <v>15500</v>
+        <v>9750</v>
+      </c>
+      <c r="N51" s="14">
+        <v>243750</v>
       </c>
       <c r="O51" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3891,46 +3892,46 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F52" s="10">
-        <v>778276533</v>
+        <v>784537895</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="L52" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M52" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N52" s="12">
-        <v>12500</v>
+        <v>26000</v>
+      </c>
+      <c r="N52" s="14">
+        <v>1300000</v>
       </c>
       <c r="O52" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3943,22 +3944,22 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F53" s="10">
-        <v>776634479</v>
+        <v>776503464</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>16</v>
@@ -3970,19 +3971,19 @@
         <v>17</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="L53" s="10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M53" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N53" s="12">
-        <v>31000</v>
+        <v>26000</v>
+      </c>
+      <c r="N53" s="14">
+        <v>650000</v>
       </c>
       <c r="O53" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3998,43 +3999,43 @@
         <v>45938</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F54" s="10">
-        <v>773040043</v>
+        <v>775586604</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="L54" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M54" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N54" s="12">
-        <v>12500</v>
+        <v>19500</v>
+      </c>
+      <c r="N54" s="14">
+        <v>487500</v>
       </c>
       <c r="O54" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4047,46 +4048,46 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F55" s="10">
-        <v>773040043</v>
+        <v>786323232</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="L55" s="10">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M55" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N55" s="12">
-        <v>25000</v>
+        <v>26000</v>
+      </c>
+      <c r="N55" s="14">
+        <v>2600000</v>
       </c>
       <c r="O55" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4099,22 +4100,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F56" s="10">
-        <v>773817561</v>
+        <v>768059355</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>16</v>
@@ -4126,19 +4127,19 @@
         <v>17</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="L56" s="10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M56" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N56" s="12">
-        <v>57500</v>
+        <v>9750</v>
+      </c>
+      <c r="N56" s="14">
+        <v>487500</v>
       </c>
       <c r="O56" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4149,9 +4150,9 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>18</v>
@@ -4160,13 +4161,13 @@
         <v>19</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F57" s="10">
-        <v>775586604</v>
+        <v>777132186</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>16</v>
@@ -4181,16 +4182,16 @@
         <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="L57" s="10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M57" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N57" s="12">
-        <v>487500</v>
+        <v>12500</v>
+      </c>
+      <c r="N57" s="14">
+        <v>12500</v>
       </c>
       <c r="O57" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4201,7 +4202,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>45940</v>
       </c>
@@ -4212,13 +4213,13 @@
         <v>19</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F58" s="10">
-        <v>768059355</v>
+        <v>777132186</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>16</v>
@@ -4233,16 +4234,16 @@
         <v>25</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="L58" s="10">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M58" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N58" s="12">
-        <v>487500</v>
+        <v>12500</v>
+      </c>
+      <c r="N58" s="14">
+        <v>12500</v>
       </c>
       <c r="O58" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4253,7 +4254,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>45940</v>
       </c>
@@ -4285,16 +4286,16 @@
         <v>25</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L59" s="10">
         <v>1</v>
       </c>
       <c r="M59" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N59" s="12">
-        <v>12500</v>
+        <v>15500</v>
+      </c>
+      <c r="N59" s="14">
+        <v>15500</v>
       </c>
       <c r="O59" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4305,7 +4306,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>45940</v>
       </c>
@@ -4337,16 +4338,16 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L60" s="10">
         <v>1</v>
       </c>
       <c r="M60" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N60" s="12">
-        <v>12500</v>
+        <v>15500</v>
+      </c>
+      <c r="N60" s="14">
+        <v>15500</v>
       </c>
       <c r="O60" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4357,7 +4358,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>45940</v>
       </c>
@@ -4368,16 +4369,16 @@
         <v>19</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F61" s="10">
-        <v>777132186</v>
+        <v>781532059</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>13</v>
@@ -4389,16 +4390,16 @@
         <v>25</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L61" s="10">
         <v>1</v>
       </c>
       <c r="M61" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N61" s="12">
-        <v>15500</v>
+        <v>15000</v>
+      </c>
+      <c r="N61" s="14">
+        <v>15000</v>
       </c>
       <c r="O61" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4409,7 +4410,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>45940</v>
       </c>
@@ -4420,16 +4421,16 @@
         <v>19</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" s="10">
-        <v>777132186</v>
+        <v>781532059</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>13</v>
@@ -4449,7 +4450,7 @@
       <c r="M62" s="12">
         <v>15500</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="14">
         <v>15500</v>
       </c>
       <c r="O62" s="7" t="str">
@@ -4461,7 +4462,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>45940</v>
       </c>
@@ -4472,19 +4473,19 @@
         <v>19</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" s="10">
-        <v>781532059</v>
+        <v>778704739</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>85</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>17</v>
@@ -4493,16 +4494,16 @@
         <v>25</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L63" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M63" s="12">
-        <v>15000</v>
-      </c>
-      <c r="N63" s="12">
-        <v>15000</v>
+        <v>12000</v>
+      </c>
+      <c r="N63" s="14">
+        <v>180000</v>
       </c>
       <c r="O63" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4513,7 +4514,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>45940</v>
       </c>
@@ -4527,13 +4528,13 @@
         <v>60</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F64" s="10">
-        <v>781532059</v>
+        <v>768059355</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>13</v>
@@ -4545,16 +4546,16 @@
         <v>25</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L64" s="10">
         <v>1</v>
       </c>
       <c r="M64" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N64" s="12">
-        <v>15500</v>
+        <v>12500</v>
+      </c>
+      <c r="N64" s="14">
+        <v>12500</v>
       </c>
       <c r="O64" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4565,7 +4566,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>45940</v>
       </c>
@@ -4576,19 +4577,19 @@
         <v>19</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" s="10">
-        <v>778704739</v>
+        <v>768059355</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>17</v>
@@ -4597,16 +4598,16 @@
         <v>25</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L65" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M65" s="12">
-        <v>12000</v>
-      </c>
-      <c r="N65" s="12">
-        <v>180000</v>
+        <v>10000</v>
+      </c>
+      <c r="N65" s="14">
+        <v>10000</v>
       </c>
       <c r="O65" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4617,7 +4618,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>45940</v>
       </c>
@@ -4649,224 +4650,224 @@
         <v>25</v>
       </c>
       <c r="K66" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L66" s="10">
+        <v>30</v>
+      </c>
+      <c r="M66" s="12">
+        <v>30500</v>
+      </c>
+      <c r="N66" s="14">
+        <v>915000</v>
+      </c>
+      <c r="O66" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P66" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A67" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="10">
+        <v>781297575</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="10">
+        <v>25</v>
+      </c>
+      <c r="M67" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N67" s="14">
+        <v>487500</v>
+      </c>
+      <c r="O67" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P67" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="10">
+        <v>774216339</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="10">
+        <v>25</v>
+      </c>
+      <c r="M68" s="12">
+        <v>9750</v>
+      </c>
+      <c r="N68" s="14">
+        <v>243750</v>
+      </c>
+      <c r="O68" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P68" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="10">
+        <v>774880562</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L69" s="10">
+        <v>8</v>
+      </c>
+      <c r="M69" s="12">
+        <v>15500</v>
+      </c>
+      <c r="N69" s="14">
+        <v>124000</v>
+      </c>
+      <c r="O69" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P69" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="10">
+        <v>705121758</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L66" s="10">
-        <v>1</v>
-      </c>
-      <c r="M66" s="12">
+      <c r="L70" s="10">
+        <v>7</v>
+      </c>
+      <c r="M70" s="12">
         <v>12500</v>
       </c>
-      <c r="N66" s="12">
-        <v>12500</v>
-      </c>
-      <c r="O66" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P66" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="9">
-        <v>45940</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="10">
-        <v>768059355</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L67" s="10">
-        <v>1</v>
-      </c>
-      <c r="M67" s="12">
-        <v>10000</v>
-      </c>
-      <c r="N67" s="12">
-        <v>10000</v>
-      </c>
-      <c r="O67" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P67" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="9">
-        <v>45940</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="10">
-        <v>768059355</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L68" s="10">
-        <v>30</v>
-      </c>
-      <c r="M68" s="12">
-        <v>30500</v>
-      </c>
-      <c r="N68" s="12">
-        <v>915000</v>
-      </c>
-      <c r="O68" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P68" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="9">
-        <v>45940</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="10">
-        <v>774521295</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="10">
-        <v>25</v>
-      </c>
-      <c r="M69" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N69" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O69" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P69" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="9">
-        <v>45940</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="10">
-        <v>775586819</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="10">
-        <v>25</v>
-      </c>
-      <c r="M70" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N70" s="12">
-        <v>650000</v>
+      <c r="N70" s="14">
+        <v>87500</v>
       </c>
       <c r="O70" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4877,24 +4878,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F71" s="10">
-        <v>771207041</v>
+        <v>705121758</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>16</v>
@@ -4906,19 +4907,19 @@
         <v>17</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L71" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M71" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N71" s="12">
-        <v>650000</v>
+        <v>11500</v>
+      </c>
+      <c r="N71" s="14">
+        <v>575000</v>
       </c>
       <c r="O71" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -4929,7 +4930,7 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>45940</v>
       </c>
@@ -4969,7 +4970,7 @@
       <c r="M72" s="12">
         <v>26000</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="14">
         <v>650000</v>
       </c>
       <c r="O72" s="7" t="str">
@@ -4981,36 +4982,36 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
-        <v>45940</v>
+        <v>45936</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F73" s="10">
-        <v>772252177</v>
+        <v>772289185</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>20</v>
@@ -5021,7 +5022,7 @@
       <c r="M73" s="12">
         <v>26000</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="14">
         <v>650000</v>
       </c>
       <c r="O73" s="7" t="str">
@@ -5033,48 +5034,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="9">
         <v>45940</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F74" s="10">
-        <v>785107921</v>
+        <v>774521295</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L74" s="10">
         <v>25</v>
       </c>
       <c r="M74" s="12">
-        <v>11500</v>
-      </c>
-      <c r="N74" s="12">
-        <v>287500</v>
+        <v>26000</v>
+      </c>
+      <c r="N74" s="14">
+        <v>650000</v>
       </c>
       <c r="O74" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5085,24 +5086,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
         <v>45940</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F75" s="10">
-        <v>772443935</v>
+        <v>775586819</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>16</v>
@@ -5114,7 +5115,7 @@
         <v>17</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>20</v>
@@ -5125,7 +5126,7 @@
       <c r="M75" s="12">
         <v>26000</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="14">
         <v>650000</v>
       </c>
       <c r="O75" s="7" t="str">
@@ -5137,48 +5138,48 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F76" s="10">
-        <v>772064446</v>
+        <v>776634479</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L76" s="10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M76" s="12">
         <v>19500</v>
       </c>
-      <c r="N76" s="12">
-        <v>487500</v>
+      <c r="N76" s="14">
+        <v>58500</v>
       </c>
       <c r="O76" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5189,256 +5190,256 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="9">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F77" s="10">
-        <v>775411988</v>
+        <v>773564759</v>
       </c>
       <c r="G77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="10">
+        <v>3</v>
+      </c>
+      <c r="M77" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N77" s="14">
+        <v>30750</v>
+      </c>
+      <c r="O77" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P77" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A78" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="10">
+        <v>776634479</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" s="10">
+        <v>2</v>
+      </c>
+      <c r="M78" s="12">
+        <v>10250</v>
+      </c>
+      <c r="N78" s="14">
+        <v>20500</v>
+      </c>
+      <c r="O78" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P78" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A79" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="10">
+        <v>704738232</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L77" s="10">
-        <v>25</v>
-      </c>
-      <c r="M77" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N77" s="12">
-        <v>312500</v>
-      </c>
-      <c r="O77" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P77" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="10">
-        <v>775411988</v>
-      </c>
-      <c r="G78" s="10" t="s">
+      <c r="H79" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" s="10">
+        <v>1</v>
+      </c>
+      <c r="M79" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N79" s="14">
+        <v>11500</v>
+      </c>
+      <c r="O79" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P79" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A80" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="10">
+        <v>777262311</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" s="10">
+        <v>2</v>
+      </c>
+      <c r="M80" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N80" s="14">
+        <v>23000</v>
+      </c>
+      <c r="O80" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P80" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A81" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="10">
+        <v>775884054</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78" s="10">
-        <v>5</v>
-      </c>
-      <c r="M78" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N78" s="12">
-        <v>97500</v>
-      </c>
-      <c r="O78" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P78" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="10">
-        <v>775602981</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L79" s="10">
-        <v>25</v>
-      </c>
-      <c r="M79" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N79" s="12">
-        <v>312500</v>
-      </c>
-      <c r="O79" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P79" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F80" s="10">
-        <v>775602981</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L80" s="10">
-        <v>4</v>
-      </c>
-      <c r="M80" s="12">
-        <v>10000</v>
-      </c>
-      <c r="N80" s="12">
-        <v>40000</v>
-      </c>
-      <c r="O80" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P80" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="10">
-        <v>775276149</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="H81" s="10" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="L81" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M81" s="12">
-        <v>12500</v>
-      </c>
-      <c r="N81" s="12">
-        <v>62500</v>
+        <v>11500</v>
+      </c>
+      <c r="N81" s="14">
+        <v>23000</v>
       </c>
       <c r="O81" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5449,27 +5450,27 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="9">
-        <v>45939</v>
+        <v>45937</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="F82" s="10">
-        <v>775276149</v>
+        <v>771837885</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>13</v>
@@ -5478,123 +5479,123 @@
         <v>17</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="L82" s="10">
+        <v>2</v>
+      </c>
+      <c r="M82" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N82" s="14">
+        <v>23000</v>
+      </c>
+      <c r="O82" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P82" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="10">
+        <v>773170826</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83" s="10">
+        <v>1</v>
+      </c>
+      <c r="M83" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N83" s="14">
+        <v>11500</v>
+      </c>
+      <c r="O83" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P83" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="10">
+        <v>777802399</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="10">
         <v>3</v>
       </c>
-      <c r="M82" s="12">
-        <v>10000</v>
-      </c>
-      <c r="N82" s="12">
-        <v>30000</v>
-      </c>
-      <c r="O82" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P82" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F83" s="10">
-        <v>781297575</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L83" s="10">
-        <v>25</v>
-      </c>
-      <c r="M83" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N83" s="12">
-        <v>487500</v>
-      </c>
-      <c r="O83" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P83" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="10">
-        <v>774216339</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L84" s="10">
-        <v>25</v>
-      </c>
       <c r="M84" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N84" s="12">
-        <v>243750</v>
+        <v>11500</v>
+      </c>
+      <c r="N84" s="14">
+        <v>34500</v>
       </c>
       <c r="O84" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5605,516 +5606,516 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
-        <v>45939</v>
+        <v>45937</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F85" s="10">
-        <v>774880562</v>
+        <v>773739328</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>85</v>
       </c>
       <c r="H85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="10">
+        <v>14</v>
+      </c>
+      <c r="M85" s="12">
+        <v>11500</v>
+      </c>
+      <c r="N85" s="14">
+        <v>161000</v>
+      </c>
+      <c r="O85" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P85" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A86" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="10">
+        <v>773817561</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" s="10">
+        <v>2</v>
+      </c>
+      <c r="M86" s="12">
+        <v>15000</v>
+      </c>
+      <c r="N86" s="14">
+        <v>30000</v>
+      </c>
+      <c r="O86" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P86" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A87" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="10">
+        <v>778276533</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K85" s="10" t="s">
+      <c r="I87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="10">
+        <v>6</v>
+      </c>
+      <c r="M87" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N87" s="14">
+        <v>156000</v>
+      </c>
+      <c r="O87" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P87" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A88" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="10">
+        <v>778276533</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="10">
+        <v>6</v>
+      </c>
+      <c r="M88" s="12">
+        <v>19500</v>
+      </c>
+      <c r="N88" s="14">
+        <v>117000</v>
+      </c>
+      <c r="O88" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P88" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="10">
+        <v>778276533</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K89" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L85" s="10">
-        <v>8</v>
-      </c>
-      <c r="M85" s="12">
+      <c r="L89" s="10">
+        <v>1</v>
+      </c>
+      <c r="M89" s="12">
         <v>15500</v>
       </c>
-      <c r="N85" s="12">
-        <v>124000</v>
-      </c>
-      <c r="O85" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P85" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F86" s="10">
-        <v>705121758</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K86" s="10" t="s">
+      <c r="N89" s="14">
+        <v>15500</v>
+      </c>
+      <c r="O89" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P89" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="10">
+        <v>778276533</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K90" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L86" s="10">
-        <v>7</v>
-      </c>
-      <c r="M86" s="12">
+      <c r="L90" s="10">
+        <v>1</v>
+      </c>
+      <c r="M90" s="12">
         <v>12500</v>
       </c>
-      <c r="N86" s="12">
-        <v>87500</v>
-      </c>
-      <c r="O86" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P86" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="10">
-        <v>705121758</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K87" s="10" t="s">
+      <c r="N90" s="14">
+        <v>12500</v>
+      </c>
+      <c r="O90" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P90" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="10">
+        <v>776634479</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" s="10">
+        <v>2</v>
+      </c>
+      <c r="M91" s="12">
+        <v>15500</v>
+      </c>
+      <c r="N91" s="14">
+        <v>31000</v>
+      </c>
+      <c r="O91" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P91" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="10">
+        <v>773040043</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L92" s="10">
+        <v>1</v>
+      </c>
+      <c r="M92" s="12">
+        <v>12500</v>
+      </c>
+      <c r="N92" s="14">
+        <v>12500</v>
+      </c>
+      <c r="O92" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P92" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="10">
+        <v>773040043</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L93" s="10">
+        <v>2</v>
+      </c>
+      <c r="M93" s="12">
+        <v>12500</v>
+      </c>
+      <c r="N93" s="14">
+        <v>25000</v>
+      </c>
+      <c r="O93" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S41</v>
+      </c>
+      <c r="P93" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="10">
+        <v>773817561</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K94" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L87" s="10">
-        <v>50</v>
-      </c>
-      <c r="M87" s="12">
+      <c r="L94" s="10">
+        <v>5</v>
+      </c>
+      <c r="M94" s="12">
         <v>11500</v>
       </c>
-      <c r="N87" s="12">
-        <v>575000</v>
-      </c>
-      <c r="O87" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P87" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F88" s="10">
-        <v>775276149</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L88" s="10">
-        <v>5</v>
-      </c>
-      <c r="M88" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N88" s="12">
-        <v>77500</v>
-      </c>
-      <c r="O88" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P88" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="10">
-        <v>775276149</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L89" s="10">
-        <v>11</v>
-      </c>
-      <c r="M89" s="12">
-        <v>12000</v>
-      </c>
-      <c r="N89" s="12">
-        <v>132000</v>
-      </c>
-      <c r="O89" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P89" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="10">
-        <v>775276149</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L90" s="10">
-        <v>10</v>
-      </c>
-      <c r="M90" s="12">
-        <v>7500</v>
-      </c>
-      <c r="N90" s="12">
-        <v>75000</v>
-      </c>
-      <c r="O90" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P90" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="10">
-        <v>775276149</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" s="10">
-        <v>25</v>
-      </c>
-      <c r="M91" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N91" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O91" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P91" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="10">
-        <v>776194586</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" s="10">
-        <v>25</v>
-      </c>
-      <c r="M92" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N92" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O92" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P92" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F93" s="10">
-        <v>786323232</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" s="10">
-        <v>100</v>
-      </c>
-      <c r="M93" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N93" s="12">
-        <v>2600000</v>
-      </c>
-      <c r="O93" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S41</v>
-      </c>
-      <c r="P93" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="9">
-        <v>45939</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="10">
-        <v>783758073</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L94" s="10">
-        <v>25</v>
-      </c>
-      <c r="M94" s="12">
-        <v>9750</v>
-      </c>
-      <c r="N94" s="12">
-        <v>243750</v>
+      <c r="N94" s="14">
+        <v>57500</v>
       </c>
       <c r="O94" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCBD103-D7EC-4112-A13F-7A9D447F0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725AA2F-DCB8-4646-98B3-358FCAB47CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -330,6 +330,96 @@
   </si>
   <si>
     <t>Il avait commandé le stick et les pots 50 et 200g mais il a fini par acheter d'autres pots</t>
+  </si>
+  <si>
+    <t>Terminus 54</t>
+  </si>
+  <si>
+    <t>Abdourahmane</t>
+  </si>
+  <si>
+    <t>PA DIOP</t>
+  </si>
+  <si>
+    <t>SALIOU BA</t>
+  </si>
+  <si>
+    <t>Ndiaye Malika</t>
+  </si>
+  <si>
+    <t>Seynabou SOW</t>
+  </si>
+  <si>
+    <t>CASTOR</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Alioune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis lundi jusqu'à présent </t>
+  </si>
+  <si>
+    <t>Ben Tally</t>
+  </si>
+  <si>
+    <t>El Hadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci beaucoup </t>
+  </si>
+  <si>
+    <t>Liberté 1 à 6</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Ces lan</t>
+  </si>
+  <si>
+    <t>Pape</t>
+  </si>
+  <si>
+    <t>Pape castor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa prend du temps </t>
+  </si>
+  <si>
+    <t>Mame cheikh</t>
+  </si>
+  <si>
+    <t>Assane Wade</t>
+  </si>
+  <si>
+    <t>Café stick Altimo 1,5gx09boites</t>
+  </si>
+  <si>
+    <t>Diamaguene</t>
+  </si>
+  <si>
+    <t>Korka</t>
+  </si>
+  <si>
+    <t>Mamadou DIBA</t>
+  </si>
+  <si>
+    <t>Supermarché</t>
+  </si>
+  <si>
+    <t>Alassane</t>
+  </si>
+  <si>
+    <t>Merci beaucoup</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 100g x 24 pcs</t>
+  </si>
+  <si>
+    <t>Café Altimo pot 200g x 12 pcs</t>
   </si>
 </sst>
 </file>
@@ -720,8 +810,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P43" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P59" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P59" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="15"/>
@@ -1034,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1267,7 +1357,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>52</v>
@@ -1276,19 +1366,19 @@
         <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F5" s="12">
-        <v>771987678</v>
+        <v>771701320</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>17</v>
@@ -1297,16 +1387,16 @@
         <v>64</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L5" s="12">
         <v>25</v>
       </c>
       <c r="M5" s="14">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N5" s="14">
-        <v>287500</v>
+        <v>243750</v>
       </c>
       <c r="O5" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1319,22 +1409,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F6" s="12">
-        <v>776212473</v>
+        <v>764881522</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>47</v>
@@ -1346,19 +1436,19 @@
         <v>17</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M6" s="14">
-        <v>18750</v>
+        <v>19500</v>
       </c>
       <c r="N6" s="14">
-        <v>243750</v>
+        <v>97500</v>
       </c>
       <c r="O6" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1371,25 +1461,25 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F7" s="12">
-        <v>784426640</v>
+        <v>772884203</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>13</v>
@@ -1398,19 +1488,19 @@
         <v>17</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L7" s="12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M7" s="14">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N7" s="14">
-        <v>287500</v>
+        <v>97500</v>
       </c>
       <c r="O7" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1423,46 +1513,46 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F8" s="12">
-        <v>773340367</v>
+        <v>772494182</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L8" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M8" s="14">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N8" s="14">
-        <v>234000</v>
+        <v>48750</v>
       </c>
       <c r="O8" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1475,46 +1565,46 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F9" s="12">
-        <v>775411988</v>
+        <v>775538380</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L9" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M9" s="14">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N9" s="14">
-        <v>387500</v>
+        <v>19500</v>
       </c>
       <c r="O9" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1527,46 +1617,46 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="F10" s="12">
-        <v>775273147</v>
+        <v>775987400</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L10" s="12">
         <v>1</v>
       </c>
       <c r="M10" s="14">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="N10" s="14">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="O10" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1579,25 +1669,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="F11" s="12">
-        <v>775273147</v>
+        <v>773170826</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>13</v>
@@ -1606,19 +1696,19 @@
         <v>17</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L11" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M11" s="14">
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="N11" s="14">
-        <v>150000</v>
+        <v>39000</v>
       </c>
       <c r="O11" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1631,46 +1721,46 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="F12" s="12">
-        <v>775273147</v>
+        <v>777972938</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="14">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="N12" s="14">
-        <v>52000</v>
+        <v>12500</v>
       </c>
       <c r="O12" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1683,46 +1773,46 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F13" s="12">
-        <v>775273147</v>
+        <v>772900705</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L13" s="12">
         <v>1</v>
       </c>
       <c r="M13" s="14">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N13" s="14">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="O13" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1735,22 +1825,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F14" s="12">
-        <v>767379110</v>
+        <v>776167544</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -1762,19 +1852,19 @@
         <v>17</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L14" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M14" s="14">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N14" s="14">
-        <v>108500</v>
+        <v>23000</v>
       </c>
       <c r="O14" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1787,25 +1877,25 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F15" s="12">
-        <v>763469670</v>
+        <v>775884054</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>13</v>
@@ -1814,19 +1904,19 @@
         <v>17</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="L15" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M15" s="14">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="N15" s="14">
-        <v>2600000</v>
+        <v>31000</v>
       </c>
       <c r="O15" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1839,25 +1929,25 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F16" s="12">
-        <v>781757464</v>
+        <v>772131614</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>13</v>
@@ -1866,19 +1956,19 @@
         <v>17</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M16" s="14">
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="N16" s="14">
-        <v>97500</v>
+        <v>26000</v>
       </c>
       <c r="O16" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1891,25 +1981,25 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F17" s="12">
-        <v>774540865</v>
+        <v>774446616</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>13</v>
@@ -1918,19 +2008,19 @@
         <v>17</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L17" s="12">
         <v>1</v>
       </c>
       <c r="M17" s="14">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N17" s="14">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O17" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1943,7 +2033,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>52</v>
@@ -1952,37 +2042,37 @@
         <v>53</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F18" s="12">
-        <v>771010134</v>
+        <v>771987678</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L18" s="12">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M18" s="14">
-        <v>26000</v>
+        <v>11500</v>
       </c>
       <c r="N18" s="14">
-        <v>2600000</v>
+        <v>287500</v>
       </c>
       <c r="O18" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1995,7 +2085,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>52</v>
@@ -2004,13 +2094,13 @@
         <v>53</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F19" s="12">
-        <v>771010134</v>
+        <v>776212473</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>47</v>
@@ -2022,19 +2112,19 @@
         <v>17</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L19" s="12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M19" s="14">
-        <v>10000</v>
+        <v>18750</v>
       </c>
       <c r="N19" s="14">
-        <v>10000</v>
+        <v>243750</v>
       </c>
       <c r="O19" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2047,7 +2137,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>52</v>
@@ -2056,16 +2146,16 @@
         <v>53</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F20" s="12">
-        <v>771010134</v>
+        <v>784426640</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>13</v>
@@ -2074,19 +2164,19 @@
         <v>17</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L20" s="12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M20" s="14">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N20" s="14">
-        <v>15500</v>
+        <v>287500</v>
       </c>
       <c r="O20" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2099,22 +2189,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F21" s="12">
-        <v>771010134</v>
+        <v>773340367</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>47</v>
@@ -2126,19 +2216,19 @@
         <v>17</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="L21" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M21" s="14">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N21" s="14">
-        <v>12500</v>
+        <v>234000</v>
       </c>
       <c r="O21" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2151,22 +2241,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F22" s="12">
-        <v>786323232</v>
+        <v>775894235</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>16</v>
@@ -2178,19 +2268,19 @@
         <v>17</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M22" s="14">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="N22" s="14">
-        <v>650000</v>
+        <v>19500</v>
       </c>
       <c r="O22" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2203,22 +2293,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F23" s="12">
-        <v>784537895</v>
+        <v>775894235</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>16</v>
@@ -2230,19 +2320,19 @@
         <v>17</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="L23" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23" s="14">
-        <v>15500</v>
+        <v>33500</v>
       </c>
       <c r="N23" s="14">
-        <v>15500</v>
+        <v>167500</v>
       </c>
       <c r="O23" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2255,22 +2345,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F24" s="12">
-        <v>784537895</v>
+        <v>775894235</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>16</v>
@@ -2282,19 +2372,19 @@
         <v>17</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="L24" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" s="14">
-        <v>12500</v>
+        <v>34500</v>
       </c>
       <c r="N24" s="14">
-        <v>12500</v>
+        <v>138000</v>
       </c>
       <c r="O24" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2307,25 +2397,25 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F25" s="12">
-        <v>775541532</v>
+        <v>775411988</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>13</v>
@@ -2334,19 +2424,19 @@
         <v>17</v>
       </c>
       <c r="J25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="12">
         <v>25</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="12">
-        <v>10</v>
-      </c>
       <c r="M25" s="14">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N25" s="14">
-        <v>97500</v>
+        <v>387500</v>
       </c>
       <c r="O25" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2362,19 +2452,19 @@
         <v>45945</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F26" s="12">
-        <v>774540865</v>
+        <v>775273147</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>16</v>
@@ -2386,19 +2476,19 @@
         <v>17</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" s="12">
         <v>1</v>
       </c>
       <c r="M26" s="14">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N26" s="14">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O26" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2414,19 +2504,19 @@
         <v>45945</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F27" s="12">
-        <v>775405469</v>
+        <v>775273147</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>16</v>
@@ -2438,19 +2528,19 @@
         <v>17</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="12">
         <v>25</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="12">
-        <v>5</v>
-      </c>
       <c r="M27" s="14">
-        <v>19500</v>
+        <v>6000</v>
       </c>
       <c r="N27" s="14">
-        <v>97500</v>
+        <v>150000</v>
       </c>
       <c r="O27" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2466,19 +2556,19 @@
         <v>45945</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F28" s="12">
-        <v>774245132</v>
+        <v>775273147</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>16</v>
@@ -2490,19 +2580,19 @@
         <v>17</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28" s="14">
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="N28" s="14">
-        <v>97500</v>
+        <v>52000</v>
       </c>
       <c r="O28" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2518,19 +2608,19 @@
         <v>45945</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F29" s="12">
-        <v>771428937</v>
+        <v>775273147</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>16</v>
@@ -2542,19 +2632,19 @@
         <v>17</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L29" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M29" s="14">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="N29" s="14">
-        <v>650000</v>
+        <v>10000</v>
       </c>
       <c r="O29" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2570,22 +2660,22 @@
         <v>45945</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F30" s="12">
-        <v>785554540</v>
+        <v>767379110</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>13</v>
@@ -2594,19 +2684,19 @@
         <v>17</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>50</v>
       </c>
       <c r="L30" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M30" s="14">
         <v>15500</v>
       </c>
       <c r="N30" s="14">
-        <v>15500</v>
+        <v>108500</v>
       </c>
       <c r="O30" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2622,19 +2712,19 @@
         <v>45945</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F31" s="12">
-        <v>773756258</v>
+        <v>763469670</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>16</v>
@@ -2646,19 +2736,19 @@
         <v>17</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="12">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M31" s="14">
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="N31" s="14">
-        <v>97500</v>
+        <v>2600000</v>
       </c>
       <c r="O31" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2674,22 +2764,22 @@
         <v>45945</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F32" s="12">
-        <v>773777037</v>
+        <v>781757464</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>13</v>
@@ -2698,19 +2788,19 @@
         <v>17</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L32" s="12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M32" s="14">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="N32" s="14">
-        <v>650000</v>
+        <v>97500</v>
       </c>
       <c r="O32" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2732,16 +2822,16 @@
         <v>19</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F33" s="12">
-        <v>773750007</v>
+        <v>774540865</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>13</v>
@@ -2753,16 +2843,16 @@
         <v>25</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="14">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N33" s="14">
-        <v>31000</v>
+        <v>12500</v>
       </c>
       <c r="O33" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2778,22 +2868,22 @@
         <v>45945</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" s="12">
-        <v>773750007</v>
+        <v>771010134</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>13</v>
@@ -2802,19 +2892,19 @@
         <v>17</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L34" s="12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M34" s="14">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="N34" s="14">
-        <v>15500</v>
+        <v>2600000</v>
       </c>
       <c r="O34" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2830,22 +2920,22 @@
         <v>45945</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F35" s="12">
-        <v>775171537</v>
+        <v>771010134</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>13</v>
@@ -2854,19 +2944,19 @@
         <v>17</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L35" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M35" s="14">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="N35" s="14">
-        <v>650000</v>
+        <v>10000</v>
       </c>
       <c r="O35" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2882,19 +2972,19 @@
         <v>45945</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F36" s="12">
-        <v>776818022</v>
+        <v>771010134</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>47</v>
@@ -2906,19 +2996,19 @@
         <v>17</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L36" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M36" s="14">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N36" s="14">
-        <v>243750</v>
+        <v>15500</v>
       </c>
       <c r="O36" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2934,22 +3024,22 @@
         <v>45945</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F37" s="12">
-        <v>773199049</v>
+        <v>771010134</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>13</v>
@@ -2958,19 +3048,19 @@
         <v>17</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L37" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M37" s="14">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N37" s="14">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="O37" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2986,19 +3076,19 @@
         <v>45945</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F38" s="12">
-        <v>773199049</v>
+        <v>786323232</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>16</v>
@@ -3010,19 +3100,19 @@
         <v>17</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="L38" s="12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M38" s="14">
-        <v>10250</v>
+        <v>26000</v>
       </c>
       <c r="N38" s="14">
-        <v>51250</v>
+        <v>650000</v>
       </c>
       <c r="O38" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3038,19 +3128,19 @@
         <v>45945</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F39" s="12">
-        <v>779676016</v>
+        <v>784537895</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>16</v>
@@ -3062,19 +3152,19 @@
         <v>17</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L39" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M39" s="14">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N39" s="14">
-        <v>312500</v>
+        <v>15500</v>
       </c>
       <c r="O39" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3090,19 +3180,19 @@
         <v>45945</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F40" s="12">
-        <v>773199049</v>
+        <v>784537895</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>16</v>
@@ -3114,19 +3204,19 @@
         <v>17</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L40" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M40" s="14">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N40" s="14">
-        <v>150000</v>
+        <v>12500</v>
       </c>
       <c r="O40" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3142,22 +3232,22 @@
         <v>45945</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F41" s="12">
-        <v>773482683</v>
+        <v>775541532</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>13</v>
@@ -3166,12 +3256,20 @@
         <v>17</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="12">
+        <v>10</v>
+      </c>
+      <c r="M41" s="14">
+        <v>9750</v>
+      </c>
+      <c r="N41" s="14">
+        <v>97500</v>
+      </c>
       <c r="O41" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S42</v>
@@ -3186,19 +3284,19 @@
         <v>45945</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F42" s="12">
-        <v>770712599</v>
+        <v>774540865</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>16</v>
@@ -3210,19 +3308,19 @@
         <v>17</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L42" s="12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M42" s="14">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="N42" s="14">
-        <v>1300000</v>
+        <v>15500</v>
       </c>
       <c r="O42" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3233,24 +3331,24 @@
         <v>octobre</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>45945</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F43" s="12">
-        <v>774024173</v>
+        <v>775405469</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>16</v>
@@ -3262,25 +3360,857 @@
         <v>17</v>
       </c>
       <c r="J43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="12">
+        <v>5</v>
+      </c>
+      <c r="M43" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N43" s="14">
+        <v>97500</v>
+      </c>
+      <c r="O43" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P43" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="12">
+        <v>774245132</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="12">
+        <v>5</v>
+      </c>
+      <c r="M44" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N44" s="14">
+        <v>97500</v>
+      </c>
+      <c r="O44" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P44" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="12">
+        <v>771428937</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="12">
+        <v>25</v>
+      </c>
+      <c r="M45" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N45" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O45" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P45" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="12">
+        <v>785554540</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="12">
+        <v>1</v>
+      </c>
+      <c r="M46" s="14">
+        <v>15500</v>
+      </c>
+      <c r="N46" s="14">
+        <v>15500</v>
+      </c>
+      <c r="O46" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P46" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="12">
+        <v>773756258</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="12">
+        <v>5</v>
+      </c>
+      <c r="M47" s="14">
+        <v>19500</v>
+      </c>
+      <c r="N47" s="14">
+        <v>97500</v>
+      </c>
+      <c r="O47" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P47" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="12">
+        <v>773777037</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="12">
+        <v>25</v>
+      </c>
+      <c r="M48" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N48" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O48" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P48" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="12">
+        <v>773750007</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="12">
+        <v>2</v>
+      </c>
+      <c r="M49" s="14">
+        <v>15500</v>
+      </c>
+      <c r="N49" s="14">
+        <v>31000</v>
+      </c>
+      <c r="O49" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P49" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="12">
+        <v>773750007</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="12">
+        <v>1</v>
+      </c>
+      <c r="M50" s="14">
+        <v>15500</v>
+      </c>
+      <c r="N50" s="14">
+        <v>15500</v>
+      </c>
+      <c r="O50" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P50" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="12">
+        <v>775171537</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="12">
+        <v>25</v>
+      </c>
+      <c r="M51" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N51" s="14">
+        <v>650000</v>
+      </c>
+      <c r="O51" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P51" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="12">
+        <v>779676016</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="12">
+        <v>25</v>
+      </c>
+      <c r="M52" s="14">
+        <v>12500</v>
+      </c>
+      <c r="N52" s="14">
+        <v>312500</v>
+      </c>
+      <c r="O52" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P52" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="12">
+        <v>773199049</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="12">
+        <v>25</v>
+      </c>
+      <c r="M53" s="14">
+        <v>6000</v>
+      </c>
+      <c r="N53" s="14">
+        <v>150000</v>
+      </c>
+      <c r="O53" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P53" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="12">
+        <v>773199049</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="12">
+        <v>5</v>
+      </c>
+      <c r="M54" s="14">
+        <v>10000</v>
+      </c>
+      <c r="N54" s="14">
+        <v>50000</v>
+      </c>
+      <c r="O54" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P54" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="12">
+        <v>773199049</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="12">
+        <v>5</v>
+      </c>
+      <c r="M55" s="14">
+        <v>10250</v>
+      </c>
+      <c r="N55" s="14">
+        <v>51250</v>
+      </c>
+      <c r="O55" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P55" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="12">
+        <v>776818022</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="12">
+        <v>25</v>
+      </c>
+      <c r="M56" s="14">
+        <v>9750</v>
+      </c>
+      <c r="N56" s="14">
+        <v>243750</v>
+      </c>
+      <c r="O56" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P56" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="12">
+        <v>773482683</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L57" s="12">
+        <v>25</v>
+      </c>
+      <c r="M57" s="14">
+        <v>31000</v>
+      </c>
+      <c r="N57" s="14">
+        <v>775000</v>
+      </c>
+      <c r="O57" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P57" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A58" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="12">
+        <v>774024173</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K58" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L58" s="12">
         <v>50</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M58" s="14">
         <v>26000</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N58" s="14">
         <v>1300000</v>
       </c>
-      <c r="O43" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P43" s="10" t="str">
+      <c r="O58" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P58" s="10" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59" s="11">
+        <v>45945</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="12">
+        <v>770712599</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="12">
+        <v>50</v>
+      </c>
+      <c r="M59" s="14">
+        <v>26000</v>
+      </c>
+      <c r="N59" s="14">
+        <v>1300000</v>
+      </c>
+      <c r="O59" s="9" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P59" s="10" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725AA2F-DCB8-4646-98B3-358FCAB47CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D918D3-00AA-41A0-90AD-BFCFD3A0E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,6 +530,34 @@
         <name val="TIMES"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -570,34 +598,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -813,7 +813,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P59" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:P59" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="13"/>
@@ -822,15 +822,15 @@
     <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="10"/>
     <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="2">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="4">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1126,8 +1126,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="8">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1210,16 +1210,16 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>775661455</v>
+        <v>775411988</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1228,19 +1228,19 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="M2">
-        <v>26000</v>
-      </c>
-      <c r="N2">
-        <v>650000</v>
+      <c r="M2" s="4">
+        <v>15500</v>
+      </c>
+      <c r="N2" s="4">
+        <v>387500</v>
       </c>
       <c r="O2" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1262,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F3">
-        <v>775661455</v>
+        <v>779676016</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1283,16 +1283,16 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
-      <c r="M3">
-        <v>19500</v>
-      </c>
-      <c r="N3">
-        <v>487500</v>
+      <c r="M3" s="4">
+        <v>12500</v>
+      </c>
+      <c r="N3" s="4">
+        <v>312500</v>
       </c>
       <c r="O3" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>52</v>
@@ -1314,13 +1314,13 @@
         <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F4" s="12">
-        <v>775772788</v>
+        <v>771701320</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>16</v>
@@ -1335,16 +1335,16 @@
         <v>64</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L4" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M4" s="14">
-        <v>26000</v>
+        <v>9750</v>
       </c>
       <c r="N4" s="14">
-        <v>1300000</v>
+        <v>243750</v>
       </c>
       <c r="O4" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1366,37 +1366,37 @@
         <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F5" s="12">
-        <v>771701320</v>
+        <v>772494182</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M5" s="14">
         <v>9750</v>
       </c>
       <c r="N5" s="14">
-        <v>243750</v>
+        <v>48750</v>
       </c>
       <c r="O5" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>52</v>
@@ -1522,16 +1522,16 @@
         <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F8" s="12">
-        <v>772494182</v>
+        <v>771987678</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>48</v>
@@ -1540,19 +1540,19 @@
         <v>17</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L8" s="12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M8" s="14">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N8" s="14">
-        <v>48750</v>
+        <v>287500</v>
       </c>
       <c r="O8" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2042,37 +2042,37 @@
         <v>53</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F18" s="12">
-        <v>771987678</v>
+        <v>776212473</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L18" s="12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M18" s="14">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N18" s="14">
-        <v>287500</v>
+        <v>253500</v>
       </c>
       <c r="O18" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2094,16 +2094,16 @@
         <v>53</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F19" s="12">
-        <v>776212473</v>
+        <v>784426640</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>13</v>
@@ -2112,19 +2112,19 @@
         <v>17</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L19" s="12">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M19" s="14">
-        <v>18750</v>
+        <v>11500</v>
       </c>
       <c r="N19" s="14">
-        <v>243750</v>
+        <v>287500</v>
       </c>
       <c r="O19" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>52</v>
@@ -2146,16 +2146,16 @@
         <v>53</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F20" s="12">
-        <v>784426640</v>
+        <v>771010134</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>13</v>
@@ -2164,19 +2164,19 @@
         <v>17</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L20" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M20" s="14">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="N20" s="14">
-        <v>287500</v>
+        <v>2600000</v>
       </c>
       <c r="O20" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>14</v>
@@ -2406,16 +2406,16 @@
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F25" s="12">
-        <v>775411988</v>
+        <v>773199049</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>13</v>
@@ -2424,19 +2424,19 @@
         <v>17</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L25" s="12">
         <v>25</v>
       </c>
       <c r="M25" s="14">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="N25" s="14">
-        <v>387500</v>
+        <v>150000</v>
       </c>
       <c r="O25" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2895,16 +2895,16 @@
         <v>54</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L34" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M34" s="14">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="N34" s="14">
-        <v>2600000</v>
+        <v>10000</v>
       </c>
       <c r="O34" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2947,16 +2947,16 @@
         <v>54</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L35" s="12">
         <v>1</v>
       </c>
       <c r="M35" s="14">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N35" s="14">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="O35" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -2999,16 +2999,16 @@
         <v>54</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" s="12">
         <v>1</v>
       </c>
       <c r="M36" s="14">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N36" s="14">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O36" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>52</v>
@@ -3030,16 +3030,16 @@
         <v>53</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F37" s="12">
-        <v>771010134</v>
+        <v>775772788</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>13</v>
@@ -3048,19 +3048,19 @@
         <v>17</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L37" s="12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M37" s="14">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N37" s="14">
-        <v>12500</v>
+        <v>1300000</v>
       </c>
       <c r="O37" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3109,10 +3109,10 @@
         <v>25</v>
       </c>
       <c r="M38" s="14">
-        <v>26000</v>
+        <v>19500</v>
       </c>
       <c r="N38" s="14">
-        <v>650000</v>
+        <v>487500</v>
       </c>
       <c r="O38" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3268,7 +3268,7 @@
         <v>9750</v>
       </c>
       <c r="N41" s="14">
-        <v>97500</v>
+        <v>102500</v>
       </c>
       <c r="O41" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3810,13 +3810,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="12">
-        <v>779676016</v>
+        <v>773199049</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>16</v>
@@ -3831,16 +3831,16 @@
         <v>17</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L52" s="12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M52" s="14">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N52" s="14">
-        <v>312500</v>
+        <v>50000</v>
       </c>
       <c r="O52" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3883,16 +3883,16 @@
         <v>17</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L53" s="12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M53" s="14">
-        <v>6000</v>
+        <v>10250</v>
       </c>
       <c r="N53" s="14">
-        <v>150000</v>
+        <v>51250</v>
       </c>
       <c r="O53" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>14</v>
@@ -3914,13 +3914,13 @@
         <v>15</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F54" s="12">
-        <v>773199049</v>
+        <v>775661455</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>16</v>
@@ -3935,16 +3935,16 @@
         <v>17</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L54" s="12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M54" s="14">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="N54" s="14">
-        <v>50000</v>
+        <v>650000</v>
       </c>
       <c r="O54" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>14</v>
@@ -3966,13 +3966,13 @@
         <v>15</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F55" s="12">
-        <v>773199049</v>
+        <v>775661455</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>16</v>
@@ -3987,16 +3987,16 @@
         <v>17</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="L55" s="12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M55" s="14">
-        <v>10250</v>
+        <v>19500</v>
       </c>
       <c r="N55" s="14">
-        <v>51250</v>
+        <v>487500</v>
       </c>
       <c r="O55" s="9" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D918D3-00AA-41A0-90AD-BFCFD3A0E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01447637-E130-4293-837A-45A549603C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -420,6 +420,28 @@
   </si>
   <si>
     <t>Café Altimo pot 200g x 12 pcs</t>
+  </si>
+  <si>
+    <t>Ouakam</t>
+  </si>
+  <si>
+    <t>Ibrahima Sori Diallo</t>
+  </si>
+  <si>
+    <t>Commande reçue très tardivement.il avait déjà fermé il a trop attendu</t>
+  </si>
+  <si>
+    <t>Bassoum khamza</t>
+  </si>
+  <si>
+    <t>Abdoulaye  Ba 
+A</t>
+  </si>
+  <si>
+    <t>Moustapha  seye</t>
+  </si>
+  <si>
+    <t>Améne le reste demain stp</t>
   </si>
 </sst>
 </file>
@@ -487,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -509,21 +531,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -564,40 +611,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <name val="TIMES"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -624,6 +637,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -750,6 +764,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+        <name val="TIMES"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -810,27 +838,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P59" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P59" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P67" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P67" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1124,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1242,11 +1270,11 @@
       <c r="N2" s="4">
         <v>387500</v>
       </c>
-      <c r="O2" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P2" s="10" t="str">
+      <c r="O2" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P2" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
@@ -1294,2923 +1322,3339 @@
       <c r="N3" s="4">
         <v>312500</v>
       </c>
-      <c r="O3" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P3" s="10" t="str">
+      <c r="O3" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P3" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>45947</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>771701320</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>25</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>9750</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>243750</v>
       </c>
-      <c r="O4" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P4" s="10" t="str">
+      <c r="O4" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P4" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>45947</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>772494182</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>5</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>9750</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <v>48750</v>
       </c>
-      <c r="O5" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P5" s="10" t="str">
+      <c r="O5" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P5" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>45947</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>764881522</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>5</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>19500</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <v>97500</v>
       </c>
-      <c r="O6" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P6" s="10" t="str">
+      <c r="O6" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P6" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>45947</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>772884203</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>5</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>19500</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>97500</v>
       </c>
-      <c r="O7" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P7" s="10" t="str">
+      <c r="O7" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P7" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>45946</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>771987678</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>25</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>11500</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>287500</v>
       </c>
-      <c r="O8" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P8" s="10" t="str">
+      <c r="O8" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P8" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>45947</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>775538380</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <v>1</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>19500</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>19500</v>
       </c>
-      <c r="O9" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P9" s="10" t="str">
+      <c r="O9" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P9" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>45947</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>775987400</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>19500</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>19500</v>
       </c>
-      <c r="O10" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P10" s="10" t="str">
+      <c r="O10" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P10" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>45947</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>773170826</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>19500</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>39000</v>
       </c>
-      <c r="O11" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P11" s="10" t="str">
+      <c r="O11" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P11" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>45947</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>777972938</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="I12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <v>1</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>12500</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <v>12500</v>
       </c>
-      <c r="O12" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P12" s="10" t="str">
+      <c r="O12" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P12" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>45947</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>772900705</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="10">
         <v>1</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>26000</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>26000</v>
       </c>
-      <c r="O13" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P13" s="10" t="str">
+      <c r="O13" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P13" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>45947</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>776167544</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>2</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>11500</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <v>23000</v>
       </c>
-      <c r="O14" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P14" s="10" t="str">
+      <c r="O14" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P14" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>45947</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>775884054</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>1</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <v>31000</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <v>31000</v>
       </c>
-      <c r="O15" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P15" s="10" t="str">
+      <c r="O15" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P15" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>45947</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>772131614</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>1</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="12">
         <v>26000</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="12">
         <v>26000</v>
       </c>
-      <c r="O16" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P16" s="10" t="str">
+      <c r="O16" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P16" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>45947</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>774446616</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="13" t="s">
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>15500</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="12">
         <v>15500</v>
       </c>
-      <c r="O17" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P17" s="10" t="str">
+      <c r="O17" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P17" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>45946</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>776212473</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="13" t="s">
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="12">
-        <v>13</v>
-      </c>
-      <c r="M18" s="14">
+      <c r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="12">
         <v>19500</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="12">
         <v>253500</v>
       </c>
-      <c r="O18" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P18" s="10" t="str">
+      <c r="O18" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>45946</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>784426640</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>25</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="12">
         <v>11500</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="12">
         <v>287500</v>
       </c>
-      <c r="O19" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P19" s="10" t="str">
+      <c r="O19" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P19" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>45945</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>771010134</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <v>100</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="12">
         <v>26000</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="12">
         <v>2600000</v>
       </c>
-      <c r="O20" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P20" s="10" t="str">
+      <c r="O20" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P20" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>45946</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>773340367</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <v>12</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="12">
         <v>19500</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <v>234000</v>
       </c>
-      <c r="O21" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P21" s="10" t="str">
+      <c r="O21" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P21" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>45946</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>775894235</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="10">
         <v>1</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="12">
         <v>19500</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="12">
         <v>19500</v>
       </c>
-      <c r="O22" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P22" s="10" t="str">
+      <c r="O22" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P22" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>45946</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>775894235</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="H23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="10">
         <v>5</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="12">
         <v>33500</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="12">
         <v>167500</v>
       </c>
-      <c r="O23" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P23" s="10" t="str">
+      <c r="O23" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P23" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>45946</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>775894235</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="H24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="10">
         <v>4</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="12">
         <v>34500</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="12">
         <v>138000</v>
       </c>
-      <c r="O24" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P24" s="10" t="str">
+      <c r="O24" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P24" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>45945</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>773199049</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="12" t="s">
+      <c r="H25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="10">
         <v>25</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="12">
         <v>6000</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="12">
         <v>150000</v>
       </c>
-      <c r="O25" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P25" s="10" t="str">
+      <c r="O25" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P25" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <v>45945</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>775273147</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="H26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="12">
         <v>12500</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="12">
         <v>12500</v>
       </c>
-      <c r="O26" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P26" s="10" t="str">
+      <c r="O26" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P26" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>45945</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>775273147</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="10">
         <v>25</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="12">
         <v>6000</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="12">
         <v>150000</v>
       </c>
-      <c r="O27" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P27" s="10" t="str">
+      <c r="O27" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P27" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <v>45945</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>775273147</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="H28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="10">
         <v>2</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="12">
         <v>26000</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="12">
         <v>52000</v>
       </c>
-      <c r="O28" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P28" s="10" t="str">
+      <c r="O28" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P28" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>45945</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>775273147</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="13" t="s">
+      <c r="H29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="10">
         <v>1</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="12">
         <v>10000</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="12">
         <v>10000</v>
       </c>
-      <c r="O29" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P29" s="10" t="str">
+      <c r="O29" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P29" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="11">
+      <c r="A30" s="9">
         <v>45945</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>767379110</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="13" t="s">
+      <c r="H30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="10">
         <v>7</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="12">
         <v>15500</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="12">
         <v>108500</v>
       </c>
-      <c r="O30" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P30" s="10" t="str">
+      <c r="O30" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P30" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>45945</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>763469670</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="H31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="10">
         <v>100</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="12">
         <v>26000</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="12">
         <v>2600000</v>
       </c>
-      <c r="O31" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P31" s="10" t="str">
+      <c r="O31" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P31" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="11">
+      <c r="A32" s="9">
         <v>45945</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>781757464</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="H32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="10">
         <v>5</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="12">
         <v>19500</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="12">
         <v>97500</v>
       </c>
-      <c r="O32" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P32" s="10" t="str">
+      <c r="O32" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P32" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="11">
+      <c r="A33" s="9">
         <v>45945</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>774540865</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="13" t="s">
+      <c r="H33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="10">
         <v>1</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="12">
         <v>12500</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="12">
         <v>12500</v>
       </c>
-      <c r="O33" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P33" s="10" t="str">
+      <c r="O33" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P33" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
         <v>45945</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>771010134</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="13" t="s">
+      <c r="H34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="10">
         <v>1</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="12">
         <v>10000</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="12">
         <v>10000</v>
       </c>
-      <c r="O34" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P34" s="10" t="str">
+      <c r="O34" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P34" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
         <v>45945</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>771010134</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="13" t="s">
+      <c r="H35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="10">
         <v>1</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="12">
         <v>15500</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="12">
         <v>15500</v>
       </c>
-      <c r="O35" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P35" s="10" t="str">
+      <c r="O35" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="11">
+      <c r="A36" s="9">
         <v>45945</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>771010134</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="13" t="s">
+      <c r="H36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="10">
         <v>1</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="12">
         <v>12500</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="12">
         <v>12500</v>
       </c>
-      <c r="O36" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P36" s="10" t="str">
+      <c r="O36" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="11">
+      <c r="A37" s="9">
         <v>45943</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <v>775772788</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="13" t="s">
+      <c r="H37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="10">
         <v>50</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="12">
         <v>26000</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="12">
         <v>1300000</v>
       </c>
-      <c r="O37" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P37" s="10" t="str">
+      <c r="O37" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P37" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="11">
+      <c r="A38" s="9">
         <v>45945</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>786323232</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="13" t="s">
+      <c r="H38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="10">
         <v>25</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="12">
         <v>19500</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="12">
         <v>487500</v>
       </c>
-      <c r="O38" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P38" s="10" t="str">
+      <c r="O38" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P38" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
         <v>45945</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>784537895</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="13" t="s">
+      <c r="H39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="10">
         <v>1</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="12">
         <v>15500</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="12">
         <v>15500</v>
       </c>
-      <c r="O39" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P39" s="10" t="str">
+      <c r="O39" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P39" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="11">
+      <c r="A40" s="9">
         <v>45945</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>784537895</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="13" t="s">
+      <c r="H40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="10">
         <v>1</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="12">
         <v>12500</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="12">
         <v>12500</v>
       </c>
-      <c r="O40" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P40" s="10" t="str">
+      <c r="O40" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P40" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
         <v>45945</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>775541532</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="13" t="s">
+      <c r="H41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="10">
         <v>10</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="12">
         <v>9750</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="12">
         <v>102500</v>
       </c>
-      <c r="O41" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P41" s="10" t="str">
+      <c r="O41" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P41" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="11">
+      <c r="A42" s="9">
         <v>45945</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>774540865</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="13" t="s">
+      <c r="H42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="10">
         <v>1</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="12">
         <v>15500</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="12">
         <v>15500</v>
       </c>
-      <c r="O42" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P42" s="10" t="str">
+      <c r="O42" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P42" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>45945</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>775405469</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="13" t="s">
+      <c r="H43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="10">
         <v>5</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="12">
         <v>19500</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="12">
         <v>97500</v>
       </c>
-      <c r="O43" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P43" s="10" t="str">
+      <c r="O43" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P43" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="11">
+      <c r="A44" s="9">
         <v>45945</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>774245132</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="13" t="s">
+      <c r="H44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="10">
         <v>5</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="12">
         <v>19500</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="12">
         <v>97500</v>
       </c>
-      <c r="O44" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P44" s="10" t="str">
+      <c r="O44" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P44" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="11">
+      <c r="A45" s="9">
         <v>45945</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>771428937</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="13" t="s">
+      <c r="H45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="10">
         <v>25</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="12">
         <v>26000</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="12">
         <v>650000</v>
       </c>
-      <c r="O45" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P45" s="10" t="str">
+      <c r="O45" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P45" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="11">
+      <c r="A46" s="9">
         <v>45945</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>785554540</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="13" t="s">
+      <c r="H46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="10">
         <v>1</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="12">
         <v>15500</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="12">
         <v>15500</v>
       </c>
-      <c r="O46" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P46" s="10" t="str">
+      <c r="O46" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P46" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" s="11">
+      <c r="A47" s="9">
         <v>45945</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>773756258</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="13" t="s">
+      <c r="H47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="10">
         <v>5</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="12">
         <v>19500</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="12">
         <v>97500</v>
       </c>
-      <c r="O47" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P47" s="10" t="str">
+      <c r="O47" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P47" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48" s="11">
+      <c r="A48" s="9">
         <v>45945</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>773777037</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="13" t="s">
+      <c r="H48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="10">
         <v>25</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="12">
         <v>26000</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="12">
         <v>650000</v>
       </c>
-      <c r="O48" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P48" s="10" t="str">
+      <c r="O48" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P48" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A49" s="11">
+      <c r="A49" s="9">
         <v>45945</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="10">
         <v>773750007</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="H49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="10">
         <v>2</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="12">
         <v>15500</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="12">
         <v>31000</v>
       </c>
-      <c r="O49" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P49" s="10" t="str">
+      <c r="O49" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P49" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A50" s="11">
+      <c r="A50" s="9">
         <v>45945</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="10">
         <v>773750007</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="13" t="s">
+      <c r="H50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="10">
         <v>1</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="12">
         <v>15500</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="12">
         <v>15500</v>
       </c>
-      <c r="O50" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P50" s="10" t="str">
+      <c r="O50" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P50" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A51" s="11">
+      <c r="A51" s="9">
         <v>45945</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>775171537</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="13" t="s">
+      <c r="H51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="10">
         <v>25</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="12">
         <v>26000</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="12">
         <v>650000</v>
       </c>
-      <c r="O51" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P51" s="10" t="str">
+      <c r="O51" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P51" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A52" s="11">
+      <c r="A52" s="9">
         <v>45945</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>773199049</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="H52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="10">
         <v>5</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="12">
         <v>10000</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="12">
         <v>50000</v>
       </c>
-      <c r="O52" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P52" s="10" t="str">
+      <c r="O52" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P52" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A53" s="11">
+      <c r="A53" s="9">
         <v>45945</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="10">
         <v>773199049</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="12" t="s">
+      <c r="H53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="10">
         <v>5</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="12">
         <v>10250</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N53" s="12">
         <v>51250</v>
       </c>
-      <c r="O53" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P53" s="10" t="str">
+      <c r="O53" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P53" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A54" s="11">
+      <c r="A54" s="9">
         <v>45943</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="10">
         <v>775661455</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="12" t="s">
+      <c r="H54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="10">
         <v>25</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="12">
         <v>26000</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N54" s="12">
         <v>650000</v>
       </c>
-      <c r="O54" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P54" s="10" t="str">
+      <c r="O54" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P54" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A55" s="11">
+      <c r="A55" s="9">
         <v>45943</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="10">
         <v>775661455</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="H55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="10">
         <v>25</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="12">
         <v>19500</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N55" s="12">
         <v>487500</v>
       </c>
-      <c r="O55" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P55" s="10" t="str">
+      <c r="O55" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P55" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A56" s="11">
+      <c r="A56" s="9">
         <v>45945</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="10">
         <v>776818022</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="13" t="s">
+      <c r="H56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="10">
         <v>25</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="12">
         <v>9750</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N56" s="12">
         <v>243750</v>
       </c>
-      <c r="O56" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P56" s="10" t="str">
+      <c r="O56" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P56" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A57" s="11">
+      <c r="A57" s="9">
         <v>45945</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="10">
         <v>773482683</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="13" t="s">
+      <c r="H57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="10">
         <v>25</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="12">
         <v>31000</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="12">
         <v>775000</v>
       </c>
-      <c r="O57" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P57" s="10" t="str">
+      <c r="O57" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P57" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A58" s="11">
+      <c r="A58" s="9">
         <v>45945</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="10">
         <v>774024173</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="13" t="s">
+      <c r="H58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="10">
         <v>50</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="12">
         <v>26000</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="12">
         <v>1300000</v>
       </c>
-      <c r="O58" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P58" s="10" t="str">
+      <c r="O58" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P58" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A59" s="11">
+      <c r="A59" s="9">
         <v>45945</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>770712599</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="H59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="10">
         <v>50</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="12">
         <v>26000</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="12">
         <v>1300000</v>
       </c>
-      <c r="O59" s="9" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S42</v>
-      </c>
-      <c r="P59" s="10" t="str">
+      <c r="O59" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S42</v>
+      </c>
+      <c r="P59" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A60" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="14">
+        <v>775623289</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L60" s="14">
+        <v>5</v>
+      </c>
+      <c r="M60" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N60" s="16">
+        <v>155000</v>
+      </c>
+      <c r="O60" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P60" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A61" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="14">
+        <v>775623289</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="14">
+        <v>2</v>
+      </c>
+      <c r="M61" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N61" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O61" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P61" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="14">
+        <v>778013213</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="14">
+        <v>25</v>
+      </c>
+      <c r="M62" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N62" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O62" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P62" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="14">
+        <v>778291515</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L63" s="14">
+        <v>10</v>
+      </c>
+      <c r="M63" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N63" s="16">
+        <v>310000</v>
+      </c>
+      <c r="O63" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P63" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="14">
+        <v>772131614</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="14">
+        <v>6</v>
+      </c>
+      <c r="M64" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N64" s="16">
+        <v>69000</v>
+      </c>
+      <c r="O64" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P64" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="14">
+        <v>774446616</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L65" s="14">
+        <v>1</v>
+      </c>
+      <c r="M65" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N65" s="16">
+        <v>31000</v>
+      </c>
+      <c r="O65" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P65" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="14">
+        <v>775630094</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" s="14">
+        <v>15</v>
+      </c>
+      <c r="M66" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N66" s="16">
+        <v>465000</v>
+      </c>
+      <c r="O66" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P66" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A67" s="13">
+        <v>45950</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="14">
+        <v>775623289</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="14">
+        <v>20</v>
+      </c>
+      <c r="M67" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N67" s="16">
+        <v>520000</v>
+      </c>
+      <c r="O67" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P67" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01447637-E130-4293-837A-45A549603C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CDF40E-592B-4FC5-99E3-8731BB65F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -442,6 +442,63 @@
   </si>
   <si>
     <t>Améne le reste demain stp</t>
+  </si>
+  <si>
+    <t>Pape Dieng</t>
+  </si>
+  <si>
+    <t>Lait Janus, Refraish, Meadow Cup sac 25kg</t>
+  </si>
+  <si>
+    <t>Grand Yoff</t>
+  </si>
+  <si>
+    <t>Babacar Diop</t>
+  </si>
+  <si>
+    <t>Mbacké</t>
+  </si>
+  <si>
+    <t>Client partenaire.commande reçue</t>
+  </si>
+  <si>
+    <t>Abdou Wagué</t>
+  </si>
+  <si>
+    <t>Client "partenaire". commande reçue</t>
+  </si>
+  <si>
+    <t>Ibrahima Diallo</t>
+  </si>
+  <si>
+    <t>BABACAR Cissé</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Yeumbeul Mbéde Sass</t>
+  </si>
+  <si>
+    <t>NAFAR BOUTIQUE</t>
+  </si>
+  <si>
+    <t>Zone de captage</t>
+  </si>
+  <si>
+    <t>Mamadou Diallo</t>
+  </si>
+  <si>
+    <t>Bassirou NDAO</t>
+  </si>
+  <si>
+    <t>Tu as fait retarder ma commande commend</t>
+  </si>
+  <si>
+    <t>Mame Serigne</t>
+  </si>
+  <si>
+    <t>Client artenaire</t>
   </si>
 </sst>
 </file>
@@ -838,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P67" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P67" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P83" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P83" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1152,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4244,417 +4301,1249 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>45950</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="10">
         <v>775623289</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="15" t="s">
+      <c r="H60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>5</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="12">
         <v>31000</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="12">
         <v>155000</v>
       </c>
-      <c r="O60" s="17" t="str">
+      <c r="O60" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P60" s="18" t="str">
+      <c r="P60" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>45950</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="10">
         <v>775623289</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="15" t="s">
+      <c r="H61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="10">
         <v>2</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="12">
         <v>11500</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="12">
         <v>23000</v>
       </c>
-      <c r="O61" s="17" t="str">
+      <c r="O61" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P61" s="18" t="str">
+      <c r="P61" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>45950</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="10">
         <v>778013213</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="14" t="s">
+      <c r="H62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="10">
         <v>25</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="12">
         <v>19500</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="12">
         <v>487500</v>
       </c>
-      <c r="O62" s="17" t="str">
+      <c r="O62" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P62" s="18" t="str">
+      <c r="P62" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>45950</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="10">
         <v>778291515</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="15" t="s">
+      <c r="H63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="10">
         <v>10</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="12">
         <v>31000</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="12">
         <v>310000</v>
       </c>
-      <c r="O63" s="17" t="str">
+      <c r="O63" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P63" s="18" t="str">
+      <c r="P63" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>45950</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="10">
         <v>772131614</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="15" t="s">
+      <c r="H64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="10">
         <v>6</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="12">
         <v>11500</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="12">
         <v>69000</v>
       </c>
-      <c r="O64" s="17" t="str">
+      <c r="O64" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P64" s="18" t="str">
+      <c r="P64" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>45950</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="10">
         <v>774446616</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="15" t="s">
+      <c r="H65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="10">
         <v>1</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="12">
         <v>31000</v>
       </c>
-      <c r="N65" s="16">
+      <c r="N65" s="12">
         <v>31000</v>
       </c>
-      <c r="O65" s="17" t="str">
+      <c r="O65" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P65" s="18" t="str">
+      <c r="P65" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>45950</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="10">
         <v>775630094</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="15" t="s">
+      <c r="H66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="10">
         <v>15</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="12">
         <v>31000</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N66" s="12">
         <v>465000</v>
       </c>
-      <c r="O66" s="17" t="str">
+      <c r="O66" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P66" s="18" t="str">
+      <c r="P66" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>45950</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="10">
         <v>775623289</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="15" t="s">
+      <c r="H67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="10">
         <v>20</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M67" s="12">
         <v>26000</v>
       </c>
-      <c r="N67" s="16">
+      <c r="N67" s="12">
         <v>520000</v>
       </c>
-      <c r="O67" s="17" t="str">
+      <c r="O67" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P67" s="18" t="str">
+      <c r="P67" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" s="13">
+        <v>45953</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="14">
+        <v>778096419</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="14">
+        <v>5</v>
+      </c>
+      <c r="M68" s="16">
+        <v>60000</v>
+      </c>
+      <c r="N68" s="16">
+        <v>300000</v>
+      </c>
+      <c r="O68" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P68" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" s="13">
+        <v>45953</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="14">
+        <v>774880562</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="14">
+        <v>50</v>
+      </c>
+      <c r="M69" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N69" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O69" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P69" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" s="13">
+        <v>45953</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="14">
+        <v>779486095</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" s="14">
+        <v>25</v>
+      </c>
+      <c r="M70" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N70" s="16">
+        <v>312500</v>
+      </c>
+      <c r="O70" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P70" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" s="13">
+        <v>45953</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="14">
+        <v>764970202</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" s="14">
+        <v>10</v>
+      </c>
+      <c r="M71" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N71" s="16">
+        <v>155000</v>
+      </c>
+      <c r="O71" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P71" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" s="13">
+        <v>45953</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="14">
+        <v>764970202</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L72" s="14">
+        <v>15</v>
+      </c>
+      <c r="M72" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N72" s="16">
+        <v>232500</v>
+      </c>
+      <c r="O72" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P72" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="14">
+        <v>775784714</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" s="14">
+        <v>5</v>
+      </c>
+      <c r="M73" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N73" s="16">
+        <v>57500</v>
+      </c>
+      <c r="O73" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P73" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" s="14">
+        <v>783682649</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="14">
+        <v>300</v>
+      </c>
+      <c r="M74" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N74" s="16">
+        <v>1800000</v>
+      </c>
+      <c r="O74" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P74" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="14">
+        <v>776175166</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="14">
+        <v>100</v>
+      </c>
+      <c r="M75" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N75" s="16">
+        <v>2600000</v>
+      </c>
+      <c r="O75" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P75" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="14">
+        <v>783682649</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" s="14">
+        <v>5</v>
+      </c>
+      <c r="M76" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N76" s="16">
+        <v>57500</v>
+      </c>
+      <c r="O76" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P76" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A77" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="14">
+        <v>762974040</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="14">
+        <v>25</v>
+      </c>
+      <c r="M77" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N77" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O77" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P77" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A78" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="14">
+        <v>781681995</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L78" s="14">
+        <v>1</v>
+      </c>
+      <c r="M78" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N78" s="16">
+        <v>12500</v>
+      </c>
+      <c r="O78" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P78" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A79" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="14">
+        <v>775630094</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L79" s="14">
+        <v>11</v>
+      </c>
+      <c r="M79" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N79" s="16">
+        <v>341000</v>
+      </c>
+      <c r="O79" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P79" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A80" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="14">
+        <v>775544532</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="14">
+        <v>25</v>
+      </c>
+      <c r="M80" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N80" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O80" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P80" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A81" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="14">
+        <v>777772248</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="14">
+        <v>5</v>
+      </c>
+      <c r="M81" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N81" s="16">
+        <v>57500</v>
+      </c>
+      <c r="O81" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P81" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A82" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="14">
+        <v>775538380</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82" s="14">
+        <v>1</v>
+      </c>
+      <c r="M82" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N82" s="16">
+        <v>19500</v>
+      </c>
+      <c r="O82" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P82" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="14">
+        <v>770571683</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="14">
+        <v>1</v>
+      </c>
+      <c r="M83" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N83" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O83" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P83" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CDF40E-592B-4FC5-99E3-8731BB65F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05317FF5-3FDA-4852-BF3A-1C24101E1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="19192" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -499,6 +499,30 @@
   </si>
   <si>
     <t>Client artenaire</t>
+  </si>
+  <si>
+    <t>Babacar Mbaye Kébé</t>
+  </si>
+  <si>
+    <t>Abdou sow 1</t>
+  </si>
+  <si>
+    <t>DJIBRIL laye</t>
+  </si>
+  <si>
+    <t>Ngouye NDIAYE</t>
+  </si>
+  <si>
+    <t>PIKINE</t>
+  </si>
+  <si>
+    <t>Zac Mbao</t>
+  </si>
+  <si>
+    <t>DJIBRIL Traoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -895,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P83" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P83" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P87" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1209,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:N83"/>
+    <sheetView tabSelected="1" topLeftCell="F66" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4717,835 +4741,1048 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>45953</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="10">
         <v>778096419</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="14" t="s">
+      <c r="H68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="10">
         <v>5</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="12">
         <v>60000</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="12">
         <v>300000</v>
       </c>
-      <c r="O68" s="17" t="str">
+      <c r="O68" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P68" s="18" t="str">
+      <c r="P68" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>45953</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="10">
         <v>774880562</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="15" t="s">
+      <c r="H69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="10">
         <v>50</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="12">
         <v>26000</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="12">
         <v>1300000</v>
       </c>
-      <c r="O69" s="17" t="str">
+      <c r="O69" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P69" s="18" t="str">
+      <c r="P69" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>45953</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="10">
         <v>779486095</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="15" t="s">
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="10">
         <v>25</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="12">
         <v>12500</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="12">
         <v>312500</v>
       </c>
-      <c r="O70" s="17" t="str">
+      <c r="O70" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P70" s="18" t="str">
+      <c r="P70" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>45953</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="10">
         <v>764970202</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="H71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="10">
         <v>10</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="12">
         <v>15500</v>
       </c>
-      <c r="N71" s="16">
+      <c r="N71" s="12">
         <v>155000</v>
       </c>
-      <c r="O71" s="17" t="str">
+      <c r="O71" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P71" s="18" t="str">
+      <c r="P71" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>45953</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="10">
         <v>764970202</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="H72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <v>15</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="12">
         <v>15500</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="12">
         <v>232500</v>
       </c>
-      <c r="O72" s="17" t="str">
+      <c r="O72" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P72" s="18" t="str">
+      <c r="P72" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="13">
+      <c r="A73" s="9">
         <v>45952</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="10">
         <v>775784714</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="H73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="10">
         <v>5</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M73" s="12">
         <v>11500</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="12">
         <v>57500</v>
       </c>
-      <c r="O73" s="17" t="str">
+      <c r="O73" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P73" s="18" t="str">
+      <c r="P73" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="13">
+      <c r="A74" s="9">
         <v>45952</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="10">
         <v>783682649</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="15" t="s">
+      <c r="H74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="10">
         <v>300</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M74" s="12">
         <v>6000</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N74" s="12">
         <v>1800000</v>
       </c>
-      <c r="O74" s="17" t="str">
+      <c r="O74" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P74" s="18" t="str">
+      <c r="P74" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="13">
+      <c r="A75" s="9">
         <v>45952</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="10">
         <v>776175166</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="15" t="s">
+      <c r="H75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="10">
         <v>100</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M75" s="12">
         <v>26000</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N75" s="12">
         <v>2600000</v>
       </c>
-      <c r="O75" s="17" t="str">
+      <c r="O75" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P75" s="18" t="str">
+      <c r="P75" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="13">
+      <c r="A76" s="9">
         <v>45952</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="10">
         <v>783682649</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="15" t="s">
+      <c r="H76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="10">
         <v>5</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M76" s="12">
         <v>11500</v>
       </c>
-      <c r="N76" s="16">
+      <c r="N76" s="12">
         <v>57500</v>
       </c>
-      <c r="O76" s="17" t="str">
+      <c r="O76" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P76" s="18" t="str">
+      <c r="P76" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="13">
+      <c r="A77" s="9">
         <v>45952</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="10">
         <v>762974040</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="15" t="s">
+      <c r="H77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="10">
         <v>25</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M77" s="12">
         <v>26000</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N77" s="12">
         <v>650000</v>
       </c>
-      <c r="O77" s="17" t="str">
+      <c r="O77" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P77" s="18" t="str">
+      <c r="P77" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="13">
+      <c r="A78" s="9">
         <v>45952</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="10">
         <v>781681995</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="15" t="s">
+      <c r="H78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="10">
         <v>1</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M78" s="12">
         <v>12500</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N78" s="12">
         <v>12500</v>
       </c>
-      <c r="O78" s="17" t="str">
+      <c r="O78" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P78" s="18" t="str">
+      <c r="P78" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="13">
+      <c r="A79" s="9">
         <v>45952</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="10">
         <v>775630094</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="15" t="s">
+      <c r="H79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="10">
         <v>11</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M79" s="12">
         <v>31000</v>
       </c>
-      <c r="N79" s="16">
+      <c r="N79" s="12">
         <v>341000</v>
       </c>
-      <c r="O79" s="17" t="str">
+      <c r="O79" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P79" s="18" t="str">
+      <c r="P79" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="13">
+      <c r="A80" s="9">
         <v>45952</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="10">
         <v>775544532</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="15" t="s">
+      <c r="H80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="10">
         <v>25</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="12">
         <v>26000</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N80" s="12">
         <v>650000</v>
       </c>
-      <c r="O80" s="17" t="str">
+      <c r="O80" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P80" s="18" t="str">
+      <c r="P80" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="13">
+      <c r="A81" s="9">
         <v>45952</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="10">
         <v>777772248</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="15" t="s">
+      <c r="H81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="10">
         <v>5</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M81" s="12">
         <v>11500</v>
       </c>
-      <c r="N81" s="16">
+      <c r="N81" s="12">
         <v>57500</v>
       </c>
-      <c r="O81" s="17" t="str">
+      <c r="O81" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P81" s="18" t="str">
+      <c r="P81" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>45952</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="10">
         <v>775538380</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="I82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="10">
         <v>1</v>
       </c>
-      <c r="M82" s="16">
+      <c r="M82" s="12">
         <v>19500</v>
       </c>
-      <c r="N82" s="16">
+      <c r="N82" s="12">
         <v>19500</v>
       </c>
-      <c r="O82" s="17" t="str">
+      <c r="O82" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P82" s="18" t="str">
+      <c r="P82" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="13">
+      <c r="A83" s="9">
         <v>45952</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="10">
         <v>770571683</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="15" t="s">
+      <c r="H83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="10">
         <v>1</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M83" s="12">
         <v>15500</v>
       </c>
-      <c r="N83" s="16">
+      <c r="N83" s="12">
         <v>15500</v>
       </c>
-      <c r="O83" s="17" t="str">
+      <c r="O83" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P83" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
+      <c r="P83" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="14">
+        <v>776169696</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" s="14">
+        <v>25</v>
+      </c>
+      <c r="M84" s="16">
+        <v>6500</v>
+      </c>
+      <c r="N84" s="16">
+        <v>162500</v>
+      </c>
+      <c r="O84" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P84" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" s="14">
+        <v>779646150</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="14">
+        <v>25</v>
+      </c>
+      <c r="M85" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N85" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O85" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P85" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="14">
+        <v>778657940</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="14">
+        <v>25</v>
+      </c>
+      <c r="M86" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N86" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O86" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P86" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87" s="14">
+        <v>775262371</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="14">
+        <v>10</v>
+      </c>
+      <c r="M87" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N87" s="16">
+        <v>260000</v>
+      </c>
+      <c r="O87" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P87" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J95" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05317FF5-3FDA-4852-BF3A-1C24101E1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0F5B1-74A7-497B-B81F-0D4E5B4DA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="19192" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19193" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>Client artenaire</t>
-  </si>
-  <si>
-    <t>Babacar Mbaye Kébé</t>
   </si>
   <si>
     <t>Abdou sow 1</t>
@@ -590,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -618,16 +615,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,8 +906,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P87" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P86" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P86" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1233,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F66" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5573,216 +5560,164 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>45954</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="B84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F84" s="14">
-        <v>776169696</v>
-      </c>
-      <c r="G84" s="14" t="s">
+      <c r="F84" s="10">
+        <v>779646150</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L84" s="14">
+      <c r="H84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="10">
         <v>25</v>
       </c>
-      <c r="M84" s="16">
-        <v>6500</v>
-      </c>
-      <c r="N84" s="16">
-        <v>162500</v>
-      </c>
-      <c r="O84" s="17" t="str">
+      <c r="M84" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N84" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O84" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P84" s="18" t="str">
+      <c r="P84" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="13">
+      <c r="A85" s="9">
         <v>45954</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F85" s="14">
-        <v>779646150</v>
-      </c>
-      <c r="G85" s="14" t="s">
+      <c r="F85" s="10">
+        <v>778657940</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K85" s="14" t="s">
+      <c r="H85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="10">
         <v>25</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M85" s="12">
         <v>26000</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N85" s="12">
         <v>650000</v>
       </c>
-      <c r="O85" s="17" t="str">
+      <c r="O85" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P85" s="18" t="str">
+      <c r="P85" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>45954</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F86" s="14">
-        <v>778657940</v>
-      </c>
-      <c r="G86" s="14" t="s">
+      <c r="C86" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" s="10">
+        <v>775262371</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K86" s="14" t="s">
+      <c r="H86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L86" s="14">
-        <v>25</v>
-      </c>
-      <c r="M86" s="16">
+      <c r="L86" s="10">
+        <v>10</v>
+      </c>
+      <c r="M86" s="12">
         <v>26000</v>
       </c>
-      <c r="N86" s="16">
-        <v>650000</v>
-      </c>
-      <c r="O86" s="17" t="str">
+      <c r="N86" s="12">
+        <v>260000</v>
+      </c>
+      <c r="O86" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P86" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" s="14" t="s">
+      <c r="P86" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J94" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" s="14">
-        <v>775262371</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="14">
-        <v>10</v>
-      </c>
-      <c r="M87" s="16">
-        <v>26000</v>
-      </c>
-      <c r="N87" s="16">
-        <v>260000</v>
-      </c>
-      <c r="O87" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P87" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="J95" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0F5B1-74A7-497B-B81F-0D4E5B4DA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620694C-28E5-4A39-946D-034230B1A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19193" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -498,7 +498,7 @@
     <t>Mame Serigne</t>
   </si>
   <si>
-    <t>Client artenaire</t>
+    <t>Babacar Mbaye Kébé</t>
   </si>
   <si>
     <t>Abdou sow 1</t>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>DJIBRIL Traoré</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -587,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -615,6 +612,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P86" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P86" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P87" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1220,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4312,1412 +4319,1459 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A60" s="9">
+      <c r="A60" s="13">
         <v>45950</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="14">
         <v>775623289</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="11" t="s">
+      <c r="H60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="14">
         <v>5</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="16">
         <v>31000</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="16">
         <v>155000</v>
       </c>
-      <c r="O60" s="7" t="str">
+      <c r="O60" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P60" t="str">
+      <c r="P60" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A61" s="9">
+      <c r="A61" s="13">
         <v>45950</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="14">
         <v>775623289</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="14">
         <v>2</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="16">
         <v>11500</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="16">
         <v>23000</v>
       </c>
-      <c r="O61" s="7" t="str">
+      <c r="O61" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P61" t="str">
+      <c r="P61" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A62" s="9">
+      <c r="A62" s="13">
         <v>45950</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="14">
         <v>778013213</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="10" t="s">
+      <c r="H62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="14">
         <v>25</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="16">
         <v>19500</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="16">
         <v>487500</v>
       </c>
-      <c r="O62" s="7" t="str">
+      <c r="O62" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P62" t="str">
+      <c r="P62" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A63" s="9">
+      <c r="A63" s="13">
         <v>45950</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="14">
         <v>778291515</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="11" t="s">
+      <c r="H63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="14">
         <v>10</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="16">
         <v>31000</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="16">
         <v>310000</v>
       </c>
-      <c r="O63" s="7" t="str">
+      <c r="O63" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P63" t="str">
+      <c r="P63" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A64" s="9">
+      <c r="A64" s="13">
         <v>45950</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="14">
         <v>772131614</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="11" t="s">
+      <c r="H64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="14">
         <v>6</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="16">
         <v>11500</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="16">
         <v>69000</v>
       </c>
-      <c r="O64" s="7" t="str">
+      <c r="O64" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P64" t="str">
+      <c r="P64" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" s="9">
+      <c r="A65" s="13">
         <v>45950</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="14">
         <v>774446616</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="11" t="s">
+      <c r="H65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="14">
         <v>1</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="16">
         <v>31000</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="16">
         <v>31000</v>
       </c>
-      <c r="O65" s="7" t="str">
+      <c r="O65" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P65" t="str">
+      <c r="P65" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" s="9">
+      <c r="A66" s="13">
         <v>45950</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="14">
         <v>775630094</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="11" t="s">
+      <c r="H66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="14">
         <v>15</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="16">
         <v>31000</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="16">
         <v>465000</v>
       </c>
-      <c r="O66" s="7" t="str">
+      <c r="O66" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P66" t="str">
+      <c r="P66" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A67" s="9">
+      <c r="A67" s="13">
         <v>45950</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="14">
         <v>775623289</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="11" t="s">
+      <c r="H67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="14">
         <v>20</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="16">
         <v>26000</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="16">
         <v>520000</v>
       </c>
-      <c r="O67" s="7" t="str">
+      <c r="O67" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P67" t="str">
+      <c r="P67" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="9">
+      <c r="A68" s="13">
         <v>45953</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="14">
         <v>778096419</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="10" t="s">
+      <c r="H68" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="14">
         <v>5</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="16">
         <v>60000</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="16">
         <v>300000</v>
       </c>
-      <c r="O68" s="7" t="str">
+      <c r="O68" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P68" t="str">
+      <c r="P68" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" s="9">
+      <c r="A69" s="13">
         <v>45953</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="14">
         <v>774880562</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="11" t="s">
+      <c r="H69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="14">
         <v>50</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="16">
         <v>26000</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="16">
         <v>1300000</v>
       </c>
-      <c r="O69" s="7" t="str">
+      <c r="O69" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P69" t="str">
+      <c r="P69" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="9">
+      <c r="A70" s="13">
         <v>45953</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="14">
         <v>779486095</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="11" t="s">
+      <c r="H70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="14">
         <v>25</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="16">
         <v>12500</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="16">
         <v>312500</v>
       </c>
-      <c r="O70" s="7" t="str">
+      <c r="O70" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P70" t="str">
+      <c r="P70" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="9">
+      <c r="A71" s="13">
         <v>45953</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="14">
         <v>764970202</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="11" t="s">
+      <c r="H71" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="14">
         <v>10</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="16">
         <v>15500</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="16">
         <v>155000</v>
       </c>
-      <c r="O71" s="7" t="str">
+      <c r="O71" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P71" t="str">
+      <c r="P71" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="9">
+      <c r="A72" s="13">
         <v>45953</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="14">
         <v>764970202</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="11" t="s">
+      <c r="H72" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="14">
         <v>15</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="16">
         <v>15500</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="16">
         <v>232500</v>
       </c>
-      <c r="O72" s="7" t="str">
+      <c r="O72" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P72" t="str">
+      <c r="P72" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="9">
+      <c r="A73" s="13">
         <v>45952</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="14">
         <v>775784714</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="11" t="s">
+      <c r="H73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="14">
         <v>5</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="16">
         <v>11500</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="16">
         <v>57500</v>
       </c>
-      <c r="O73" s="7" t="str">
+      <c r="O73" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P73" t="str">
+      <c r="P73" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="9">
+      <c r="A74" s="13">
         <v>45952</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="14">
         <v>783682649</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="11" t="s">
+      <c r="H74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="14">
         <v>300</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="16">
         <v>6000</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="16">
         <v>1800000</v>
       </c>
-      <c r="O74" s="7" t="str">
+      <c r="O74" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P74" t="str">
+      <c r="P74" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="9">
+      <c r="A75" s="13">
         <v>45952</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="14">
         <v>776175166</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="14">
         <v>100</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="16">
         <v>26000</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="16">
         <v>2600000</v>
       </c>
-      <c r="O75" s="7" t="str">
+      <c r="O75" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P75" t="str">
+      <c r="P75" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="9">
+      <c r="A76" s="13">
         <v>45952</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="14">
         <v>783682649</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="14">
         <v>5</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="16">
         <v>11500</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="16">
         <v>57500</v>
       </c>
-      <c r="O76" s="7" t="str">
+      <c r="O76" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P76" t="str">
+      <c r="P76" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="9">
+      <c r="A77" s="13">
         <v>45952</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="14">
         <v>762974040</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="10">
+      <c r="L77" s="14">
         <v>25</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="16">
         <v>26000</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="16">
         <v>650000</v>
       </c>
-      <c r="O77" s="7" t="str">
+      <c r="O77" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P77" t="str">
+      <c r="P77" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="9">
+      <c r="A78" s="13">
         <v>45952</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="14">
         <v>781681995</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L78" s="10">
+      <c r="L78" s="14">
         <v>1</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="16">
         <v>12500</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="16">
         <v>12500</v>
       </c>
-      <c r="O78" s="7" t="str">
+      <c r="O78" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P78" t="str">
+      <c r="P78" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="9">
+      <c r="A79" s="13">
         <v>45952</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="14">
         <v>775630094</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="14">
         <v>11</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="16">
         <v>31000</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="16">
         <v>341000</v>
       </c>
-      <c r="O79" s="7" t="str">
+      <c r="O79" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P79" t="str">
+      <c r="P79" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="9">
+      <c r="A80" s="13">
         <v>45952</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="14">
         <v>775544532</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="10">
+      <c r="L80" s="14">
         <v>25</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M80" s="16">
         <v>26000</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="16">
         <v>650000</v>
       </c>
-      <c r="O80" s="7" t="str">
+      <c r="O80" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P80" t="str">
+      <c r="P80" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="9">
+      <c r="A81" s="13">
         <v>45952</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="14">
         <v>777772248</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="14">
         <v>5</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M81" s="16">
         <v>11500</v>
       </c>
-      <c r="N81" s="12">
+      <c r="N81" s="16">
         <v>57500</v>
       </c>
-      <c r="O81" s="7" t="str">
+      <c r="O81" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P81" t="str">
+      <c r="P81" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A82" s="9">
+      <c r="A82" s="13">
         <v>45952</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="14">
         <v>775538380</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82" s="14">
+        <v>1</v>
+      </c>
+      <c r="M82" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N82" s="16">
+        <v>19500</v>
+      </c>
+      <c r="O82" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P82" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" s="13">
+        <v>45952</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="14">
+        <v>770571683</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="14">
+        <v>1</v>
+      </c>
+      <c r="M83" s="16">
+        <v>15500</v>
+      </c>
+      <c r="N83" s="16">
+        <v>15500</v>
+      </c>
+      <c r="O83" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S43</v>
+      </c>
+      <c r="P83" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82" s="10">
-        <v>1</v>
-      </c>
-      <c r="M82" s="12">
-        <v>19500</v>
-      </c>
-      <c r="N82" s="12">
-        <v>19500</v>
-      </c>
-      <c r="O82" s="7" t="str">
+      <c r="F84" s="14">
+        <v>776169696</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" s="14">
+        <v>25</v>
+      </c>
+      <c r="M84" s="16">
+        <v>6500</v>
+      </c>
+      <c r="N84" s="16">
+        <v>162500</v>
+      </c>
+      <c r="O84" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P82" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="9">
-        <v>45952</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="10">
-        <v>770571683</v>
-      </c>
-      <c r="G83" s="10" t="s">
+      <c r="P84" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
+        <v>45954</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" s="14">
+        <v>779646150</v>
+      </c>
+      <c r="G85" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L83" s="10">
-        <v>1</v>
-      </c>
-      <c r="M83" s="12">
-        <v>15500</v>
-      </c>
-      <c r="N83" s="12">
-        <v>15500</v>
-      </c>
-      <c r="O83" s="7" t="str">
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="14">
+        <v>25</v>
+      </c>
+      <c r="M85" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N85" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O85" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P83" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="9">
+      <c r="P85" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
         <v>45954</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B86" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C86" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D86" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="10">
-        <v>779646150</v>
-      </c>
-      <c r="G84" s="10" t="s">
+      <c r="E86" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="14">
+        <v>778657940</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K84" s="10" t="s">
+      <c r="H86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L86" s="14">
         <v>25</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M86" s="16">
         <v>26000</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N86" s="16">
         <v>650000</v>
       </c>
-      <c r="O84" s="7" t="str">
+      <c r="O86" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P84" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="9">
+      <c r="P86" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
         <v>45954</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85" s="10">
-        <v>778657940</v>
-      </c>
-      <c r="G85" s="10" t="s">
+      <c r="B87" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="14">
+        <v>775262371</v>
+      </c>
+      <c r="G87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K85" s="10" t="s">
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L85" s="10">
-        <v>25</v>
-      </c>
-      <c r="M85" s="12">
+      <c r="L87" s="14">
+        <v>10</v>
+      </c>
+      <c r="M87" s="16">
         <v>26000</v>
       </c>
-      <c r="N85" s="12">
-        <v>650000</v>
-      </c>
-      <c r="O85" s="7" t="str">
+      <c r="N87" s="16">
+        <v>260000</v>
+      </c>
+      <c r="O87" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P85" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="9">
-        <v>45954</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86" s="10">
-        <v>775262371</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="10">
-        <v>10</v>
-      </c>
-      <c r="M86" s="12">
-        <v>26000</v>
-      </c>
-      <c r="N86" s="12">
-        <v>260000</v>
-      </c>
-      <c r="O86" s="7" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P86" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="J94" s="3" t="s">
-        <v>161</v>
+      <c r="P87" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
       </c>
     </row>
   </sheetData>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620694C-28E5-4A39-946D-034230B1A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4384913E-CBB0-4CF3-A617-1E9D574FA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19193" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -468,9 +468,6 @@
     <t>Client "partenaire". commande reçue</t>
   </si>
   <si>
-    <t>Ibrahima Diallo</t>
-  </si>
-  <si>
     <t>BABACAR Cissé</t>
   </si>
   <si>
@@ -483,12 +480,6 @@
     <t>NAFAR BOUTIQUE</t>
   </si>
   <si>
-    <t>Zone de captage</t>
-  </si>
-  <si>
-    <t>Mamadou Diallo</t>
-  </si>
-  <si>
     <t>Bassirou NDAO</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
   </si>
   <si>
     <t>Mame Serigne</t>
-  </si>
-  <si>
-    <t>Babacar Mbaye Kébé</t>
   </si>
   <si>
     <t>Abdou sow 1</t>
@@ -913,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P87" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P87" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P82" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P82" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1227,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:N87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4999,19 +4987,19 @@
         <v>45952</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>144</v>
       </c>
       <c r="F73" s="14">
-        <v>775784714</v>
+        <v>783682649</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>16</v>
@@ -5023,19 +5011,19 @@
         <v>17</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L73" s="14">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="M73" s="16">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N73" s="16">
-        <v>57500</v>
+        <v>1800000</v>
       </c>
       <c r="O73" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5063,7 +5051,7 @@
         <v>145</v>
       </c>
       <c r="F74" s="14">
-        <v>783682649</v>
+        <v>776175166</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>16</v>
@@ -5078,16 +5066,16 @@
         <v>54</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L74" s="14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M74" s="16">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="N74" s="16">
-        <v>1800000</v>
+        <v>2600000</v>
       </c>
       <c r="O74" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5112,10 +5100,10 @@
         <v>99</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F75" s="14">
-        <v>776175166</v>
+        <v>783682649</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>16</v>
@@ -5130,16 +5118,16 @@
         <v>54</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L75" s="14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M75" s="16">
-        <v>26000</v>
+        <v>11500</v>
       </c>
       <c r="N75" s="16">
-        <v>2600000</v>
+        <v>57500</v>
       </c>
       <c r="O75" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5155,19 +5143,19 @@
         <v>45952</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F76" s="14">
-        <v>783682649</v>
+        <v>762974040</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>16</v>
@@ -5179,19 +5167,19 @@
         <v>17</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L76" s="14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M76" s="16">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="N76" s="16">
-        <v>57500</v>
+        <v>650000</v>
       </c>
       <c r="O76" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5207,19 +5195,19 @@
         <v>45952</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F77" s="14">
-        <v>762974040</v>
+        <v>775630094</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>16</v>
@@ -5231,19 +5219,19 @@
         <v>17</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="L77" s="14">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M77" s="16">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="N77" s="16">
-        <v>650000</v>
+        <v>341000</v>
       </c>
       <c r="O77" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5265,13 +5253,13 @@
         <v>105</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F78" s="14">
-        <v>781681995</v>
+        <v>775544532</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>47</v>
@@ -5283,19 +5271,19 @@
         <v>17</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L78" s="14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M78" s="16">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N78" s="16">
-        <v>12500</v>
+        <v>650000</v>
       </c>
       <c r="O78" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5317,16 +5305,16 @@
         <v>105</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F79" s="14">
-        <v>775630094</v>
+        <v>777772248</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>13</v>
@@ -5335,19 +5323,19 @@
         <v>17</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L79" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M79" s="16">
-        <v>31000</v>
+        <v>11500</v>
       </c>
       <c r="N79" s="16">
-        <v>341000</v>
+        <v>57500</v>
       </c>
       <c r="O79" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5360,25 +5348,25 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="13">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>151</v>
       </c>
       <c r="F80" s="14">
-        <v>775544532</v>
+        <v>779646150</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>13</v>
@@ -5387,7 +5375,7 @@
         <v>17</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>20</v>
@@ -5412,25 +5400,25 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="13">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="14">
-        <v>777772248</v>
+        <v>778657940</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>13</v>
@@ -5439,19 +5427,19 @@
         <v>17</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L81" s="14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M81" s="16">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="N81" s="16">
-        <v>57500</v>
+        <v>650000</v>
       </c>
       <c r="O81" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
@@ -5464,22 +5452,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="13">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="F82" s="14">
-        <v>775538380</v>
+        <v>775262371</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>16</v>
@@ -5491,285 +5479,25 @@
         <v>17</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L82" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M82" s="16">
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="N82" s="16">
-        <v>19500</v>
+        <v>260000</v>
       </c>
       <c r="O82" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
       <c r="P82" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="13">
-        <v>45952</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="14">
-        <v>770571683</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K83" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L83" s="14">
-        <v>1</v>
-      </c>
-      <c r="M83" s="16">
-        <v>15500</v>
-      </c>
-      <c r="N83" s="16">
-        <v>15500</v>
-      </c>
-      <c r="O83" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P83" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F84" s="14">
-        <v>776169696</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L84" s="14">
-        <v>25</v>
-      </c>
-      <c r="M84" s="16">
-        <v>6500</v>
-      </c>
-      <c r="N84" s="16">
-        <v>162500</v>
-      </c>
-      <c r="O84" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P84" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" s="14">
-        <v>779646150</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="14">
-        <v>25</v>
-      </c>
-      <c r="M85" s="16">
-        <v>26000</v>
-      </c>
-      <c r="N85" s="16">
-        <v>650000</v>
-      </c>
-      <c r="O85" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P85" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="14">
-        <v>778657940</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K86" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="14">
-        <v>25</v>
-      </c>
-      <c r="M86" s="16">
-        <v>26000</v>
-      </c>
-      <c r="N86" s="16">
-        <v>650000</v>
-      </c>
-      <c r="O86" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P86" s="18" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="13">
-        <v>45954</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F87" s="14">
-        <v>775262371</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="14">
-        <v>10</v>
-      </c>
-      <c r="M87" s="16">
-        <v>26000</v>
-      </c>
-      <c r="N87" s="16">
-        <v>260000</v>
-      </c>
-      <c r="O87" s="17" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
-        <v>S43</v>
-      </c>
-      <c r="P87" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4384913E-CBB0-4CF3-A617-1E9D574FA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E24F5F-4113-4059-9C37-58DDEF668C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19193" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="179">
   <si>
     <t>Date</t>
   </si>
@@ -505,6 +505,72 @@
   </si>
   <si>
     <t>DJIBRIL Traoré</t>
+  </si>
+  <si>
+    <t>Mamadou Saliou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Je ne vend pas sa</t>
+  </si>
+  <si>
+    <t>Sicap Mbao</t>
+  </si>
+  <si>
+    <t>Gougna Guèye</t>
+  </si>
+  <si>
+    <t>Yéne</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t>Rufisque</t>
+  </si>
+  <si>
+    <t>Khadim Lo</t>
+  </si>
+  <si>
+    <t>Supermarché le cayor</t>
+  </si>
+  <si>
+    <t>Bargny</t>
+  </si>
+  <si>
+    <t>Abdou Rakhmane Baldé</t>
+  </si>
+  <si>
+    <t>Asse</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>Bathie</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>S.K.L</t>
+  </si>
+  <si>
+    <t>Keur Mbaye Fall</t>
+  </si>
+  <si>
+    <t>Pape Diouf</t>
+  </si>
+  <si>
+    <t>Serigne fallou Dieng</t>
+  </si>
+  <si>
+    <t>IBRAHIMA NGOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit que nous devons respecter les dates de livraison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients partenaires </t>
   </si>
 </sst>
 </file>
@@ -901,8 +967,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P82" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P82" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P104" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P104" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1215,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4307,1197 +4373,2341 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A60" s="13">
+      <c r="A60" s="9">
         <v>45950</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="10">
         <v>775623289</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="15" t="s">
+      <c r="G60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>5</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="12">
         <v>31000</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="12">
         <v>155000</v>
       </c>
-      <c r="O60" s="17" t="str">
+      <c r="O60" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P60" s="18" t="str">
+      <c r="P60" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A61" s="13">
+      <c r="A61" s="9">
         <v>45950</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="10">
         <v>775623289</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="15" t="s">
+      <c r="G61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="10">
         <v>2</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="12">
         <v>11500</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="12">
         <v>23000</v>
       </c>
-      <c r="O61" s="17" t="str">
+      <c r="O61" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P61" s="18" t="str">
+      <c r="P61" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A62" s="13">
+      <c r="A62" s="9">
         <v>45950</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="10">
         <v>778013213</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="14" t="s">
+      <c r="H62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="10">
         <v>25</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="12">
         <v>19500</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="12">
         <v>487500</v>
       </c>
-      <c r="O62" s="17" t="str">
+      <c r="O62" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P62" s="18" t="str">
+      <c r="P62" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A63" s="13">
+      <c r="A63" s="9">
         <v>45950</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="10">
         <v>778291515</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="15" t="s">
+      <c r="G63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="10">
         <v>10</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="12">
         <v>31000</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="12">
         <v>310000</v>
       </c>
-      <c r="O63" s="17" t="str">
+      <c r="O63" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P63" s="18" t="str">
+      <c r="P63" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A64" s="13">
+      <c r="A64" s="9">
         <v>45950</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="10">
         <v>772131614</v>
       </c>
-      <c r="G64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="15" t="s">
+      <c r="G64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="10">
         <v>6</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="12">
         <v>11500</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="12">
         <v>69000</v>
       </c>
-      <c r="O64" s="17" t="str">
+      <c r="O64" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P64" s="18" t="str">
+      <c r="P64" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" s="13">
+      <c r="A65" s="9">
         <v>45950</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="10">
         <v>774446616</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="15" t="s">
+      <c r="H65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="10">
         <v>1</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="12">
         <v>31000</v>
       </c>
-      <c r="N65" s="16">
+      <c r="N65" s="12">
         <v>31000</v>
       </c>
-      <c r="O65" s="17" t="str">
+      <c r="O65" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P65" s="18" t="str">
+      <c r="P65" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" s="13">
+      <c r="A66" s="9">
         <v>45950</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="10">
         <v>775630094</v>
       </c>
-      <c r="G66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="15" t="s">
+      <c r="G66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="10">
         <v>15</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="12">
         <v>31000</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N66" s="12">
         <v>465000</v>
       </c>
-      <c r="O66" s="17" t="str">
+      <c r="O66" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P66" s="18" t="str">
+      <c r="P66" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A67" s="13">
+      <c r="A67" s="9">
         <v>45950</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="10">
         <v>775623289</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="15" t="s">
+      <c r="G67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="10">
         <v>20</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M67" s="12">
         <v>26000</v>
       </c>
-      <c r="N67" s="16">
+      <c r="N67" s="12">
         <v>520000</v>
       </c>
-      <c r="O67" s="17" t="str">
+      <c r="O67" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P67" s="18" t="str">
+      <c r="P67" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="13">
+      <c r="A68" s="9">
         <v>45953</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="10">
         <v>778096419</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="14" t="s">
+      <c r="H68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="10">
         <v>5</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="12">
         <v>60000</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="12">
         <v>300000</v>
       </c>
-      <c r="O68" s="17" t="str">
+      <c r="O68" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P68" s="18" t="str">
+      <c r="P68" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" s="13">
+      <c r="A69" s="9">
         <v>45953</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="10">
         <v>774880562</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="15" t="s">
+      <c r="H69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="10">
         <v>50</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="12">
         <v>26000</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="12">
         <v>1300000</v>
       </c>
-      <c r="O69" s="17" t="str">
+      <c r="O69" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P69" s="18" t="str">
+      <c r="P69" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="13">
+      <c r="A70" s="9">
         <v>45953</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="10">
         <v>779486095</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="15" t="s">
+      <c r="G70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="10">
         <v>25</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="12">
         <v>12500</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="12">
         <v>312500</v>
       </c>
-      <c r="O70" s="17" t="str">
+      <c r="O70" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P70" s="18" t="str">
+      <c r="P70" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="13">
+      <c r="A71" s="9">
         <v>45953</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="10">
         <v>764970202</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="G71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="10">
         <v>10</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="12">
         <v>15500</v>
       </c>
-      <c r="N71" s="16">
+      <c r="N71" s="12">
         <v>155000</v>
       </c>
-      <c r="O71" s="17" t="str">
+      <c r="O71" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P71" s="18" t="str">
+      <c r="P71" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="13">
+      <c r="A72" s="9">
         <v>45953</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="10">
         <v>764970202</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="G72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <v>15</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="12">
         <v>15500</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="12">
         <v>232500</v>
       </c>
-      <c r="O72" s="17" t="str">
+      <c r="O72" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P72" s="18" t="str">
+      <c r="P72" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="13">
+      <c r="A73" s="9">
         <v>45952</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="10">
         <v>783682649</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="G73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="10">
         <v>300</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M73" s="12">
         <v>6000</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="12">
         <v>1800000</v>
       </c>
-      <c r="O73" s="17" t="str">
+      <c r="O73" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P73" s="18" t="str">
+      <c r="P73" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="13">
+      <c r="A74" s="9">
         <v>45952</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="10">
         <v>776175166</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="15" t="s">
+      <c r="G74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="10">
         <v>100</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M74" s="12">
         <v>26000</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N74" s="12">
         <v>2600000</v>
       </c>
-      <c r="O74" s="17" t="str">
+      <c r="O74" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P74" s="18" t="str">
+      <c r="P74" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="13">
+      <c r="A75" s="9">
         <v>45952</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="10">
         <v>783682649</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="15" t="s">
+      <c r="G75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="10">
         <v>5</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M75" s="12">
         <v>11500</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N75" s="12">
         <v>57500</v>
       </c>
-      <c r="O75" s="17" t="str">
+      <c r="O75" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P75" s="18" t="str">
+      <c r="P75" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="13">
+      <c r="A76" s="9">
         <v>45952</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="10">
         <v>762974040</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="15" t="s">
+      <c r="G76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="10">
         <v>25</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M76" s="12">
         <v>26000</v>
       </c>
-      <c r="N76" s="16">
+      <c r="N76" s="12">
         <v>650000</v>
       </c>
-      <c r="O76" s="17" t="str">
+      <c r="O76" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P76" s="18" t="str">
+      <c r="P76" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="13">
+      <c r="A77" s="9">
         <v>45952</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="10">
         <v>775630094</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="15" t="s">
+      <c r="G77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="10">
         <v>11</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M77" s="12">
         <v>31000</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N77" s="12">
         <v>341000</v>
       </c>
-      <c r="O77" s="17" t="str">
+      <c r="O77" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P77" s="18" t="str">
+      <c r="P77" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="13">
+      <c r="A78" s="9">
         <v>45952</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="10">
         <v>775544532</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="15" t="s">
+      <c r="H78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="10">
         <v>25</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M78" s="12">
         <v>26000</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N78" s="12">
         <v>650000</v>
       </c>
-      <c r="O78" s="17" t="str">
+      <c r="O78" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P78" s="18" t="str">
+      <c r="P78" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="13">
+      <c r="A79" s="9">
         <v>45952</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="10">
         <v>777772248</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="15" t="s">
+      <c r="H79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="10">
         <v>5</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M79" s="12">
         <v>11500</v>
       </c>
-      <c r="N79" s="16">
+      <c r="N79" s="12">
         <v>57500</v>
       </c>
-      <c r="O79" s="17" t="str">
+      <c r="O79" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P79" s="18" t="str">
+      <c r="P79" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="13">
+      <c r="A80" s="9">
         <v>45954</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="10">
         <v>779646150</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="15" t="s">
+      <c r="G80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="10">
         <v>25</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="12">
         <v>26000</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N80" s="12">
         <v>650000</v>
       </c>
-      <c r="O80" s="17" t="str">
+      <c r="O80" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P80" s="18" t="str">
+      <c r="P80" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="13">
+      <c r="A81" s="9">
         <v>45954</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="10">
         <v>778657940</v>
       </c>
-      <c r="G81" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="15" t="s">
+      <c r="G81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="10">
         <v>25</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M81" s="12">
         <v>26000</v>
       </c>
-      <c r="N81" s="16">
+      <c r="N81" s="12">
         <v>650000</v>
       </c>
-      <c r="O81" s="17" t="str">
+      <c r="O81" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P81" s="18" t="str">
+      <c r="P81" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A82" s="13">
+      <c r="A82" s="9">
         <v>45954</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="10">
         <v>775262371</v>
       </c>
-      <c r="G82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="15" t="s">
+      <c r="G82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="10">
         <v>10</v>
       </c>
-      <c r="M82" s="16">
+      <c r="M82" s="12">
         <v>26000</v>
       </c>
-      <c r="N82" s="16">
+      <c r="N82" s="12">
         <v>260000</v>
       </c>
-      <c r="O82" s="17" t="str">
+      <c r="O82" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S43</v>
       </c>
-      <c r="P82" s="18" t="str">
+      <c r="P82" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="14">
+        <v>774419596</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L83" s="14">
+        <v>1</v>
+      </c>
+      <c r="M83" s="16">
+        <v>10250</v>
+      </c>
+      <c r="N83" s="16">
+        <v>10250</v>
+      </c>
+      <c r="O83" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P83" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A84" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="14">
+        <v>775538380</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="14">
+        <v>1</v>
+      </c>
+      <c r="M84" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N84" s="16">
+        <v>11500</v>
+      </c>
+      <c r="O84" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P84" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="14">
+        <v>775538380</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L85" s="14">
+        <v>1</v>
+      </c>
+      <c r="M85" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N85" s="16">
+        <v>11500</v>
+      </c>
+      <c r="O85" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P85" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A86" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="14">
+        <v>775538380</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="14">
+        <v>1</v>
+      </c>
+      <c r="M86" s="16">
+        <v>10250</v>
+      </c>
+      <c r="N86" s="16">
+        <v>10250</v>
+      </c>
+      <c r="O86" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P86" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A87" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="14">
+        <v>773170826</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="14">
+        <v>1</v>
+      </c>
+      <c r="M87" s="16">
+        <v>10250</v>
+      </c>
+      <c r="N87" s="16">
+        <v>10250</v>
+      </c>
+      <c r="O87" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P87" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A88" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" s="14">
+        <v>764924460</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="14">
+        <v>1</v>
+      </c>
+      <c r="M88" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N88" s="16">
+        <v>26000</v>
+      </c>
+      <c r="O88" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P88" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="14">
+        <v>764924460</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L89" s="14">
+        <v>1</v>
+      </c>
+      <c r="M89" s="16">
+        <v>31000</v>
+      </c>
+      <c r="N89" s="16">
+        <v>31000</v>
+      </c>
+      <c r="O89" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P89" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" s="14">
+        <v>764924460</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L90" s="14">
+        <v>25</v>
+      </c>
+      <c r="M90" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N90" s="16">
+        <v>287500</v>
+      </c>
+      <c r="O90" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P90" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="14">
+        <v>775484487</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="14">
+        <v>2</v>
+      </c>
+      <c r="M91" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N91" s="16">
+        <v>20000</v>
+      </c>
+      <c r="O91" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P91" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F92" s="14">
+        <v>770217868</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="14">
+        <v>50</v>
+      </c>
+      <c r="M92" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N92" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O92" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P92" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="14">
+        <v>776367168</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="14">
+        <v>25</v>
+      </c>
+      <c r="M93" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N93" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O93" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P93" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="14">
+        <v>774993694</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="14">
+        <v>50</v>
+      </c>
+      <c r="M94" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N94" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O94" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P94" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A95" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="14">
+        <v>774289051</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="14">
+        <v>50</v>
+      </c>
+      <c r="M95" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N95" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O95" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P95" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" s="14">
+        <v>772070286</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" s="14">
+        <v>2</v>
+      </c>
+      <c r="M96" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N96" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O96" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P96" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A97" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" s="14">
+        <v>771166914</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="14">
+        <v>1</v>
+      </c>
+      <c r="M97" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N97" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O97" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P97" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A98" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" s="14">
+        <v>25</v>
+      </c>
+      <c r="M98" s="16">
+        <v>19500</v>
+      </c>
+      <c r="N98" s="16">
+        <v>487500</v>
+      </c>
+      <c r="O98" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P98" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A99" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="14">
+        <v>778195274</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="14">
+        <v>50</v>
+      </c>
+      <c r="M99" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N99" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O99" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P99" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A100" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" s="14">
+        <v>768425044</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="14">
+        <v>25</v>
+      </c>
+      <c r="M100" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N100" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O100" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P100" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A101" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" s="14">
+        <v>772969670</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="14">
+        <v>25</v>
+      </c>
+      <c r="M101" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N101" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O101" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P101" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A102" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="14">
+        <v>100</v>
+      </c>
+      <c r="M102" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N102" s="16">
+        <v>2600000</v>
+      </c>
+      <c r="O102" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P102" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A103" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="14">
+        <v>784362607</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="14">
+        <v>25</v>
+      </c>
+      <c r="M103" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N103" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O103" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P103" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A104" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="14">
+        <v>781142243</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="14">
+        <v>50</v>
+      </c>
+      <c r="M104" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N104" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O104" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P104" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E24F5F-4113-4059-9C37-58DDEF668C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42055EA3-1EA9-4935-A146-D1541A5B7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="19192" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -571,6 +571,42 @@
   </si>
   <si>
     <t xml:space="preserve">Clients partenaires </t>
+  </si>
+  <si>
+    <t>El Hadj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras </t>
+  </si>
+  <si>
+    <t>Momodou yaya</t>
+  </si>
+  <si>
+    <t>Il faut rectifier pour clt partenaire</t>
+  </si>
+  <si>
+    <t>Salam La seule chose que je déplore c'est qu'à chaque fois  que je fasse une commande t'a vraiment une lenteur pour la livraison</t>
+  </si>
+  <si>
+    <t>Mouhamed KANTE</t>
+  </si>
+  <si>
+    <t>Mouhamed Bâ</t>
+  </si>
+  <si>
+    <t>Seye et fils</t>
+  </si>
+  <si>
+    <t>Momodou Salif</t>
+  </si>
+  <si>
+    <t>Il a tant attendu pour le café</t>
+  </si>
+  <si>
+    <t>Amadou Dia</t>
+  </si>
+  <si>
+    <t>Client "partenaire".veut essayer</t>
   </si>
 </sst>
 </file>
@@ -638,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -666,16 +702,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,8 +993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P104" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:P104" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P114" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P114" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ" dataDxfId="14"/>
@@ -1281,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:N104"/>
+    <sheetView tabSelected="1" topLeftCell="I98" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5569,1145 +5595,1665 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="13">
+      <c r="A83" s="9">
         <v>45957</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="10">
         <v>774419596</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="14" t="s">
+      <c r="G83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="15" t="s">
+      <c r="I83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="10">
         <v>1</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M83" s="12">
         <v>10250</v>
       </c>
-      <c r="N83" s="16">
+      <c r="N83" s="12">
         <v>10250</v>
       </c>
-      <c r="O83" s="17" t="str">
+      <c r="O83" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P83" s="18" t="str">
+      <c r="P83" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="13">
+      <c r="A84" s="9">
         <v>45957</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="10">
         <v>775538380</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="15" t="s">
+      <c r="G84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K84" s="14" t="s">
+      <c r="K84" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L84" s="10">
         <v>1</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M84" s="12">
         <v>11500</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N84" s="12">
         <v>11500</v>
       </c>
-      <c r="O84" s="17" t="str">
+      <c r="O84" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P84" s="18" t="str">
+      <c r="P84" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="13">
+      <c r="A85" s="9">
         <v>45957</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="10">
         <v>775538380</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="15" t="s">
+      <c r="G85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K85" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="10">
         <v>1</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M85" s="12">
         <v>11500</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N85" s="12">
         <v>11500</v>
       </c>
-      <c r="O85" s="17" t="str">
+      <c r="O85" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P85" s="18" t="str">
+      <c r="P85" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="13">
+      <c r="A86" s="9">
         <v>45957</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="10">
         <v>775538380</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="15" t="s">
+      <c r="G86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="14" t="s">
+      <c r="K86" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="10">
         <v>1</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M86" s="12">
         <v>10250</v>
       </c>
-      <c r="N86" s="16">
+      <c r="N86" s="12">
         <v>10250</v>
       </c>
-      <c r="O86" s="17" t="str">
+      <c r="O86" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P86" s="18" t="str">
+      <c r="P86" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="13">
+      <c r="A87" s="9">
         <v>45957</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="10">
         <v>773170826</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H87" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="15" t="s">
+      <c r="H87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K87" s="14" t="s">
+      <c r="K87" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L87" s="10">
         <v>1</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M87" s="12">
         <v>10250</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N87" s="12">
         <v>10250</v>
       </c>
-      <c r="O87" s="17" t="str">
+      <c r="O87" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P87" s="18" t="str">
+      <c r="P87" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A88" s="13">
+      <c r="A88" s="9">
         <v>45957</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="10">
         <v>764924460</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="15" t="s">
+      <c r="G88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="10">
         <v>1</v>
       </c>
-      <c r="M88" s="16">
+      <c r="M88" s="12">
         <v>26000</v>
       </c>
-      <c r="N88" s="16">
+      <c r="N88" s="12">
         <v>26000</v>
       </c>
-      <c r="O88" s="17" t="str">
+      <c r="O88" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P88" s="18" t="str">
+      <c r="P88" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A89" s="13">
+      <c r="A89" s="9">
         <v>45957</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="10">
         <v>764924460</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="15" t="s">
+      <c r="G89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="10">
         <v>1</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="12">
         <v>31000</v>
       </c>
-      <c r="N89" s="16">
+      <c r="N89" s="12">
         <v>31000</v>
       </c>
-      <c r="O89" s="17" t="str">
+      <c r="O89" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P89" s="18" t="str">
+      <c r="P89" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A90" s="13">
+      <c r="A90" s="9">
         <v>45957</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="10">
         <v>764924460</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="15" t="s">
+      <c r="G90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K90" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="10">
         <v>25</v>
       </c>
-      <c r="M90" s="16">
+      <c r="M90" s="12">
         <v>11500</v>
       </c>
-      <c r="N90" s="16">
+      <c r="N90" s="12">
         <v>287500</v>
       </c>
-      <c r="O90" s="17" t="str">
+      <c r="O90" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P90" s="18" t="str">
+      <c r="P90" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A91" s="13">
+      <c r="A91" s="9">
         <v>45957</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="10">
         <v>775484487</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H91" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="15" t="s">
+      <c r="H91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L91" s="10">
         <v>2</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M91" s="12">
         <v>10000</v>
       </c>
-      <c r="N91" s="16">
+      <c r="N91" s="12">
         <v>20000</v>
       </c>
-      <c r="O91" s="17" t="str">
+      <c r="O91" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P91" s="18" t="str">
+      <c r="P91" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A92" s="13">
+      <c r="A92" s="9">
         <v>45957</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="10">
         <v>770217868</v>
       </c>
-      <c r="G92" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="15" t="s">
+      <c r="G92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="10">
         <v>50</v>
       </c>
-      <c r="M92" s="16">
+      <c r="M92" s="12">
         <v>26000</v>
       </c>
-      <c r="N92" s="16">
+      <c r="N92" s="12">
         <v>1300000</v>
       </c>
-      <c r="O92" s="17" t="str">
+      <c r="O92" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P92" s="18" t="str">
+      <c r="P92" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A93" s="13">
+      <c r="A93" s="9">
         <v>45957</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="10">
         <v>776367168</v>
       </c>
-      <c r="G93" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="15" t="s">
+      <c r="G93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K93" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="10">
         <v>25</v>
       </c>
-      <c r="M93" s="16">
+      <c r="M93" s="12">
         <v>26000</v>
       </c>
-      <c r="N93" s="16">
+      <c r="N93" s="12">
         <v>650000</v>
       </c>
-      <c r="O93" s="17" t="str">
+      <c r="O93" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P93" s="18" t="str">
+      <c r="P93" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A94" s="13">
+      <c r="A94" s="9">
         <v>45957</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="10">
         <v>774993694</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="15" t="s">
+      <c r="G94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="K94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L94" s="10">
         <v>50</v>
       </c>
-      <c r="M94" s="16">
+      <c r="M94" s="12">
         <v>26000</v>
       </c>
-      <c r="N94" s="16">
+      <c r="N94" s="12">
         <v>1300000</v>
       </c>
-      <c r="O94" s="17" t="str">
+      <c r="O94" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P94" s="18" t="str">
+      <c r="P94" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A95" s="13">
+      <c r="A95" s="9">
         <v>45957</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="10">
         <v>774289051</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="15" t="s">
+      <c r="G95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="K95" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L95" s="14">
+      <c r="L95" s="10">
         <v>50</v>
       </c>
-      <c r="M95" s="16">
+      <c r="M95" s="12">
         <v>26000</v>
       </c>
-      <c r="N95" s="16">
+      <c r="N95" s="12">
         <v>1300000</v>
       </c>
-      <c r="O95" s="17" t="str">
+      <c r="O95" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P95" s="18" t="str">
+      <c r="P95" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A96" s="13">
+      <c r="A96" s="9">
         <v>45957</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="10">
         <v>772070286</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H96" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="15" t="s">
+      <c r="H96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K96" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L96" s="14">
+      <c r="L96" s="10">
         <v>2</v>
       </c>
-      <c r="M96" s="16">
+      <c r="M96" s="12">
         <v>11500</v>
       </c>
-      <c r="N96" s="16">
+      <c r="N96" s="12">
         <v>23000</v>
       </c>
-      <c r="O96" s="17" t="str">
+      <c r="O96" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P96" s="18" t="str">
+      <c r="P96" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="13">
+      <c r="A97" s="9">
         <v>45957</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="10">
         <v>771166914</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H97" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="15" t="s">
+      <c r="H97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L97" s="14">
+      <c r="L97" s="10">
         <v>1</v>
       </c>
-      <c r="M97" s="16">
+      <c r="M97" s="12">
         <v>10000</v>
       </c>
-      <c r="N97" s="16">
+      <c r="N97" s="12">
         <v>10000</v>
       </c>
-      <c r="O97" s="17" t="str">
+      <c r="O97" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P97" s="18" t="str">
+      <c r="P97" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A98" s="13">
+      <c r="A98" s="9">
         <v>45958</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="10">
         <v>784537895</v>
       </c>
-      <c r="G98" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" s="15" t="s">
+      <c r="G98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K98" s="14" t="s">
+      <c r="K98" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="10">
         <v>25</v>
       </c>
-      <c r="M98" s="16">
+      <c r="M98" s="12">
         <v>19500</v>
       </c>
-      <c r="N98" s="16">
+      <c r="N98" s="12">
         <v>487500</v>
       </c>
-      <c r="O98" s="17" t="str">
+      <c r="O98" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P98" s="18" t="str">
+      <c r="P98" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A99" s="13">
+      <c r="A99" s="9">
         <v>45958</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="10">
         <v>778195274</v>
       </c>
-      <c r="G99" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J99" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="14" t="s">
+      <c r="G99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="10">
         <v>50</v>
       </c>
-      <c r="M99" s="16">
+      <c r="M99" s="12">
         <v>26000</v>
       </c>
-      <c r="N99" s="16">
+      <c r="N99" s="12">
         <v>1300000</v>
       </c>
-      <c r="O99" s="17" t="str">
+      <c r="O99" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P99" s="18" t="str">
+      <c r="P99" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A100" s="13">
+      <c r="A100" s="9">
         <v>45958</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="10">
         <v>768425044</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H100" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" s="15" t="s">
+      <c r="H100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L100" s="14">
+      <c r="L100" s="10">
         <v>25</v>
       </c>
-      <c r="M100" s="16">
+      <c r="M100" s="12">
         <v>26000</v>
       </c>
-      <c r="N100" s="16">
+      <c r="N100" s="12">
         <v>650000</v>
       </c>
-      <c r="O100" s="17" t="str">
+      <c r="O100" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P100" s="18" t="str">
+      <c r="P100" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A101" s="13">
+      <c r="A101" s="9">
         <v>45958</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="10">
         <v>772969670</v>
       </c>
-      <c r="G101" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="14" t="s">
+      <c r="G101" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I101" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" s="15" t="s">
+      <c r="I101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K101" s="14" t="s">
+      <c r="K101" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L101" s="14">
+      <c r="L101" s="10">
         <v>25</v>
       </c>
-      <c r="M101" s="16">
+      <c r="M101" s="12">
         <v>26000</v>
       </c>
-      <c r="N101" s="16">
+      <c r="N101" s="12">
         <v>650000</v>
       </c>
-      <c r="O101" s="17" t="str">
+      <c r="O101" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P101" s="18" t="str">
+      <c r="P101" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A102" s="13">
+      <c r="A102" s="9">
         <v>45958</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="10">
         <v>784537895</v>
       </c>
-      <c r="G102" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" s="15" t="s">
+      <c r="G102" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K102" s="14" t="s">
+      <c r="K102" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L102" s="14">
+      <c r="L102" s="10">
         <v>100</v>
       </c>
-      <c r="M102" s="16">
+      <c r="M102" s="12">
         <v>26000</v>
       </c>
-      <c r="N102" s="16">
+      <c r="N102" s="12">
         <v>2600000</v>
       </c>
-      <c r="O102" s="17" t="str">
+      <c r="O102" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P102" s="18" t="str">
+      <c r="P102" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
-      <c r="A103" s="13">
+      <c r="A103" s="9">
         <v>45958</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="10">
         <v>784362607</v>
       </c>
-      <c r="G103" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="15" t="s">
+      <c r="G103" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L103" s="14">
+      <c r="L103" s="10">
         <v>25</v>
       </c>
-      <c r="M103" s="16">
+      <c r="M103" s="12">
         <v>26000</v>
       </c>
-      <c r="N103" s="16">
+      <c r="N103" s="12">
         <v>650000</v>
       </c>
-      <c r="O103" s="17" t="str">
+      <c r="O103" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P103" s="18" t="str">
+      <c r="P103" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A104" s="13">
+      <c r="A104" s="9">
         <v>45958</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="10">
         <v>781142243</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H104" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" s="15" t="s">
+      <c r="H104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K104" s="14" t="s">
+      <c r="K104" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="10">
         <v>50</v>
       </c>
-      <c r="M104" s="16">
+      <c r="M104" s="12">
         <v>26000</v>
       </c>
-      <c r="N104" s="16">
+      <c r="N104" s="12">
         <v>1300000</v>
       </c>
-      <c r="O104" s="17" t="str">
+      <c r="O104" s="7" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P104" s="18" t="str">
+      <c r="P104" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A105" s="9">
+        <v>45960</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="10">
+        <v>781112351</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="10">
+        <v>25</v>
+      </c>
+      <c r="M105" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N105" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O105" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P105" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A106" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F106" s="10">
+        <v>777643068</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="10">
+        <v>25</v>
+      </c>
+      <c r="M106" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N106" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O106" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P106" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A107" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="10">
+        <v>775273147</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="10">
+        <v>2</v>
+      </c>
+      <c r="M107" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N107" s="12">
+        <v>52000</v>
+      </c>
+      <c r="O107" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P107" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A108" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="10">
+        <v>775273147</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L108" s="10">
+        <v>25</v>
+      </c>
+      <c r="M108" s="12">
+        <v>6000</v>
+      </c>
+      <c r="N108" s="12">
+        <v>150000</v>
+      </c>
+      <c r="O108" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P108" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="10">
+        <v>777096402</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="10">
+        <v>25</v>
+      </c>
+      <c r="M109" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N109" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O109" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P109" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" s="10">
+        <v>770706706</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="10">
+        <v>100</v>
+      </c>
+      <c r="M110" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N110" s="12">
+        <v>2600000</v>
+      </c>
+      <c r="O110" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P110" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A111" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" s="10">
+        <v>774249184</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="10">
+        <v>25</v>
+      </c>
+      <c r="M111" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N111" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O111" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P111" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A112" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F112" s="10">
+        <v>771040904</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" s="10">
+        <v>25</v>
+      </c>
+      <c r="M112" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N112" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O112" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P112" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="10">
+        <v>784426640</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" s="10">
+        <v>25</v>
+      </c>
+      <c r="M113" s="12">
+        <v>26000</v>
+      </c>
+      <c r="N113" s="12">
+        <v>650000</v>
+      </c>
+      <c r="O113" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P113" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A114" s="9">
+        <v>45961</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F114" s="10">
+        <v>779362821</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L114" s="10">
+        <v>25</v>
+      </c>
+      <c r="M114" s="12">
+        <v>9750</v>
+      </c>
+      <c r="N114" s="12">
+        <v>243750</v>
+      </c>
+      <c r="O114" s="7" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P114" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>

--- a/Donnees_RZ.xlsx
+++ b/Donnees_RZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Promoteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42055EA3-1EA9-4935-A146-D1541A5B7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AFE43-8EAF-42E1-8D71-D96CC994ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="19192" windowHeight="10800" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" tabRatio="470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -702,6 +702,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,8 +1319,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I98" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5595,1665 +5605,1665 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="9">
+      <c r="A83" s="13">
         <v>45957</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="14">
         <v>774419596</v>
       </c>
-      <c r="G83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="10" t="s">
+      <c r="G83" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="11" t="s">
+      <c r="I83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="14">
         <v>1</v>
       </c>
-      <c r="M83" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N83" s="12">
-        <v>10250</v>
-      </c>
-      <c r="O83" s="7" t="str">
+      <c r="M83" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N83" s="16">
+        <v>9750</v>
+      </c>
+      <c r="O83" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P83" t="str">
+      <c r="P83" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="9">
+      <c r="A84" s="13">
         <v>45957</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="14">
         <v>775538380</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="11" t="s">
+      <c r="G84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="14">
         <v>1</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M84" s="16">
         <v>11500</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="16">
         <v>11500</v>
       </c>
-      <c r="O84" s="7" t="str">
+      <c r="O84" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P84" t="str">
+      <c r="P84" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A85" s="9">
+      <c r="A85" s="13">
         <v>45957</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="14">
         <v>775538380</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="11" t="s">
+      <c r="G85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85" s="14">
         <v>1</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M85" s="16">
         <v>11500</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="16">
         <v>11500</v>
       </c>
-      <c r="O85" s="7" t="str">
+      <c r="O85" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P85" t="str">
+      <c r="P85" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="9">
+      <c r="A86" s="13">
         <v>45957</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="14">
         <v>775538380</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="11" t="s">
+      <c r="G86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="14">
         <v>1</v>
       </c>
-      <c r="M86" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N86" s="12">
-        <v>10250</v>
-      </c>
-      <c r="O86" s="7" t="str">
+      <c r="M86" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N86" s="16">
+        <v>9750</v>
+      </c>
+      <c r="O86" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P86" t="str">
+      <c r="P86" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="9">
+      <c r="A87" s="13">
         <v>45957</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="14">
         <v>773170826</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87" s="14">
         <v>1</v>
       </c>
-      <c r="M87" s="12">
-        <v>10250</v>
-      </c>
-      <c r="N87" s="12">
-        <v>10250</v>
-      </c>
-      <c r="O87" s="7" t="str">
+      <c r="M87" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N87" s="16">
+        <v>9750</v>
+      </c>
+      <c r="O87" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P87" t="str">
+      <c r="P87" s="18" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>octobre</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A88" s="9">
+      <c r="A88" s="13">
         <v>45957</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F88" s="14">
+        <v>776367168</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="14">
+        <v>25</v>
+      </c>
+      <c r="M88" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N88" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O88" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P88" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="14">
+        <v>772070286</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L89" s="14">
+        <v>2</v>
+      </c>
+      <c r="M89" s="16">
+        <v>11500</v>
+      </c>
+      <c r="N89" s="16">
+        <v>23000</v>
+      </c>
+      <c r="O89" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P89" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="14">
+        <v>771166914</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="14">
+        <v>1</v>
+      </c>
+      <c r="M90" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N90" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O90" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P90" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C91" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D91" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E91" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F91" s="14">
         <v>764924460</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="11" t="s">
+      <c r="G91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K91" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L91" s="14">
         <v>1</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M91" s="16">
         <v>26000</v>
       </c>
-      <c r="N88" s="12">
+      <c r="N91" s="16">
         <v>26000</v>
       </c>
-      <c r="O88" s="7" t="str">
+      <c r="O91" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P88" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A89" s="9">
+      <c r="P91" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" s="13">
         <v>45957</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B92" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C92" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D92" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E92" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F92" s="14">
         <v>764924460</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="11" t="s">
+      <c r="G92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K92" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L89" s="10">
+      <c r="L92" s="14">
         <v>1</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M92" s="16">
         <v>31000</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N92" s="16">
         <v>31000</v>
       </c>
-      <c r="O89" s="7" t="str">
+      <c r="O92" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P89" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A90" s="9">
+      <c r="P92" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="13">
         <v>45957</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B93" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C93" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D93" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E93" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F93" s="14">
         <v>764924460</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="11" t="s">
+      <c r="G93" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K93" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L93" s="14">
         <v>25</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M93" s="16">
         <v>11500</v>
       </c>
-      <c r="N90" s="12">
+      <c r="N93" s="16">
         <v>287500</v>
       </c>
-      <c r="O90" s="7" t="str">
+      <c r="O93" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P90" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A91" s="9">
+      <c r="P93" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="13">
         <v>45957</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B94" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C94" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D94" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E94" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F94" s="14">
         <v>775484487</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G94" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="11" t="s">
+      <c r="H94" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K94" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L91" s="10">
+      <c r="L94" s="14">
         <v>2</v>
       </c>
-      <c r="M91" s="12">
+      <c r="M94" s="16">
         <v>10000</v>
       </c>
-      <c r="N91" s="12">
+      <c r="N94" s="16">
         <v>20000</v>
       </c>
-      <c r="O91" s="7" t="str">
+      <c r="O94" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P91" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A92" s="9">
+      <c r="P94" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A95" s="13">
         <v>45957</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B95" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C95" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D95" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E95" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F95" s="14">
         <v>770217868</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="11" t="s">
+      <c r="G95" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K95" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="10">
+      <c r="L95" s="14">
         <v>50</v>
       </c>
-      <c r="M92" s="12">
+      <c r="M95" s="16">
         <v>26000</v>
       </c>
-      <c r="N92" s="12">
+      <c r="N95" s="16">
         <v>1300000</v>
       </c>
-      <c r="O92" s="7" t="str">
+      <c r="O95" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P92" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A93" s="9">
+      <c r="P95" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96" s="13">
         <v>45957</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B96" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="14">
+        <v>774993694</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="14">
+        <v>50</v>
+      </c>
+      <c r="M96" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N96" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O96" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P96" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A97" s="13">
+        <v>45957</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="14">
+        <v>774289051</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="14">
+        <v>50</v>
+      </c>
+      <c r="M97" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N97" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O97" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P97" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A98" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F98" s="14">
+        <v>768425044</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" s="14">
+        <v>25</v>
+      </c>
+      <c r="M98" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N98" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O98" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P98" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A99" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" s="14">
+        <v>25</v>
+      </c>
+      <c r="M99" s="16">
+        <v>9750</v>
+      </c>
+      <c r="N99" s="16">
+        <v>243750</v>
+      </c>
+      <c r="O99" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P99" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A100" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="14">
+        <v>784537895</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="14">
+        <v>100</v>
+      </c>
+      <c r="M100" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N100" s="16">
+        <v>2600000</v>
+      </c>
+      <c r="O100" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P100" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A101" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" s="14">
+        <v>778195274</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="14">
+        <v>50</v>
+      </c>
+      <c r="M101" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N101" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O101" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P101" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A102" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" s="14">
+        <v>772969670</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="14">
+        <v>25</v>
+      </c>
+      <c r="M102" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N102" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O102" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P102" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="28.15" x14ac:dyDescent="0.45">
+      <c r="A103" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="14">
+        <v>784362607</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="14">
+        <v>25</v>
+      </c>
+      <c r="M103" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N103" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O103" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P103" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A104" s="13">
+        <v>45958</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="14">
+        <v>781142243</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="14">
+        <v>50</v>
+      </c>
+      <c r="M104" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N104" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="O104" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P104" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A105" s="13">
+        <v>45960</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="14">
+        <v>781112351</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="14">
+        <v>25</v>
+      </c>
+      <c r="M105" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N105" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O105" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P105" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A106" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F106" s="14">
+        <v>777643068</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="14">
+        <v>25</v>
+      </c>
+      <c r="M106" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N106" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O106" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P106" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A107" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="14">
+        <v>775273147</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="14">
+        <v>2</v>
+      </c>
+      <c r="M107" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N107" s="16">
+        <v>52000</v>
+      </c>
+      <c r="O107" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P107" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="42" x14ac:dyDescent="0.45">
+      <c r="A108" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="14">
+        <v>775273147</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L108" s="14">
+        <v>25</v>
+      </c>
+      <c r="M108" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N108" s="16">
+        <v>150000</v>
+      </c>
+      <c r="O108" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P108" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C109" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F93" s="10">
-        <v>776367168</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="11" t="s">
+      <c r="D109" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="14">
+        <v>777096402</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K109" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L109" s="14">
         <v>25</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M109" s="16">
         <v>26000</v>
       </c>
-      <c r="N93" s="12">
+      <c r="N109" s="16">
         <v>650000</v>
       </c>
-      <c r="O93" s="7" t="str">
+      <c r="O109" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P93" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A94" s="9">
-        <v>45957</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="P109" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" s="14">
+        <v>770706706</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="14">
+        <v>100</v>
+      </c>
+      <c r="M110" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N110" s="16">
+        <v>2600000</v>
+      </c>
+      <c r="O110" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P110" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A111" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" s="14">
+        <v>774249184</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="14">
+        <v>25</v>
+      </c>
+      <c r="M111" s="16">
+        <v>26000</v>
+      </c>
+      <c r="N111" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O111" s="17" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S44</v>
+      </c>
+      <c r="P111" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A112" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C112" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F94" s="10">
-        <v>774993694</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K94" s="10" t="s">
+      <c r="D112" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F112" s="14">
+        <v>771040904</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K112" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L94" s="10">
-        <v>50</v>
-      </c>
-      <c r="M94" s="12">
+      <c r="L112" s="14">
+        <v>25</v>
+      </c>
+      <c r="M112" s="16">
         <v>26000</v>
       </c>
-      <c r="N94" s="12">
-        <v>1300000</v>
-      </c>
-      <c r="O94" s="7" t="str">
+      <c r="N112" s="16">
+        <v>650000</v>
+      </c>
+      <c r="O112" s="17" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S44</v>
       </c>
-      <c r="P94" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>octobre</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A95" s="9">
-        <v>45957</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F95" s="10">
-        <v>774289051</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="10" t="s">
+      <c r="P112" s="18" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>octobre</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="14">
+        <v>784426640</v>
+      </c>
+     